--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6B8450-09C0-485E-AC2C-E2B987E513D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C773112-43ED-4792-8D64-6E26D60CC57F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="306">
   <si>
     <t>Important notes</t>
   </si>
@@ -998,7 +998,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1017,6 +1017,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1114,7 +1120,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1161,6 +1167,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2181,7 +2188,7 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2226,6 +2233,7 @@
       <c r="E2" s="9" t="s">
         <v>298</v>
       </c>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A3" s="15"/>
@@ -2313,6 +2321,9 @@
       <c r="E7" s="8" t="s">
         <v>87</v>
       </c>
+      <c r="F7" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="8" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A8" s="15"/>
@@ -2328,6 +2339,9 @@
       <c r="E8" s="8" t="s">
         <v>87</v>
       </c>
+      <c r="F8" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="9" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A9" s="15"/>
@@ -2343,6 +2357,9 @@
       <c r="E9" s="8" t="s">
         <v>92</v>
       </c>
+      <c r="F9" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="10" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A10" s="15"/>
@@ -2358,6 +2375,9 @@
       <c r="E10" s="8" t="s">
         <v>87</v>
       </c>
+      <c r="F10" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="11" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A11" s="15"/>
@@ -2372,6 +2392,9 @@
       </c>
       <c r="E11" s="8" t="s">
         <v>87</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C773112-43ED-4792-8D64-6E26D60CC57F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E717438D-CDE6-4250-B06A-65BEF5B54F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="1434" windowWidth="18864" windowHeight="7524" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -1163,11 +1163,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1610,33 +1610,33 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="11" t="s">
@@ -1666,149 +1666,149 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="11"/>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="11"/>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A17" s="27" t="s">
+      <c r="A17" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A21" s="24" t="s">
+      <c r="A21" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="25"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B24" s="12" t="s">
@@ -2187,8 +2187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2197,7 +2197,7 @@
     <col min="2" max="2" width="45.796875" customWidth="1"/>
     <col min="3" max="3" width="7.84765625" customWidth="1"/>
     <col min="4" max="4" width="48.5" customWidth="1"/>
-    <col min="5" max="5" width="36.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.6">
@@ -2233,7 +2233,7 @@
       <c r="E2" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="F2" s="28"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A3" s="15"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E717438D-CDE6-4250-B06A-65BEF5B54F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AA350F-70B8-4C77-99B8-419DC2D305E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="1434" windowWidth="18864" windowHeight="7524" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="306">
   <si>
     <t>Important notes</t>
   </si>
@@ -2188,7 +2188,7 @@
   <dimension ref="A1:F125"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2418,6 +2418,7 @@
       <c r="E13" s="8" t="s">
         <v>159</v>
       </c>
+      <c r="F13" s="24"/>
     </row>
     <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A14" s="15"/>
@@ -2432,6 +2433,9 @@
       </c>
       <c r="E14" s="8" t="s">
         <v>72</v>
+      </c>
+      <c r="F14" s="23" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0AA350F-70B8-4C77-99B8-419DC2D305E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2076C9-BDC9-4176-8A58-F72D1650F116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="1434" windowWidth="18864" windowHeight="7524" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="306">
   <si>
     <t>Important notes</t>
   </si>
@@ -2418,7 +2418,9 @@
       <c r="E13" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="F13" s="24"/>
+      <c r="F13" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A14" s="15"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2076C9-BDC9-4176-8A58-F72D1650F116}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD87BA6F-89F1-4799-B74A-D3F8E5E5C424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,16 @@
     <sheet name="SQUARE_ONE" sheetId="5" r:id="rId3"/>
     <sheet name="10WEEK" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -28,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="307">
   <si>
     <t>Important notes</t>
   </si>
@@ -946,13 +954,16 @@
   </si>
   <si>
     <t>done</t>
+  </si>
+  <si>
+    <t>done 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -997,6 +1008,13 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1120,7 +1138,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1168,6 +1186,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1594,7 +1614,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A19" sqref="A19:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1860,10 +1880,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1875,7 +1895,7 @@
     <col min="5" max="5" width="50" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -1892,7 +1912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1908,8 +1928,11 @@
       <c r="E2" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F2" s="24" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1923,7 +1946,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -1937,7 +1960,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B5" t="s">
         <v>153</v>
       </c>
@@ -1951,7 +1974,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B6" t="s">
         <v>41</v>
       </c>
@@ -1965,7 +1988,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1979,7 +2002,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -1993,7 +2016,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -2007,88 +2030,101 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="C10">
+        <f>SUM(C2:C9)</f>
+        <v>11.25</v>
+      </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A11" s="6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A12" s="6">
         <v>2</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>4</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B12" s="10" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="B13" s="10" t="s">
         <v>49</v>
-      </c>
-      <c r="C12">
-        <v>2.5</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B13" s="10" t="s">
-        <v>50</v>
       </c>
       <c r="C13">
         <v>2.5</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B14" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C14">
         <v>2.5</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="B15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>2.5</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B15" s="10" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="B16" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C16" s="4">
         <v>0.25</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E16" s="8" t="s">
         <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.6">
+      <c r="C17">
+        <f>SUM(C12:C16)</f>
+        <v>11.75</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D14" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D13" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D12" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D11" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D15" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D13" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D12" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="D2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="D3" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
@@ -2097,7 +2133,7 @@
     <hyperlink ref="D9" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
     <hyperlink ref="D6" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="D5" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D15" r:id="rId13" location="/preassessment" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D16" r:id="rId13" location="/preassessment" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2185,10 +2221,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2399,42 +2435,33 @@
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A12" s="15"/>
+      <c r="C12" s="30">
+        <f>SUM(C2:C11)</f>
+        <v>11</v>
+      </c>
       <c r="D12" s="17"/>
       <c r="E12" s="18"/>
     </row>
     <row r="13" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A13" s="15">
+      <c r="A13" s="15"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="18"/>
+    </row>
+    <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A14" s="15">
         <v>2</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C13">
-        <v>0.5</v>
-      </c>
-      <c r="D13" s="1" t="s">
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A14" s="15"/>
-      <c r="B14" t="s">
-        <v>141</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>72</v>
       </c>
       <c r="F14" s="23" t="s">
         <v>305</v>
@@ -2449,10 +2476,13 @@
         <v>1</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>72</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -2461,13 +2491,16 @@
         <v>141</v>
       </c>
       <c r="C16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>72</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -2476,76 +2509,76 @@
         <v>141</v>
       </c>
       <c r="C17">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A18" s="15"/>
       <c r="B18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A19" s="15"/>
-      <c r="B19" s="10" t="s">
-        <v>291</v>
+      <c r="B19" t="s">
+        <v>140</v>
       </c>
       <c r="C19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>164</v>
+        <v>99</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>167</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="C20" s="16">
-        <v>1.5</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>305</v>
+      <c r="B20" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C20">
+        <v>0.5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A21" s="15"/>
-      <c r="B21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="C21" s="16">
         <v>1.5</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>97</v>
+      <c r="D21" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -2557,7 +2590,7 @@
         <v>1.5</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>97</v>
@@ -2565,531 +2598,518 @@
     </row>
     <row r="23" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A23" s="15"/>
-      <c r="B23" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="C23" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D23" s="17" t="s">
-        <v>202</v>
-      </c>
-      <c r="E23" s="20">
-        <v>4.3</v>
+      <c r="B23" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23">
+        <v>1.5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A24" s="15"/>
-      <c r="B24" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C24">
-        <v>0.25</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>168</v>
+      <c r="B24" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D24" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="E24" s="20">
+        <v>4.3</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A25" s="15"/>
+      <c r="B25" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="C25">
+        <v>0.25</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="26" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A26" s="15">
-        <v>3</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="C26">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>165</v>
+      <c r="A26" s="15"/>
+      <c r="C26" s="30">
+        <f>SUM(C14:C25)</f>
+        <v>11.25</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A27" s="15"/>
-      <c r="B27" t="s">
+    </row>
+    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A28" s="15">
+        <v>3</v>
+      </c>
+      <c r="B28" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A28" s="15"/>
-      <c r="B28" t="s">
-        <v>152</v>
-      </c>
       <c r="C28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>69</v>
+        <v>162</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>70</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A29" s="15"/>
       <c r="B29" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="C29">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A30" s="15"/>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C30">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A31" s="15"/>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="C31">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A32" s="15"/>
-      <c r="B32" s="10" t="s">
-        <v>207</v>
+      <c r="B32" t="s">
+        <v>139</v>
       </c>
       <c r="C32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>161</v>
+        <v>89</v>
       </c>
       <c r="E32" s="8" t="s">
-        <v>166</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A33" s="15"/>
       <c r="B33" t="s">
-        <v>209</v>
+        <v>139</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A34" s="15"/>
-      <c r="B34" t="s">
+      <c r="B34" s="10" t="s">
         <v>207</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A35" s="15"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="18"/>
+      <c r="B35" t="s">
+        <v>209</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="36" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="15">
-        <v>4</v>
-      </c>
-      <c r="B36" s="10" t="s">
-        <v>175</v>
+      <c r="A36" s="15"/>
+      <c r="B36" t="s">
+        <v>207</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="E36" s="8" t="s">
-        <v>180</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A37" s="15"/>
-      <c r="B37" t="s">
-        <v>243</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>228</v>
-      </c>
+      <c r="B37"/>
+      <c r="C37" s="29">
+        <f>SUM(C28:C36)</f>
+        <v>11.25</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A38" s="15"/>
-      <c r="B38" s="16" t="s">
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="15">
+        <v>4</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C39">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="15"/>
+      <c r="B40" t="s">
+        <v>243</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="15"/>
+      <c r="B41" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="C38">
-        <v>0.5</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C41">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E41" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="15"/>
-      <c r="B39" s="16" t="s">
+    <row r="42" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="15"/>
+      <c r="B42" s="16" t="s">
         <v>229</v>
-      </c>
-      <c r="C39">
-        <v>0.25</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B40" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40">
-        <v>0.25</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B41" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41">
-        <v>0.5</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B42" t="s">
-        <v>147</v>
       </c>
       <c r="C42">
         <v>0.25</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>104</v>
+        <v>227</v>
       </c>
       <c r="E42" s="8" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B43" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C43">
         <v>0.25</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="E43" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B44" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45">
+        <v>0.25</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B44" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="C44" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B45" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C45" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C46">
+        <v>0.25</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B47" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C46" s="4">
+      <c r="C47" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B48" s="19" t="s">
+        <v>214</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B49" t="s">
+        <v>178</v>
+      </c>
+      <c r="C49" s="4">
         <v>1</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B47" s="16" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B50" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C47" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D47" s="17" t="s">
+      <c r="C50" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="18" t="s">
+      <c r="E50" s="18" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A48" s="15"/>
-      <c r="B48" t="s">
-        <v>178</v>
-      </c>
-      <c r="C48">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A49" s="15"/>
-      <c r="B49" t="s">
-        <v>217</v>
-      </c>
-      <c r="C49">
-        <v>0.1</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A50" s="15"/>
-      <c r="B50" t="s">
-        <v>217</v>
-      </c>
-      <c r="C50">
-        <v>0.1</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="51" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A51" s="15"/>
-      <c r="B51" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C51" s="19">
+      <c r="B51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51">
         <v>0.5</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>177</v>
+        <v>222</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A52" s="15"/>
-      <c r="B52" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C52" s="19">
-        <v>0.25</v>
+      <c r="B52" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52">
+        <v>0.1</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>107</v>
+        <v>219</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A53" s="15"/>
-      <c r="B53" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="C53" s="19">
-        <v>0.25</v>
+      <c r="B53" t="s">
+        <v>217</v>
+      </c>
+      <c r="C53">
+        <v>0.1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>107</v>
+        <v>220</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A54" s="15"/>
-      <c r="B54" t="s">
-        <v>146</v>
-      </c>
-      <c r="C54">
+      <c r="B54" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C54" s="19">
         <v>0.5</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>107</v>
+        <v>172</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A55" s="15"/>
-      <c r="B55" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55">
-        <v>0.5</v>
+      <c r="B55" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" s="19">
+        <v>0.25</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E55" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A56" s="15"/>
-      <c r="B56" t="s">
-        <v>146</v>
-      </c>
-      <c r="C56">
-        <v>0.5</v>
+      <c r="B56" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C56" s="19">
+        <v>0.25</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E56" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E56" s="18" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A57" s="15"/>
       <c r="B57" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C57">
         <v>0.5</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>211</v>
+        <v>105</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A58" s="15"/>
       <c r="B58" t="s">
-        <v>154</v>
-      </c>
-      <c r="C58" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>102</v>
+        <v>146</v>
+      </c>
+      <c r="C58">
+        <v>0.5</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A59" s="15"/>
       <c r="B59" t="s">
-        <v>154</v>
-      </c>
-      <c r="C59" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D59" s="17" t="s">
-        <v>225</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>102</v>
+        <v>146</v>
+      </c>
+      <c r="C59">
+        <v>0.5</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -3101,7 +3121,7 @@
         <v>0.5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>102</v>
@@ -3109,1001 +3129,1104 @@
     </row>
     <row r="61" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A61" s="15"/>
+      <c r="B61" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="D61" s="17" t="s">
+        <v>224</v>
+      </c>
+      <c r="E61" s="18" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="62" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A62" s="15">
-        <v>5</v>
-      </c>
-      <c r="B62" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="C62" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>173</v>
+      <c r="A62" s="15"/>
+      <c r="B62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="17" t="s">
+        <v>225</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>179</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A63" s="15"/>
       <c r="B63" t="s">
-        <v>231</v>
+        <v>154</v>
       </c>
       <c r="C63">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A64" s="15"/>
-      <c r="B64" t="s">
-        <v>145</v>
-      </c>
-      <c r="C64">
-        <v>0.5</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="E64" s="8" t="s">
-        <v>103</v>
-      </c>
+      <c r="B64"/>
+      <c r="C64" s="29">
+        <f>SUM(C39:C63)</f>
+        <v>10.95</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A65" s="15"/>
-      <c r="B65" t="s">
-        <v>145</v>
-      </c>
-      <c r="C65">
-        <v>0.5</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>103</v>
-      </c>
     </row>
     <row r="66" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A66" s="15"/>
-      <c r="B66" t="s">
-        <v>145</v>
-      </c>
-      <c r="C66">
+      <c r="A66" s="15">
+        <v>5</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C66" s="19">
         <v>0.5</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.6">
+        <v>173</v>
+      </c>
+      <c r="E66" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A67" s="15"/>
       <c r="B67" t="s">
-        <v>137</v>
+        <v>231</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="E67" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A68" s="15"/>
       <c r="B68" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C68">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="E68" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A69" s="15"/>
       <c r="B69" t="s">
-        <v>206</v>
+        <v>145</v>
       </c>
       <c r="C69">
         <v>0.5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A70" s="15"/>
       <c r="B70" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C70">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A71" s="15"/>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B71" t="s">
         <v>137</v>
       </c>
       <c r="C71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>118</v>
+        <v>77</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A72" s="15"/>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B72" t="s">
         <v>137</v>
       </c>
       <c r="C72">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A73" s="15"/>
-      <c r="B73" s="18" t="s">
-        <v>289</v>
-      </c>
-      <c r="C73" s="16">
-        <v>4</v>
-      </c>
-      <c r="D73" t="s">
-        <v>285</v>
-      </c>
-      <c r="E73" s="18" t="s">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B73" t="s">
+        <v>206</v>
+      </c>
+      <c r="C73">
+        <v>0.5</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E73" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B74" t="s">
+        <v>137</v>
+      </c>
+      <c r="C74">
+        <v>0.25</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E74" s="8" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B74" s="21" t="s">
-        <v>300</v>
-      </c>
-      <c r="C74" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="75" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A75" s="15"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="18"/>
+      <c r="B75" t="s">
+        <v>137</v>
+      </c>
+      <c r="C75">
+        <v>0.5</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="76" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A76" s="6">
-        <v>6</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="C76" s="19">
+      <c r="A76" s="15"/>
+      <c r="B76" t="s">
+        <v>137</v>
+      </c>
+      <c r="C76">
         <v>0.5</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>237</v>
+        <v>119</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A77" s="15"/>
-      <c r="B77" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C77" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="D77" s="17" t="s">
-        <v>241</v>
+      <c r="B77" s="18" t="s">
+        <v>289</v>
+      </c>
+      <c r="C77" s="16">
+        <v>4</v>
+      </c>
+      <c r="D77" t="s">
+        <v>285</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A78" s="15"/>
-      <c r="B78" s="16" t="s">
-        <v>233</v>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B78" s="21" t="s">
+        <v>300</v>
       </c>
       <c r="C78" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D78" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="E78" s="18" t="s">
-        <v>232</v>
+        <v>0.25</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A79" s="15"/>
-      <c r="B79" t="s">
-        <v>149</v>
-      </c>
-      <c r="C79">
-        <v>0.5</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="C79" s="30">
+        <f>SUM(C66:C78)</f>
+        <v>10.75</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="18"/>
     </row>
     <row r="80" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A80" s="15"/>
-      <c r="B80" t="s">
-        <v>149</v>
-      </c>
-      <c r="C80">
-        <v>0.25</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>136</v>
-      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="18"/>
     </row>
     <row r="81" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A81" s="15"/>
-      <c r="B81" t="s">
-        <v>149</v>
-      </c>
-      <c r="C81">
-        <v>0.25</v>
+      <c r="A81" s="6">
+        <v>6</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="C81" s="19">
+        <v>0.5</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E81" s="8" t="s">
-        <v>136</v>
+        <v>174</v>
+      </c>
+      <c r="E81" s="18" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A82" s="15"/>
-      <c r="B82" t="s">
-        <v>149</v>
-      </c>
-      <c r="C82">
-        <v>0.5</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E82" s="8" t="s">
-        <v>112</v>
+      <c r="B82" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C82" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="D82" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E82" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A83" s="15"/>
       <c r="B83" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C83" s="16">
-        <v>0.75</v>
+        <v>233</v>
+      </c>
+      <c r="C83" s="19">
+        <v>0.5</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A84" s="15"/>
-      <c r="B84" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C84" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>240</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>238</v>
+      <c r="B84" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84">
+        <v>0.5</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A85" s="15"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="18"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A86" s="6">
+      <c r="B85" t="s">
+        <v>149</v>
+      </c>
+      <c r="C85">
+        <v>0.25</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A86" s="15"/>
+      <c r="B86" t="s">
+        <v>149</v>
+      </c>
+      <c r="C86">
+        <v>0.25</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E86" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A87" s="15"/>
+      <c r="B87" t="s">
+        <v>149</v>
+      </c>
+      <c r="C87">
+        <v>0.5</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E87" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A88" s="15"/>
+      <c r="B88" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C88" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="E88" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A89" s="15"/>
+      <c r="B89" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C89" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E89" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A90" s="15"/>
+      <c r="C90" s="30">
+        <f>SUM(C81:C89)</f>
+        <v>5.25</v>
+      </c>
+      <c r="D90" s="17"/>
+      <c r="E90" s="18"/>
+    </row>
+    <row r="91" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A91" s="15"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="18"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A92" s="6">
         <v>7</v>
       </c>
-      <c r="B86" s="10" t="s">
+      <c r="B92" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C86" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D86" s="1" t="s">
+      <c r="C92" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D92" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E86" s="18" t="s">
+      <c r="E92" s="18" t="s">
         <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B87" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C87" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E87" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B88" t="s">
-        <v>247</v>
-      </c>
-      <c r="C88">
-        <v>0.5</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E88" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B89" t="s">
-        <v>247</v>
-      </c>
-      <c r="C89">
-        <v>0.5</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E89" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B90" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="C90">
-        <v>3.5</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="E90" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B91" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="C91" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="E91" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B92" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C92" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D92" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E92" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B93" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C93">
-        <v>0.25</v>
+        <v>247</v>
+      </c>
+      <c r="C93" s="16">
+        <v>0.5</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="E93" s="8" t="s">
-        <v>251</v>
+        <v>246</v>
+      </c>
+      <c r="E93" s="18" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B94" s="16" t="s">
-        <v>249</v>
+      <c r="B94" t="s">
+        <v>247</v>
       </c>
       <c r="C94">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>252</v>
+        <v>123</v>
       </c>
       <c r="E94" s="8" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B95" s="16" t="s">
-        <v>249</v>
+      <c r="B95" t="s">
+        <v>247</v>
       </c>
       <c r="C95">
         <v>0.5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>251</v>
+        <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B96" s="10" t="s">
-        <v>84</v>
+        <v>292</v>
       </c>
       <c r="C96">
         <v>3.5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>82</v>
+        <v>245</v>
       </c>
       <c r="E96" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B97" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C97" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B98" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C98" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="E98" s="8" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A98" s="6">
-        <v>8</v>
-      </c>
-      <c r="B98" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="C98" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E98" s="18" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B99" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B100" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B101" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C101">
+        <v>0.5</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B102" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102">
+        <v>3.5</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B103" s="16"/>
+      <c r="C103" s="29">
+        <f>SUM(C92:C102)</f>
+        <v>11.75</v>
+      </c>
+      <c r="D103" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A105" s="6">
+        <v>8</v>
+      </c>
+      <c r="B105" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C105" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E105" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B106" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C99" s="16">
+      <c r="C106" s="16">
         <v>1.5</v>
       </c>
-      <c r="D99" s="17" t="s">
+      <c r="D106" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="E99" s="18" t="s">
+      <c r="E106" s="18" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B100" s="22" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B107" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C100">
+      <c r="C107">
         <v>1.5</v>
       </c>
-      <c r="D100" s="1" t="s">
+      <c r="D107" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="E107" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B101" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B108" t="s">
         <v>142</v>
       </c>
-      <c r="C101">
+      <c r="C108">
         <v>1</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E108" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B102" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B109" t="s">
         <v>142</v>
       </c>
-      <c r="C102">
+      <c r="C109">
         <v>0.75</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E109" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B103" t="s">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B110" t="s">
         <v>142</v>
       </c>
-      <c r="C103">
-        <v>0.5</v>
-      </c>
-      <c r="D103" s="1" t="s">
+      <c r="C110">
+        <v>0.5</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E110" s="8" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B104" t="s">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B111" t="s">
         <v>155</v>
       </c>
-      <c r="C104">
-        <v>0.5</v>
-      </c>
-      <c r="D104" s="1" t="s">
+      <c r="C111">
+        <v>0.5</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="E111" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B105" s="10" t="s">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B112" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C105" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="C112" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E112" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B106" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B113" t="s">
         <v>150</v>
       </c>
-      <c r="C106">
+      <c r="C113">
         <v>0.3</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="E106" s="8" t="s">
+      <c r="E113" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="107" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A107" s="15"/>
-      <c r="B107" t="s">
+    <row r="114" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A114" s="15"/>
+      <c r="B114" t="s">
         <v>150</v>
       </c>
-      <c r="C107">
+      <c r="C114">
         <v>0.3</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D114" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="E114" s="8" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="108" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A108" s="15"/>
-      <c r="B108" t="s">
+    <row r="115" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A115" s="15"/>
+      <c r="B115" t="s">
         <v>150</v>
       </c>
-      <c r="C108">
+      <c r="C115">
         <v>0.4</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D115" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="E115" s="8" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="109" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A109" s="15"/>
-      <c r="B109" s="16" t="s">
+    <row r="116" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A116" s="15"/>
+      <c r="B116" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="C109" s="16">
+      <c r="C116" s="16">
         <v>1</v>
       </c>
-      <c r="D109" s="17" t="s">
+      <c r="D116" s="17" t="s">
         <v>267</v>
       </c>
-      <c r="E109" s="18" t="s">
+      <c r="E116" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="110" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A110" s="15"/>
-      <c r="B110" s="10" t="s">
+    <row r="117" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A117" s="15"/>
+      <c r="B117" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C110" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D110" s="1" t="s">
+      <c r="C117" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D117" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="E110" s="18" t="s">
+      <c r="E117" s="18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="111" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A111" s="15"/>
-      <c r="B111" s="16" t="s">
+    <row r="118" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A118" s="15"/>
+      <c r="B118" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="C111" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D111" s="17" t="s">
+      <c r="C118" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D118" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="E111" s="18" t="s">
+      <c r="E118" s="18" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="112" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A112" s="15"/>
-      <c r="B112" s="10" t="s">
+    <row r="119" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A119" s="15"/>
+      <c r="B119" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="C112" s="16">
+      <c r="C119" s="16">
         <v>0.75</v>
       </c>
-      <c r="D112" s="17" t="s">
+      <c r="D119" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E119" s="18" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A113" s="15"/>
-      <c r="D113" s="17"/>
-      <c r="E113" s="18"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A114" s="6">
+    <row r="120" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A120" s="15"/>
+      <c r="C120" s="30">
+        <f>SUM(C105:C119)</f>
+        <v>10.5</v>
+      </c>
+      <c r="D120" s="17"/>
+      <c r="E120" s="18"/>
+    </row>
+    <row r="121" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A121" s="15"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="18"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A122" s="6">
         <v>9</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B122" t="s">
         <v>268</v>
       </c>
-      <c r="C114" s="16">
+      <c r="C122" s="16">
         <v>2</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D122" t="s">
         <v>284</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="E122" s="8" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B115" t="s">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B123" t="s">
         <v>272</v>
       </c>
-      <c r="C115" s="16">
+      <c r="C123" s="16">
         <v>2</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D123" t="s">
         <v>288</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E123" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B116" t="s">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B124" t="s">
         <v>273</v>
       </c>
-      <c r="C116" s="16">
+      <c r="C124" s="16">
         <v>2</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D124" t="s">
         <v>285</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="E124" s="8" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B117" t="s">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B125" t="s">
         <v>269</v>
       </c>
-      <c r="C117" s="16">
+      <c r="C125" s="16">
         <v>2</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D125" t="s">
         <v>286</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="E125" s="8" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B118" t="s">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B126" t="s">
         <v>270</v>
       </c>
-      <c r="C118" s="16">
+      <c r="C126" s="16">
         <v>2</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D126" t="s">
         <v>287</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="E126" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A120" s="6">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B127" s="29"/>
+      <c r="C127" s="30">
+        <f>SUM(C122:C126)</f>
         <v>10</v>
       </c>
-      <c r="B120" s="16" t="s">
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A129" s="6">
+        <v>10</v>
+      </c>
+      <c r="B129" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C120">
+      <c r="C129">
         <v>2</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="D129" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E129" s="8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B121" s="10" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B130" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C121">
+      <c r="C130">
         <v>2.5</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="E130" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B122" s="10" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B131" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C122">
+      <c r="C131">
         <v>2.5</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E131" s="8" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B123" s="10" t="s">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B132" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C123">
+      <c r="C132">
         <v>2.5</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E123" s="8" t="s">
+      <c r="E132" s="8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B124" s="21" t="s">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B133" s="21" t="s">
         <v>299</v>
       </c>
-      <c r="C124" s="19">
+      <c r="C133" s="19">
         <v>0.25</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="D133" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="E133" s="9" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B125" s="21" t="s">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B134" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C125" s="19">
+      <c r="C134" s="19">
         <v>0.1</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E125" s="8" t="s">
+      <c r="E134" s="8" t="s">
         <v>303</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="C135" s="29">
+        <f>SUM(C129:C134)</f>
+        <v>9.85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D33" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink ref="D28" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
-    <hyperlink ref="D14" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="D101" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="D102" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
-    <hyperlink ref="D27" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="D67" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
-    <hyperlink ref="D15" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
-    <hyperlink ref="D16" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
-    <hyperlink ref="D22" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="D96" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="D35" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D30" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="D15" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="D108" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D109" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="D29" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="D71" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="D16" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="D17" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="D23" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
+    <hyperlink ref="D102" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
     <hyperlink ref="D4" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
     <hyperlink ref="D5" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
     <hyperlink ref="D8" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="D30" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="D32" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
     <hyperlink ref="D9" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
     <hyperlink ref="D10" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
-    <hyperlink ref="D17" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
-    <hyperlink ref="D21" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="D31" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
-    <hyperlink ref="D18" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="D68" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="D42" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
-    <hyperlink ref="D54" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
-    <hyperlink ref="D40" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
-    <hyperlink ref="D103" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
-    <hyperlink ref="D82" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
-    <hyperlink ref="D60" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
-    <hyperlink ref="D55" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
-    <hyperlink ref="D56" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
-    <hyperlink ref="D70" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
-    <hyperlink ref="D71" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
-    <hyperlink ref="D72" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
-    <hyperlink ref="D43" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
-    <hyperlink ref="D41" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
-    <hyperlink ref="D48" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
-    <hyperlink ref="D88" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
-    <hyperlink ref="D69" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
-    <hyperlink ref="D64" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
-    <hyperlink ref="D65" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
-    <hyperlink ref="D66" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
-    <hyperlink ref="D108" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
-    <hyperlink ref="D34" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
-    <hyperlink ref="D80" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
-    <hyperlink ref="D81" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
-    <hyperlink ref="D104" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="D18" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
+    <hyperlink ref="D22" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
+    <hyperlink ref="D33" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="D19" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
+    <hyperlink ref="D72" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="D45" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="D57" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="D43" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="D110" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="D87" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="D63" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="D58" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="D59" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="D74" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="D75" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="D76" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="D46" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="D44" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="D51" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="D94" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="D73" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="D68" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="D69" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="D70" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="D115" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="D36" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="D85" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="D86" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
+    <hyperlink ref="D111" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
     <hyperlink ref="D3" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
-    <hyperlink ref="D44" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
-    <hyperlink ref="D51" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
-    <hyperlink ref="D62" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
-    <hyperlink ref="D86" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
-    <hyperlink ref="D91" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
-    <hyperlink ref="D98" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
-    <hyperlink ref="D105" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
-    <hyperlink ref="D110" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
+    <hyperlink ref="D47" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
+    <hyperlink ref="D54" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="D66" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
+    <hyperlink ref="D92" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="D97" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="D105" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
+    <hyperlink ref="D112" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
+    <hyperlink ref="D117" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
     <hyperlink ref="D6" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
-    <hyperlink ref="D19" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
-    <hyperlink ref="D13" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
-    <hyperlink ref="D20" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
-    <hyperlink ref="D23" r:id="rId60" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
+    <hyperlink ref="D20" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
+    <hyperlink ref="D14" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
+    <hyperlink ref="D21" r:id="rId59" xr:uid="{00000000-0004-0000-0300-00003A000000}"/>
+    <hyperlink ref="D24" r:id="rId60" xr:uid="{00000000-0004-0000-0300-00003B000000}"/>
     <hyperlink ref="D7" r:id="rId61" xr:uid="{00000000-0004-0000-0300-00003C000000}"/>
     <hyperlink ref="D11" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
-    <hyperlink ref="D24" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
-    <hyperlink ref="D26" r:id="rId64" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
-    <hyperlink ref="D32" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
-    <hyperlink ref="D29" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
-    <hyperlink ref="D46" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
-    <hyperlink ref="D57" r:id="rId68" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
-    <hyperlink ref="D52" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
-    <hyperlink ref="D53" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
-    <hyperlink ref="D45" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
-    <hyperlink ref="D49" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
-    <hyperlink ref="D50" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
-    <hyperlink ref="D47" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
-    <hyperlink ref="D58" r:id="rId75" xr:uid="{00000000-0004-0000-0300-00004A000000}"/>
-    <hyperlink ref="D59" r:id="rId76" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
-    <hyperlink ref="D38" r:id="rId77" xr:uid="{00000000-0004-0000-0300-00004C000000}"/>
-    <hyperlink ref="D39" r:id="rId78" xr:uid="{00000000-0004-0000-0300-00004D000000}"/>
-    <hyperlink ref="D76" r:id="rId79" xr:uid="{00000000-0004-0000-0300-00004E000000}"/>
-    <hyperlink ref="D63" r:id="rId80" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
-    <hyperlink ref="D77" r:id="rId81" xr:uid="{00000000-0004-0000-0300-000050000000}"/>
-    <hyperlink ref="D78" r:id="rId82" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
-    <hyperlink ref="D79" r:id="rId83" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
-    <hyperlink ref="D83" r:id="rId84" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
-    <hyperlink ref="D84" r:id="rId85" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
-    <hyperlink ref="D37" r:id="rId86" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
-    <hyperlink ref="D100" r:id="rId87" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
-    <hyperlink ref="D90" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
-    <hyperlink ref="D87" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
-    <hyperlink ref="D92" r:id="rId90" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
-    <hyperlink ref="D93" r:id="rId91" xr:uid="{00000000-0004-0000-0300-00005A000000}"/>
-    <hyperlink ref="D94" r:id="rId92" xr:uid="{00000000-0004-0000-0300-00005B000000}"/>
-    <hyperlink ref="D95" r:id="rId93" xr:uid="{00000000-0004-0000-0300-00005C000000}"/>
-    <hyperlink ref="D111" r:id="rId94" xr:uid="{00000000-0004-0000-0300-00005D000000}"/>
-    <hyperlink ref="D99" r:id="rId95" xr:uid="{00000000-0004-0000-0300-00005E000000}"/>
-    <hyperlink ref="D112" r:id="rId96" xr:uid="{00000000-0004-0000-0300-00005F000000}"/>
-    <hyperlink ref="D106" r:id="rId97" xr:uid="{00000000-0004-0000-0300-000060000000}"/>
-    <hyperlink ref="D107" r:id="rId98" xr:uid="{00000000-0004-0000-0300-000061000000}"/>
-    <hyperlink ref="D89" r:id="rId99" xr:uid="{00000000-0004-0000-0300-000062000000}"/>
-    <hyperlink ref="D109" r:id="rId100" xr:uid="{00000000-0004-0000-0300-000063000000}"/>
-    <hyperlink ref="D120" r:id="rId101" xr:uid="{00000000-0004-0000-0300-000064000000}"/>
-    <hyperlink ref="D121" r:id="rId102" xr:uid="{00000000-0004-0000-0300-000065000000}"/>
-    <hyperlink ref="D123" r:id="rId103" xr:uid="{00000000-0004-0000-0300-000066000000}"/>
-    <hyperlink ref="D122" r:id="rId104" xr:uid="{00000000-0004-0000-0300-000067000000}"/>
-    <hyperlink ref="D36" r:id="rId105" xr:uid="{00000000-0004-0000-0300-000068000000}"/>
+    <hyperlink ref="D25" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
+    <hyperlink ref="D28" r:id="rId64" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
+    <hyperlink ref="D34" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
+    <hyperlink ref="D31" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
+    <hyperlink ref="D49" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
+    <hyperlink ref="D60" r:id="rId68" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
+    <hyperlink ref="D55" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
+    <hyperlink ref="D56" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
+    <hyperlink ref="D48" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
+    <hyperlink ref="D52" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
+    <hyperlink ref="D53" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
+    <hyperlink ref="D50" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
+    <hyperlink ref="D61" r:id="rId75" xr:uid="{00000000-0004-0000-0300-00004A000000}"/>
+    <hyperlink ref="D62" r:id="rId76" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
+    <hyperlink ref="D41" r:id="rId77" xr:uid="{00000000-0004-0000-0300-00004C000000}"/>
+    <hyperlink ref="D42" r:id="rId78" xr:uid="{00000000-0004-0000-0300-00004D000000}"/>
+    <hyperlink ref="D81" r:id="rId79" xr:uid="{00000000-0004-0000-0300-00004E000000}"/>
+    <hyperlink ref="D67" r:id="rId80" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
+    <hyperlink ref="D82" r:id="rId81" xr:uid="{00000000-0004-0000-0300-000050000000}"/>
+    <hyperlink ref="D83" r:id="rId82" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
+    <hyperlink ref="D84" r:id="rId83" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
+    <hyperlink ref="D88" r:id="rId84" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
+    <hyperlink ref="D89" r:id="rId85" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
+    <hyperlink ref="D40" r:id="rId86" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
+    <hyperlink ref="D107" r:id="rId87" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
+    <hyperlink ref="D96" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
+    <hyperlink ref="D93" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
+    <hyperlink ref="D98" r:id="rId90" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
+    <hyperlink ref="D99" r:id="rId91" xr:uid="{00000000-0004-0000-0300-00005A000000}"/>
+    <hyperlink ref="D100" r:id="rId92" xr:uid="{00000000-0004-0000-0300-00005B000000}"/>
+    <hyperlink ref="D101" r:id="rId93" xr:uid="{00000000-0004-0000-0300-00005C000000}"/>
+    <hyperlink ref="D118" r:id="rId94" xr:uid="{00000000-0004-0000-0300-00005D000000}"/>
+    <hyperlink ref="D106" r:id="rId95" xr:uid="{00000000-0004-0000-0300-00005E000000}"/>
+    <hyperlink ref="D119" r:id="rId96" xr:uid="{00000000-0004-0000-0300-00005F000000}"/>
+    <hyperlink ref="D113" r:id="rId97" xr:uid="{00000000-0004-0000-0300-000060000000}"/>
+    <hyperlink ref="D114" r:id="rId98" xr:uid="{00000000-0004-0000-0300-000061000000}"/>
+    <hyperlink ref="D95" r:id="rId99" xr:uid="{00000000-0004-0000-0300-000062000000}"/>
+    <hyperlink ref="D116" r:id="rId100" xr:uid="{00000000-0004-0000-0300-000063000000}"/>
+    <hyperlink ref="D129" r:id="rId101" xr:uid="{00000000-0004-0000-0300-000064000000}"/>
+    <hyperlink ref="D130" r:id="rId102" xr:uid="{00000000-0004-0000-0300-000065000000}"/>
+    <hyperlink ref="D132" r:id="rId103" xr:uid="{00000000-0004-0000-0300-000066000000}"/>
+    <hyperlink ref="D131" r:id="rId104" xr:uid="{00000000-0004-0000-0300-000067000000}"/>
+    <hyperlink ref="D39" r:id="rId105" xr:uid="{00000000-0004-0000-0300-000068000000}"/>
     <hyperlink ref="D2" r:id="rId106" location="/preassessment" xr:uid="{00000000-0004-0000-0300-000069000000}"/>
-    <hyperlink ref="D74" r:id="rId107" location="/preassessment" xr:uid="{00000000-0004-0000-0300-00006A000000}"/>
-    <hyperlink ref="D124" r:id="rId108" location="/preassessment" xr:uid="{00000000-0004-0000-0300-00006B000000}"/>
-    <hyperlink ref="D125" r:id="rId109" xr:uid="{00000000-0004-0000-0300-00006C000000}"/>
+    <hyperlink ref="D78" r:id="rId107" location="/preassessment" xr:uid="{00000000-0004-0000-0300-00006A000000}"/>
+    <hyperlink ref="D133" r:id="rId108" location="/preassessment" xr:uid="{00000000-0004-0000-0300-00006B000000}"/>
+    <hyperlink ref="D134" r:id="rId109" xr:uid="{00000000-0004-0000-0300-00006C000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId110"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD87BA6F-89F1-4799-B74A-D3F8E5E5C424}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C435639-84AC-4470-BFEF-24478E00119E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="307">
   <si>
     <t>Important notes</t>
   </si>
@@ -956,7 +956,7 @@
     <t>done</t>
   </si>
   <si>
-    <t>done 2</t>
+    <t>updated course</t>
   </si>
 </sst>
 </file>
@@ -1182,12 +1182,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1630,33 +1630,33 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="11" t="s">
@@ -1686,149 +1686,149 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="11"/>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="11"/>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="27" t="s">
+      <c r="C12" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="30" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="27"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A21" s="25" t="s">
+      <c r="A21" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="27"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B24" s="12" t="s">
@@ -1880,22 +1880,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
   <cols>
-    <col min="1" max="1" width="8.34765625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="51.34765625" customWidth="1"/>
+    <col min="1" max="1" width="6.546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="34.19921875" customWidth="1"/>
     <col min="3" max="3" width="7.84765625" customWidth="1"/>
-    <col min="4" max="4" width="48.5" customWidth="1"/>
-    <col min="5" max="5" width="50" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.84765625" customWidth="1"/>
+    <col min="5" max="5" width="45.69921875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A1" s="6" t="s">
         <v>10</v>
       </c>
@@ -1912,7 +1912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1928,11 +1928,11 @@
       <c r="E2" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="24" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="F2" s="23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1945,8 +1945,14 @@
       <c r="E3" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="F3" s="23" t="s">
+        <v>305</v>
+      </c>
+      <c r="G3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B5" t="s">
         <v>153</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B6" t="s">
         <v>41</v>
       </c>
@@ -1988,7 +1994,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -2002,7 +2008,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -2016,7 +2022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B9" t="s">
         <v>17</v>
       </c>
@@ -2030,17 +2036,17 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="C10">
         <f>SUM(C2:C9)</f>
         <v>11.25</v>
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
       <c r="A12" s="6">
         <v>2</v>
       </c>
@@ -2057,7 +2063,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B13" s="10" t="s">
         <v>49</v>
       </c>
@@ -2071,7 +2077,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B14" s="10" t="s">
         <v>50</v>
       </c>
@@ -2085,7 +2091,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B15" s="10" t="s">
         <v>51</v>
       </c>
@@ -2099,7 +2105,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B16" s="10" t="s">
         <v>295</v>
       </c>
@@ -2223,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2435,7 +2441,7 @@
     </row>
     <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A12" s="15"/>
-      <c r="C12" s="30">
+      <c r="C12" s="26">
         <f>SUM(C2:C11)</f>
         <v>11</v>
       </c>
@@ -2643,7 +2649,7 @@
     </row>
     <row r="26" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A26" s="15"/>
-      <c r="C26" s="30">
+      <c r="C26" s="26">
         <f>SUM(C14:C25)</f>
         <v>11.25</v>
       </c>
@@ -2791,7 +2797,7 @@
     <row r="37" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A37" s="15"/>
       <c r="B37"/>
-      <c r="C37" s="29">
+      <c r="C37" s="25">
         <f>SUM(C28:C36)</f>
         <v>11.25</v>
       </c>
@@ -3175,7 +3181,7 @@
     <row r="64" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A64" s="15"/>
       <c r="B64"/>
-      <c r="C64" s="29">
+      <c r="C64" s="25">
         <f>SUM(C39:C63)</f>
         <v>10.95</v>
       </c>
@@ -3379,7 +3385,7 @@
     </row>
     <row r="79" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A79" s="15"/>
-      <c r="C79" s="30">
+      <c r="C79" s="26">
         <f>SUM(C66:C78)</f>
         <v>10.75</v>
       </c>
@@ -3530,7 +3536,7 @@
     </row>
     <row r="90" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A90" s="15"/>
-      <c r="C90" s="30">
+      <c r="C90" s="26">
         <f>SUM(C81:C89)</f>
         <v>5.25</v>
       </c>
@@ -3701,7 +3707,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B103" s="16"/>
-      <c r="C103" s="29">
+      <c r="C103" s="25">
         <f>SUM(C92:C102)</f>
         <v>11.75</v>
       </c>
@@ -3928,7 +3934,7 @@
     </row>
     <row r="120" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A120" s="15"/>
-      <c r="C120" s="30">
+      <c r="C120" s="26">
         <f>SUM(C105:C119)</f>
         <v>10.5</v>
       </c>
@@ -4014,8 +4020,8 @@
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B127" s="29"/>
-      <c r="C127" s="30">
+      <c r="B127" s="25"/>
+      <c r="C127" s="26">
         <f>SUM(C122:C126)</f>
         <v>10</v>
       </c>
@@ -4108,7 +4114,7 @@
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="C135" s="29">
+      <c r="C135" s="25">
         <f>SUM(C129:C134)</f>
         <v>9.85</v>
       </c>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C435639-84AC-4470-BFEF-24478E00119E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61901A58-EEC2-420E-BF09-0B060EAD7BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="307">
   <si>
     <t>Important notes</t>
   </si>
@@ -1016,7 +1016,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1041,6 +1041,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1138,7 +1144,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1188,6 +1194,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1882,8 +1889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1992,6 +1999,9 @@
       </c>
       <c r="E6" s="8" t="s">
         <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.6">
@@ -2229,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2523,6 +2533,9 @@
       <c r="E17" s="8" t="s">
         <v>72</v>
       </c>
+      <c r="F17" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A18" s="15"/>
@@ -2538,6 +2551,7 @@
       <c r="E18" s="8" t="s">
         <v>94</v>
       </c>
+      <c r="F18" s="31"/>
     </row>
     <row r="19" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A19" s="15"/>
@@ -2553,6 +2567,7 @@
       <c r="E19" s="8" t="s">
         <v>100</v>
       </c>
+      <c r="F19" s="24"/>
     </row>
     <row r="20" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A20" s="15"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61901A58-EEC2-420E-BF09-0B060EAD7BE7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3C3996-1598-4F5A-AF0E-4FD1ABF29313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="307">
   <si>
     <t>Important notes</t>
   </si>
@@ -1190,11 +1190,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1637,33 +1637,33 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="11" t="s">
@@ -1693,149 +1693,149 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="11"/>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="11"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="31" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A21" s="27" t="s">
+      <c r="A21" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="27"/>
-      <c r="I22" s="27"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B24" s="12" t="s">
@@ -2239,8 +2239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2249,7 +2249,7 @@
     <col min="2" max="2" width="45.796875" customWidth="1"/>
     <col min="3" max="3" width="7.84765625" customWidth="1"/>
     <col min="4" max="4" width="48.5" customWidth="1"/>
-    <col min="5" max="5" width="23.19921875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="27.09765625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.6">
@@ -2551,7 +2551,7 @@
       <c r="E18" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F18" s="31"/>
+      <c r="F18" s="27"/>
     </row>
     <row r="19" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A19" s="15"/>
@@ -2567,7 +2567,9 @@
       <c r="E19" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="24"/>
+      <c r="F19" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="20" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A20" s="15"/>
@@ -2582,6 +2584,9 @@
       </c>
       <c r="E20" s="8" t="s">
         <v>167</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3C3996-1598-4F5A-AF0E-4FD1ABF29313}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6D1E30-2F82-4258-93A8-03A12ADFDD7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="308">
   <si>
     <t>Important notes</t>
   </si>
@@ -957,6 +957,9 @@
   </si>
   <si>
     <t>updated course</t>
+  </si>
+  <si>
+    <t>How Git Works</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1147,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1195,6 +1198,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1887,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2129,11 +2135,17 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.6">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.6">
       <c r="C17">
         <f>SUM(C12:C16)</f>
         <v>11.75</v>
       </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.6">
+      <c r="D19" s="32" t="s">
+        <v>307</v>
+      </c>
+      <c r="F19" s="24"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2150,9 +2162,10 @@
     <hyperlink ref="D6" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="D5" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
     <hyperlink ref="D16" r:id="rId13" location="/preassessment" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="D19" r:id="rId14" display="https://app.pluralsight.com/courses/c0bcd282-3110-49e3-b2b9-94c7348f5222/table-of-contents" xr:uid="{7FEF6754-3EFB-4E2D-86B3-CBF3C492E594}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId15"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2239,7 +2252,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6D1E30-2F82-4258-93A8-03A12ADFDD7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA0BAAA-2B77-4700-B6F6-FEDBF03540FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="309">
   <si>
     <t>Important notes</t>
   </si>
@@ -960,6 +960,9 @@
   </si>
   <si>
     <t>How Git Works</t>
+  </si>
+  <si>
+    <t>by Paolo Perrotta</t>
   </si>
 </sst>
 </file>
@@ -1194,13 +1197,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1643,33 +1646,33 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="11" t="s">
@@ -1699,149 +1702,149 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="11"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="11"/>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B24" s="12" t="s">
@@ -1895,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2142,10 +2145,15 @@
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.6">
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="28" t="s">
         <v>307</v>
       </c>
-      <c r="F19" s="24"/>
+      <c r="E19" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA0BAAA-2B77-4700-B6F6-FEDBF03540FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A190F4C-D23B-4CFB-86DA-DE9F69065ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="309">
   <si>
     <t>Important notes</t>
   </si>
@@ -1898,8 +1898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2008,6 +2008,9 @@
       </c>
       <c r="E6" s="8" t="s">
         <v>44</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>305</v>
       </c>
       <c r="G6" t="s">
         <v>306</v>
@@ -2260,8 +2263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A190F4C-D23B-4CFB-86DA-DE9F69065ABB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D3AE2-81E6-4E48-BC0C-4CE40DFDA145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="309">
   <si>
     <t>Important notes</t>
   </si>
@@ -1899,7 +1899,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2028,6 +2028,9 @@
       </c>
       <c r="E7" s="8" t="s">
         <v>46</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.6">

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87D3AE2-81E6-4E48-BC0C-4CE40DFDA145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E5E750-4607-4882-BF5A-677A6CFDA305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="311">
   <si>
     <t>Important notes</t>
   </si>
@@ -963,13 +963,19 @@
   </si>
   <si>
     <t>by Paolo Perrotta</t>
+  </si>
+  <si>
+    <t>Mastering Git</t>
+  </si>
+  <si>
+    <t>mod4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1021,6 +1027,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1150,7 +1162,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1200,6 +1212,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -1646,33 +1659,33 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="11" t="s">
@@ -1702,149 +1715,149 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="11"/>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="11"/>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B24" s="12" t="s">
@@ -1896,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -1981,6 +1994,9 @@
       <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="F4" s="24" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B5" t="s">
@@ -1995,6 +2011,7 @@
       <c r="E5" s="8" t="s">
         <v>21</v>
       </c>
+      <c r="F5" s="24"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B6" t="s">
@@ -2046,6 +2063,9 @@
       <c r="E8" s="8" t="s">
         <v>45</v>
       </c>
+      <c r="F8" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B9" t="s">
@@ -2060,6 +2080,7 @@
       <c r="E9" s="8" t="s">
         <v>47</v>
       </c>
+      <c r="F9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.6">
       <c r="C10">
@@ -2159,6 +2180,14 @@
       </c>
       <c r="F19" s="23" t="s">
         <v>305</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.6">
+      <c r="D20" s="29" t="s">
+        <v>309</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2266,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2678,6 +2707,9 @@
       <c r="E24" s="20">
         <v>4.3</v>
       </c>
+      <c r="F24" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="25" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A25" s="15"/>
@@ -3235,10 +3267,10 @@
       <c r="D64" s="1"/>
       <c r="E64" s="8"/>
     </row>
-    <row r="65" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="65" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A65" s="15"/>
     </row>
-    <row r="66" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A66" s="15">
         <v>5</v>
       </c>
@@ -3255,7 +3287,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="67" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A67" s="15"/>
       <c r="B67" t="s">
         <v>231</v>
@@ -3270,7 +3302,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="68" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="68" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A68" s="15"/>
       <c r="B68" t="s">
         <v>145</v>
@@ -3285,7 +3317,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="69" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="69" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A69" s="15"/>
       <c r="B69" t="s">
         <v>145</v>
@@ -3300,7 +3332,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="70" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="70" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A70" s="15"/>
       <c r="B70" t="s">
         <v>145</v>
@@ -3315,7 +3347,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B71" t="s">
         <v>137</v>
       </c>
@@ -3329,7 +3361,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B72" t="s">
         <v>137</v>
       </c>
@@ -3343,7 +3375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B73" t="s">
         <v>206</v>
       </c>
@@ -3357,7 +3389,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B74" t="s">
         <v>137</v>
       </c>
@@ -3371,7 +3403,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="75" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A75" s="15"/>
       <c r="B75" t="s">
         <v>137</v>
@@ -3386,7 +3418,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A76" s="15"/>
       <c r="B76" t="s">
         <v>137</v>
@@ -3401,7 +3433,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A77" s="15"/>
       <c r="B77" s="18" t="s">
         <v>289</v>
@@ -3416,7 +3448,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B78" s="21" t="s">
         <v>300</v>
       </c>
@@ -3429,8 +3461,9 @@
       <c r="E78" s="9" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="F78" s="24"/>
+    </row>
+    <row r="79" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A79" s="15"/>
       <c r="C79" s="26">
         <f>SUM(C66:C78)</f>
@@ -3439,7 +3472,7 @@
       <c r="D79" s="17"/>
       <c r="E79" s="18"/>
     </row>
-    <row r="80" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A80" s="15"/>
       <c r="D80" s="17"/>
       <c r="E80" s="18"/>
@@ -4073,7 +4106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A129" s="6">
         <v>10</v>
       </c>
@@ -4090,7 +4123,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B130" s="10" t="s">
         <v>60</v>
       </c>
@@ -4104,7 +4137,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B131" s="10" t="s">
         <v>61</v>
       </c>
@@ -4118,7 +4151,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B132" s="10" t="s">
         <v>62</v>
       </c>
@@ -4132,7 +4165,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B133" s="21" t="s">
         <v>299</v>
       </c>
@@ -4145,8 +4178,9 @@
       <c r="E133" s="9" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="F133" s="24"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B134" s="21" t="s">
         <v>304</v>
       </c>
@@ -4160,7 +4194,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.6">
       <c r="C135" s="25">
         <f>SUM(C129:C134)</f>
         <v>9.85</v>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79E5E750-4607-4882-BF5A-677A6CFDA305}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331EF8B6-172A-4BCA-87CA-9B94719E82CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2295,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{331EF8B6-172A-4BCA-87CA-9B94719E82CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E55BCE6-59BD-41DC-BDF6-5614A8C6E68F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="311">
   <si>
     <t>Important notes</t>
   </si>
@@ -2295,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2677,6 +2677,9 @@
       <c r="E22" s="8" t="s">
         <v>97</v>
       </c>
+      <c r="F22" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="23" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A23" s="15"/>
@@ -2692,6 +2695,9 @@
       <c r="E23" s="8" t="s">
         <v>97</v>
       </c>
+      <c r="F23" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="24" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A24" s="15"/>
@@ -2724,6 +2730,9 @@
       </c>
       <c r="E25" s="8" t="s">
         <v>168</v>
+      </c>
+      <c r="F25" s="23" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -2751,6 +2760,9 @@
       </c>
       <c r="E28" s="8" t="s">
         <v>165</v>
+      </c>
+      <c r="F28" s="23" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="29" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E55BCE6-59BD-41DC-BDF6-5614A8C6E68F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8004EC1C-48A8-4B7F-9DC3-81811FF88548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2295,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8004EC1C-48A8-4B7F-9DC3-81811FF88548}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199181E6-720F-43C6-A9AD-9F2A1B583617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="311">
   <si>
     <t>Important notes</t>
   </si>
@@ -1912,7 +1912,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2295,8 +2295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2778,6 +2778,9 @@
       </c>
       <c r="E29" s="8" t="s">
         <v>18</v>
+      </c>
+      <c r="F29" s="23" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="30" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{199181E6-720F-43C6-A9AD-9F2A1B583617}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7C624E-22D9-4643-B3EF-71E5087A8041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24" yWindow="1434" windowWidth="18864" windowHeight="7524" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="QUICK_START" sheetId="4" r:id="rId2"/>
     <sheet name="SQUARE_ONE" sheetId="5" r:id="rId3"/>
     <sheet name="10WEEK" sheetId="2" r:id="rId4"/>
+    <sheet name="oauth" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="313">
   <si>
     <t>Important notes</t>
   </si>
@@ -969,6 +970,12 @@
   </si>
   <si>
     <t>mod4</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/courses/2f5e060d-252b-4826-ab7a-73427d700044/table-of-contents</t>
+  </si>
+  <si>
+    <t>OAuth 2.0 - THAT Conference</t>
   </si>
 </sst>
 </file>
@@ -1316,6 +1323,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171930</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>42188</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Afbeelding 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ECA8A3E-A305-47B8-AFB9-2CBD1BBADC79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5536410" cy="3212108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>202645</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>137550</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Afbeelding 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DC59F64-28D7-4F32-91FF-71594DDA70AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3368040"/>
+          <a:ext cx="8249365" cy="4496190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2293,10 +2393,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2816,16 +2916,15 @@
     <row r="32" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A32" s="15"/>
       <c r="B32" t="s">
-        <v>139</v>
-      </c>
-      <c r="C32">
-        <v>1.5</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="C32"/>
       <c r="D32" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>90</v>
+        <v>311</v>
+      </c>
+      <c r="E32" s="8"/>
+      <c r="F32" s="24">
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -2834,55 +2933,55 @@
         <v>139</v>
       </c>
       <c r="C33">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A34" s="15"/>
-      <c r="B34" s="10" t="s">
-        <v>207</v>
+      <c r="B34" t="s">
+        <v>139</v>
       </c>
       <c r="C34">
         <v>0.5</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="E34" s="8" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A35" s="15"/>
-      <c r="B35" t="s">
-        <v>209</v>
+      <c r="B35" s="10" t="s">
+        <v>207</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>67</v>
+        <v>161</v>
       </c>
       <c r="E35" s="8" t="s">
-        <v>68</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A36" s="15"/>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>68</v>
@@ -2890,61 +2989,61 @@
     </row>
     <row r="37" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A37" s="15"/>
-      <c r="B37"/>
-      <c r="C37" s="25">
-        <f>SUM(C28:C36)</f>
-        <v>11.25</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="8"/>
+      <c r="B37" t="s">
+        <v>207</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="38" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A38" s="15"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
+      <c r="B38"/>
+      <c r="C38" s="25">
+        <f>SUM(C28:C37)</f>
+        <v>11.25</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="15">
+      <c r="A39" s="15"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+    </row>
+    <row r="40" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="15">
         <v>4</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B40" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C39">
-        <v>0.5</v>
-      </c>
-      <c r="D39" s="1" t="s">
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E40" s="8" t="s">
         <v>180</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="15"/>
-      <c r="B40" t="s">
-        <v>243</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A41" s="15"/>
-      <c r="B41" s="16" t="s">
-        <v>229</v>
+      <c r="B41" t="s">
+        <v>243</v>
       </c>
       <c r="C41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>228</v>
@@ -2956,27 +3055,28 @@
         <v>229</v>
       </c>
       <c r="C42">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B43" t="s">
-        <v>148</v>
+    <row r="43" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A43" s="15"/>
+      <c r="B43" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="C43">
         <v>0.25</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.6">
@@ -2984,10 +3084,10 @@
         <v>148</v>
       </c>
       <c r="C44">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>109</v>
@@ -2995,16 +3095,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C45">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.6">
@@ -3015,96 +3115,95 @@
         <v>0.25</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E46" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B47" s="21" t="s">
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47">
+        <v>0.25</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B48" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C47" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="C48" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="E48" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B48" s="19" t="s">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B49" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C48" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="C49" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B49" t="s">
-        <v>178</v>
-      </c>
-      <c r="C49" s="4">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E49" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B50" s="16" t="s">
+      <c r="B50" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="4">
+        <v>1</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B51" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C50" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D50" s="17" t="s">
+      <c r="C51" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D51" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="E50" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A51" s="15"/>
-      <c r="B51" t="s">
-        <v>178</v>
-      </c>
-      <c r="C51">
-        <v>0.5</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="52" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A52" s="15"/>
       <c r="B52" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="C52">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -3116,7 +3215,7 @@
         <v>0.1</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E53" s="8" t="s">
         <v>218</v>
@@ -3124,32 +3223,32 @@
     </row>
     <row r="54" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A54" s="15"/>
-      <c r="B54" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C54" s="19">
-        <v>0.5</v>
+      <c r="B54" t="s">
+        <v>217</v>
+      </c>
+      <c r="C54">
+        <v>0.1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" s="18" t="s">
-        <v>177</v>
+        <v>220</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A55" s="15"/>
-      <c r="B55" s="16" t="s">
-        <v>215</v>
+      <c r="B55" s="21" t="s">
+        <v>183</v>
       </c>
       <c r="C55" s="19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -3161,7 +3260,7 @@
         <v>0.25</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>107</v>
@@ -3169,16 +3268,16 @@
     </row>
     <row r="57" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A57" s="15"/>
-      <c r="B57" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57">
-        <v>0.5</v>
+      <c r="B57" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C57" s="19">
+        <v>0.25</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E57" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E57" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3191,7 +3290,7 @@
         <v>0.5</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E58" s="8" t="s">
         <v>107</v>
@@ -3206,7 +3305,7 @@
         <v>0.5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>107</v>
@@ -3215,16 +3314,16 @@
     <row r="60" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A60" s="15"/>
       <c r="B60" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C60">
         <v>0.5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -3232,13 +3331,13 @@
       <c r="B61" t="s">
         <v>154</v>
       </c>
-      <c r="C61" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E61" s="18" t="s">
+      <c r="C61">
+        <v>0.5</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3248,10 +3347,10 @@
         <v>154</v>
       </c>
       <c r="C62" s="16">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E62" s="18" t="s">
         <v>102</v>
@@ -3262,71 +3361,71 @@
       <c r="B63" t="s">
         <v>154</v>
       </c>
-      <c r="C63">
-        <v>0.5</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E63" s="8" t="s">
+      <c r="C63" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D63" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A64" s="15"/>
-      <c r="B64"/>
-      <c r="C64" s="25">
-        <f>SUM(C39:C63)</f>
-        <v>10.95</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="E64" s="8"/>
+      <c r="B64" t="s">
+        <v>154</v>
+      </c>
+      <c r="C64">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="65" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A65" s="15"/>
+      <c r="B65"/>
+      <c r="C65" s="25">
+        <f>SUM(C40:C64)</f>
+        <v>10.95</v>
+      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A66" s="15">
+      <c r="A66" s="15"/>
+    </row>
+    <row r="67" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A67" s="15">
         <v>5</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B67" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C66" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D66" s="1" t="s">
+      <c r="C67" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E66" s="18" t="s">
+      <c r="E67" s="18" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A67" s="15"/>
-      <c r="B67" t="s">
-        <v>231</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E67" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="68" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A68" s="15"/>
       <c r="B68" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="C68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="E68" s="8" t="s">
         <v>103</v>
@@ -3341,7 +3440,7 @@
         <v>0.5</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>103</v>
@@ -3356,24 +3455,25 @@
         <v>0.5</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="71" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A71" s="15"/>
       <c r="B71" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C71">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.6">
@@ -3381,10 +3481,10 @@
         <v>137</v>
       </c>
       <c r="C72">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E72" s="8" t="s">
         <v>78</v>
@@ -3392,42 +3492,41 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B73" t="s">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="C73">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B74" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="C74">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A75" s="15"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B75" t="s">
         <v>137</v>
       </c>
       <c r="C75">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E75" s="8" t="s">
         <v>78</v>
@@ -3442,7 +3541,7 @@
         <v>0.5</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>78</v>
@@ -3450,78 +3549,78 @@
     </row>
     <row r="77" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A77" s="15"/>
-      <c r="B77" s="18" t="s">
+      <c r="B77" t="s">
+        <v>137</v>
+      </c>
+      <c r="C77">
+        <v>0.5</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A78" s="15"/>
+      <c r="B78" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C77" s="16">
+      <c r="C78" s="16">
         <v>4</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>285</v>
       </c>
-      <c r="E77" s="18" t="s">
+      <c r="E78" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="B78" s="21" t="s">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="B79" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="C78" s="19">
+      <c r="C79" s="19">
         <v>0.25</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="E79" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="F78" s="24"/>
-    </row>
-    <row r="79" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A79" s="15"/>
-      <c r="C79" s="26">
-        <f>SUM(C66:C78)</f>
-        <v>10.75</v>
-      </c>
-      <c r="D79" s="17"/>
-      <c r="E79" s="18"/>
+      <c r="F79" s="24"/>
     </row>
     <row r="80" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A80" s="15"/>
+      <c r="C80" s="26">
+        <f>SUM(C67:C79)</f>
+        <v>10.75</v>
+      </c>
       <c r="D80" s="17"/>
       <c r="E80" s="18"/>
     </row>
     <row r="81" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A81" s="6">
+      <c r="A81" s="15"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="18"/>
+    </row>
+    <row r="82" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A82" s="6">
         <v>6</v>
       </c>
-      <c r="B81" s="21" t="s">
+      <c r="B82" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C81" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D81" s="1" t="s">
+      <c r="C82" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E81" s="18" t="s">
+      <c r="E82" s="18" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A82" s="15"/>
-      <c r="B82" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C82" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="D82" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -3530,10 +3629,10 @@
         <v>233</v>
       </c>
       <c r="C83" s="19">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D83" s="17" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E83" s="18" t="s">
         <v>232</v>
@@ -3541,17 +3640,17 @@
     </row>
     <row r="84" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A84" s="15"/>
-      <c r="B84" t="s">
-        <v>149</v>
-      </c>
-      <c r="C84">
-        <v>0.5</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E84" s="8" t="s">
-        <v>136</v>
+      <c r="B84" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C84" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D84" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -3560,10 +3659,10 @@
         <v>149</v>
       </c>
       <c r="C85">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>136</v>
@@ -3578,7 +3677,7 @@
         <v>0.25</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>136</v>
@@ -3590,28 +3689,28 @@
         <v>149</v>
       </c>
       <c r="C87">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E87" s="8" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A88" s="15"/>
-      <c r="B88" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C88" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D88" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="E88" s="18" t="s">
-        <v>238</v>
+      <c r="B88" t="s">
+        <v>149</v>
+      </c>
+      <c r="C88">
+        <v>0.5</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -3620,10 +3719,10 @@
         <v>239</v>
       </c>
       <c r="C89" s="16">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D89" s="17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E89" s="18" t="s">
         <v>238</v>
@@ -3631,60 +3730,61 @@
     </row>
     <row r="90" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A90" s="15"/>
-      <c r="C90" s="26">
-        <f>SUM(C81:C89)</f>
-        <v>5.25</v>
-      </c>
-      <c r="D90" s="17"/>
-      <c r="E90" s="18"/>
+      <c r="B90" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C90" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E90" s="18" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="91" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A91" s="15"/>
+      <c r="C91" s="26">
+        <f>SUM(C82:C90)</f>
+        <v>5.25</v>
+      </c>
       <c r="D91" s="17"/>
       <c r="E91" s="18"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A92" s="6">
+    <row r="92" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A92" s="15"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="18"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A93" s="6">
         <v>7</v>
       </c>
-      <c r="B92" s="10" t="s">
+      <c r="B93" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C92" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D92" s="1" t="s">
+      <c r="C93" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="E92" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B93" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C93" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="E93" s="18" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B94" t="s">
+      <c r="B94" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="16">
         <v>0.5</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E94" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E94" s="18" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3696,21 +3796,21 @@
         <v>0.5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B96" s="10" t="s">
-        <v>292</v>
+      <c r="B96" t="s">
+        <v>247</v>
       </c>
       <c r="C96">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>124</v>
@@ -3718,44 +3818,44 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B97" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C97">
+        <v>3.5</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E97" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B98" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C97" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="C98" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D98" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E97" s="18" t="s">
+      <c r="E98" s="18" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B98" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C98" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E98" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B99" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C99">
-        <v>0.25</v>
+      <c r="C99" s="16">
+        <v>0.5</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E99" s="8" t="s">
-        <v>251</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.6">
@@ -3763,10 +3863,10 @@
         <v>249</v>
       </c>
       <c r="C100">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>251</v>
@@ -3777,91 +3877,91 @@
         <v>249</v>
       </c>
       <c r="C101">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C102">
+        <v>0.5</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B103" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C102">
+      <c r="C103">
         <v>3.5</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="D103" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="E103" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B103" s="16"/>
-      <c r="C103" s="25">
-        <f>SUM(C92:C102)</f>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B104" s="16"/>
+      <c r="C104" s="25">
+        <f>SUM(C93:C103)</f>
         <v>11.75</v>
       </c>
-      <c r="D103" s="1"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A105" s="6">
+      <c r="D104" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A106" s="6">
         <v>8</v>
       </c>
-      <c r="B105" s="10" t="s">
+      <c r="B106" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C105" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D105" s="1" t="s">
+      <c r="C106" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D106" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E105" s="18" t="s">
+      <c r="E106" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B106" s="16" t="s">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B107" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C106" s="16">
+      <c r="C107" s="16">
         <v>1.5</v>
       </c>
-      <c r="D106" s="17" t="s">
+      <c r="D107" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E107" s="18" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B107" s="22" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B108" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C107">
+      <c r="C108">
         <v>1.5</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D108" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B108" t="s">
-        <v>142</v>
-      </c>
-      <c r="C108">
-        <v>1</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>74</v>
@@ -3872,10 +3972,10 @@
         <v>142</v>
       </c>
       <c r="C109">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>74</v>
@@ -3886,10 +3986,10 @@
         <v>142</v>
       </c>
       <c r="C110">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>74</v>
@@ -3897,48 +3997,47 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B111" t="s">
+        <v>142</v>
+      </c>
+      <c r="C111">
+        <v>0.5</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B112" t="s">
         <v>155</v>
       </c>
-      <c r="C111">
-        <v>0.5</v>
-      </c>
-      <c r="D111" s="1" t="s">
+      <c r="C112">
+        <v>0.5</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="E112" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B112" s="10" t="s">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B113" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C112" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="C113" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E112" s="18" t="s">
+      <c r="E113" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B113" t="s">
-        <v>150</v>
-      </c>
-      <c r="C113">
-        <v>0.3</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A114" s="15"/>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B114" t="s">
         <v>150</v>
       </c>
@@ -3946,7 +4045,7 @@
         <v>0.3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>130</v>
@@ -3958,320 +4057,335 @@
         <v>150</v>
       </c>
       <c r="C115">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E115" s="8" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A116" s="15"/>
-      <c r="B116" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="C116" s="16">
-        <v>1</v>
-      </c>
-      <c r="D116" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="E116" s="18" t="s">
+      <c r="B116" t="s">
+        <v>150</v>
+      </c>
+      <c r="C116">
+        <v>0.4</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E116" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A117" s="15"/>
-      <c r="B117" s="10" t="s">
-        <v>271</v>
+      <c r="B117" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="C117" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D117" s="1" t="s">
-        <v>188</v>
+        <v>1</v>
+      </c>
+      <c r="D117" s="17" t="s">
+        <v>267</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="118" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A118" s="15"/>
-      <c r="B118" s="16" t="s">
-        <v>261</v>
+      <c r="B118" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="C118" s="16">
         <v>0.5</v>
       </c>
-      <c r="D118" s="17" t="s">
-        <v>255</v>
+      <c r="D118" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
     </row>
     <row r="119" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A119" s="15"/>
-      <c r="B119" s="10" t="s">
+      <c r="B119" s="16" t="s">
         <v>261</v>
       </c>
       <c r="C119" s="16">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D119" s="17" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A120" s="15"/>
-      <c r="C120" s="26">
-        <f>SUM(C105:C119)</f>
-        <v>10.5</v>
-      </c>
-      <c r="D120" s="17"/>
-      <c r="E120" s="18"/>
+      <c r="B120" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C120" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D120" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E120" s="18" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="121" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A121" s="15"/>
+      <c r="C121" s="26">
+        <f>SUM(C106:C120)</f>
+        <v>10.5</v>
+      </c>
       <c r="D121" s="17"/>
       <c r="E121" s="18"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A122" s="6">
+    <row r="122" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A122" s="15"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="18"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A123" s="6">
         <v>9</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B123" t="s">
         <v>268</v>
-      </c>
-      <c r="C122" s="16">
-        <v>2</v>
-      </c>
-      <c r="D122" t="s">
-        <v>284</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B123" t="s">
-        <v>272</v>
       </c>
       <c r="C123" s="16">
         <v>2</v>
       </c>
       <c r="D123" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E123" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B124" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C124" s="16">
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B125" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C125" s="16">
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>124</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B126" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C126" s="16">
         <v>2</v>
       </c>
       <c r="D126" t="s">
+        <v>286</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B127" t="s">
+        <v>270</v>
+      </c>
+      <c r="C127" s="16">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
         <v>287</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="E127" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B127" s="25"/>
-      <c r="C127" s="26">
-        <f>SUM(C122:C126)</f>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B128" s="25"/>
+      <c r="C128" s="26">
+        <f>SUM(C123:C127)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A129" s="6">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A130" s="6">
         <v>10</v>
       </c>
-      <c r="B129" s="16" t="s">
+      <c r="B130" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C129">
+      <c r="C130">
         <v>2</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="D130" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E129" s="8" t="s">
+      <c r="E130" s="8" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="B130" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C130">
-        <v>2.5</v>
-      </c>
-      <c r="D130" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B131" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C131">
         <v>2.5</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E131" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B132" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C132">
         <v>2.5</v>
       </c>
       <c r="D132" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="B133" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C133">
+        <v>2.5</v>
+      </c>
+      <c r="D133" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E132" s="8" t="s">
+      <c r="E133" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="B133" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C133" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="F133" s="24"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B134" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C134" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F134" s="24"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="B135" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C134" s="19">
+      <c r="C135" s="19">
         <v>0.1</v>
       </c>
-      <c r="D134" s="1" t="s">
+      <c r="D135" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E135" s="8" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="C135" s="25">
-        <f>SUM(C129:C134)</f>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="C136" s="25">
+        <f>SUM(C130:C135)</f>
         <v>9.85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D35" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D36" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="D30" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
     <hyperlink ref="D15" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="D108" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="D109" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="D109" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D110" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
     <hyperlink ref="D29" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="D71" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="D72" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
     <hyperlink ref="D16" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
     <hyperlink ref="D17" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
     <hyperlink ref="D23" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="D102" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="D103" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
     <hyperlink ref="D4" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
     <hyperlink ref="D5" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
     <hyperlink ref="D8" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
-    <hyperlink ref="D32" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
+    <hyperlink ref="D33" r:id="rId15" xr:uid="{00000000-0004-0000-0300-00000E000000}"/>
     <hyperlink ref="D9" r:id="rId16" xr:uid="{00000000-0004-0000-0300-00000F000000}"/>
     <hyperlink ref="D10" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
     <hyperlink ref="D18" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
     <hyperlink ref="D22" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="D33" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="D34" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
     <hyperlink ref="D19" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="D72" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="D45" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
-    <hyperlink ref="D57" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
-    <hyperlink ref="D43" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
-    <hyperlink ref="D110" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
-    <hyperlink ref="D87" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
-    <hyperlink ref="D63" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
-    <hyperlink ref="D58" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
-    <hyperlink ref="D59" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
-    <hyperlink ref="D74" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
-    <hyperlink ref="D75" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
-    <hyperlink ref="D76" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
-    <hyperlink ref="D46" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
-    <hyperlink ref="D44" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
-    <hyperlink ref="D51" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
-    <hyperlink ref="D94" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
-    <hyperlink ref="D73" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
-    <hyperlink ref="D68" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
-    <hyperlink ref="D69" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
-    <hyperlink ref="D70" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
-    <hyperlink ref="D115" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
-    <hyperlink ref="D36" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
-    <hyperlink ref="D85" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
-    <hyperlink ref="D86" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
-    <hyperlink ref="D111" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="D73" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="D46" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="D58" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="D44" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="D111" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="D88" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="D64" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="D59" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="D60" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="D75" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="D76" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="D77" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="D47" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="D45" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="D52" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="D95" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="D74" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="D69" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="D70" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="D71" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="D116" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="D37" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="D86" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="D87" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
+    <hyperlink ref="D112" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
     <hyperlink ref="D3" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
-    <hyperlink ref="D47" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
-    <hyperlink ref="D54" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
-    <hyperlink ref="D66" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
-    <hyperlink ref="D92" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
-    <hyperlink ref="D97" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
-    <hyperlink ref="D105" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
-    <hyperlink ref="D112" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
-    <hyperlink ref="D117" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
+    <hyperlink ref="D48" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
+    <hyperlink ref="D55" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="D67" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
+    <hyperlink ref="D93" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="D98" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="D106" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
+    <hyperlink ref="D113" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
+    <hyperlink ref="D118" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
     <hyperlink ref="D6" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
     <hyperlink ref="D20" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
     <hyperlink ref="D14" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
@@ -4281,51 +4395,51 @@
     <hyperlink ref="D11" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
     <hyperlink ref="D25" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
     <hyperlink ref="D28" r:id="rId64" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
-    <hyperlink ref="D34" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
+    <hyperlink ref="D35" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
     <hyperlink ref="D31" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
-    <hyperlink ref="D49" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
-    <hyperlink ref="D60" r:id="rId68" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
-    <hyperlink ref="D55" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
-    <hyperlink ref="D56" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
-    <hyperlink ref="D48" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
-    <hyperlink ref="D52" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
-    <hyperlink ref="D53" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
-    <hyperlink ref="D50" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
-    <hyperlink ref="D61" r:id="rId75" xr:uid="{00000000-0004-0000-0300-00004A000000}"/>
-    <hyperlink ref="D62" r:id="rId76" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
-    <hyperlink ref="D41" r:id="rId77" xr:uid="{00000000-0004-0000-0300-00004C000000}"/>
-    <hyperlink ref="D42" r:id="rId78" xr:uid="{00000000-0004-0000-0300-00004D000000}"/>
-    <hyperlink ref="D81" r:id="rId79" xr:uid="{00000000-0004-0000-0300-00004E000000}"/>
-    <hyperlink ref="D67" r:id="rId80" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
-    <hyperlink ref="D82" r:id="rId81" xr:uid="{00000000-0004-0000-0300-000050000000}"/>
-    <hyperlink ref="D83" r:id="rId82" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
-    <hyperlink ref="D84" r:id="rId83" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
-    <hyperlink ref="D88" r:id="rId84" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
-    <hyperlink ref="D89" r:id="rId85" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
-    <hyperlink ref="D40" r:id="rId86" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
-    <hyperlink ref="D107" r:id="rId87" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
-    <hyperlink ref="D96" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
-    <hyperlink ref="D93" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
-    <hyperlink ref="D98" r:id="rId90" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
-    <hyperlink ref="D99" r:id="rId91" xr:uid="{00000000-0004-0000-0300-00005A000000}"/>
-    <hyperlink ref="D100" r:id="rId92" xr:uid="{00000000-0004-0000-0300-00005B000000}"/>
-    <hyperlink ref="D101" r:id="rId93" xr:uid="{00000000-0004-0000-0300-00005C000000}"/>
-    <hyperlink ref="D118" r:id="rId94" xr:uid="{00000000-0004-0000-0300-00005D000000}"/>
-    <hyperlink ref="D106" r:id="rId95" xr:uid="{00000000-0004-0000-0300-00005E000000}"/>
-    <hyperlink ref="D119" r:id="rId96" xr:uid="{00000000-0004-0000-0300-00005F000000}"/>
-    <hyperlink ref="D113" r:id="rId97" xr:uid="{00000000-0004-0000-0300-000060000000}"/>
-    <hyperlink ref="D114" r:id="rId98" xr:uid="{00000000-0004-0000-0300-000061000000}"/>
-    <hyperlink ref="D95" r:id="rId99" xr:uid="{00000000-0004-0000-0300-000062000000}"/>
-    <hyperlink ref="D116" r:id="rId100" xr:uid="{00000000-0004-0000-0300-000063000000}"/>
-    <hyperlink ref="D129" r:id="rId101" xr:uid="{00000000-0004-0000-0300-000064000000}"/>
-    <hyperlink ref="D130" r:id="rId102" xr:uid="{00000000-0004-0000-0300-000065000000}"/>
-    <hyperlink ref="D132" r:id="rId103" xr:uid="{00000000-0004-0000-0300-000066000000}"/>
-    <hyperlink ref="D131" r:id="rId104" xr:uid="{00000000-0004-0000-0300-000067000000}"/>
-    <hyperlink ref="D39" r:id="rId105" xr:uid="{00000000-0004-0000-0300-000068000000}"/>
+    <hyperlink ref="D50" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
+    <hyperlink ref="D61" r:id="rId68" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
+    <hyperlink ref="D56" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
+    <hyperlink ref="D57" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
+    <hyperlink ref="D49" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
+    <hyperlink ref="D53" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
+    <hyperlink ref="D54" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
+    <hyperlink ref="D51" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
+    <hyperlink ref="D62" r:id="rId75" xr:uid="{00000000-0004-0000-0300-00004A000000}"/>
+    <hyperlink ref="D63" r:id="rId76" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
+    <hyperlink ref="D42" r:id="rId77" xr:uid="{00000000-0004-0000-0300-00004C000000}"/>
+    <hyperlink ref="D43" r:id="rId78" xr:uid="{00000000-0004-0000-0300-00004D000000}"/>
+    <hyperlink ref="D82" r:id="rId79" xr:uid="{00000000-0004-0000-0300-00004E000000}"/>
+    <hyperlink ref="D68" r:id="rId80" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
+    <hyperlink ref="D83" r:id="rId81" xr:uid="{00000000-0004-0000-0300-000050000000}"/>
+    <hyperlink ref="D84" r:id="rId82" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
+    <hyperlink ref="D85" r:id="rId83" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
+    <hyperlink ref="D89" r:id="rId84" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
+    <hyperlink ref="D90" r:id="rId85" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
+    <hyperlink ref="D41" r:id="rId86" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
+    <hyperlink ref="D108" r:id="rId87" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
+    <hyperlink ref="D97" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
+    <hyperlink ref="D94" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
+    <hyperlink ref="D99" r:id="rId90" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
+    <hyperlink ref="D100" r:id="rId91" xr:uid="{00000000-0004-0000-0300-00005A000000}"/>
+    <hyperlink ref="D101" r:id="rId92" xr:uid="{00000000-0004-0000-0300-00005B000000}"/>
+    <hyperlink ref="D102" r:id="rId93" xr:uid="{00000000-0004-0000-0300-00005C000000}"/>
+    <hyperlink ref="D119" r:id="rId94" xr:uid="{00000000-0004-0000-0300-00005D000000}"/>
+    <hyperlink ref="D107" r:id="rId95" xr:uid="{00000000-0004-0000-0300-00005E000000}"/>
+    <hyperlink ref="D120" r:id="rId96" xr:uid="{00000000-0004-0000-0300-00005F000000}"/>
+    <hyperlink ref="D114" r:id="rId97" xr:uid="{00000000-0004-0000-0300-000060000000}"/>
+    <hyperlink ref="D115" r:id="rId98" xr:uid="{00000000-0004-0000-0300-000061000000}"/>
+    <hyperlink ref="D96" r:id="rId99" xr:uid="{00000000-0004-0000-0300-000062000000}"/>
+    <hyperlink ref="D117" r:id="rId100" xr:uid="{00000000-0004-0000-0300-000063000000}"/>
+    <hyperlink ref="D130" r:id="rId101" xr:uid="{00000000-0004-0000-0300-000064000000}"/>
+    <hyperlink ref="D131" r:id="rId102" xr:uid="{00000000-0004-0000-0300-000065000000}"/>
+    <hyperlink ref="D133" r:id="rId103" xr:uid="{00000000-0004-0000-0300-000066000000}"/>
+    <hyperlink ref="D132" r:id="rId104" xr:uid="{00000000-0004-0000-0300-000067000000}"/>
+    <hyperlink ref="D40" r:id="rId105" xr:uid="{00000000-0004-0000-0300-000068000000}"/>
     <hyperlink ref="D2" r:id="rId106" location="/preassessment" xr:uid="{00000000-0004-0000-0300-000069000000}"/>
-    <hyperlink ref="D78" r:id="rId107" location="/preassessment" xr:uid="{00000000-0004-0000-0300-00006A000000}"/>
-    <hyperlink ref="D133" r:id="rId108" location="/preassessment" xr:uid="{00000000-0004-0000-0300-00006B000000}"/>
-    <hyperlink ref="D134" r:id="rId109" xr:uid="{00000000-0004-0000-0300-00006C000000}"/>
+    <hyperlink ref="D79" r:id="rId107" location="/preassessment" xr:uid="{00000000-0004-0000-0300-00006A000000}"/>
+    <hyperlink ref="D134" r:id="rId108" location="/preassessment" xr:uid="{00000000-0004-0000-0300-00006B000000}"/>
+    <hyperlink ref="D135" r:id="rId109" xr:uid="{00000000-0004-0000-0300-00006C000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId110"/>
@@ -4335,4 +4449,19 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9396D2C4-4E2A-4652-BA4A-864B8DF6A565}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7C624E-22D9-4643-B3EF-71E5087A8041}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4236AF05-4D39-4DC4-A2EF-832839941ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24" yWindow="1434" windowWidth="18864" windowHeight="7524" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="315">
   <si>
     <t>Important notes</t>
   </si>
@@ -976,6 +976,12 @@
   </si>
   <si>
     <t>OAuth 2.0 - THAT Conference</t>
+  </si>
+  <si>
+    <t>https://app.pluralsight.com/courses/369af1a4-c2bf-4756-be5d-a2fc032c040e/table-of-contents</t>
+  </si>
+  <si>
+    <t>GPDR, executive briefing</t>
   </si>
 </sst>
 </file>
@@ -2011,7 +2017,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2393,10 +2399,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2912,6 +2918,9 @@
       <c r="E31" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="F31" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="32" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A32" s="15"/>
@@ -2923,11 +2932,11 @@
         <v>311</v>
       </c>
       <c r="E32" s="8"/>
-      <c r="F32" s="24">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="F32" s="23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A33" s="15"/>
       <c r="B33" t="s">
         <v>139</v>
@@ -2941,187 +2950,187 @@
       <c r="E33" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="F33" s="23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A34" s="15"/>
       <c r="B34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C34"/>
+      <c r="D34" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E34" s="8"/>
+    </row>
+    <row r="35" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A35" s="15"/>
+      <c r="B35" t="s">
         <v>139</v>
       </c>
-      <c r="C34">
-        <v>0.5</v>
-      </c>
-      <c r="D34" s="1" t="s">
+      <c r="C35">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E35" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A35" s="15"/>
-      <c r="B35" s="10" t="s">
+    <row r="36" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A36" s="15"/>
+      <c r="B36" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="C35">
-        <v>0.5</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="C36">
+        <v>0.5</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E36" s="8" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A36" s="15"/>
-      <c r="B36" t="s">
-        <v>209</v>
-      </c>
-      <c r="C36">
-        <v>3</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="37" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A37" s="15"/>
       <c r="B37" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="38" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A38" s="15"/>
-      <c r="B38"/>
-      <c r="C38" s="25">
-        <f>SUM(C28:C37)</f>
+      <c r="B38" t="s">
+        <v>207</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A39" s="15"/>
+      <c r="B39"/>
+      <c r="C39" s="25">
+        <f>SUM(C28:C38)</f>
         <v>11.25</v>
       </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="8"/>
-    </row>
-    <row r="39" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A39" s="15"/>
-      <c r="D39" s="17"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A40" s="15">
+      <c r="D39" s="1"/>
+      <c r="E39" s="8"/>
+    </row>
+    <row r="40" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A40" s="15"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A41" s="15">
         <v>4</v>
       </c>
-      <c r="B40" s="10" t="s">
+      <c r="B41" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="C40">
-        <v>0.5</v>
-      </c>
-      <c r="D40" s="1" t="s">
+      <c r="C41">
+        <v>0.5</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E41" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A41" s="15"/>
-      <c r="B41" t="s">
+    <row r="42" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A42" s="15"/>
+      <c r="B42" t="s">
         <v>243</v>
       </c>
-      <c r="C41">
+      <c r="C42">
         <v>1</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>242</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A42" s="15"/>
-      <c r="B42" s="16" t="s">
-        <v>229</v>
-      </c>
-      <c r="C42">
-        <v>0.5</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+    <row r="43" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A43" s="15"/>
       <c r="B43" s="16" t="s">
         <v>229</v>
       </c>
       <c r="C43">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B44" t="s">
-        <v>148</v>
+    <row r="44" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A44" s="15"/>
+      <c r="B44" s="16" t="s">
+        <v>229</v>
       </c>
       <c r="C44">
         <v>0.25</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="E44" s="8" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.6">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B45" t="s">
         <v>148</v>
       </c>
       <c r="C45">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="E45" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B46" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C46">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.6">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B47" t="s">
         <v>147</v>
       </c>
@@ -3129,96 +3138,95 @@
         <v>0.25</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="E47" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B48" s="21" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48">
+        <v>0.25</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B49" s="21" t="s">
         <v>178</v>
       </c>
-      <c r="C48" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D48" s="1" t="s">
+      <c r="C49" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="E49" s="9" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B49" s="19" t="s">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B50" s="19" t="s">
         <v>214</v>
       </c>
-      <c r="C49" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="D49" s="1" t="s">
+      <c r="C50" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B50" t="s">
-        <v>178</v>
-      </c>
-      <c r="C50" s="4">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E50" s="9" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B51" s="16" t="s">
+      <c r="B51" t="s">
+        <v>178</v>
+      </c>
+      <c r="C51" s="4">
+        <v>1</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B52" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="C51" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D51" s="17" t="s">
+      <c r="C52" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D52" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="E51" s="18" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A52" s="15"/>
-      <c r="B52" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52">
-        <v>0.5</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="18" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A53" s="15"/>
       <c r="B53" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="C53">
-        <v>0.1</v>
+        <v>0.5</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E53" s="8" t="s">
-        <v>218</v>
+        <v>122</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -3230,7 +3238,7 @@
         <v>0.1</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E54" s="8" t="s">
         <v>218</v>
@@ -3238,32 +3246,32 @@
     </row>
     <row r="55" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A55" s="15"/>
-      <c r="B55" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="C55" s="19">
-        <v>0.5</v>
+      <c r="B55" t="s">
+        <v>217</v>
+      </c>
+      <c r="C55">
+        <v>0.1</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>177</v>
+        <v>220</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A56" s="15"/>
-      <c r="B56" s="16" t="s">
-        <v>215</v>
+      <c r="B56" s="21" t="s">
+        <v>183</v>
       </c>
       <c r="C56" s="19">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>212</v>
+        <v>172</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>107</v>
+        <v>177</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -3275,7 +3283,7 @@
         <v>0.25</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E57" s="18" t="s">
         <v>107</v>
@@ -3283,16 +3291,16 @@
     </row>
     <row r="58" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A58" s="15"/>
-      <c r="B58" t="s">
-        <v>146</v>
-      </c>
-      <c r="C58">
-        <v>0.5</v>
+      <c r="B58" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="19">
+        <v>0.25</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E58" s="18" t="s">
         <v>107</v>
       </c>
     </row>
@@ -3305,7 +3313,7 @@
         <v>0.5</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E59" s="8" t="s">
         <v>107</v>
@@ -3320,7 +3328,7 @@
         <v>0.5</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E60" s="8" t="s">
         <v>107</v>
@@ -3329,16 +3337,16 @@
     <row r="61" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A61" s="15"/>
       <c r="B61" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C61">
         <v>0.5</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>211</v>
+        <v>115</v>
       </c>
       <c r="E61" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -3346,13 +3354,13 @@
       <c r="B62" t="s">
         <v>154</v>
       </c>
-      <c r="C62" s="16">
-        <v>0.25</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>224</v>
-      </c>
-      <c r="E62" s="18" t="s">
+      <c r="C62">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3362,10 +3370,10 @@
         <v>154</v>
       </c>
       <c r="C63" s="16">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E63" s="18" t="s">
         <v>102</v>
@@ -3376,71 +3384,71 @@
       <c r="B64" t="s">
         <v>154</v>
       </c>
-      <c r="C64">
-        <v>0.5</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E64" s="8" t="s">
+      <c r="C64" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D64" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="E64" s="18" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="65" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A65" s="15"/>
-      <c r="B65"/>
-      <c r="C65" s="25">
-        <f>SUM(C40:C64)</f>
-        <v>10.95</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="8"/>
+      <c r="B65" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65">
+        <v>0.5</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="66" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A66" s="15"/>
+      <c r="B66"/>
+      <c r="C66" s="25">
+        <f>SUM(C41:C65)</f>
+        <v>10.95</v>
+      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A67" s="15">
+      <c r="A67" s="15"/>
+    </row>
+    <row r="68" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A68" s="15">
         <v>5</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B68" s="21" t="s">
         <v>182</v>
       </c>
-      <c r="C67" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D67" s="1" t="s">
+      <c r="C68" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E67" s="18" t="s">
+      <c r="E68" s="18" t="s">
         <v>179</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A68" s="15"/>
-      <c r="B68" t="s">
-        <v>231</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="E68" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A69" s="15"/>
       <c r="B69" t="s">
-        <v>145</v>
+        <v>231</v>
       </c>
       <c r="C69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>128</v>
+        <v>230</v>
       </c>
       <c r="E69" s="8" t="s">
         <v>103</v>
@@ -3455,7 +3463,7 @@
         <v>0.5</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>103</v>
@@ -3470,24 +3478,25 @@
         <v>0.5</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E71" s="8" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="72" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A72" s="15"/>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="C72">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.6">
@@ -3495,10 +3504,10 @@
         <v>137</v>
       </c>
       <c r="C73">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>78</v>
@@ -3506,42 +3515,41 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B74" t="s">
-        <v>206</v>
+        <v>137</v>
       </c>
       <c r="C74">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>125</v>
+        <v>78</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B75" t="s">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="C75">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A76" s="15"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B76" t="s">
         <v>137</v>
       </c>
       <c r="C76">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>78</v>
@@ -3556,7 +3564,7 @@
         <v>0.5</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>78</v>
@@ -3564,78 +3572,78 @@
     </row>
     <row r="78" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A78" s="15"/>
-      <c r="B78" s="18" t="s">
+      <c r="B78" t="s">
+        <v>137</v>
+      </c>
+      <c r="C78">
+        <v>0.5</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E78" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A79" s="15"/>
+      <c r="B79" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C78" s="16">
+      <c r="C79" s="16">
         <v>4</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>285</v>
       </c>
-      <c r="E78" s="18" t="s">
+      <c r="E79" s="18" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="B79" s="21" t="s">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="B80" s="21" t="s">
         <v>300</v>
       </c>
-      <c r="C79" s="19">
+      <c r="C80" s="19">
         <v>0.25</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="E80" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="F79" s="24"/>
-    </row>
-    <row r="80" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A80" s="15"/>
-      <c r="C80" s="26">
-        <f>SUM(C67:C79)</f>
-        <v>10.75</v>
-      </c>
-      <c r="D80" s="17"/>
-      <c r="E80" s="18"/>
+      <c r="F80" s="24"/>
     </row>
     <row r="81" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A81" s="15"/>
+      <c r="C81" s="26">
+        <f>SUM(C68:C80)</f>
+        <v>10.75</v>
+      </c>
       <c r="D81" s="17"/>
       <c r="E81" s="18"/>
     </row>
     <row r="82" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A82" s="6">
+      <c r="A82" s="15"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="18"/>
+    </row>
+    <row r="83" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A83" s="6">
         <v>6</v>
       </c>
-      <c r="B82" s="21" t="s">
+      <c r="B83" s="21" t="s">
         <v>181</v>
       </c>
-      <c r="C82" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="D82" s="1" t="s">
+      <c r="C83" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="E82" s="18" t="s">
+      <c r="E83" s="18" t="s">
         <v>237</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A83" s="15"/>
-      <c r="B83" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="C83" s="19">
-        <v>1.5</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -3644,10 +3652,10 @@
         <v>233</v>
       </c>
       <c r="C84" s="19">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="E84" s="18" t="s">
         <v>232</v>
@@ -3655,17 +3663,17 @@
     </row>
     <row r="85" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A85" s="15"/>
-      <c r="B85" t="s">
-        <v>149</v>
-      </c>
-      <c r="C85">
-        <v>0.5</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="E85" s="8" t="s">
-        <v>136</v>
+      <c r="B85" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C85" s="19">
+        <v>0.5</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -3674,10 +3682,10 @@
         <v>149</v>
       </c>
       <c r="C86">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>134</v>
+        <v>235</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>136</v>
@@ -3692,7 +3700,7 @@
         <v>0.25</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>136</v>
@@ -3704,28 +3712,28 @@
         <v>149</v>
       </c>
       <c r="C88">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="E88" s="8" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A89" s="15"/>
-      <c r="B89" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="C89" s="16">
-        <v>0.75</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>236</v>
-      </c>
-      <c r="E89" s="18" t="s">
-        <v>238</v>
+      <c r="B89" t="s">
+        <v>149</v>
+      </c>
+      <c r="C89">
+        <v>0.5</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E89" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -3734,10 +3742,10 @@
         <v>239</v>
       </c>
       <c r="C90" s="16">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E90" s="18" t="s">
         <v>238</v>
@@ -3745,60 +3753,61 @@
     </row>
     <row r="91" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A91" s="15"/>
-      <c r="C91" s="26">
-        <f>SUM(C82:C90)</f>
-        <v>5.25</v>
-      </c>
-      <c r="D91" s="17"/>
-      <c r="E91" s="18"/>
+      <c r="B91" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C91" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D91" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="92" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A92" s="15"/>
+      <c r="C92" s="26">
+        <f>SUM(C83:C91)</f>
+        <v>5.25</v>
+      </c>
       <c r="D92" s="17"/>
       <c r="E92" s="18"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A93" s="6">
+    <row r="93" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A93" s="15"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="18"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A94" s="6">
         <v>7</v>
       </c>
-      <c r="B93" s="10" t="s">
+      <c r="B94" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="C93" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D93" s="1" t="s">
+      <c r="C94" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="E93" s="18" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B94" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C94" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D94" s="1" t="s">
-        <v>246</v>
       </c>
       <c r="E94" s="18" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B95" t="s">
+      <c r="B95" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="16">
         <v>0.5</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E95" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E95" s="18" t="s">
         <v>124</v>
       </c>
     </row>
@@ -3810,21 +3819,21 @@
         <v>0.5</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>265</v>
+        <v>123</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B97" s="10" t="s">
-        <v>292</v>
+      <c r="B97" t="s">
+        <v>247</v>
       </c>
       <c r="C97">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>245</v>
+        <v>265</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>124</v>
@@ -3832,44 +3841,44 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B98" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="C98">
+        <v>3.5</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B99" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="C99" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="E98" s="18" t="s">
+      <c r="E99" s="18" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B99" s="16" t="s">
-        <v>249</v>
-      </c>
-      <c r="C99" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B100" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="C100">
-        <v>0.25</v>
+      <c r="C100" s="16">
+        <v>0.5</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>251</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.6">
@@ -3877,10 +3886,10 @@
         <v>249</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>251</v>
@@ -3891,91 +3900,91 @@
         <v>249</v>
       </c>
       <c r="C102">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B103" s="10" t="s">
+      <c r="B103" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="C103">
+        <v>0.5</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B104" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="C103">
+      <c r="C104">
         <v>3.5</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="E104" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B104" s="16"/>
-      <c r="C104" s="25">
-        <f>SUM(C93:C103)</f>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B105" s="16"/>
+      <c r="C105" s="25">
+        <f>SUM(C94:C104)</f>
         <v>11.75</v>
       </c>
-      <c r="D104" s="1"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A106" s="6">
+      <c r="D105" s="1"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A107" s="6">
         <v>8</v>
       </c>
-      <c r="B106" s="10" t="s">
+      <c r="B107" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C106" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D106" s="1" t="s">
+      <c r="C107" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="E106" s="18" t="s">
+      <c r="E107" s="18" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B107" s="16" t="s">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B108" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="C107" s="16">
+      <c r="C108" s="16">
         <v>1.5</v>
       </c>
-      <c r="D107" s="17" t="s">
+      <c r="D108" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="E107" s="18" t="s">
+      <c r="E108" s="18" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B108" s="22" t="s">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B109" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="C108">
+      <c r="C109">
         <v>1.5</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D109" s="1" t="s">
         <v>244</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B109" t="s">
-        <v>142</v>
-      </c>
-      <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>74</v>
@@ -3986,10 +3995,10 @@
         <v>142</v>
       </c>
       <c r="C110">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>74</v>
@@ -4000,10 +4009,10 @@
         <v>142</v>
       </c>
       <c r="C111">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>74</v>
@@ -4011,48 +4020,47 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B112" t="s">
+        <v>142</v>
+      </c>
+      <c r="C112">
+        <v>0.5</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B113" t="s">
         <v>155</v>
       </c>
-      <c r="C112">
-        <v>0.5</v>
-      </c>
-      <c r="D112" s="1" t="s">
+      <c r="C113">
+        <v>0.5</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="E113" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B113" s="10" t="s">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B114" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="C113" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D113" s="1" t="s">
+      <c r="C114" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="D114" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E113" s="18" t="s">
+      <c r="E114" s="18" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B114" t="s">
-        <v>150</v>
-      </c>
-      <c r="C114">
-        <v>0.3</v>
-      </c>
-      <c r="D114" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
-      <c r="A115" s="15"/>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B115" t="s">
         <v>150</v>
       </c>
@@ -4060,7 +4068,7 @@
         <v>0.3</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>130</v>
@@ -4072,276 +4080,291 @@
         <v>150</v>
       </c>
       <c r="C116">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A117" s="15"/>
-      <c r="B117" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="C117" s="16">
-        <v>1</v>
-      </c>
-      <c r="D117" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="E117" s="18" t="s">
+      <c r="B117" t="s">
+        <v>150</v>
+      </c>
+      <c r="C117">
+        <v>0.4</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E117" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="118" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A118" s="15"/>
-      <c r="B118" s="10" t="s">
-        <v>271</v>
+      <c r="B118" s="16" t="s">
+        <v>266</v>
       </c>
       <c r="C118" s="16">
-        <v>0.5</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>188</v>
+        <v>1</v>
+      </c>
+      <c r="D118" s="17" t="s">
+        <v>267</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="119" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A119" s="15"/>
-      <c r="B119" s="16" t="s">
-        <v>261</v>
+      <c r="B119" s="10" t="s">
+        <v>271</v>
       </c>
       <c r="C119" s="16">
         <v>0.5</v>
       </c>
-      <c r="D119" s="17" t="s">
-        <v>255</v>
+      <c r="D119" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>256</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A120" s="15"/>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="16" t="s">
         <v>261</v>
       </c>
       <c r="C120" s="16">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D120" s="17" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="E120" s="18" t="s">
-        <v>190</v>
+        <v>256</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A121" s="15"/>
-      <c r="C121" s="26">
-        <f>SUM(C106:C120)</f>
-        <v>10.5</v>
-      </c>
-      <c r="D121" s="17"/>
-      <c r="E121" s="18"/>
+      <c r="B121" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="C121" s="16">
+        <v>0.75</v>
+      </c>
+      <c r="D121" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="E121" s="18" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="122" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A122" s="15"/>
+      <c r="C122" s="26">
+        <f>SUM(C107:C121)</f>
+        <v>10.5</v>
+      </c>
       <c r="D122" s="17"/>
       <c r="E122" s="18"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="A123" s="6">
+    <row r="123" spans="1:5" s="16" customFormat="1" x14ac:dyDescent="0.6">
+      <c r="A123" s="15"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="18"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="A124" s="6">
         <v>9</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B124" t="s">
         <v>268</v>
-      </c>
-      <c r="C123" s="16">
-        <v>2</v>
-      </c>
-      <c r="D123" t="s">
-        <v>284</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B124" t="s">
-        <v>272</v>
       </c>
       <c r="C124" s="16">
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E124" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B125" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C125" s="16">
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E125" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B126" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C126" s="16">
         <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E126" s="8" t="s">
-        <v>124</v>
+        <v>276</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B127" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C127" s="16">
         <v>2</v>
       </c>
       <c r="D127" t="s">
+        <v>286</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.6">
+      <c r="B128" t="s">
+        <v>270</v>
+      </c>
+      <c r="C128" s="16">
+        <v>2</v>
+      </c>
+      <c r="D128" t="s">
         <v>287</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E128" s="8" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.6">
-      <c r="B128" s="25"/>
-      <c r="C128" s="26">
-        <f>SUM(C123:C127)</f>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="B129" s="25"/>
+      <c r="C129" s="26">
+        <f>SUM(C124:C128)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="A130" s="6">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A131" s="6">
         <v>10</v>
       </c>
-      <c r="B130" s="16" t="s">
+      <c r="B131" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C130">
+      <c r="C131">
         <v>2</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="E130" s="8" t="s">
+      <c r="E131" s="8" t="s">
         <v>278</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="B131" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C131">
-        <v>2.5</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="E131" s="8" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B132" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C132">
         <v>2.5</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E132" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B133" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C133">
         <v>2.5</v>
       </c>
       <c r="D133" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="B134" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C134">
+        <v>2.5</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="E133" s="8" t="s">
+      <c r="E134" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="B134" s="21" t="s">
-        <v>299</v>
-      </c>
-      <c r="C134" s="19">
-        <v>0.25</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="F134" s="24"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B135" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="C135" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>298</v>
+      </c>
+      <c r="F135" s="24"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="B136" s="21" t="s">
         <v>304</v>
       </c>
-      <c r="C135" s="19">
+      <c r="C136" s="19">
         <v>0.1</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="D136" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="E136" s="8" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.6">
-      <c r="C136" s="25">
-        <f>SUM(C130:C135)</f>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="C137" s="25">
+        <f>SUM(C131:C136)</f>
         <v>9.85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D36" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="D37" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
     <hyperlink ref="D30" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
     <hyperlink ref="D15" r:id="rId3" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
-    <hyperlink ref="D109" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
-    <hyperlink ref="D110" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="D110" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="D111" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
     <hyperlink ref="D29" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
-    <hyperlink ref="D72" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="D73" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
     <hyperlink ref="D16" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
     <hyperlink ref="D17" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
     <hyperlink ref="D23" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
-    <hyperlink ref="D103" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
+    <hyperlink ref="D104" r:id="rId11" xr:uid="{00000000-0004-0000-0300-00000A000000}"/>
     <hyperlink ref="D4" r:id="rId12" xr:uid="{00000000-0004-0000-0300-00000B000000}"/>
     <hyperlink ref="D5" r:id="rId13" xr:uid="{00000000-0004-0000-0300-00000C000000}"/>
     <hyperlink ref="D8" r:id="rId14" xr:uid="{00000000-0004-0000-0300-00000D000000}"/>
@@ -4350,42 +4373,42 @@
     <hyperlink ref="D10" r:id="rId17" xr:uid="{00000000-0004-0000-0300-000010000000}"/>
     <hyperlink ref="D18" r:id="rId18" xr:uid="{00000000-0004-0000-0300-000011000000}"/>
     <hyperlink ref="D22" r:id="rId19" xr:uid="{00000000-0004-0000-0300-000012000000}"/>
-    <hyperlink ref="D34" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
+    <hyperlink ref="D35" r:id="rId20" xr:uid="{00000000-0004-0000-0300-000013000000}"/>
     <hyperlink ref="D19" r:id="rId21" xr:uid="{00000000-0004-0000-0300-000014000000}"/>
-    <hyperlink ref="D73" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
-    <hyperlink ref="D46" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
-    <hyperlink ref="D58" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
-    <hyperlink ref="D44" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
-    <hyperlink ref="D111" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
-    <hyperlink ref="D88" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
-    <hyperlink ref="D64" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
-    <hyperlink ref="D59" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
-    <hyperlink ref="D60" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
-    <hyperlink ref="D75" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
-    <hyperlink ref="D76" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
-    <hyperlink ref="D77" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
-    <hyperlink ref="D47" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
-    <hyperlink ref="D45" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
-    <hyperlink ref="D52" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
-    <hyperlink ref="D95" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
-    <hyperlink ref="D74" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
-    <hyperlink ref="D69" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
-    <hyperlink ref="D70" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
-    <hyperlink ref="D71" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
-    <hyperlink ref="D116" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
-    <hyperlink ref="D37" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
-    <hyperlink ref="D86" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
-    <hyperlink ref="D87" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
-    <hyperlink ref="D112" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
+    <hyperlink ref="D74" r:id="rId22" xr:uid="{00000000-0004-0000-0300-000015000000}"/>
+    <hyperlink ref="D47" r:id="rId23" xr:uid="{00000000-0004-0000-0300-000016000000}"/>
+    <hyperlink ref="D59" r:id="rId24" xr:uid="{00000000-0004-0000-0300-000017000000}"/>
+    <hyperlink ref="D45" r:id="rId25" xr:uid="{00000000-0004-0000-0300-000018000000}"/>
+    <hyperlink ref="D112" r:id="rId26" xr:uid="{00000000-0004-0000-0300-000019000000}"/>
+    <hyperlink ref="D89" r:id="rId27" xr:uid="{00000000-0004-0000-0300-00001A000000}"/>
+    <hyperlink ref="D65" r:id="rId28" xr:uid="{00000000-0004-0000-0300-00001B000000}"/>
+    <hyperlink ref="D60" r:id="rId29" xr:uid="{00000000-0004-0000-0300-00001C000000}"/>
+    <hyperlink ref="D61" r:id="rId30" xr:uid="{00000000-0004-0000-0300-00001D000000}"/>
+    <hyperlink ref="D76" r:id="rId31" xr:uid="{00000000-0004-0000-0300-00001E000000}"/>
+    <hyperlink ref="D77" r:id="rId32" xr:uid="{00000000-0004-0000-0300-00001F000000}"/>
+    <hyperlink ref="D78" r:id="rId33" xr:uid="{00000000-0004-0000-0300-000020000000}"/>
+    <hyperlink ref="D48" r:id="rId34" xr:uid="{00000000-0004-0000-0300-000021000000}"/>
+    <hyperlink ref="D46" r:id="rId35" xr:uid="{00000000-0004-0000-0300-000022000000}"/>
+    <hyperlink ref="D53" r:id="rId36" xr:uid="{00000000-0004-0000-0300-000023000000}"/>
+    <hyperlink ref="D96" r:id="rId37" xr:uid="{00000000-0004-0000-0300-000024000000}"/>
+    <hyperlink ref="D75" r:id="rId38" xr:uid="{00000000-0004-0000-0300-000025000000}"/>
+    <hyperlink ref="D70" r:id="rId39" xr:uid="{00000000-0004-0000-0300-000026000000}"/>
+    <hyperlink ref="D71" r:id="rId40" xr:uid="{00000000-0004-0000-0300-000027000000}"/>
+    <hyperlink ref="D72" r:id="rId41" xr:uid="{00000000-0004-0000-0300-000028000000}"/>
+    <hyperlink ref="D117" r:id="rId42" xr:uid="{00000000-0004-0000-0300-000029000000}"/>
+    <hyperlink ref="D38" r:id="rId43" xr:uid="{00000000-0004-0000-0300-00002A000000}"/>
+    <hyperlink ref="D87" r:id="rId44" xr:uid="{00000000-0004-0000-0300-00002B000000}"/>
+    <hyperlink ref="D88" r:id="rId45" xr:uid="{00000000-0004-0000-0300-00002C000000}"/>
+    <hyperlink ref="D113" r:id="rId46" xr:uid="{00000000-0004-0000-0300-00002D000000}"/>
     <hyperlink ref="D3" r:id="rId47" xr:uid="{00000000-0004-0000-0300-00002E000000}"/>
-    <hyperlink ref="D48" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
-    <hyperlink ref="D55" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
-    <hyperlink ref="D67" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
-    <hyperlink ref="D93" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
-    <hyperlink ref="D98" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
-    <hyperlink ref="D106" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
-    <hyperlink ref="D113" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
-    <hyperlink ref="D118" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
+    <hyperlink ref="D49" r:id="rId48" xr:uid="{00000000-0004-0000-0300-00002F000000}"/>
+    <hyperlink ref="D56" r:id="rId49" xr:uid="{00000000-0004-0000-0300-000030000000}"/>
+    <hyperlink ref="D68" r:id="rId50" xr:uid="{00000000-0004-0000-0300-000031000000}"/>
+    <hyperlink ref="D94" r:id="rId51" xr:uid="{00000000-0004-0000-0300-000032000000}"/>
+    <hyperlink ref="D99" r:id="rId52" xr:uid="{00000000-0004-0000-0300-000033000000}"/>
+    <hyperlink ref="D107" r:id="rId53" xr:uid="{00000000-0004-0000-0300-000034000000}"/>
+    <hyperlink ref="D114" r:id="rId54" xr:uid="{00000000-0004-0000-0300-000035000000}"/>
+    <hyperlink ref="D119" r:id="rId55" xr:uid="{00000000-0004-0000-0300-000036000000}"/>
     <hyperlink ref="D6" r:id="rId56" xr:uid="{00000000-0004-0000-0300-000037000000}"/>
     <hyperlink ref="D20" r:id="rId57" xr:uid="{00000000-0004-0000-0300-000038000000}"/>
     <hyperlink ref="D14" r:id="rId58" xr:uid="{00000000-0004-0000-0300-000039000000}"/>
@@ -4395,51 +4418,51 @@
     <hyperlink ref="D11" r:id="rId62" xr:uid="{00000000-0004-0000-0300-00003D000000}"/>
     <hyperlink ref="D25" r:id="rId63" xr:uid="{00000000-0004-0000-0300-00003E000000}"/>
     <hyperlink ref="D28" r:id="rId64" xr:uid="{00000000-0004-0000-0300-00003F000000}"/>
-    <hyperlink ref="D35" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
+    <hyperlink ref="D36" r:id="rId65" xr:uid="{00000000-0004-0000-0300-000040000000}"/>
     <hyperlink ref="D31" r:id="rId66" xr:uid="{00000000-0004-0000-0300-000041000000}"/>
-    <hyperlink ref="D50" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
-    <hyperlink ref="D61" r:id="rId68" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
-    <hyperlink ref="D56" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
-    <hyperlink ref="D57" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
-    <hyperlink ref="D49" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
-    <hyperlink ref="D53" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
-    <hyperlink ref="D54" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
-    <hyperlink ref="D51" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
-    <hyperlink ref="D62" r:id="rId75" xr:uid="{00000000-0004-0000-0300-00004A000000}"/>
-    <hyperlink ref="D63" r:id="rId76" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
-    <hyperlink ref="D42" r:id="rId77" xr:uid="{00000000-0004-0000-0300-00004C000000}"/>
-    <hyperlink ref="D43" r:id="rId78" xr:uid="{00000000-0004-0000-0300-00004D000000}"/>
-    <hyperlink ref="D82" r:id="rId79" xr:uid="{00000000-0004-0000-0300-00004E000000}"/>
-    <hyperlink ref="D68" r:id="rId80" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
-    <hyperlink ref="D83" r:id="rId81" xr:uid="{00000000-0004-0000-0300-000050000000}"/>
-    <hyperlink ref="D84" r:id="rId82" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
-    <hyperlink ref="D85" r:id="rId83" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
-    <hyperlink ref="D89" r:id="rId84" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
-    <hyperlink ref="D90" r:id="rId85" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
-    <hyperlink ref="D41" r:id="rId86" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
-    <hyperlink ref="D108" r:id="rId87" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
-    <hyperlink ref="D97" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
-    <hyperlink ref="D94" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
-    <hyperlink ref="D99" r:id="rId90" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
-    <hyperlink ref="D100" r:id="rId91" xr:uid="{00000000-0004-0000-0300-00005A000000}"/>
-    <hyperlink ref="D101" r:id="rId92" xr:uid="{00000000-0004-0000-0300-00005B000000}"/>
-    <hyperlink ref="D102" r:id="rId93" xr:uid="{00000000-0004-0000-0300-00005C000000}"/>
-    <hyperlink ref="D119" r:id="rId94" xr:uid="{00000000-0004-0000-0300-00005D000000}"/>
-    <hyperlink ref="D107" r:id="rId95" xr:uid="{00000000-0004-0000-0300-00005E000000}"/>
-    <hyperlink ref="D120" r:id="rId96" xr:uid="{00000000-0004-0000-0300-00005F000000}"/>
-    <hyperlink ref="D114" r:id="rId97" xr:uid="{00000000-0004-0000-0300-000060000000}"/>
-    <hyperlink ref="D115" r:id="rId98" xr:uid="{00000000-0004-0000-0300-000061000000}"/>
-    <hyperlink ref="D96" r:id="rId99" xr:uid="{00000000-0004-0000-0300-000062000000}"/>
-    <hyperlink ref="D117" r:id="rId100" xr:uid="{00000000-0004-0000-0300-000063000000}"/>
-    <hyperlink ref="D130" r:id="rId101" xr:uid="{00000000-0004-0000-0300-000064000000}"/>
-    <hyperlink ref="D131" r:id="rId102" xr:uid="{00000000-0004-0000-0300-000065000000}"/>
-    <hyperlink ref="D133" r:id="rId103" xr:uid="{00000000-0004-0000-0300-000066000000}"/>
-    <hyperlink ref="D132" r:id="rId104" xr:uid="{00000000-0004-0000-0300-000067000000}"/>
-    <hyperlink ref="D40" r:id="rId105" xr:uid="{00000000-0004-0000-0300-000068000000}"/>
+    <hyperlink ref="D51" r:id="rId67" xr:uid="{00000000-0004-0000-0300-000042000000}"/>
+    <hyperlink ref="D62" r:id="rId68" xr:uid="{00000000-0004-0000-0300-000043000000}"/>
+    <hyperlink ref="D57" r:id="rId69" xr:uid="{00000000-0004-0000-0300-000044000000}"/>
+    <hyperlink ref="D58" r:id="rId70" xr:uid="{00000000-0004-0000-0300-000045000000}"/>
+    <hyperlink ref="D50" r:id="rId71" xr:uid="{00000000-0004-0000-0300-000046000000}"/>
+    <hyperlink ref="D54" r:id="rId72" xr:uid="{00000000-0004-0000-0300-000047000000}"/>
+    <hyperlink ref="D55" r:id="rId73" xr:uid="{00000000-0004-0000-0300-000048000000}"/>
+    <hyperlink ref="D52" r:id="rId74" xr:uid="{00000000-0004-0000-0300-000049000000}"/>
+    <hyperlink ref="D63" r:id="rId75" xr:uid="{00000000-0004-0000-0300-00004A000000}"/>
+    <hyperlink ref="D64" r:id="rId76" xr:uid="{00000000-0004-0000-0300-00004B000000}"/>
+    <hyperlink ref="D43" r:id="rId77" xr:uid="{00000000-0004-0000-0300-00004C000000}"/>
+    <hyperlink ref="D44" r:id="rId78" xr:uid="{00000000-0004-0000-0300-00004D000000}"/>
+    <hyperlink ref="D83" r:id="rId79" xr:uid="{00000000-0004-0000-0300-00004E000000}"/>
+    <hyperlink ref="D69" r:id="rId80" xr:uid="{00000000-0004-0000-0300-00004F000000}"/>
+    <hyperlink ref="D84" r:id="rId81" xr:uid="{00000000-0004-0000-0300-000050000000}"/>
+    <hyperlink ref="D85" r:id="rId82" xr:uid="{00000000-0004-0000-0300-000051000000}"/>
+    <hyperlink ref="D86" r:id="rId83" xr:uid="{00000000-0004-0000-0300-000052000000}"/>
+    <hyperlink ref="D90" r:id="rId84" xr:uid="{00000000-0004-0000-0300-000053000000}"/>
+    <hyperlink ref="D91" r:id="rId85" xr:uid="{00000000-0004-0000-0300-000054000000}"/>
+    <hyperlink ref="D42" r:id="rId86" xr:uid="{00000000-0004-0000-0300-000055000000}"/>
+    <hyperlink ref="D109" r:id="rId87" xr:uid="{00000000-0004-0000-0300-000056000000}"/>
+    <hyperlink ref="D98" r:id="rId88" xr:uid="{00000000-0004-0000-0300-000057000000}"/>
+    <hyperlink ref="D95" r:id="rId89" xr:uid="{00000000-0004-0000-0300-000058000000}"/>
+    <hyperlink ref="D100" r:id="rId90" xr:uid="{00000000-0004-0000-0300-000059000000}"/>
+    <hyperlink ref="D101" r:id="rId91" xr:uid="{00000000-0004-0000-0300-00005A000000}"/>
+    <hyperlink ref="D102" r:id="rId92" xr:uid="{00000000-0004-0000-0300-00005B000000}"/>
+    <hyperlink ref="D103" r:id="rId93" xr:uid="{00000000-0004-0000-0300-00005C000000}"/>
+    <hyperlink ref="D120" r:id="rId94" xr:uid="{00000000-0004-0000-0300-00005D000000}"/>
+    <hyperlink ref="D108" r:id="rId95" xr:uid="{00000000-0004-0000-0300-00005E000000}"/>
+    <hyperlink ref="D121" r:id="rId96" xr:uid="{00000000-0004-0000-0300-00005F000000}"/>
+    <hyperlink ref="D115" r:id="rId97" xr:uid="{00000000-0004-0000-0300-000060000000}"/>
+    <hyperlink ref="D116" r:id="rId98" xr:uid="{00000000-0004-0000-0300-000061000000}"/>
+    <hyperlink ref="D97" r:id="rId99" xr:uid="{00000000-0004-0000-0300-000062000000}"/>
+    <hyperlink ref="D118" r:id="rId100" xr:uid="{00000000-0004-0000-0300-000063000000}"/>
+    <hyperlink ref="D131" r:id="rId101" xr:uid="{00000000-0004-0000-0300-000064000000}"/>
+    <hyperlink ref="D132" r:id="rId102" xr:uid="{00000000-0004-0000-0300-000065000000}"/>
+    <hyperlink ref="D134" r:id="rId103" xr:uid="{00000000-0004-0000-0300-000066000000}"/>
+    <hyperlink ref="D133" r:id="rId104" xr:uid="{00000000-0004-0000-0300-000067000000}"/>
+    <hyperlink ref="D41" r:id="rId105" xr:uid="{00000000-0004-0000-0300-000068000000}"/>
     <hyperlink ref="D2" r:id="rId106" location="/preassessment" xr:uid="{00000000-0004-0000-0300-000069000000}"/>
-    <hyperlink ref="D79" r:id="rId107" location="/preassessment" xr:uid="{00000000-0004-0000-0300-00006A000000}"/>
-    <hyperlink ref="D134" r:id="rId108" location="/preassessment" xr:uid="{00000000-0004-0000-0300-00006B000000}"/>
-    <hyperlink ref="D135" r:id="rId109" xr:uid="{00000000-0004-0000-0300-00006C000000}"/>
+    <hyperlink ref="D80" r:id="rId107" location="/preassessment" xr:uid="{00000000-0004-0000-0300-00006A000000}"/>
+    <hyperlink ref="D135" r:id="rId108" location="/preassessment" xr:uid="{00000000-0004-0000-0300-00006B000000}"/>
+    <hyperlink ref="D136" r:id="rId109" xr:uid="{00000000-0004-0000-0300-00006C000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId110"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4236AF05-4D39-4DC4-A2EF-832839941ABA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE78325C-CD3A-43E1-A3CF-04014BF78852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="315">
   <si>
     <t>Important notes</t>
   </si>
@@ -1175,7 +1175,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1225,11 +1225,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1765,33 +1766,33 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="32"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="11" t="s">
@@ -1821,149 +1822,149 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="11"/>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="11"/>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A16" s="32" t="s">
+      <c r="A16" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A17" s="33" t="s">
+      <c r="A17" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="32"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B24" s="12" t="s">
@@ -2015,10 +2016,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2140,178 +2141,179 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>46</v>
+      <c r="B7" s="28" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>308</v>
       </c>
       <c r="F7" s="23" t="s">
         <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>305</v>
-      </c>
+      <c r="B8" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
+      <c r="C11">
         <v>1.5</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E11" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="F9" s="24"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="C10">
-        <f>SUM(C2:C9)</f>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="C12">
+        <f>SUM(C2:C11)</f>
         <v>11.25</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="A12" s="6">
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
+      <c r="A14" s="6">
         <v>2</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>4</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E14" s="8" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="B13" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C13">
-        <v>2.5</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="B14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>2.5</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B15" s="10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15">
         <v>2.5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.6">
       <c r="B16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>2.5</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B17" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17">
+        <v>2.5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="B18" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C18" s="4">
         <v>0.25</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="E16" s="8" t="s">
+      <c r="E18" s="8" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.6">
-      <c r="C17">
-        <f>SUM(C12:C16)</f>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.6">
+      <c r="C19">
+        <f>SUM(C14:C18)</f>
         <v>11.75</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.6">
-      <c r="D19" s="28" t="s">
-        <v>307</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.6">
-      <c r="D20" s="29" t="s">
-        <v>309</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>308</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D15" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="D14" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="D13" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D12" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="D17" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="D16" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="D15" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D14" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
     <hyperlink ref="D2" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
     <hyperlink ref="D3" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
     <hyperlink ref="D4" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="D8" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="D7" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D9" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="D10" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="D9" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
     <hyperlink ref="D6" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
     <hyperlink ref="D5" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
-    <hyperlink ref="D16" r:id="rId13" location="/preassessment" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
-    <hyperlink ref="D19" r:id="rId14" display="https://app.pluralsight.com/courses/c0bcd282-3110-49e3-b2b9-94c7348f5222/table-of-contents" xr:uid="{7FEF6754-3EFB-4E2D-86B3-CBF3C492E594}"/>
+    <hyperlink ref="D18" r:id="rId13" location="/preassessment" xr:uid="{00000000-0004-0000-0100-00000C000000}"/>
+    <hyperlink ref="B7" r:id="rId14" display="https://app.pluralsight.com/courses/c0bcd282-3110-49e3-b2b9-94c7348f5222/table-of-contents" xr:uid="{7FEF6754-3EFB-4E2D-86B3-CBF3C492E594}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId15"/>
@@ -2401,8 +2403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2964,6 +2966,9 @@
         <v>313</v>
       </c>
       <c r="E34" s="8"/>
+      <c r="F34" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="35" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A35" s="15"/>
@@ -2979,6 +2984,9 @@
       <c r="E35" s="8" t="s">
         <v>19</v>
       </c>
+      <c r="F35" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="36" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A36" s="15"/>
@@ -2993,6 +3001,9 @@
       </c>
       <c r="E36" s="8" t="s">
         <v>166</v>
+      </c>
+      <c r="F36" s="23" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -3070,6 +3081,9 @@
       </c>
       <c r="E42" s="8" t="s">
         <v>228</v>
+      </c>
+      <c r="F42" s="34">
+        <v>0.76250000000000007</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE78325C-CD3A-43E1-A3CF-04014BF78852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC7B993-AB17-4D92-BEA5-894ACC0530C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="315">
   <si>
     <t>Important notes</t>
   </si>
@@ -1175,7 +1175,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1225,12 +1225,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="85">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1414,6 +1413,182 @@
         <a:xfrm>
           <a:off x="0" y="3368040"/>
           <a:ext cx="8249365" cy="4496190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>34290</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>610173</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>187034</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Afbeelding 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D917DD5F-14C7-45A8-A579-5D99A0DC5469}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34290" y="12066270"/>
+          <a:ext cx="6610923" cy="3970364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>617734</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>126048</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Afbeelding 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02FDACA6-7B4D-4EEF-8EA4-AF61B287E413}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45720" y="7947660"/>
+          <a:ext cx="5936494" cy="3669348"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>64770</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>655836</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>38429</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Afbeelding 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3319E1FD-F18E-431B-90FB-86DF5E3CA0B5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="64770" y="16649700"/>
+          <a:ext cx="5955546" cy="3795089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27137</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>175584</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Afbeelding 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED1AF2BB-A734-4C6E-8041-A632419C50FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="21000720"/>
+          <a:ext cx="5391617" cy="3741744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1766,33 +1941,33 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="1"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="11" t="s">
@@ -1822,149 +1997,149 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A8" s="11"/>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A9" s="11"/>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="31"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="32"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B14" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A17" s="32" t="s">
+      <c r="A17" s="33" t="s">
         <v>277</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A21" s="29" t="s">
+      <c r="A21" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A22" s="29" t="s">
+      <c r="A22" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.6">
       <c r="B24" s="12" t="s">
@@ -2019,7 +2194,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2152,7 +2327,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.6">
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="29" t="s">
         <v>309</v>
       </c>
       <c r="D8" s="8" t="s">
@@ -2403,8 +2578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2905,6 +3080,9 @@
       <c r="E30" s="8" t="s">
         <v>70</v>
       </c>
+      <c r="F30" s="23" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="31" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
       <c r="A31" s="15"/>
@@ -3082,8 +3260,8 @@
       <c r="E42" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="F42" s="34">
-        <v>0.76250000000000007</v>
+      <c r="F42" s="23" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="43" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.6">
@@ -4492,8 +4670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9396D2C4-4E2A-4652-BA4A-864B8DF6A565}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="A107" sqref="A107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericb\Documents\Courses\GitHelpFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FC7B993-AB17-4D92-BEA5-894ACC0530C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5097C0-D907-42D7-A4B0-8F468595EA36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="SQUARE_ONE" sheetId="5" r:id="rId3"/>
     <sheet name="10WEEK" sheetId="2" r:id="rId4"/>
     <sheet name="oauth" sheetId="6" r:id="rId5"/>
+    <sheet name="git" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -1600,6 +1601,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>211451</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>128676</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Afbeelding 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D77F7F4A-1D19-4CB6-B442-C9CD37B778D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="198120"/>
+          <a:ext cx="13622651" cy="7459116"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>525820</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>46805</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Afbeelding 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1BDF9CA-4918-43B2-86EE-1D9354A3BBF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="8122920"/>
+          <a:ext cx="13937020" cy="7773485"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2194,7 +2288,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -2578,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
@@ -4679,4 +4773,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455980B5-ECA1-40E8-AC52-3EA96DA5A253}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="Z19" sqref="Z19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -5,7 +5,7 @@
   <fileSharing readOnlyRecommended="0" userName="eric"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="1" xWindow="240" yWindow="60" windowWidth="19395" windowHeight="10395" tabRatio="500"/>
+    <workbookView activeTab="3" xWindow="240" yWindow="60" windowWidth="19395" windowHeight="10395" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId4"/>
@@ -18,17 +18,17 @@
   <calcPr/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:revision xmlns:pm="smNativeData" day="1593976365" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
-      <pm:docPrefs xmlns:pm="smNativeData" id="1593976365" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
-      <pm:compatibility xmlns:pm="smNativeData" id="1593976365" overlapCells="1"/>
-      <pm:defCurrency xmlns:pm="smNativeData" id="1593976365"/>
+      <pm:revision xmlns:pm="smNativeData" day="1594236804" val="976" rev="124" rev64="64" revOS="3" revMin="124" revMax="0"/>
+      <pm:docPrefs xmlns:pm="smNativeData" id="1594236804" fixedDigits="0" showNotice="1" showFrameBounds="1" autoChart="1" recalcOnPrint="1" recalcOnCopy="1" finalRounding="1" compatTextArt="1" tab="567" useDefinedPrintRange="1" printArea="currentSheet"/>
+      <pm:compatibility xmlns:pm="smNativeData" id="1594236804" overlapCells="1"/>
+      <pm:defCurrency xmlns:pm="smNativeData" id="1594236804"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="316">
   <si>
     <t>Important notes</t>
   </si>
@@ -463,6 +463,9 @@
   </si>
   <si>
     <t>4.2</t>
+  </si>
+  <si>
+    <t>mod 6</t>
   </si>
   <si>
     <t>DevNet Sandbox - CI/CD Pipeline with Kubernetes</t>
@@ -979,7 +982,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="5" formatCode="#,##0\ &quot;€&quot;;\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="7" formatCode="#,##0.00\ &quot;€&quot;;\-#,##0.00\ &quot;€&quot;"/>
@@ -990,6 +993,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="49" formatCode="@"/>
     <numFmt numFmtId="15" formatCode="D-MMM-YY"/>
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
   <fonts count="119">
     <font>
@@ -999,7 +1003,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1014,7 +1018,7 @@
       <sz val="10"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" ulstyle="none" kern="1">
             <pm:latin face="Basic Sans" sz="200" lang="default"/>
             <pm:cs face="Basic Roman" sz="200" lang="default"/>
             <pm:ea face="Basic Roman" sz="200" lang="default"/>
@@ -1030,7 +1034,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default" weight="bold"/>
             <pm:cs face="Basic Roman" sz="240" lang="default" weight="bold"/>
             <pm:ea face="Basic Roman" sz="240" lang="default" weight="bold"/>
@@ -1046,7 +1050,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1061,7 +1065,7 @@
       <sz val="22"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="440" lang="default"/>
             <pm:cs face="Basic Roman" sz="440" lang="default"/>
             <pm:ea face="Basic Roman" sz="440" lang="default"/>
@@ -1077,7 +1081,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="800080" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="800080" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1093,7 +1097,7 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" ulstyle="none" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" ulstyle="none" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default" i="1"/>
             <pm:cs face="Basic Roman" sz="240" lang="default" i="1"/>
             <pm:ea face="Basic Roman" sz="240" lang="default" i="1"/>
@@ -1108,23 +1112,23 @@
       <sz val="12"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="FF0000" ulstyle="none" kern="1">
-            <pm:latin face="Calibri" sz="240" lang="default"/>
-            <pm:cs face="Basic Roman" sz="240" lang="default"/>
-            <pm:ea face="Basic Roman" sz="240" lang="default"/>
-          </pm:charSpec>
-        </ext>
-      </extLst>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <color rgb="FF0000FF"/>
-      <sz val="12"/>
-      <u val="single"/>
-      <extLst>
-        <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="FF0000" ulstyle="none" kern="1">
+            <pm:latin face="Calibri" sz="240" lang="default"/>
+            <pm:cs face="Basic Roman" sz="240" lang="default"/>
+            <pm:ea face="Basic Roman" sz="240" lang="default"/>
+          </pm:charSpec>
+        </ext>
+      </extLst>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <u val="single"/>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1141,7 +1145,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1158,7 +1162,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1175,7 +1179,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1192,7 +1196,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1209,7 +1213,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1226,7 +1230,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1243,7 +1247,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1260,7 +1264,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1277,7 +1281,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1294,7 +1298,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1311,7 +1315,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1328,7 +1332,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1345,7 +1349,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1362,7 +1366,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1379,7 +1383,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1396,7 +1400,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1413,7 +1417,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1430,7 +1434,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1447,7 +1451,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1464,7 +1468,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1481,7 +1485,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1498,7 +1502,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1515,7 +1519,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1532,7 +1536,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1549,7 +1553,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1566,7 +1570,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1583,7 +1587,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1600,7 +1604,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1617,7 +1621,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1634,7 +1638,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1651,7 +1655,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1668,7 +1672,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1685,7 +1689,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1702,7 +1706,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1719,7 +1723,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1736,7 +1740,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1753,7 +1757,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1770,7 +1774,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1787,7 +1791,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1804,7 +1808,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1821,7 +1825,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1838,7 +1842,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1855,7 +1859,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1872,7 +1876,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1889,7 +1893,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1906,7 +1910,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1923,7 +1927,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1940,7 +1944,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1957,7 +1961,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1974,7 +1978,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -1991,7 +1995,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2008,7 +2012,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2025,7 +2029,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2042,7 +2046,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2059,7 +2063,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2076,7 +2080,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2093,7 +2097,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2110,7 +2114,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2127,7 +2131,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2144,7 +2148,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2161,7 +2165,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2178,7 +2182,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2195,7 +2199,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2212,7 +2216,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2229,7 +2233,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2246,7 +2250,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2263,7 +2267,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2280,7 +2284,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2297,7 +2301,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2314,7 +2318,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2331,7 +2335,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2348,7 +2352,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2365,7 +2369,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2382,7 +2386,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2399,7 +2403,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2416,7 +2420,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2433,7 +2437,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2450,7 +2454,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2467,7 +2471,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2484,7 +2488,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2501,7 +2505,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2518,7 +2522,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2535,7 +2539,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2552,7 +2556,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2569,7 +2573,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2586,7 +2590,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2603,7 +2607,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2620,7 +2624,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2637,7 +2641,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2654,7 +2658,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2671,7 +2675,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2688,7 +2692,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2705,7 +2709,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2722,7 +2726,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2739,7 +2743,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2756,7 +2760,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2773,7 +2777,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2790,7 +2794,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2807,7 +2811,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2824,7 +2828,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2841,7 +2845,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2858,7 +2862,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2875,7 +2879,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2892,7 +2896,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2909,7 +2913,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2926,7 +2930,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2943,7 +2947,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2960,7 +2964,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2977,7 +2981,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -2994,7 +2998,7 @@
       <u val="single"/>
       <extLst>
         <ext uri="smNativeData">
-          <pm:charSpec xmlns:pm="smNativeData" id="1593976365" fgClr="0000FF" ulstyle="single" kern="1">
+          <pm:charSpec xmlns:pm="smNativeData" id="1594236804" fgClr="0000FF" ulstyle="single" kern="1">
             <pm:latin face="Calibri" sz="240" lang="default"/>
             <pm:cs face="Basic Roman" sz="240" lang="default"/>
             <pm:ea face="Basic Roman" sz="240" lang="default"/>
@@ -3004,7 +3008,7 @@
       </extLst>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3017,7 +3021,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1593976365" type="1" fgLvl="100" fgClr="00D7E3BB" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594236804" type="1" fgLvl="100" fgClr="00D7E3BB" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3028,7 +3032,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1593976365" type="1" fgLvl="100" fgClr="0092D050" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594236804" type="1" fgLvl="100" fgClr="0092D050" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3039,7 +3043,7 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1593976365" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594236804" type="1" fgLvl="100" fgClr="00FFFF00" bgLvl="0" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
@@ -3050,13 +3054,24 @@
         <bgColor rgb="FFFFFFFF"/>
         <extLst>
           <ext uri="smNativeData">
-            <pm:shade xmlns:pm="smNativeData" id="1593976365" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00000000"/>
+            <pm:shade xmlns:pm="smNativeData" id="1594236804" type="1" fgLvl="100" fgClr="00FF0000" bgLvl="0" bgClr="00000000"/>
+          </ext>
+        </extLst>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+        <extLst>
+          <ext uri="smNativeData">
+            <pm:shade xmlns:pm="smNativeData" id="1594236804" type="1" fgLvl="100" fgClr="00FFFFFF" bgLvl="100" bgClr="00000000"/>
           </ext>
         </extLst>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left style="none">
         <color rgb="FF000000"/>
@@ -3072,7 +3087,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1593976365"/>
+          <pm:border xmlns:pm="smNativeData" id="1594236804"/>
         </ext>
       </extLst>
     </border>
@@ -3091,7 +3106,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1593976365"/>
+          <pm:border xmlns:pm="smNativeData" id="1594236804"/>
         </ext>
       </extLst>
     </border>
@@ -3110,7 +3125,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1593976365"/>
+          <pm:border xmlns:pm="smNativeData" id="1594236804"/>
         </ext>
       </extLst>
     </border>
@@ -3129,7 +3144,7 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1593976365"/>
+          <pm:border xmlns:pm="smNativeData" id="1594236804"/>
         </ext>
       </extLst>
     </border>
@@ -3148,7 +3163,26 @@
       </bottom>
       <extLst>
         <ext uri="smNativeData">
-          <pm:border xmlns:pm="smNativeData" id="1593976365"/>
+          <pm:border xmlns:pm="smNativeData" id="1594236804"/>
+        </ext>
+      </extLst>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="none">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+      <extLst>
+        <ext uri="smNativeData">
+          <pm:border xmlns:pm="smNativeData" id="1594236804"/>
         </ext>
       </extLst>
     </border>
@@ -3158,7 +3192,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
@@ -3298,6 +3332,7 @@
     <xf numFmtId="0" fontId="116" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="117" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="118" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -3307,10 +3342,10 @@
   <tableStyles count="0"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:charStyles xmlns:pm="smNativeData" id="1593976365" count="1">
+      <pm:charStyles xmlns:pm="smNativeData" id="1594236804" count="1">
         <pm:charStyle name="Normal" fontId="0" Id="1"/>
       </pm:charStyles>
-      <pm:colors xmlns:pm="smNativeData" id="1593976365" count="3">
+      <pm:colors xmlns:pm="smNativeData" id="1594236804" count="3">
         <pm:color name="Color 24" rgb="800080"/>
         <pm:color name="Color 25" rgb="D7E3BB"/>
         <pm:color name="Color 26" rgb="92D050"/>
@@ -3342,7 +3377,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_LSYCXxMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAABAAAAAIAAAAzAAIAQAAAAAAAAAA5yEAAAIVAAABAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_hB8GXxMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACEAAAAwAAAALAAAAAAAAAAAAAAAAAAAABAAAAAIAAAAzAAIAQAAAAAAAAAA5yEAAAIVAAABAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3393,7 +3428,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_LSYCXxMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACEAAAAwAAAALAAAABEAAAAAAAAAAAAAACcAAAAMAAAAnQI3AQAAAAAMFgAAgzIAAGEdAAABAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_hB8GXxMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACEAAAAwAAAALAAAABEAAAAAAAAAAAAAACcAAAAMAAAAnQI3AQAAAAAMFgAAgzIAAGEdAAABAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3444,7 +3479,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_LSYCXxMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACEAAAAwAAAALAAAADwAAAAAAAAAZgM1AFAAAAAJAAAAjgOoAzYAAADqTgAAfigAAP0ZAAABAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_hB8GXxMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACEAAAAwAAAALAAAADwAAAAAAAAAZgM1AFAAAAAJAAAAjgOoAzYAAADqTgAAfigAAP0ZAAABAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3495,7 +3530,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_LSYCXxMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACEAAAAwAAAALAAAACgAAAAAAAAAbwBGADoAAAAIAAAAZgK0A0gAAAAENAAAXSQAAPsXAAABAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_hB8GXxMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACEAAAAwAAAALAAAACgAAAAAAAAAbwBGADoAAAAIAAAAZgK0A0gAAAAENAAAXSQAAPsXAAABAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3546,7 +3581,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_LSYCXxMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACEAAAAwAAAALAAAAFQAAAAAAAAAJQBjAGcAAAAIAAAAvADuA2YAAAD8bAAAeyQAANUYAAABAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_hB8GXxMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACEAAAAwAAAALAAAAFQAAAAAAAAAJQBjAGcAAAAIAAAAvADuA2YAAAD8bAAAeyQAANUYAAABAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3597,7 +3632,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_LSYCXxMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACEAAAAwAAAALAAAAGoAAAAAAAAAAAAAAHwAAAAIAAAAVgMqAAAAAAB4iQAAAyEAAG0YAAABAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_hB8GXxMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAAAAAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACEAAAAwAAAALAAAAGoAAAAAAAAAAAAAAHwAAAAIAAAAVgMqAAAAAAB4iQAAAyEAAG0YAAABAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3653,7 +3688,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_LSYCXxMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAcEQAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACEAAAAwAAAALAAAAAEAAAAAAAAAAAAAACYAAAAUAAAAcgJEAQAAAABMAQAAaVMAAMcwAAABAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_hB8GXxMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAAAcEQAADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACEAAAAwAAAALAAAAAEAAAAAAAAAAAAAACYAAAAUAAAAcgJEAQAAAABMAQAAaVMAAMcwAAABAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -3704,7 +3739,7 @@
           <a:picLocks noChangeAspect="1"/>
           <a:extLst>
             <a:ext uri="smNativeData">
-              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_LSYCXxMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAABhAG4ADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACEAAAAwAAAALAAAACkAAAAAAAAAAAAAAFAAAAAUAAAA5AAnAwAAAAAsNQAAWFUAAN4yAAABAAAA"/>
+              <pm:smNativeData xmlns:pm="smNativeData" val="SMDATA_13_hB8GXxMAAAAlAAAAEQAAAK0AAAAAkAAAAEgAAACQAAAASAAAAAAAAAAAAAAAAAAAAAEAAABQAAAAAAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8AAAAAAADgPwAAAAAAAOA/AAAAAAAA4D8CAAAAjAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAeAAAAAEAAABAAAAAAAAAAAAAAABaAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAFAAAADwAAAAAAAAAAAAAAAAAAAAPAAAAAQAAACMAAAAjAAAAIwAAAB4AAAAAAAAAZAAAAGQAAAAAAAAAZAAAAGQAAAAVAAAAYAAAAAAAAAAAAAAADwAAACADAAAAAAAAAAAAAAEAAACgMgAAVgcAAKr4//8BAAAAf39/AAEAAABkAAAAAAAAABQAAABAHwAAAAAAACYAAAAAAAAAwOD//wAAAAAmAAAAZAAAABYAAABMAAAAAAAAAAAAAAAEAAAAAAAAAAEAAAB/f38AAAAAACgAAAAoAAAAZAAAAGQAAAAAAAAAzMzMAAAAAABQAAAAUAAAAGQAAABkAAAAAAAAAAcAAAA4AAAAAAAAAAAAAAAAAAAA////AAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABkAAAAZAAAAAEAAAAjAAAABAAAAGQAAAAXAAAAFAAAAAAAAAAAAAAA/38AAP9/AAAAAAAACQAAAAQAAABhAG4ADAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAHgAAAGgAAAAAAAAAAAAAAAAAAAAAAAAAAAAAABAnAAAQJwAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAUAAAAAAAAAMDA/wAAAAAAZAAAADIAAAAAAAAAZAAAAAAAAAB/f38ACgAAACEAAAAwAAAALAAAACkAAAAAAAAAAAAAAFAAAAAUAAAA5AAnAwAAAAAsNQAAWFUAAN4yAAABAAAA"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPicPr>
@@ -4246,7 +4281,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1593976365" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594236804" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4255,14 +4290,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1593976365" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1593976365" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594236804" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594236804" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593976365" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594236804" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4275,7 +4310,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="normal" zoomScale="200" workbookViewId="0">
+    <sheetView view="normal" zoomScale="200" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -4577,7 +4612,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1593976365" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594236804" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4586,14 +4621,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1593976365" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1593976365" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594236804" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594236804" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593976365" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594236804" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4606,7 +4641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView view="normal" workbookViewId="0">
+    <sheetView view="normal" zoomScale="180" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -4669,7 +4704,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1593976365" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594236804" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -4678,14 +4713,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1593976365" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1593976365" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594236804" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594236804" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593976365" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594236804" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -4698,8 +4733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F137"/>
   <sheetViews>
-    <sheetView view="normal" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" view="normal" topLeftCell="A22" zoomScale="230" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.795082" defaultRowHeight="16.60"/>
@@ -5302,7 +5337,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="0" customFormat="1">
+    <row r="37" spans="1:6" s="0" customFormat="1">
       <c r="A37" s="5"/>
       <c r="B37" t="s">
         <v>142</v>
@@ -5315,6 +5350,9 @@
       </c>
       <c r="E37" s="7" t="s">
         <v>144</v>
+      </c>
+      <c r="F37" s="127" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:5" s="0" customFormat="1">
@@ -5326,7 +5364,7 @@
         <v>2</v>
       </c>
       <c r="D38" s="58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>144</v>
@@ -5351,31 +5389,31 @@
         <v>4</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C41" t="n">
         <v>0.5</v>
       </c>
       <c r="D41" s="63" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="0" customFormat="1">
       <c r="A42" s="5"/>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" s="89" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>28</v>
@@ -5384,338 +5422,338 @@
     <row r="43" spans="1:5" s="0" customFormat="1">
       <c r="A43" s="5"/>
       <c r="B43" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C43" t="n">
         <v>0.5</v>
       </c>
       <c r="D43" s="81" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="0" customFormat="1">
       <c r="A44" s="5"/>
       <c r="B44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C44" t="n">
         <v>0.25</v>
       </c>
       <c r="D44" s="82" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="2:5">
       <c r="B45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C45" t="n">
         <v>0.25</v>
       </c>
       <c r="D45" s="40" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="2:5">
       <c r="B46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C46" t="n">
         <v>0.5</v>
       </c>
       <c r="D46" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="47" spans="2:5">
       <c r="B47" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C47" t="n">
         <v>0.25</v>
       </c>
       <c r="D47" s="38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="2:5">
       <c r="B48" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C48" t="n">
         <v>0.25</v>
       </c>
       <c r="D48" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="E48" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="49" spans="2:5">
       <c r="B49" s="8" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C49" t="n">
         <v>0.5</v>
       </c>
       <c r="D49" s="63" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:5">
       <c r="B50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C50" t="n">
         <v>0.5</v>
       </c>
       <c r="D50" s="75" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="2:5">
       <c r="B51" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
       </c>
       <c r="D51" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="52" spans="2:5">
       <c r="B52" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C52" t="n">
         <v>0.5</v>
       </c>
       <c r="D52" s="78" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:5" s="0" customFormat="1">
       <c r="A53" s="5"/>
       <c r="B53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C53" t="n">
         <v>0.5</v>
       </c>
       <c r="D53" s="51" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="0" customFormat="1">
       <c r="A54" s="5"/>
       <c r="B54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C54" t="n">
         <v>0.1</v>
       </c>
       <c r="D54" s="76" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="0" customFormat="1">
       <c r="A55" s="5"/>
       <c r="B55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C55" t="n">
         <v>0.1</v>
       </c>
       <c r="D55" s="77" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="E55" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="0" customFormat="1">
       <c r="A56" s="5"/>
       <c r="B56" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C56" t="n">
         <v>0.5</v>
       </c>
       <c r="D56" s="63" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="0" customFormat="1">
       <c r="A57" s="5"/>
       <c r="B57" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C57" t="n">
         <v>0.25</v>
       </c>
       <c r="D57" s="73" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" spans="1:5" s="0" customFormat="1">
       <c r="A58" s="5"/>
       <c r="B58" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C58" t="n">
         <v>0.25</v>
       </c>
       <c r="D58" s="74" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="E58" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="0" customFormat="1">
       <c r="A59" s="5"/>
       <c r="B59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C59" t="n">
         <v>0.5</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:5" s="0" customFormat="1">
       <c r="A60" s="5"/>
       <c r="B60" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C60" t="n">
         <v>0.5</v>
       </c>
       <c r="D60" s="44" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:5" s="0" customFormat="1">
       <c r="A61" s="5"/>
       <c r="B61" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C61" t="n">
         <v>0.5</v>
       </c>
       <c r="D61" s="45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" spans="1:5" s="0" customFormat="1">
       <c r="A62" s="5"/>
       <c r="B62" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C62" t="n">
         <v>0.5</v>
       </c>
       <c r="D62" s="72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" spans="1:5" s="0" customFormat="1">
       <c r="A63" s="5"/>
       <c r="B63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C63" t="n">
         <v>0.25</v>
       </c>
       <c r="D63" s="79" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="E63" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="64" spans="1:5" s="0" customFormat="1">
       <c r="A64" s="5"/>
       <c r="B64" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C64" t="n">
         <v>0.5</v>
       </c>
       <c r="D64" s="80" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:5" s="0" customFormat="1">
       <c r="A65" s="5"/>
       <c r="B65" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C65" t="n">
         <v>0.5</v>
       </c>
       <c r="D65" s="43" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" spans="1:5" s="0" customFormat="1">
@@ -5735,182 +5773,182 @@
         <v>5</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C68" t="n">
         <v>0.5</v>
       </c>
       <c r="D68" s="63" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" spans="1:5" s="0" customFormat="1">
       <c r="A69" s="5"/>
       <c r="B69" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
       </c>
       <c r="D69" s="83" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:5" s="0" customFormat="1">
       <c r="A70" s="5"/>
       <c r="B70" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C70" t="n">
         <v>0.5</v>
       </c>
       <c r="D70" s="54" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="71" spans="1:5" s="0" customFormat="1">
       <c r="A71" s="5"/>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C71" t="n">
         <v>0.5</v>
       </c>
       <c r="D71" s="55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:5" s="0" customFormat="1">
       <c r="A72" s="5"/>
       <c r="B72" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C72" t="n">
         <v>0.5</v>
       </c>
       <c r="D72" s="56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="2:5">
       <c r="B73" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C73" t="n">
         <v>1</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" spans="2:5">
       <c r="B74" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C74" t="n">
         <v>0.75</v>
       </c>
       <c r="D74" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E74" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="E74" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="75" spans="2:5">
       <c r="B75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C75" t="n">
         <v>0.5</v>
       </c>
       <c r="D75" s="53" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" spans="2:5">
       <c r="B76" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C76" t="n">
         <v>0.25</v>
       </c>
       <c r="D76" s="46" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:5" s="0" customFormat="1">
       <c r="A77" s="5"/>
       <c r="B77" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C77" t="n">
         <v>0.5</v>
       </c>
       <c r="D77" s="47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" spans="1:5" s="0" customFormat="1">
       <c r="A78" s="5"/>
       <c r="B78" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C78" t="n">
         <v>0.5</v>
       </c>
       <c r="D78" s="48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" spans="1:5" s="0" customFormat="1">
       <c r="A79" s="5"/>
       <c r="B79" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C79" t="n">
         <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="2:6">
       <c r="B80" s="8" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C80" t="n">
         <v>0.25</v>
@@ -5942,136 +5980,136 @@
         <v>6</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C83" t="n">
         <v>0.5</v>
       </c>
       <c r="D83" s="63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" spans="1:5" s="0" customFormat="1">
       <c r="A84" s="5"/>
       <c r="B84" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C84" t="n">
         <v>1.5</v>
       </c>
       <c r="D84" s="84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:5" s="0" customFormat="1">
       <c r="A85" s="5"/>
       <c r="B85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C85" t="n">
         <v>0.5</v>
       </c>
       <c r="D85" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="E85" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="E85" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="86" spans="1:5" s="0" customFormat="1">
       <c r="A86" s="5"/>
       <c r="B86" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C86" t="n">
         <v>0.5</v>
       </c>
       <c r="D86" s="86" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:5" s="0" customFormat="1">
       <c r="A87" s="5"/>
       <c r="B87" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C87" t="n">
         <v>0.25</v>
       </c>
       <c r="D87" s="59" t="s">
+        <v>228</v>
+      </c>
+      <c r="E87" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:5" s="0" customFormat="1">
       <c r="A88" s="5"/>
       <c r="B88" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C88" t="n">
         <v>0.25</v>
       </c>
       <c r="D88" s="60" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" spans="1:5" s="0" customFormat="1">
       <c r="A89" s="5"/>
       <c r="B89" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C89" t="n">
         <v>0.5</v>
       </c>
       <c r="D89" s="42" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:5" s="0" customFormat="1">
       <c r="A90" s="5"/>
       <c r="B90" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C90" t="n">
         <v>0.75</v>
       </c>
       <c r="D90" s="87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" spans="1:5" s="0" customFormat="1">
       <c r="A91" s="5"/>
       <c r="B91" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C91" t="n">
         <v>0.5</v>
       </c>
       <c r="D91" s="88" t="s">
+        <v>235</v>
+      </c>
+      <c r="E91" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="E91" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:5" s="0" customFormat="1">
@@ -6093,156 +6131,156 @@
         <v>7</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C94" t="n">
         <v>0.5</v>
       </c>
       <c r="D94" s="64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="2:5">
       <c r="B95" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C95" t="n">
         <v>0.5</v>
       </c>
       <c r="D95" s="92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="2:5">
       <c r="B96" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C96" t="n">
         <v>0.5</v>
       </c>
       <c r="D96" s="52" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="97" spans="2:5">
       <c r="B97" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C97" t="n">
         <v>0.5</v>
       </c>
       <c r="D97" s="102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="2:5">
       <c r="B98" s="8" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C98" t="n">
         <v>3.5</v>
       </c>
       <c r="D98" s="91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" spans="2:5">
       <c r="B99" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C99" t="n">
         <v>0.5</v>
       </c>
       <c r="D99" s="64" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" spans="2:5">
       <c r="B100" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C100" t="n">
         <v>0.5</v>
       </c>
       <c r="D100" s="93" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="2:5">
       <c r="B101" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C101" t="n">
         <v>0.25</v>
       </c>
       <c r="D101" s="94" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="2:5">
       <c r="B102" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C102" t="n">
         <v>1</v>
       </c>
       <c r="D102" s="95" t="s">
+        <v>253</v>
+      </c>
+      <c r="E102" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="E102" s="7" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="103" spans="2:5">
       <c r="B103" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C103" t="n">
         <v>0.5</v>
       </c>
       <c r="D103" s="96" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E103" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" spans="2:5">
       <c r="B104" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C104" t="n">
         <v>3.5</v>
       </c>
       <c r="D104" s="26" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E104" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="2:4">
@@ -6258,97 +6296,97 @@
         <v>8</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C107" t="n">
         <v>0.5</v>
       </c>
       <c r="D107" s="64" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E107" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" spans="2:5">
       <c r="B108" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C108" t="n">
         <v>1.5</v>
       </c>
       <c r="D108" s="98" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E108" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" spans="2:5">
       <c r="B109" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C109" t="n">
         <v>1.5</v>
       </c>
       <c r="D109" s="90" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E109" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="2:5">
       <c r="B110" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C110" t="n">
         <v>1</v>
       </c>
       <c r="D110" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="E110" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="E110" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="111" spans="2:5">
       <c r="B111" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C111" t="n">
         <v>0.75</v>
       </c>
       <c r="D111" s="20" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E111" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="2:5">
       <c r="B112" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C112" t="n">
         <v>0.5</v>
       </c>
       <c r="D112" s="41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E112" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="2:5">
       <c r="B113" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C113" t="n">
         <v>0.5</v>
       </c>
       <c r="D113" s="61" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E113" s="7" t="s">
         <v>40</v>
@@ -6356,120 +6394,120 @@
     </row>
     <row r="114" spans="2:5">
       <c r="B114" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C114" t="n">
         <v>0.5</v>
       </c>
       <c r="D114" s="64" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E114" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" spans="2:5">
       <c r="B115" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C115" t="n">
         <v>0.3</v>
       </c>
       <c r="D115" s="100" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E115" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" spans="1:5" s="0" customFormat="1">
       <c r="A116" s="5"/>
       <c r="B116" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C116" t="n">
         <v>0.3</v>
       </c>
       <c r="D116" s="101" t="s">
+        <v>277</v>
+      </c>
+      <c r="E116" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="117" spans="1:5" s="0" customFormat="1">
       <c r="A117" s="5"/>
       <c r="B117" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C117" t="n">
         <v>0.4</v>
       </c>
       <c r="D117" s="57" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E117" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="118" spans="1:5" s="0" customFormat="1">
       <c r="A118" s="5"/>
       <c r="B118" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C118" t="n">
         <v>1</v>
       </c>
       <c r="D118" s="103" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E118" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="119" spans="1:5" s="0" customFormat="1">
       <c r="A119" s="5"/>
       <c r="B119" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C119" t="n">
         <v>0.5</v>
       </c>
       <c r="D119" s="64" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E119" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="120" spans="1:5" s="0" customFormat="1">
       <c r="A120" s="5"/>
       <c r="B120" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C120" t="n">
         <v>0.5</v>
       </c>
       <c r="D120" s="97" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E120" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="121" spans="1:5" s="0" customFormat="1">
       <c r="A121" s="5"/>
       <c r="B121" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C121" t="n">
         <v>0.75</v>
       </c>
       <c r="D121" s="99" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E121" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="122" spans="1:5" s="0" customFormat="1">
@@ -6491,72 +6529,72 @@
         <v>9</v>
       </c>
       <c r="B124" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C124" t="n">
         <v>2</v>
       </c>
       <c r="D124" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E124" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" spans="2:5">
       <c r="B125" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C125" t="n">
         <v>2</v>
       </c>
       <c r="D125" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E125" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" spans="2:5">
       <c r="B126" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C126" t="n">
         <v>2</v>
       </c>
       <c r="D126" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E126" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" spans="2:5">
       <c r="B127" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C127" t="n">
         <v>2</v>
       </c>
       <c r="D127" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E127" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="128" spans="2:5">
       <c r="B128" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C128" t="n">
         <v>2</v>
       </c>
       <c r="D128" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E128" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" spans="2:3">
@@ -6571,63 +6609,63 @@
         <v>10</v>
       </c>
       <c r="B131" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C131" t="n">
         <v>2</v>
       </c>
       <c r="D131" s="104" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" spans="2:5">
       <c r="B132" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C132" t="n">
         <v>2.5</v>
       </c>
       <c r="D132" s="62" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E132" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="133" spans="2:5">
       <c r="B133" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C133" t="n">
         <v>2.5</v>
       </c>
       <c r="D133" s="63" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E133" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" spans="2:5">
       <c r="B134" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C134" t="n">
         <v>2.5</v>
       </c>
       <c r="D134" s="64" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E134" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="135" spans="2:6">
       <c r="B135" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C135" t="n">
         <v>0.25</v>
@@ -6642,16 +6680,16 @@
     </row>
     <row r="136" spans="2:5">
       <c r="B136" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C136" t="n">
         <v>0.1</v>
       </c>
       <c r="D136" s="106" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E136" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="3:3">
@@ -6775,7 +6813,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1593976365" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594236804" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6784,14 +6822,14 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1593976365" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1593976365" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594236804" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594236804" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593976365" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594236804" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6813,7 +6851,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1593976365" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594236804" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6822,15 +6860,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1593976365" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1593976365" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594236804" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594236804" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593976365" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594236804" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>
@@ -6852,7 +6890,7 @@
   <printOptions>
     <extLst>
       <ext uri="smNativeData">
-        <pm:pageFlags xmlns:pm="smNativeData" id="1593976365" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
+        <pm:pageFlags xmlns:pm="smNativeData" id="1594236804" printRowHead="0" printColHead="0" printHeadLine="0" printFootLine="0" autoHeightHeader="0" autoHeightFooter="0" fitToPageBoth="0"/>
       </ext>
     </extLst>
   </printOptions>
@@ -6861,15 +6899,15 @@
   <headerFooter>
     <extLst>
       <ext uri="smNativeData">
-        <pm:header xmlns:pm="smNativeData" id="1593976365" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
-        <pm:footer xmlns:pm="smNativeData" id="1593976365" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
+        <pm:header xmlns:pm="smNativeData" id="1594236804" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="0"/>
+        <pm:footer xmlns:pm="smNativeData" id="1594236804" l="56" r="56" t="56" b="56" borderId="0" fillId="0" vertical="2"/>
       </ext>
     </extLst>
   </headerFooter>
   <drawing r:id="rId1"/>
   <extLst>
     <ext uri="smNativeData">
-      <pm:sheetPrefs xmlns:pm="smNativeData" day="1593976365" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
+      <pm:sheetPrefs xmlns:pm="smNativeData" day="1594236804" outlineProtect="1" showHorizontalRuler="1" showVerticalRuler="1" showAltShade="0">
         <pm:shade id="0" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
         <pm:shade id="1" type="0" fgLvl="100" fgClr="000000" bgLvl="100" bgClr="FFFFFF"/>
       </pm:sheetPrefs>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="317">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -970,6 +970,12 @@
   </si>
   <si>
     <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">API Reference Guide for Webex Teams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.webex.com/docs/api/v1/people</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1119,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1184,6 +1190,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1270,9 +1280,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>171720</xdr:colOff>
+      <xdr:colOff>171360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>41040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1286,7 +1296,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6770520" cy="3414240"/>
+          <a:ext cx="6775200" cy="3413880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1307,9 +1317,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
+      <xdr:colOff>201960</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>137520</xdr:rowOff>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1323,7 +1333,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="10100520" cy="4775400"/>
+          <a:ext cx="10107720" cy="4775040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1344,9 +1354,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>609840</xdr:colOff>
+      <xdr:colOff>609480</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>186840</xdr:rowOff>
+      <xdr:rowOff>186480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1360,7 +1370,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7999200" cy="4224240"/>
+          <a:ext cx="8004600" cy="4223880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1381,9 +1391,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>617400</xdr:colOff>
+      <xdr:colOff>617040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1397,7 +1407,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="7170480" cy="3898080"/>
+          <a:ext cx="7175160" cy="3897720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1418,9 +1428,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>655560</xdr:colOff>
+      <xdr:colOff>655200</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1434,7 +1444,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="7189560" cy="4035960"/>
+          <a:ext cx="7194240" cy="4035600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1455,9 +1465,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>27000</xdr:colOff>
+      <xdr:colOff>26640</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1471,7 +1481,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6625800" cy="3970440"/>
+          <a:ext cx="6630480" cy="3970080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1497,9 +1507,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>210600</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>128520</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1513,7 +1523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="16707960" cy="7929000"/>
+          <a:ext cx="16720560" cy="7928640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1534,9 +1544,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>525600</xdr:colOff>
+      <xdr:colOff>525240</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>46800</xdr:rowOff>
+      <xdr:rowOff>46440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1550,7 +1560,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="17022600" cy="8268480"/>
+          <a:ext cx="17035200" cy="8268120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1573,12 +1583,12 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="F44 A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.34"/>
   </cols>
@@ -1819,10 +1829,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="F44 F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2135,10 +2145,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F44 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2209,13 +2219,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F38" activeCellId="0" sqref="F38"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -2798,7 +2808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
         <v>139</v>
       </c>
@@ -2811,6 +2821,7 @@
       <c r="E38" s="9" t="s">
         <v>144</v>
       </c>
+      <c r="F38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="15" t="n">
@@ -2822,7 +2833,7 @@
     <row r="40" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D40" s="3"/>
     </row>
-    <row r="41" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8" t="n">
         <v>4</v>
       </c>
@@ -2837,6 +2848,9 @@
       </c>
       <c r="E41" s="9" t="s">
         <v>148</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2856,7 +2870,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
         <v>152</v>
       </c>
@@ -2869,8 +2883,11 @@
       <c r="E43" s="9" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F43" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
         <v>152</v>
       </c>
@@ -2882,6 +2899,9 @@
       </c>
       <c r="E44" s="9" t="s">
         <v>151</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4082,6 +4102,20 @@
       <c r="C137" s="15" t="n">
         <f aca="false">SUM(C131:C136)</f>
         <v>9.85</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C138" s="15"/>
+    </row>
+    <row r="139" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F139" s="18"/>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="D140" s="0" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -4214,10 +4248,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
+      <selection pane="topLeft" activeCell="A107" activeCellId="1" sqref="F44 A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4238,10 +4272,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="F44 Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="318">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -976,6 +976,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://developer.webex.com/docs/api/v1/people</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo</t>
   </si>
 </sst>
 </file>
@@ -984,7 +987,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="d\-mmm\-yy"/>
+    <numFmt numFmtId="165" formatCode="D\-MMM\-YY"/>
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="General"/>
   </numFmts>
@@ -1119,7 +1122,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1192,8 +1195,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1280,9 +1287,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>171360</xdr:colOff>
+      <xdr:colOff>170640</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>41040</xdr:rowOff>
+      <xdr:rowOff>40320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1296,7 +1303,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6775200" cy="3413880"/>
+          <a:ext cx="6784560" cy="3413160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1317,9 +1324,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>201960</xdr:colOff>
+      <xdr:colOff>201240</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1333,7 +1340,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="10107720" cy="4775040"/>
+          <a:ext cx="10122480" cy="4774320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1354,9 +1361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>609480</xdr:colOff>
+      <xdr:colOff>608760</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>186480</xdr:rowOff>
+      <xdr:rowOff>185760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1370,7 +1377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="8004600" cy="4223880"/>
+          <a:ext cx="8015400" cy="4223160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1391,9 +1398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>617040</xdr:colOff>
+      <xdr:colOff>616320</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1407,7 +1414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="7175160" cy="3897720"/>
+          <a:ext cx="7184520" cy="3897000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1428,9 +1435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>655200</xdr:colOff>
+      <xdr:colOff>654480</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>37800</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1444,7 +1451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="7194240" cy="4035600"/>
+          <a:ext cx="7203600" cy="4034880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1465,9 +1472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>26640</xdr:colOff>
+      <xdr:colOff>25920</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1481,7 +1488,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6630480" cy="3970080"/>
+          <a:ext cx="6639840" cy="3969360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1507,9 +1514,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>210600</xdr:colOff>
+      <xdr:colOff>209880</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1523,7 +1530,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="16720560" cy="7928640"/>
+          <a:ext cx="16745040" cy="7927920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1544,9 +1551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>525240</xdr:colOff>
+      <xdr:colOff>524520</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>46440</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1560,7 +1567,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="17035200" cy="8268120"/>
+          <a:ext cx="17059680" cy="8267400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1576,17 +1583,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="F44 A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1822,17 +1829,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="1" sqref="F44 F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2138,17 +2145,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F44 A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2215,17 +2222,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F44" activeCellId="0" sqref="F44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A126" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B140" activeCellId="0" sqref="B140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -2904,7 +2911,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
         <v>155</v>
       </c>
@@ -2916,6 +2923,9 @@
       </c>
       <c r="E45" s="9" t="s">
         <v>157</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4107,15 +4117,18 @@
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C138" s="15"/>
     </row>
-    <row r="139" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F139" s="18"/>
-    </row>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="0" t="s">
+      <c r="B140" s="18" t="s">
         <v>315</v>
       </c>
-      <c r="D140" s="0" t="s">
+      <c r="C140" s="18"/>
+      <c r="D140" s="18" t="s">
         <v>316</v>
+      </c>
+      <c r="E140" s="19"/>
+      <c r="F140" s="18" t="s">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4241,17 +4254,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A107" activeCellId="1" sqref="F44 A107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4265,17 +4278,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="F44 Z19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="319">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -979,6 +979,9 @@
   </si>
   <si>
     <t xml:space="preserve">todo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Meraki APIs</t>
   </si>
 </sst>
 </file>
@@ -1287,9 +1290,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>170640</xdr:colOff>
+      <xdr:colOff>170280</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>40320</xdr:rowOff>
+      <xdr:rowOff>39960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1303,7 +1306,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6784560" cy="3413160"/>
+          <a:ext cx="6789240" cy="3412800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1324,9 +1327,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>201240</xdr:colOff>
+      <xdr:colOff>200880</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>136440</xdr:rowOff>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1340,7 +1343,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="10122480" cy="4774320"/>
+          <a:ext cx="10129680" cy="4773960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1361,9 +1364,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>608760</xdr:colOff>
+      <xdr:colOff>608400</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>185760</xdr:rowOff>
+      <xdr:rowOff>185400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1377,7 +1380,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="8015400" cy="4223160"/>
+          <a:ext cx="8020800" cy="4222800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1398,9 +1401,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>616320</xdr:colOff>
+      <xdr:colOff>615960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1414,7 +1417,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="7184520" cy="3897000"/>
+          <a:ext cx="7189200" cy="3896640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1435,9 +1438,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>654480</xdr:colOff>
+      <xdr:colOff>654120</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1451,7 +1454,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="7203600" cy="4034880"/>
+          <a:ext cx="7208280" cy="4034520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1472,9 +1475,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>25920</xdr:colOff>
+      <xdr:colOff>25560</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>174600</xdr:rowOff>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1488,7 +1491,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6639840" cy="3969360"/>
+          <a:ext cx="6644520" cy="3969000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1514,9 +1517,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>209880</xdr:colOff>
+      <xdr:colOff>209520</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>127440</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1530,7 +1533,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="16745040" cy="7927920"/>
+          <a:ext cx="16757280" cy="7927560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1551,9 +1554,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>524520</xdr:colOff>
+      <xdr:colOff>524160</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>45360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1567,7 +1570,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="17059680" cy="8267400"/>
+          <a:ext cx="17071920" cy="8267040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1589,7 +1592,7 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1835,7 +1838,7 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -2151,7 +2154,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2226,10 +2229,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A126" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B140" activeCellId="0" sqref="B140"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A120" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B142" activeCellId="0" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2942,7 +2945,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
         <v>159</v>
       </c>
@@ -2955,8 +2958,11 @@
       <c r="E47" s="9" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F47" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
         <v>159</v>
       </c>
@@ -2968,6 +2974,9 @@
       </c>
       <c r="E48" s="9" t="s">
         <v>161</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4128,6 +4137,17 @@
       </c>
       <c r="E140" s="19"/>
       <c r="F140" s="18" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="C141" s="18"/>
+      <c r="D141" s="18"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="18" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4260,11 +4280,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4284,11 +4304,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="319">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1125,7 +1125,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1186,6 +1186,14 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1200,10 +1208,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1290,9 +1294,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>170280</xdr:colOff>
+      <xdr:colOff>169920</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>39960</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1306,7 +1310,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6789240" cy="3412800"/>
+          <a:ext cx="6793920" cy="3412440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1327,9 +1331,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>200880</xdr:colOff>
+      <xdr:colOff>200520</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>136080</xdr:rowOff>
+      <xdr:rowOff>135720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1343,7 +1347,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="10129680" cy="4773960"/>
+          <a:ext cx="10136880" cy="4773600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1364,9 +1368,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>608400</xdr:colOff>
+      <xdr:colOff>608040</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>185400</xdr:rowOff>
+      <xdr:rowOff>185040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1380,7 +1384,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="8020800" cy="4222800"/>
+          <a:ext cx="8026200" cy="4222440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1401,9 +1405,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>615960</xdr:colOff>
+      <xdr:colOff>615600</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1417,7 +1421,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="7189200" cy="3896640"/>
+          <a:ext cx="7193880" cy="3896280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1438,9 +1442,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>654120</xdr:colOff>
+      <xdr:colOff>653760</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>36720</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1454,7 +1458,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="7208280" cy="4034520"/>
+          <a:ext cx="7212960" cy="4034160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1475,9 +1479,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>25560</xdr:colOff>
+      <xdr:colOff>25200</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1491,7 +1495,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6644520" cy="3969000"/>
+          <a:ext cx="6649200" cy="3968640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1517,9 +1521,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>209520</xdr:colOff>
+      <xdr:colOff>209160</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>126720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1533,7 +1537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="16757280" cy="7927560"/>
+          <a:ext cx="16769880" cy="7927200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1554,9 +1558,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>524160</xdr:colOff>
+      <xdr:colOff>523800</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>45360</xdr:rowOff>
+      <xdr:rowOff>45000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1570,7 +1574,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="17071920" cy="8267040"/>
+          <a:ext cx="17084520" cy="8266680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1592,7 +1596,7 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1838,8 +1842,8 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1848,7 +1852,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="45.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="49.24"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1975,9 +1979,11 @@
       <c r="B8" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="15"/>
+      <c r="D8" s="16" t="s">
         <v>42</v>
       </c>
+      <c r="E8" s="16"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2057,6 +2063,7 @@
       <c r="E14" s="9" t="s">
         <v>54</v>
       </c>
+      <c r="F14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
@@ -2071,6 +2078,7 @@
       <c r="E15" s="9" t="s">
         <v>57</v>
       </c>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
@@ -2085,6 +2093,7 @@
       <c r="E16" s="9" t="s">
         <v>60</v>
       </c>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
@@ -2099,6 +2108,7 @@
       <c r="E17" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
@@ -2113,6 +2123,7 @@
       <c r="E18" s="9" t="s">
         <v>66</v>
       </c>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="n">
@@ -2154,7 +2165,7 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2231,8 +2242,8 @@
   </sheetPr>
   <dimension ref="A1:F141"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A120" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B142" activeCellId="0" sqref="B142"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2433,7 +2444,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="15" t="n">
+      <c r="C12" s="17" t="n">
         <f aca="false">SUM(C2:C11)</f>
         <v>11</v>
       </c>
@@ -2526,7 +2537,7 @@
       <c r="E18" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="16"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
@@ -2623,7 +2634,7 @@
       <c r="D24" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E24" s="17" t="n">
+      <c r="E24" s="19" t="n">
         <v>4.3</v>
       </c>
       <c r="F24" s="12" t="s">
@@ -2648,7 +2659,7 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="15" t="n">
+      <c r="C26" s="17" t="n">
         <f aca="false">SUM(C14:C25)</f>
         <v>11.25</v>
       </c>
@@ -2834,7 +2845,7 @@
       <c r="F38" s="13"/>
     </row>
     <row r="39" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="15" t="n">
+      <c r="C39" s="17" t="n">
         <f aca="false">SUM(C28:C38)</f>
         <v>11.25</v>
       </c>
@@ -2931,7 +2942,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
         <v>155</v>
       </c>
@@ -2943,6 +2954,9 @@
       </c>
       <c r="E46" s="9" t="s">
         <v>157</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3218,7 +3232,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="15" t="n">
+      <c r="C66" s="17" t="n">
         <f aca="false">SUM(C41:C65)</f>
         <v>10.95</v>
       </c>
@@ -3414,7 +3428,7 @@
       <c r="F80" s="13"/>
     </row>
     <row r="81" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="15" t="n">
+      <c r="C81" s="17" t="n">
         <f aca="false">SUM(C68:C80)</f>
         <v>10.75</v>
       </c>
@@ -3553,7 +3567,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="15" t="n">
+      <c r="C92" s="17" t="n">
         <f aca="false">SUM(C83:C91)</f>
         <v>5.25</v>
       </c>
@@ -3720,7 +3734,7 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C105" s="15" t="n">
+      <c r="C105" s="17" t="n">
         <f aca="false">SUM(C94:C104)</f>
         <v>11.75</v>
       </c>
@@ -3940,7 +3954,7 @@
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C122" s="15" t="n">
+      <c r="C122" s="17" t="n">
         <f aca="false">SUM(C107:C121)</f>
         <v>10.5</v>
       </c>
@@ -4023,8 +4037,8 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="15"/>
-      <c r="C129" s="15" t="n">
+      <c r="B129" s="17"/>
+      <c r="C129" s="17" t="n">
         <f aca="false">SUM(C124:C128)</f>
         <v>10</v>
       </c>
@@ -4118,36 +4132,36 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C137" s="15" t="n">
+      <c r="C137" s="17" t="n">
         <f aca="false">SUM(C131:C136)</f>
         <v>9.85</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C138" s="15"/>
+      <c r="C138" s="17"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="18" t="s">
+      <c r="B140" s="20" t="s">
         <v>315</v>
       </c>
-      <c r="C140" s="18"/>
-      <c r="D140" s="18" t="s">
+      <c r="C140" s="20"/>
+      <c r="D140" s="20" t="s">
         <v>316</v>
       </c>
-      <c r="E140" s="19"/>
-      <c r="F140" s="18" t="s">
+      <c r="E140" s="16"/>
+      <c r="F140" s="20" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="18" t="s">
+      <c r="B141" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="C141" s="18"/>
-      <c r="D141" s="18"/>
-      <c r="E141" s="19"/>
-      <c r="F141" s="18" t="s">
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="20" t="s">
         <v>317</v>
       </c>
     </row>
@@ -4280,11 +4294,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4304,11 +4318,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.51953125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="323">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -982,6 +982,18 @@
   </si>
   <si>
     <t xml:space="preserve">Main Meraki APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Udemy Devcor Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fullstack networker Devcor Questions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1137,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1208,6 +1220,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1294,9 +1310,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>169920</xdr:colOff>
+      <xdr:colOff>169200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1310,7 +1326,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6793920" cy="3412440"/>
+          <a:ext cx="6803640" cy="3411720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1331,9 +1347,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>200520</xdr:colOff>
+      <xdr:colOff>199800</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>135720</xdr:rowOff>
+      <xdr:rowOff>135000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1347,7 +1363,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="10136880" cy="4773600"/>
+          <a:ext cx="10151280" cy="4772880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1368,9 +1384,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>608040</xdr:colOff>
+      <xdr:colOff>607320</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>185040</xdr:rowOff>
+      <xdr:rowOff>184320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1384,7 +1400,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="8026200" cy="4222440"/>
+          <a:ext cx="8036640" cy="4221720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1405,9 +1421,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>615600</xdr:colOff>
+      <xdr:colOff>614880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>123840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1421,7 +1437,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="7193880" cy="3896280"/>
+          <a:ext cx="7203600" cy="3895560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1442,9 +1458,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>653760</xdr:colOff>
+      <xdr:colOff>653040</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1458,7 +1474,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="7212960" cy="4034160"/>
+          <a:ext cx="7222680" cy="4033440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1479,9 +1495,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>25200</xdr:colOff>
+      <xdr:colOff>24480</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:rowOff>173160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1495,7 +1511,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6649200" cy="3968640"/>
+          <a:ext cx="6658920" cy="3967920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1521,9 +1537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>209160</xdr:colOff>
+      <xdr:colOff>208440</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1537,7 +1553,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="16769880" cy="7927200"/>
+          <a:ext cx="16794360" cy="7926480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1558,9 +1574,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>523800</xdr:colOff>
+      <xdr:colOff>523080</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>45000</xdr:rowOff>
+      <xdr:rowOff>44280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1574,7 +1590,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="17084520" cy="8266680"/>
+          <a:ext cx="17109000" cy="8265960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1597,7 +1613,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="F51 A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1843,7 +1859,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="1" sqref="F51 E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2166,7 +2182,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F51 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2240,10 +2256,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F141"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E54" activeCellId="0" sqref="E54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2993,7 +3009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="5" t="s">
         <v>163</v>
       </c>
@@ -3006,8 +3022,11 @@
       <c r="E49" s="9" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F49" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
         <v>166</v>
       </c>
@@ -3020,8 +3039,11 @@
       <c r="E50" s="9" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F50" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
         <v>163</v>
       </c>
@@ -3033,6 +3055,9 @@
       </c>
       <c r="E51" s="9" t="s">
         <v>168</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4163,6 +4188,22 @@
       <c r="E141" s="16"/>
       <c r="F141" s="20" t="s">
         <v>317</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D143" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="D144" s="21" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4276,6 +4317,8 @@
     <hyperlink ref="D134" r:id="rId107" display="Deploying Network CM/Telemetry"/>
     <hyperlink ref="D135" r:id="rId108" location="/preassessment" display="Mastering Cisco DevNet SW Design/Net Auto"/>
     <hyperlink ref="D136" r:id="rId109" display="Blog - My DEVCOR Experience"/>
+    <hyperlink ref="D143" r:id="rId110" display="https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/"/>
+    <hyperlink ref="D144" r:id="rId111" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4295,10 +4338,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
+      <selection pane="topLeft" activeCell="A107" activeCellId="1" sqref="F51 A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4319,10 +4362,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="F51 Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="324">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t xml:space="preserve">DevNet LL - Intro to Cisco DNA Center REST API part 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">almost</t>
   </si>
   <si>
     <t xml:space="preserve">DevNet LL - Intro to Cisco DNA Center REST API part 2</t>
@@ -1310,9 +1313,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>169200</xdr:colOff>
+      <xdr:colOff>168840</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1326,7 +1329,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6803640" cy="3411720"/>
+          <a:ext cx="6808320" cy="3411360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1347,9 +1350,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>199440</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>135000</xdr:rowOff>
+      <xdr:rowOff>134640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1363,7 +1366,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="10151280" cy="4772880"/>
+          <a:ext cx="10158480" cy="4772520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1384,9 +1387,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>607320</xdr:colOff>
+      <xdr:colOff>606960</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>184320</xdr:rowOff>
+      <xdr:rowOff>183960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1400,7 +1403,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="8036640" cy="4221720"/>
+          <a:ext cx="8042040" cy="4221360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1421,9 +1424,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>614880</xdr:colOff>
+      <xdr:colOff>614520</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>123840</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1437,7 +1440,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="7203600" cy="3895560"/>
+          <a:ext cx="7208280" cy="3895200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1458,9 +1461,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>653040</xdr:colOff>
+      <xdr:colOff>652680</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1474,7 +1477,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="7222680" cy="4033440"/>
+          <a:ext cx="7227360" cy="4033080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1495,9 +1498,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>24480</xdr:colOff>
+      <xdr:colOff>24120</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>173160</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1511,7 +1514,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6658920" cy="3967920"/>
+          <a:ext cx="6663600" cy="3967560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1537,9 +1540,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>208440</xdr:colOff>
+      <xdr:colOff>208080</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1553,7 +1556,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="16794360" cy="7926480"/>
+          <a:ext cx="16806960" cy="7926120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1574,9 +1577,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>523080</xdr:colOff>
+      <xdr:colOff>522720</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>44280</xdr:rowOff>
+      <xdr:rowOff>43920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1590,7 +1593,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="17109000" cy="8265960"/>
+          <a:ext cx="17121600" cy="8265600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1613,7 +1616,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="F51 A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1859,7 +1862,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="1" sqref="F51 E21"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2182,7 +2185,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F51 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2258,8 +2261,8 @@
   </sheetPr>
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F53" activeCellId="0" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3073,6 +3076,9 @@
       <c r="E52" s="9" t="s">
         <v>168</v>
       </c>
+      <c r="F52" s="0" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
@@ -3082,7 +3088,7 @@
         <v>0.5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>168</v>
@@ -3090,170 +3096,170 @@
     </row>
     <row r="54" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3271,175 +3277,175 @@
         <v>5</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>207</v>
-      </c>
-      <c r="E74" s="9" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="9" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="5" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>0.25</v>
@@ -3467,128 +3473,128 @@
         <v>6</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>223</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>227</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="E91" s="9" t="s">
         <v>234</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3606,156 +3612,156 @@
         <v>7</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="E95" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="C95" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E96" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="C96" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E97" s="9" t="s">
         <v>238</v>
-      </c>
-      <c r="C97" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>3.5</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E102" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>3.5</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3770,97 +3776,97 @@
         <v>8</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E110" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>40</v>
@@ -3868,114 +3874,114 @@
     </row>
     <row r="114" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E116" s="9" t="s">
         <v>276</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3993,72 +3999,72 @@
         <v>9</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4073,63 +4079,63 @@
         <v>10</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>0.25</v>
@@ -4144,16 +4150,16 @@
     </row>
     <row r="136" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4168,42 +4174,42 @@
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="20" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C140" s="20"/>
       <c r="D140" s="20" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E140" s="16"/>
       <c r="F140" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
       <c r="E141" s="16"/>
       <c r="F141" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="0" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D143" s="21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="0" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D144" s="21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -4338,10 +4344,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A107" activeCellId="1" sqref="F51 A107"/>
+      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4362,10 +4368,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="F51 Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="323">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -541,9 +541,6 @@
   </si>
   <si>
     <t xml:space="preserve">DevNet LL - Intro to Cisco DNA Center REST API part 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">almost</t>
   </si>
   <si>
     <t xml:space="preserve">DevNet LL - Intro to Cisco DNA Center REST API part 2</t>
@@ -1313,9 +1310,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>168840</xdr:colOff>
+      <xdr:colOff>168480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1329,7 +1326,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6808320" cy="3411360"/>
+          <a:ext cx="6813000" cy="3411000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1350,9 +1347,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>199440</xdr:colOff>
+      <xdr:colOff>199080</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>134640</xdr:rowOff>
+      <xdr:rowOff>134280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1366,7 +1363,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="10158480" cy="4772520"/>
+          <a:ext cx="10166040" cy="4772160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1387,9 +1384,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>606960</xdr:colOff>
+      <xdr:colOff>606600</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>183960</xdr:rowOff>
+      <xdr:rowOff>183600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1403,7 +1400,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="8042040" cy="4221360"/>
+          <a:ext cx="8047440" cy="4221000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1424,9 +1421,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>614520</xdr:colOff>
+      <xdr:colOff>614160</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1440,7 +1437,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="7208280" cy="3895200"/>
+          <a:ext cx="7212960" cy="3894840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1461,9 +1458,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>652680</xdr:colOff>
+      <xdr:colOff>652320</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1477,7 +1474,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="7227360" cy="4033080"/>
+          <a:ext cx="7232040" cy="4032720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1498,9 +1495,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>24120</xdr:colOff>
+      <xdr:colOff>23760</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1514,7 +1511,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6663600" cy="3967560"/>
+          <a:ext cx="6668280" cy="3967200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1540,9 +1537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>208080</xdr:colOff>
+      <xdr:colOff>207720</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>125640</xdr:rowOff>
+      <xdr:rowOff>125280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1556,7 +1553,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="16806960" cy="7926120"/>
+          <a:ext cx="16819200" cy="7925760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1577,9 +1574,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>522720</xdr:colOff>
+      <xdr:colOff>522360</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>43920</xdr:rowOff>
+      <xdr:rowOff>43560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1593,7 +1590,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="17121600" cy="8265600"/>
+          <a:ext cx="17133840" cy="8265240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2262,7 +2259,7 @@
   <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F53" activeCellId="0" sqref="F53"/>
+      <selection pane="topLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3063,7 +3060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
         <v>170</v>
       </c>
@@ -3076,11 +3073,11 @@
       <c r="E52" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="F52" s="0" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F52" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
         <v>163</v>
       </c>
@@ -3088,178 +3085,181 @@
         <v>0.5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E53" s="9" t="s">
         <v>168</v>
       </c>
+      <c r="F53" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D54" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>175</v>
-      </c>
-      <c r="E54" s="9" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C56" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="E56" s="9" t="s">
         <v>179</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D57" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C59" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="E59" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C62" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D62" s="2" t="s">
+      <c r="E62" s="9" t="s">
         <v>190</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3277,175 +3277,175 @@
         <v>5</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D68" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C68" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="E68" s="9" t="s">
         <v>196</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E69" s="9" t="s">
         <v>199</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C70" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="E70" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E73" s="9" t="s">
         <v>206</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C75" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="E75" s="9" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="9" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="5" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>0.25</v>
@@ -3473,128 +3473,128 @@
         <v>6</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D83" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C83" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D83" s="2" t="s">
+      <c r="E83" s="9" t="s">
         <v>219</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D84" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D86" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C86" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="E86" s="9" t="s">
         <v>226</v>
-      </c>
-      <c r="E86" s="9" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D89" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="E89" s="9" t="s">
         <v>230</v>
-      </c>
-      <c r="E89" s="9" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D90" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="E90" s="9" t="s">
         <v>233</v>
-      </c>
-      <c r="E90" s="9" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3612,156 +3612,156 @@
         <v>7</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C94" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="9" t="s">
         <v>237</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C95" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>240</v>
-      </c>
       <c r="E95" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>3.5</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C99" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="9" t="s">
         <v>246</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C100" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="9" t="s">
         <v>249</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E101" s="9" t="s">
         <v>251</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>3.5</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3776,97 +3776,97 @@
         <v>8</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C107" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="9" t="s">
         <v>258</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E109" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>269</v>
-      </c>
-      <c r="C113" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>40</v>
@@ -3874,114 +3874,114 @@
     </row>
     <row r="114" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="C114" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="9" t="s">
         <v>272</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="E115" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="C119" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="9" t="s">
         <v>282</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C120" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3999,72 +3999,72 @@
         <v>9</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D124" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="E124" s="9" t="s">
         <v>289</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D125" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E125" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4079,63 +4079,63 @@
         <v>10</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E131" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E132" s="9" t="s">
         <v>304</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E133" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E134" s="9" t="s">
         <v>310</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>0.25</v>
@@ -4150,16 +4150,16 @@
     </row>
     <row r="136" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="5" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="E136" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4174,42 +4174,42 @@
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="20" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C140" s="20"/>
       <c r="D140" s="20" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E140" s="16"/>
       <c r="F140" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="20" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
       <c r="E141" s="16"/>
       <c r="F141" s="20" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="D143" s="21" t="s">
         <v>320</v>
-      </c>
-      <c r="D143" s="21" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="D144" s="21" t="s">
         <v>322</v>
-      </c>
-      <c r="D144" s="21" t="s">
-        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -4347,7 +4347,7 @@
       <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4371,7 +4371,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="323">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1310,9 +1310,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>168480</xdr:colOff>
+      <xdr:colOff>167400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1326,7 +1326,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6813000" cy="3411000"/>
+          <a:ext cx="6827040" cy="3409920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1347,9 +1347,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>199080</xdr:colOff>
+      <xdr:colOff>198000</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>134280</xdr:rowOff>
+      <xdr:rowOff>133200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1363,7 +1363,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="10166040" cy="4772160"/>
+          <a:ext cx="10187640" cy="4771080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1384,9 +1384,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>606600</xdr:colOff>
+      <xdr:colOff>605520</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>183600</xdr:rowOff>
+      <xdr:rowOff>182520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1400,7 +1400,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="8047440" cy="4221000"/>
+          <a:ext cx="8063640" cy="4219920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1421,9 +1421,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>614160</xdr:colOff>
+      <xdr:colOff>613080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1437,7 +1437,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="7212960" cy="3894840"/>
+          <a:ext cx="7227000" cy="3893760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1458,9 +1458,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>652320</xdr:colOff>
+      <xdr:colOff>651240</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>34920</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1474,7 +1474,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="7232040" cy="4032720"/>
+          <a:ext cx="7246080" cy="4031640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1495,9 +1495,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>23760</xdr:colOff>
+      <xdr:colOff>22680</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>172440</xdr:rowOff>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1511,7 +1511,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6668280" cy="3967200"/>
+          <a:ext cx="6682320" cy="3966120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1537,9 +1537,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>207720</xdr:colOff>
+      <xdr:colOff>206640</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>125280</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1553,7 +1553,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="16819200" cy="7925760"/>
+          <a:ext cx="16856280" cy="7924680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1574,9 +1574,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>522360</xdr:colOff>
+      <xdr:colOff>521280</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>43560</xdr:rowOff>
+      <xdr:rowOff>42480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1590,7 +1590,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="17133840" cy="8265240"/>
+          <a:ext cx="17170920" cy="8264160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2258,8 +2258,8 @@
   </sheetPr>
   <dimension ref="A1:F144"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D54" activeCellId="0" sqref="D54"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F62" activeCellId="0" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3094,7 +3094,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
         <v>173</v>
       </c>
@@ -3107,8 +3107,11 @@
       <c r="E54" s="9" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F54" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
         <v>173</v>
       </c>
@@ -3121,8 +3124,11 @@
       <c r="E55" s="9" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F55" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="s">
         <v>177</v>
       </c>
@@ -3135,8 +3141,11 @@
       <c r="E56" s="9" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F56" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
         <v>180</v>
       </c>
@@ -3149,8 +3158,11 @@
       <c r="E57" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F57" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
         <v>180</v>
       </c>
@@ -3163,8 +3175,11 @@
       <c r="E58" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
         <v>184</v>
       </c>
@@ -3177,8 +3192,11 @@
       <c r="E59" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
         <v>184</v>
       </c>
@@ -3191,8 +3209,11 @@
       <c r="E60" s="9" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
         <v>184</v>
       </c>
@@ -3204,6 +3225,9 @@
       </c>
       <c r="E61" s="9" t="s">
         <v>182</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4347,7 +4371,7 @@
       <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4371,7 +4395,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="326">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -975,13 +975,22 @@
     <t xml:space="preserve">API Reference Guide for Webex Teams</t>
   </si>
   <si>
-    <t xml:space="preserve">https://developer.webex.com/docs/api/v1/people</t>
+    <t xml:space="preserve">https://developer.webex.com/docs/api/v1/people </t>
   </si>
   <si>
     <t xml:space="preserve">todo</t>
   </si>
   <si>
     <t xml:space="preserve">Main Meraki APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersight API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://intersight.com/apidocs/introduction/overview/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/movinalot/intersight-python</t>
   </si>
   <si>
     <t xml:space="preserve">Udemy Devcor Questions</t>
@@ -1137,7 +1146,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1220,6 +1229,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1310,9 +1323,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>167400</xdr:colOff>
+      <xdr:colOff>166680</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1326,7 +1339,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6827040" cy="3409920"/>
+          <a:ext cx="5983200" cy="3409200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1347,9 +1360,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>198000</xdr:colOff>
+      <xdr:colOff>197280</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>133200</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1363,7 +1376,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="10187640" cy="4771080"/>
+          <a:ext cx="8921880" cy="4770360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1384,9 +1397,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>605520</xdr:colOff>
+      <xdr:colOff>604800</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>182520</xdr:rowOff>
+      <xdr:rowOff>181800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1400,7 +1413,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="8063640" cy="4219920"/>
+          <a:ext cx="7113960" cy="4219200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1421,9 +1434,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>613080</xdr:colOff>
+      <xdr:colOff>612360</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1437,7 +1450,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="7227000" cy="3893760"/>
+          <a:ext cx="6383160" cy="3893040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1458,9 +1471,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>651240</xdr:colOff>
+      <xdr:colOff>650520</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1474,7 +1487,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="7246080" cy="4031640"/>
+          <a:ext cx="6402240" cy="4030920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1495,9 +1508,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>22680</xdr:colOff>
+      <xdr:colOff>21960</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1511,7 +1524,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6682320" cy="3966120"/>
+          <a:ext cx="5838480" cy="3965400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1537,9 +1550,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>206640</xdr:colOff>
+      <xdr:colOff>205920</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1553,7 +1566,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="16856280" cy="7924680"/>
+          <a:ext cx="14747400" cy="7923960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1574,9 +1587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>521280</xdr:colOff>
+      <xdr:colOff>520560</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>42480</xdr:rowOff>
+      <xdr:rowOff>41760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1590,7 +1603,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="17170920" cy="8264160"/>
+          <a:ext cx="15062040" cy="8263440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1612,11 +1625,11 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1862,7 +1875,7 @@
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2185,7 +2198,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2256,13 +2269,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F62" activeCellId="0" sqref="F62"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F69" activeCellId="0" sqref="F69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -3230,7 +3243,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
         <v>188</v>
       </c>
@@ -3243,8 +3256,11 @@
       <c r="E62" s="9" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
         <v>188</v>
       </c>
@@ -3256,6 +3272,9 @@
       </c>
       <c r="E63" s="9" t="s">
         <v>190</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3312,6 +3331,7 @@
       <c r="E68" s="9" t="s">
         <v>196</v>
       </c>
+      <c r="F68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
@@ -4220,20 +4240,44 @@
         <v>317</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="0" t="s">
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="20" t="s">
         <v>319</v>
       </c>
+      <c r="C142" s="20"/>
+      <c r="D142" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="E142" s="16"/>
+      <c r="F142" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
       <c r="D143" s="21" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="0" t="s">
         <v>321</v>
       </c>
-      <c r="D144" s="21" t="s">
+      <c r="E143" s="16"/>
+      <c r="F143" s="20" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="0" t="s">
         <v>322</v>
+      </c>
+      <c r="D145" s="22" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="D146" s="22" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4347,8 +4391,11 @@
     <hyperlink ref="D134" r:id="rId107" display="Deploying Network CM/Telemetry"/>
     <hyperlink ref="D135" r:id="rId108" location="/preassessment" display="Mastering Cisco DevNet SW Design/Net Auto"/>
     <hyperlink ref="D136" r:id="rId109" display="Blog - My DEVCOR Experience"/>
-    <hyperlink ref="D143" r:id="rId110" display="https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/"/>
-    <hyperlink ref="D144" r:id="rId111" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
+    <hyperlink ref="D140" r:id="rId110" display="https://developer.webex.com/docs/api/v1/people "/>
+    <hyperlink ref="D142" r:id="rId111" display="https://intersight.com/apidocs/introduction/overview/"/>
+    <hyperlink ref="D143" r:id="rId112" display="https://github.com/movinalot/intersight-python"/>
+    <hyperlink ref="D145" r:id="rId113" display="https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/"/>
+    <hyperlink ref="D146" r:id="rId114" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4371,7 +4418,7 @@
       <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4395,7 +4442,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="328">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -606,6 +606,9 @@
     <t xml:space="preserve">DevNet LL - Cisco Intersight REST API with Postman</t>
   </si>
   <si>
+    <t xml:space="preserve">seen</t>
+  </si>
+  <si>
     <t xml:space="preserve">DevNet LL - Cisco Intersight REST API with Python</t>
   </si>
   <si>
@@ -625,6 +628,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">partly</t>
   </si>
   <si>
     <t xml:space="preserve">Cisco FTD FDM</t>
@@ -1323,9 +1329,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>166680</xdr:colOff>
+      <xdr:colOff>166320</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>36000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1339,7 +1345,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5983200" cy="3409200"/>
+          <a:ext cx="5992920" cy="3408840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1360,9 +1366,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>197280</xdr:colOff>
+      <xdr:colOff>196920</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>132480</xdr:rowOff>
+      <xdr:rowOff>132120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1376,7 +1382,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="8921880" cy="4770360"/>
+          <a:ext cx="8937000" cy="4770000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1397,9 +1403,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>604800</xdr:colOff>
+      <xdr:colOff>604440</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>181800</xdr:rowOff>
+      <xdr:rowOff>181440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1413,7 +1419,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7113960" cy="4219200"/>
+          <a:ext cx="7125120" cy="4218840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1434,9 +1440,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>612360</xdr:colOff>
+      <xdr:colOff>612000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1450,7 +1456,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6383160" cy="3893040"/>
+          <a:ext cx="6392880" cy="3892680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1471,9 +1477,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>650520</xdr:colOff>
+      <xdr:colOff>650160</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1487,7 +1493,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6402240" cy="4030920"/>
+          <a:ext cx="6411960" cy="4030560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1508,9 +1514,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>21960</xdr:colOff>
+      <xdr:colOff>21600</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1524,7 +1530,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="5838480" cy="3965400"/>
+          <a:ext cx="5848200" cy="3965040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1550,9 +1556,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>205920</xdr:colOff>
+      <xdr:colOff>205560</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1566,7 +1572,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="14747400" cy="7923960"/>
+          <a:ext cx="14772240" cy="7923600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1587,9 +1593,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>520560</xdr:colOff>
+      <xdr:colOff>520200</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>41760</xdr:rowOff>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1603,7 +1609,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15062040" cy="8263440"/>
+          <a:ext cx="15086880" cy="8263080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1626,10 +1632,10 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="F71 A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1872,10 +1878,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="1" sqref="F71 E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2195,10 +2201,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F71 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2271,11 +2277,11 @@
   </sheetPr>
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F69" activeCellId="0" sqref="F69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F71" activeCellId="0" sqref="F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -3277,7 +3283,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
         <v>188</v>
       </c>
@@ -3290,8 +3296,11 @@
       <c r="E64" s="9" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F64" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
         <v>188</v>
       </c>
@@ -3299,10 +3308,13 @@
         <v>0.5</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="E65" s="9" t="s">
         <v>190</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3315,181 +3327,192 @@
     <row r="67" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E67" s="0"/>
     </row>
-    <row r="68" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8" t="n">
         <v>5</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="F68" s="15"/>
-    </row>
-    <row r="69" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>197</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>200</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E70" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C70" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F70" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C71" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="E71" s="9" t="s">
-        <v>199</v>
+      <c r="F71" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E72" s="9" t="s">
         <v>200</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>0.25</v>
@@ -3517,128 +3540,128 @@
         <v>6</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E87" s="9" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D88" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E88" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="E88" s="9" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3656,156 +3679,156 @@
         <v>7</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D95" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E95" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>3.5</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D103" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E103" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="E103" s="9" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>3.5</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3820,97 +3843,97 @@
         <v>8</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D111" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>266</v>
-      </c>
-      <c r="E111" s="9" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>40</v>
@@ -3918,114 +3941,114 @@
     </row>
     <row r="114" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4043,72 +4066,72 @@
         <v>9</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4123,63 +4146,63 @@
         <v>10</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>0.25</v>
@@ -4194,16 +4217,16 @@
     </row>
     <row r="136" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4218,66 +4241,66 @@
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="20" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C140" s="20"/>
       <c r="D140" s="20" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E140" s="16"/>
       <c r="F140" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="20" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
       <c r="E141" s="16"/>
       <c r="F141" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="20" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C142" s="20"/>
       <c r="D142" s="21" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E142" s="16"/>
       <c r="F142" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="20"/>
       <c r="C143" s="20"/>
       <c r="D143" s="21" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E143" s="16"/>
       <c r="F143" s="20" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="0" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="0" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4415,10 +4438,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A107" activeCellId="0" sqref="A107"/>
+      <selection pane="topLeft" activeCell="A107" activeCellId="1" sqref="F71 A107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4439,10 +4462,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="F71 Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.609375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="329">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t xml:space="preserve">Subset of blueprint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skipped</t>
   </si>
   <si>
     <t xml:space="preserve">Application design</t>
@@ -1329,9 +1332,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>166320</xdr:colOff>
+      <xdr:colOff>164520</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>36000</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1345,7 +1348,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5992920" cy="3408840"/>
+          <a:ext cx="6046920" cy="3407040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1366,9 +1369,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>196920</xdr:colOff>
+      <xdr:colOff>195120</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>132120</xdr:rowOff>
+      <xdr:rowOff>130320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1382,7 +1385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="8937000" cy="4770000"/>
+          <a:ext cx="9019080" cy="4768200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1403,9 +1406,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>604440</xdr:colOff>
+      <xdr:colOff>602640</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>181440</xdr:rowOff>
+      <xdr:rowOff>179640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1419,7 +1422,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7125120" cy="4218840"/>
+          <a:ext cx="7186320" cy="4217040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1440,9 +1443,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>612000</xdr:colOff>
+      <xdr:colOff>610200</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>119160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1456,7 +1459,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6392880" cy="3892680"/>
+          <a:ext cx="6446880" cy="3890880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1477,9 +1480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>650160</xdr:colOff>
+      <xdr:colOff>648360</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1493,7 +1496,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6411960" cy="4030560"/>
+          <a:ext cx="6465960" cy="4028760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1514,9 +1517,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>21600</xdr:colOff>
+      <xdr:colOff>19800</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1530,12 +1533,86 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="5848200" cy="3965040"/>
+          <a:ext cx="5902200" cy="3963240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>636120</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>209880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Image 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="26773920"/>
+          <a:ext cx="13136400" cy="7166880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>162</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>559800</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>171720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="34152840"/>
+          <a:ext cx="18942840" cy="10501560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1556,13 +1633,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>205560</xdr:colOff>
+      <xdr:colOff>203760</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Afbeelding 1" descr=""/>
+        <xdr:cNvPr id="8" name="Afbeelding 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1572,7 +1649,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="14772240" cy="7923600"/>
+          <a:ext cx="14910120" cy="7921800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1593,13 +1670,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>520200</xdr:colOff>
+      <xdr:colOff>518400</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>41400</xdr:rowOff>
+      <xdr:rowOff>39600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Afbeelding 2" descr=""/>
+        <xdr:cNvPr id="9" name="Afbeelding 2" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1609,7 +1686,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15086880" cy="8263080"/>
+          <a:ext cx="15224760" cy="8261280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1632,10 +1709,10 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="F71 A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.98828125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1878,10 +1955,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="1" sqref="F71 E21"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.98828125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2201,10 +2278,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F71 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.98828125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2277,11 +2354,11 @@
   </sheetPr>
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F71" activeCellId="0" sqref="F71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F85" activeCellId="0" sqref="F85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.98828125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -2307,7 +2384,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="n">
         <v>1</v>
       </c>
@@ -2323,20 +2400,22 @@
       <c r="E2" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>28</v>
@@ -2344,16 +2423,16 @@
     </row>
     <row r="4" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>28</v>
@@ -2361,16 +2440,16 @@
     </row>
     <row r="5" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>28</v>
@@ -2378,16 +2457,16 @@
     </row>
     <row r="6" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>28</v>
@@ -2395,16 +2474,16 @@
     </row>
     <row r="7" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>28</v>
@@ -2412,16 +2491,16 @@
     </row>
     <row r="8" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>28</v>
@@ -2429,16 +2508,16 @@
     </row>
     <row r="9" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>28</v>
@@ -2446,16 +2525,16 @@
     </row>
     <row r="10" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>28</v>
@@ -2463,16 +2542,16 @@
     </row>
     <row r="11" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>28</v>
@@ -2493,16 +2572,16 @@
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>28</v>
@@ -2510,16 +2589,16 @@
     </row>
     <row r="15" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F15" s="12" t="s">
         <v>28</v>
@@ -2527,16 +2606,16 @@
     </row>
     <row r="16" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>99</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>98</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>28</v>
@@ -2544,16 +2623,16 @@
     </row>
     <row r="17" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>28</v>
@@ -2561,31 +2640,31 @@
     </row>
     <row r="18" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F18" s="18"/>
     </row>
     <row r="19" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F19" s="12" t="s">
         <v>28</v>
@@ -2593,16 +2672,16 @@
     </row>
     <row r="20" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F20" s="12" t="s">
         <v>28</v>
@@ -2610,16 +2689,16 @@
     </row>
     <row r="21" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F21" s="12" t="s">
         <v>28</v>
@@ -2627,16 +2706,16 @@
     </row>
     <row r="22" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F22" s="12" t="s">
         <v>28</v>
@@ -2644,16 +2723,16 @@
     </row>
     <row r="23" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D23" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" s="9" t="s">
         <v>115</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>114</v>
       </c>
       <c r="F23" s="12" t="s">
         <v>28</v>
@@ -2661,13 +2740,13 @@
     </row>
     <row r="24" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E24" s="19" t="n">
         <v>4.3</v>
@@ -2678,16 +2757,16 @@
     </row>
     <row r="25" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F25" s="12" t="s">
         <v>28</v>
@@ -2708,16 +2787,16 @@
         <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>28</v>
@@ -2725,16 +2804,16 @@
     </row>
     <row r="29" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>28</v>
@@ -2742,16 +2821,16 @@
     </row>
     <row r="30" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>28</v>
@@ -2759,16 +2838,16 @@
     </row>
     <row r="31" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="9" t="s">
         <v>129</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>28</v>
@@ -2776,10 +2855,10 @@
     </row>
     <row r="32" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>28</v>
@@ -2787,16 +2866,16 @@
     </row>
     <row r="33" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F33" s="12" t="s">
         <v>28</v>
@@ -2804,10 +2883,10 @@
     </row>
     <row r="34" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="0" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>28</v>
@@ -2815,16 +2894,16 @@
     </row>
     <row r="35" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="0" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>28</v>
@@ -2832,16 +2911,16 @@
     </row>
     <row r="36" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="5" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F36" s="12" t="s">
         <v>28</v>
@@ -2849,16 +2928,16 @@
     </row>
     <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>28</v>
@@ -2866,16 +2945,16 @@
     </row>
     <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D38" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>145</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>144</v>
       </c>
       <c r="F38" s="13"/>
     </row>
@@ -2894,16 +2973,16 @@
         <v>4</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>28</v>
@@ -2911,16 +2990,16 @@
     </row>
     <row r="42" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>28</v>
@@ -2928,16 +3007,16 @@
     </row>
     <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E43" s="9" t="s">
         <v>152</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>151</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>28</v>
@@ -2945,16 +3024,16 @@
     </row>
     <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>28</v>
@@ -2962,16 +3041,16 @@
     </row>
     <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>28</v>
@@ -2979,16 +3058,16 @@
     </row>
     <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="0" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>157</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>28</v>
@@ -2996,16 +3075,16 @@
     </row>
     <row r="47" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>28</v>
@@ -3013,16 +3092,16 @@
     </row>
     <row r="48" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>162</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>161</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>28</v>
@@ -3030,16 +3109,16 @@
     </row>
     <row r="49" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="5" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>28</v>
@@ -3047,16 +3126,16 @@
     </row>
     <row r="50" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>28</v>
@@ -3064,16 +3143,16 @@
     </row>
     <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>169</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>168</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>28</v>
@@ -3081,16 +3160,16 @@
     </row>
     <row r="52" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>28</v>
@@ -3098,16 +3177,16 @@
     </row>
     <row r="53" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>28</v>
@@ -3115,16 +3194,16 @@
     </row>
     <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>28</v>
@@ -3132,16 +3211,16 @@
     </row>
     <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D55" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>175</v>
       </c>
       <c r="F55" s="12" t="s">
         <v>28</v>
@@ -3149,16 +3228,16 @@
     </row>
     <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>28</v>
@@ -3166,16 +3245,16 @@
     </row>
     <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>28</v>
@@ -3183,16 +3262,16 @@
     </row>
     <row r="58" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="0" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D58" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>183</v>
-      </c>
-      <c r="E58" s="9" t="s">
-        <v>182</v>
       </c>
       <c r="F58" s="12" t="s">
         <v>28</v>
@@ -3200,16 +3279,16 @@
     </row>
     <row r="59" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F59" s="12" t="s">
         <v>28</v>
@@ -3217,16 +3296,16 @@
     </row>
     <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F60" s="12" t="s">
         <v>28</v>
@@ -3234,16 +3313,16 @@
     </row>
     <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="0" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>28</v>
@@ -3251,16 +3330,16 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>28</v>
@@ -3268,16 +3347,16 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E63" s="9" t="s">
         <v>191</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>190</v>
       </c>
       <c r="F63" s="12" t="s">
         <v>28</v>
@@ -3285,36 +3364,36 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F64" s="12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="0" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D65" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="F65" s="12" t="s">
         <v>194</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3332,16 +3411,16 @@
         <v>5</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E68" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F68" s="12" t="s">
         <v>28</v>
@@ -3349,33 +3428,33 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="0" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E69" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F69" s="12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E70" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F70" s="12" t="s">
         <v>28</v>
@@ -3383,136 +3462,154 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F71" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="0" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>201</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D73" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
         <v>207</v>
-      </c>
-      <c r="E73" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
-        <v>206</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="E74" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="E74" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F74" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="0" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>213</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+      <c r="F76" s="13"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+      <c r="F77" s="13"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+      <c r="F78" s="13"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="9" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="5" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>0.25</v>
@@ -3523,7 +3620,9 @@
       <c r="E80" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F80" s="13"/>
+      <c r="F80" s="12" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="17" t="n">
@@ -3540,128 +3639,128 @@
         <v>6</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D85" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>225</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E86" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D87" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E87" s="9" t="s">
         <v>229</v>
-      </c>
-      <c r="E87" s="9" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E88" s="9" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D91" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E91" s="9" t="s">
         <v>236</v>
-      </c>
-      <c r="E91" s="9" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3679,156 +3778,156 @@
         <v>7</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="E95" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="C95" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E96" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="C96" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E97" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="C97" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>3.5</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E102" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>3.5</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3843,97 +3942,97 @@
         <v>8</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E110" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>40</v>
@@ -3941,114 +4040,114 @@
     </row>
     <row r="114" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="E116" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>277</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4061,77 +4160,92 @@
     <row r="123" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D123" s="3"/>
     </row>
-    <row r="124" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="8" t="n">
         <v>9</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>292</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>295</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D126" s="0" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>297</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>240</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>248</v>
+        <v>249</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4141,68 +4255,69 @@
         <v>10</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="8" t="n">
         <v>10</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>303</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="F131" s="13"/>
     </row>
     <row r="132" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>0.25</v>
@@ -4217,16 +4332,16 @@
     </row>
     <row r="136" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4241,66 +4356,66 @@
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="20" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C140" s="20"/>
       <c r="D140" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E140" s="16"/>
       <c r="F140" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
       <c r="E141" s="16"/>
       <c r="F141" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C142" s="20"/>
       <c r="D142" s="21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E142" s="16"/>
       <c r="F142" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="20"/>
       <c r="C143" s="20"/>
       <c r="D143" s="21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E143" s="16"/>
       <c r="F143" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="0" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="0" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -4437,11 +4552,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A95" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A107" activeCellId="1" sqref="F71 A107"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A167" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4462,10 +4577,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="F71 Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="329">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1332,9 +1332,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>164520</xdr:colOff>
+      <xdr:colOff>164160</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1348,7 +1348,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6046920" cy="3407040"/>
+          <a:ext cx="6056640" cy="3406680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1369,9 +1369,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>130320</xdr:rowOff>
+      <xdr:rowOff>129960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1385,7 +1385,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9019080" cy="4768200"/>
+          <a:ext cx="9033840" cy="4767840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1406,9 +1406,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>602640</xdr:colOff>
+      <xdr:colOff>602280</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>179640</xdr:rowOff>
+      <xdr:rowOff>179280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1422,7 +1422,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7186320" cy="4217040"/>
+          <a:ext cx="7197480" cy="4216680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1443,9 +1443,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>610200</xdr:colOff>
+      <xdr:colOff>609840</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
+      <xdr:rowOff>118800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1459,7 +1459,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6446880" cy="3890880"/>
+          <a:ext cx="6456600" cy="3890520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1480,9 +1480,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>648360</xdr:colOff>
+      <xdr:colOff>648000</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1496,7 +1496,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6465960" cy="4028760"/>
+          <a:ext cx="6475680" cy="4028400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1517,9 +1517,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>19800</xdr:colOff>
+      <xdr:colOff>19440</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1533,7 +1533,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="5902200" cy="3963240"/>
+          <a:ext cx="5911920" cy="3962880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1554,9 +1554,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>636120</xdr:colOff>
+      <xdr:colOff>635760</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>209880</xdr:rowOff>
+      <xdr:rowOff>209520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1570,7 +1570,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13136400" cy="7166880"/>
+          <a:ext cx="13157640" cy="7166520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1591,9 +1591,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>559800</xdr:colOff>
+      <xdr:colOff>559440</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1607,7 +1607,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="18942840" cy="10501560"/>
+          <a:ext cx="18974160" cy="10501200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1633,9 +1633,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>203760</xdr:colOff>
+      <xdr:colOff>203400</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1649,7 +1649,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="14910120" cy="7921800"/>
+          <a:ext cx="14935320" cy="7921440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1670,9 +1670,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>518400</xdr:colOff>
+      <xdr:colOff>518040</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>39600</xdr:rowOff>
+      <xdr:rowOff>39240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1686,7 +1686,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15224760" cy="8261280"/>
+          <a:ext cx="15249960" cy="8260920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1709,10 +1709,10 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="F83 A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.98828125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1955,10 +1955,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="1" sqref="F83 E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.98828125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2278,10 +2278,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F83 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.98828125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2354,11 +2354,11 @@
   </sheetPr>
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F85" activeCellId="0" sqref="F85"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F83" activeCellId="0" sqref="F83"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.98828125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -3558,7 +3558,9 @@
       <c r="E76" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="F76" s="13"/>
+      <c r="F76" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="0" t="s">
@@ -3573,7 +3575,9 @@
       <c r="E77" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="F77" s="13"/>
+      <c r="F77" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="0" t="s">
@@ -3588,7 +3592,9 @@
       <c r="E78" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="F78" s="13"/>
+      <c r="F78" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="9" t="s">
@@ -3634,7 +3640,7 @@
     <row r="82" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D82" s="3"/>
     </row>
-    <row r="83" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="8" t="n">
         <v>6</v>
       </c>
@@ -3649,6 +3655,9 @@
       </c>
       <c r="E83" s="9" t="s">
         <v>222</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4553,10 +4562,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A167" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
+      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="F83 A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4577,10 +4586,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="F83 Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="330">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -736,6 +736,9 @@
   </si>
   <si>
     <t xml:space="preserve">3.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24min</t>
   </si>
   <si>
     <t xml:space="preserve">YouTube - AppDynamics Demo</t>
@@ -1709,7 +1712,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="F83 A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1955,7 +1958,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="1" sqref="F83 E21"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2278,7 +2281,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F83 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2354,8 +2357,8 @@
   </sheetPr>
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A77" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F83" activeCellId="0" sqref="F83"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F88" activeCellId="0" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3674,7 +3677,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
         <v>223</v>
       </c>
@@ -3686,6 +3689,9 @@
       </c>
       <c r="E85" s="9" t="s">
         <v>225</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3757,6 +3763,9 @@
       <c r="E90" s="9" t="s">
         <v>236</v>
       </c>
+      <c r="F90" s="0" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="91" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
@@ -3766,7 +3775,7 @@
         <v>0.5</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>236</v>
@@ -3787,156 +3796,156 @@
         <v>7</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E95" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="C95" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E95" s="9" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E96" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="C96" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E96" s="9" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E97" s="9" t="s">
         <v>241</v>
-      </c>
-      <c r="C97" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="E97" s="9" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>3.5</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E99" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E100" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E101" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E102" s="9" t="s">
         <v>255</v>
-      </c>
-      <c r="E102" s="9" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>3.5</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3951,97 +3960,97 @@
         <v>8</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E110" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>40</v>
@@ -4049,114 +4058,114 @@
     </row>
     <row r="114" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E116" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4174,16 +4183,16 @@
         <v>9</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F124" s="12" t="s">
         <v>75</v>
@@ -4191,16 +4200,16 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>75</v>
@@ -4208,7 +4217,7 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2</v>
@@ -4217,7 +4226,7 @@
         <v>218</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>75</v>
@@ -4225,16 +4234,16 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>75</v>
@@ -4242,16 +4251,16 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>75</v>
@@ -4269,64 +4278,64 @@
         <v>10</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F131" s="13"/>
     </row>
     <row r="132" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>0.25</v>
@@ -4341,16 +4350,16 @@
     </row>
     <row r="136" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4365,66 +4374,66 @@
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C140" s="20"/>
       <c r="D140" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E140" s="16"/>
       <c r="F140" s="20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
       <c r="E141" s="16"/>
       <c r="F141" s="20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C142" s="20"/>
       <c r="D142" s="21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E142" s="16"/>
       <c r="F142" s="20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="20"/>
       <c r="C143" s="20"/>
       <c r="D143" s="21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E143" s="16"/>
       <c r="F143" s="20" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="0" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="D145" s="22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="0" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D146" s="22" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4562,7 +4571,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A167" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="F83 A163"/>
+      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4586,7 +4595,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="F83 Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="329">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -736,9 +736,6 @@
   </si>
   <si>
     <t xml:space="preserve">3.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">24min</t>
   </si>
   <si>
     <t xml:space="preserve">YouTube - AppDynamics Demo</t>
@@ -1158,7 +1155,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1237,6 +1234,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1335,9 +1336,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>164160</xdr:colOff>
+      <xdr:colOff>163800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1351,7 +1352,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6056640" cy="3406680"/>
+          <a:ext cx="6066720" cy="3406320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1372,9 +1373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>194760</xdr:colOff>
+      <xdr:colOff>194400</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>129960</xdr:rowOff>
+      <xdr:rowOff>129600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1388,7 +1389,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9033840" cy="4767840"/>
+          <a:ext cx="9048600" cy="4767480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1409,9 +1410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>602280</xdr:colOff>
+      <xdr:colOff>601920</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>179280</xdr:rowOff>
+      <xdr:rowOff>178920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1425,7 +1426,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7197480" cy="4216680"/>
+          <a:ext cx="7208280" cy="4216320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1446,9 +1447,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>609840</xdr:colOff>
+      <xdr:colOff>609480</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>118800</xdr:rowOff>
+      <xdr:rowOff>118440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1462,7 +1463,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6456600" cy="3890520"/>
+          <a:ext cx="6466680" cy="3890160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1483,9 +1484,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>648000</xdr:colOff>
+      <xdr:colOff>647640</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1499,7 +1500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6475680" cy="4028400"/>
+          <a:ext cx="6485760" cy="4028040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1520,9 +1521,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>19440</xdr:colOff>
+      <xdr:colOff>19080</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1536,7 +1537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="5911920" cy="3962880"/>
+          <a:ext cx="5922000" cy="3962520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1557,9 +1558,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>635760</xdr:colOff>
+      <xdr:colOff>635400</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>209520</xdr:rowOff>
+      <xdr:rowOff>209160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1573,7 +1574,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13157640" cy="7166520"/>
+          <a:ext cx="13178880" cy="7166160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1594,9 +1595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>559440</xdr:colOff>
+      <xdr:colOff>559080</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1610,7 +1611,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="18974160" cy="10501200"/>
+          <a:ext cx="19005480" cy="10500840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1636,9 +1637,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>203400</xdr:colOff>
+      <xdr:colOff>203040</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1652,7 +1653,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="14935320" cy="7921440"/>
+          <a:ext cx="14960160" cy="7921080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1673,9 +1674,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>518040</xdr:colOff>
+      <xdr:colOff>517680</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:rowOff>38880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1689,7 +1690,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15249960" cy="8260920"/>
+          <a:ext cx="15274800" cy="8260560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1715,7 +1716,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1961,7 +1962,7 @@
       <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2284,7 +2285,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2357,11 +2358,11 @@
   </sheetPr>
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F88" activeCellId="0" sqref="F88"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D92" activeCellId="0" sqref="D92"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -3663,7 +3664,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="0" t="s">
         <v>223</v>
       </c>
@@ -3676,6 +3677,7 @@
       <c r="E84" s="9" t="s">
         <v>225</v>
       </c>
+      <c r="F84" s="18"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="0" t="s">
@@ -3750,7 +3752,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="0" t="s">
         <v>234</v>
       </c>
@@ -3763,11 +3765,11 @@
       <c r="E90" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="F90" s="0" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F90" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="0" t="s">
         <v>234</v>
       </c>
@@ -3775,14 +3777,17 @@
         <v>0.5</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E91" s="9" t="s">
         <v>236</v>
       </c>
+      <c r="F91" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="17" t="n">
+      <c r="C92" s="20" t="n">
         <f aca="false">SUM(C83:C91)</f>
         <v>5.25</v>
       </c>
@@ -3796,156 +3801,156 @@
         <v>7</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D94" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C94" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D94" s="2" t="s">
+      <c r="E94" s="9" t="s">
         <v>240</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C95" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>243</v>
-      </c>
       <c r="E95" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E96" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E97" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>3.5</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E98" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C99" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="E99" s="9" t="s">
         <v>249</v>
-      </c>
-      <c r="E99" s="9" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C100" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="9" t="s">
         <v>252</v>
-      </c>
-      <c r="E100" s="9" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D101" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E101" s="9" t="s">
         <v>254</v>
-      </c>
-      <c r="E101" s="9" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E102" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E103" s="9" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>3.5</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E104" s="9" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3960,97 +3965,97 @@
         <v>8</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C107" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E109" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C113" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>40</v>
@@ -4058,114 +4063,114 @@
     </row>
     <row r="114" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C114" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E115" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C119" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C120" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" s="9" t="s">
         <v>288</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4183,16 +4188,16 @@
         <v>9</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D124" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E124" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="F124" s="12" t="s">
         <v>75</v>
@@ -4200,16 +4205,16 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D125" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E125" s="9" t="s">
         <v>295</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>296</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>75</v>
@@ -4217,7 +4222,7 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2</v>
@@ -4226,7 +4231,7 @@
         <v>218</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>75</v>
@@ -4234,16 +4239,16 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E127" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F127" s="12" t="s">
         <v>75</v>
@@ -4251,16 +4256,16 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E128" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F128" s="12" t="s">
         <v>75</v>
@@ -4278,64 +4283,64 @@
         <v>10</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E131" s="9" t="s">
         <v>304</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>305</v>
       </c>
       <c r="F131" s="13"/>
     </row>
     <row r="132" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E132" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E133" s="9" t="s">
         <v>310</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E134" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>0.25</v>
@@ -4350,16 +4355,16 @@
     </row>
     <row r="136" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E136" s="9" t="s">
         <v>317</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4373,67 +4378,67 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="C140" s="21"/>
+      <c r="D140" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="C140" s="20"/>
-      <c r="D140" s="20" t="s">
+      <c r="E140" s="16"/>
+      <c r="F140" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="E140" s="16"/>
-      <c r="F140" s="20" t="s">
+    </row>
+    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="21" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="20" t="s">
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C141" s="20"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="20" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="20" t="s">
+      <c r="C142" s="21"/>
+      <c r="D142" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="C142" s="20"/>
-      <c r="D142" s="21" t="s">
+      <c r="E142" s="16"/>
+      <c r="F142" s="21" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="21"/>
+      <c r="C143" s="21"/>
+      <c r="D143" s="22" t="s">
         <v>324</v>
       </c>
-      <c r="E142" s="16"/>
-      <c r="F142" s="20" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="20"/>
-      <c r="C143" s="20"/>
-      <c r="D143" s="21" t="s">
-        <v>325</v>
-      </c>
       <c r="E143" s="16"/>
-      <c r="F143" s="20" t="s">
-        <v>321</v>
+      <c r="F143" s="21" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="D145" s="23" t="s">
         <v>326</v>
-      </c>
-      <c r="D145" s="22" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="0" t="s">
+        <v>327</v>
+      </c>
+      <c r="D146" s="23" t="s">
         <v>328</v>
-      </c>
-      <c r="D146" s="22" t="s">
-        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4574,7 +4579,7 @@
       <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73828125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4598,7 +4603,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.73828125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="329">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1336,9 +1336,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>163800</xdr:colOff>
+      <xdr:colOff>163440</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>33120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1352,7 +1352,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6066720" cy="3406320"/>
+          <a:ext cx="6076440" cy="3405960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,9 +1373,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>194400</xdr:colOff>
+      <xdr:colOff>194040</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>129600</xdr:rowOff>
+      <xdr:rowOff>129240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1389,7 +1389,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9048600" cy="4767480"/>
+          <a:ext cx="9063720" cy="4767120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1410,9 +1410,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>601920</xdr:colOff>
+      <xdr:colOff>601560</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>178920</xdr:rowOff>
+      <xdr:rowOff>178560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1426,7 +1426,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7208280" cy="4216320"/>
+          <a:ext cx="7219440" cy="4215960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1447,9 +1447,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>609480</xdr:colOff>
+      <xdr:colOff>609120</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1463,7 +1463,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6466680" cy="3890160"/>
+          <a:ext cx="6476400" cy="3889800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1484,9 +1484,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>647640</xdr:colOff>
+      <xdr:colOff>647280</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1500,7 +1500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6485760" cy="4028040"/>
+          <a:ext cx="6495480" cy="4027680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1521,9 +1521,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>18720</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>167760</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1537,7 +1537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="5922000" cy="3962520"/>
+          <a:ext cx="5931720" cy="3962160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1558,9 +1558,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>635400</xdr:colOff>
+      <xdr:colOff>635040</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>209160</xdr:rowOff>
+      <xdr:rowOff>208800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1574,7 +1574,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13178880" cy="7166160"/>
+          <a:ext cx="13200120" cy="7165800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1595,9 +1595,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>559080</xdr:colOff>
+      <xdr:colOff>558720</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1611,7 +1611,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19005480" cy="10500840"/>
+          <a:ext cx="19037160" cy="10500480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1637,9 +1637,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>203040</xdr:colOff>
+      <xdr:colOff>202680</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>120240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1653,7 +1653,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="14960160" cy="7921080"/>
+          <a:ext cx="14985360" cy="7920720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1674,9 +1674,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>517680</xdr:colOff>
+      <xdr:colOff>517320</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>38880</xdr:rowOff>
+      <xdr:rowOff>38520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1690,7 +1690,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15274800" cy="8260560"/>
+          <a:ext cx="15300000" cy="8260200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1712,11 +1712,11 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="F86 A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1959,10 +1959,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="1" sqref="F86 E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2282,10 +2282,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F86 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2358,11 +2358,11 @@
   </sheetPr>
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A75" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D92" activeCellId="0" sqref="D92"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F86" activeCellId="0" sqref="F86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.03125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -3696,7 +3696,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="0" t="s">
         <v>227</v>
       </c>
@@ -3708,6 +3708,9 @@
       </c>
       <c r="E86" s="9" t="s">
         <v>229</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4576,10 +4579,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A167" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
+      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="F86 A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73828125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4600,10 +4603,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="F86 Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73828125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="332">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -999,7 +999,16 @@
     <t xml:space="preserve">https://intersight.com/apidocs/introduction/overview/</t>
   </si>
   <si>
+    <t xml:space="preserve">Intersight API python</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://github.com/movinalot/intersight-python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YANG Tree Diagrams </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tools.ietf.org/html/rfc8340</t>
   </si>
   <si>
     <t xml:space="preserve">Udemy Devcor Questions</t>
@@ -1018,13 +1027,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D\-MMM\-YY"/>
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="HH:MM:SS\ AM/PM"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1084,6 +1094,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1155,7 +1171,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1236,16 +1252,36 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1336,9 +1372,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>163440</xdr:colOff>
+      <xdr:colOff>163080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>33120</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1352,7 +1388,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6076440" cy="3405960"/>
+          <a:ext cx="6086160" cy="3405600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1373,9 +1409,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>194040</xdr:colOff>
+      <xdr:colOff>193680</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1389,7 +1425,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9063720" cy="4767120"/>
+          <a:ext cx="9078480" cy="4766760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1410,9 +1446,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>601560</xdr:colOff>
+      <xdr:colOff>601200</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>178560</xdr:rowOff>
+      <xdr:rowOff>178200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1426,7 +1462,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7219440" cy="4215960"/>
+          <a:ext cx="7230600" cy="4215600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1447,9 +1483,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>609120</xdr:colOff>
+      <xdr:colOff>608760</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1463,7 +1499,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6476400" cy="3889800"/>
+          <a:ext cx="6486120" cy="3889440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1484,9 +1520,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>647280</xdr:colOff>
+      <xdr:colOff>646920</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>29520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1500,7 +1536,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6495480" cy="4027680"/>
+          <a:ext cx="6505200" cy="4027320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1521,9 +1557,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
+      <xdr:colOff>18360</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1537,7 +1573,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="5931720" cy="3962160"/>
+          <a:ext cx="5941440" cy="3961800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1558,9 +1594,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>635040</xdr:colOff>
+      <xdr:colOff>634680</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>208800</xdr:rowOff>
+      <xdr:rowOff>208440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1574,7 +1610,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13200120" cy="7165800"/>
+          <a:ext cx="13221360" cy="7165440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1595,9 +1631,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>558720</xdr:colOff>
+      <xdr:colOff>558360</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1611,7 +1647,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19037160" cy="10500480"/>
+          <a:ext cx="19068480" cy="10500120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1637,9 +1673,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>202680</xdr:colOff>
+      <xdr:colOff>202320</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>120240</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1653,7 +1689,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="14985360" cy="7920720"/>
+          <a:ext cx="15010200" cy="7920360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1674,9 +1710,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>517320</xdr:colOff>
+      <xdr:colOff>516960</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>38520</xdr:rowOff>
+      <xdr:rowOff>38160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1690,7 +1726,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15300000" cy="8260200"/>
+          <a:ext cx="15324840" cy="8259840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1713,10 +1749,10 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="F86 A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1959,10 +1995,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="1" sqref="F86 E21"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2282,10 +2318,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F86 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2356,13 +2392,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F146"/>
+  <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F86" activeCellId="0" sqref="F86"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F95" activeCellId="0" sqref="F95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.0703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -3713,7 +3749,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="0" t="s">
         <v>227</v>
       </c>
@@ -3726,8 +3762,11 @@
       <c r="E87" s="9" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F87" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="0" t="s">
         <v>227</v>
       </c>
@@ -3740,8 +3779,11 @@
       <c r="E88" s="9" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F88" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="0" t="s">
         <v>227</v>
       </c>
@@ -3753,6 +3795,9 @@
       </c>
       <c r="E89" s="9" t="s">
         <v>233</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3799,7 +3844,7 @@
     <row r="93" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D93" s="3"/>
     </row>
-    <row r="94" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="8" t="n">
         <v>7</v>
       </c>
@@ -3814,6 +3859,9 @@
       </c>
       <c r="E94" s="9" t="s">
         <v>240</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3828,6 +3876,9 @@
       </c>
       <c r="E95" s="9" t="s">
         <v>240</v>
+      </c>
+      <c r="F95" s="21" t="n">
+        <v>0.489583333333333</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4381,67 +4432,89 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="21" t="s">
+      <c r="B140" s="22" t="s">
         <v>318</v>
       </c>
-      <c r="C140" s="21"/>
-      <c r="D140" s="21" t="s">
+      <c r="C140" s="22"/>
+      <c r="D140" s="22" t="s">
         <v>319</v>
       </c>
-      <c r="E140" s="16"/>
-      <c r="F140" s="21" t="s">
+      <c r="E140" s="23"/>
+      <c r="F140" s="24" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="21" t="s">
+      <c r="B141" s="22" t="s">
         <v>321</v>
       </c>
-      <c r="C141" s="21"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="16"/>
-      <c r="F141" s="21" t="s">
+      <c r="C141" s="22"/>
+      <c r="D141" s="22"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="24" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="21" t="s">
+      <c r="B142" s="22" t="s">
         <v>322</v>
       </c>
-      <c r="C142" s="21"/>
-      <c r="D142" s="22" t="s">
+      <c r="C142" s="22"/>
+      <c r="D142" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="E142" s="16"/>
-      <c r="F142" s="21" t="s">
+      <c r="E142" s="23"/>
+      <c r="F142" s="24" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="21"/>
-      <c r="C143" s="21"/>
-      <c r="D143" s="22" t="s">
+      <c r="B143" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="E143" s="16"/>
-      <c r="F143" s="21" t="s">
+      <c r="C143" s="22"/>
+      <c r="D143" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="E143" s="23"/>
+      <c r="F143" s="24" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="0" t="s">
-        <v>325</v>
-      </c>
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="22"/>
+      <c r="C144" s="22"/>
+      <c r="D144" s="25"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="22"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C145" s="22"/>
       <c r="D145" s="23" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="0" t="s">
         <v>327</v>
       </c>
-      <c r="D146" s="23" t="s">
+      <c r="E145" s="27"/>
+      <c r="F145" s="24" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0" t="s">
         <v>328</v>
+      </c>
+      <c r="D147" s="28" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0" t="s">
+        <v>330</v>
+      </c>
+      <c r="D148" s="28" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -4558,8 +4631,8 @@
     <hyperlink ref="D140" r:id="rId110" display="https://developer.webex.com/docs/api/v1/people "/>
     <hyperlink ref="D142" r:id="rId111" display="https://intersight.com/apidocs/introduction/overview/"/>
     <hyperlink ref="D143" r:id="rId112" display="https://github.com/movinalot/intersight-python"/>
-    <hyperlink ref="D145" r:id="rId113" display="https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/"/>
-    <hyperlink ref="D146" r:id="rId114" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
+    <hyperlink ref="D147" r:id="rId113" display="https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/"/>
+    <hyperlink ref="D148" r:id="rId114" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4579,10 +4652,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A167" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="F86 A163"/>
+      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4603,10 +4676,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="F86 Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="333">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1015,6 +1015,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
   </si>
   <si>
     <t xml:space="preserve">Fullstack networker Devcor Questions</t>
@@ -1027,14 +1030,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D\-MMM\-YY"/>
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="General"/>
-    <numFmt numFmtId="168" formatCode="HH:MM:SS\ AM/PM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1095,14 +1097,8 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1131,6 +1127,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -1171,7 +1173,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1252,11 +1254,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1269,18 +1267,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1343,7 +1329,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1372,9 +1358,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>163080</xdr:colOff>
+      <xdr:colOff>162360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1388,7 +1374,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6086160" cy="3405600"/>
+          <a:ext cx="6111000" cy="3404880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1409,9 +1395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>193680</xdr:colOff>
+      <xdr:colOff>192960</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>128880</xdr:rowOff>
+      <xdr:rowOff>128160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1425,7 +1411,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9078480" cy="4766760"/>
+          <a:ext cx="9115920" cy="4766040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1446,9 +1432,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>601200</xdr:colOff>
+      <xdr:colOff>600480</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>178200</xdr:rowOff>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1462,7 +1448,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7230600" cy="4215600"/>
+          <a:ext cx="7258320" cy="4214880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1483,9 +1469,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>608760</xdr:colOff>
+      <xdr:colOff>608040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1499,7 +1485,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6486120" cy="3889440"/>
+          <a:ext cx="6510960" cy="3888720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1520,9 +1506,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>646920</xdr:colOff>
+      <xdr:colOff>646200</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>29520</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1536,7 +1522,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6505200" cy="4027320"/>
+          <a:ext cx="6530040" cy="4026600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1557,9 +1543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>18360</xdr:colOff>
+      <xdr:colOff>17640</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>167040</xdr:rowOff>
+      <xdr:rowOff>166320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1573,7 +1559,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="5941440" cy="3961800"/>
+          <a:ext cx="5966280" cy="3961080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1594,9 +1580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>634680</xdr:colOff>
+      <xdr:colOff>633960</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>208440</xdr:rowOff>
+      <xdr:rowOff>207720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1610,7 +1596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13221360" cy="7165440"/>
+          <a:ext cx="13274640" cy="7164720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1631,9 +1617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>558360</xdr:colOff>
+      <xdr:colOff>557640</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1647,7 +1633,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19068480" cy="10500120"/>
+          <a:ext cx="19146960" cy="10499400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1673,9 +1659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>202320</xdr:colOff>
+      <xdr:colOff>201600</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>119160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1689,7 +1675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15010200" cy="7920360"/>
+          <a:ext cx="15073200" cy="7919640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1710,9 +1696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>516960</xdr:colOff>
+      <xdr:colOff>516240</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>38160</xdr:rowOff>
+      <xdr:rowOff>37440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1726,7 +1712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15324840" cy="8259840"/>
+          <a:ext cx="15387840" cy="8259120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1752,7 +1738,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.11328125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1998,7 +1984,7 @@
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.11328125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2321,7 +2307,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.11328125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2394,11 +2380,11 @@
   </sheetPr>
   <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F95" activeCellId="0" sqref="F95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E99" activeCellId="0" sqref="E99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.0703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.11328125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -3835,7 +3821,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="20" t="n">
+      <c r="C92" s="17" t="n">
         <f aca="false">SUM(C83:C91)</f>
         <v>5.25</v>
       </c>
@@ -3864,7 +3850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="0" t="s">
         <v>241</v>
       </c>
@@ -3877,11 +3863,11 @@
       <c r="E95" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F95" s="21" t="n">
-        <v>0.489583333333333</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F95" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="0" t="s">
         <v>241</v>
       </c>
@@ -3894,8 +3880,11 @@
       <c r="E96" s="9" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F96" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="0" t="s">
         <v>241</v>
       </c>
@@ -3907,6 +3896,9 @@
       </c>
       <c r="E97" s="9" t="s">
         <v>240</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3922,6 +3914,7 @@
       <c r="E98" s="9" t="s">
         <v>240</v>
       </c>
+      <c r="F98" s="20"/>
     </row>
     <row r="99" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="5" t="s">
@@ -4432,72 +4425,72 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="22" t="s">
+      <c r="B140" s="21" t="s">
         <v>318</v>
       </c>
-      <c r="C140" s="22"/>
-      <c r="D140" s="22" t="s">
+      <c r="C140" s="21"/>
+      <c r="D140" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="E140" s="23"/>
-      <c r="F140" s="24" t="s">
+      <c r="E140" s="22"/>
+      <c r="F140" s="23" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="22" t="s">
+      <c r="B141" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="C141" s="22"/>
-      <c r="D141" s="22"/>
-      <c r="E141" s="23"/>
-      <c r="F141" s="24" t="s">
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="23" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="22" t="s">
+      <c r="B142" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C142" s="22"/>
-      <c r="D142" s="25" t="s">
+      <c r="C142" s="21"/>
+      <c r="D142" s="24" t="s">
         <v>323</v>
       </c>
-      <c r="E142" s="23"/>
-      <c r="F142" s="24" t="s">
+      <c r="E142" s="22"/>
+      <c r="F142" s="23" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="26" t="s">
+      <c r="B143" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="C143" s="22"/>
-      <c r="D143" s="25" t="s">
+      <c r="C143" s="21"/>
+      <c r="D143" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="E143" s="23"/>
-      <c r="F143" s="24" t="s">
+      <c r="E143" s="22"/>
+      <c r="F143" s="23" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="22"/>
-      <c r="C144" s="22"/>
-      <c r="D144" s="25"/>
-      <c r="E144" s="23"/>
-      <c r="F144" s="22"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="21"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="25" t="s">
+      <c r="B145" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="C145" s="22"/>
-      <c r="D145" s="23" t="s">
+      <c r="C145" s="21"/>
+      <c r="D145" s="22" t="s">
         <v>327</v>
       </c>
-      <c r="E145" s="27"/>
-      <c r="F145" s="24" t="s">
+      <c r="E145" s="0"/>
+      <c r="F145" s="23" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4505,16 +4498,22 @@
       <c r="B147" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="D147" s="28" t="s">
+      <c r="D147" s="24" t="s">
         <v>329</v>
+      </c>
+      <c r="F147" s="0" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="F148" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="D148" s="28" t="s">
-        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -4655,7 +4654,7 @@
       <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4675,11 +4674,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.76953125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="334">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -793,6 +793,9 @@
   </si>
   <si>
     <t xml:space="preserve">DevNet LL - Introduction to Ansible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ong</t>
   </si>
   <si>
     <t xml:space="preserve">DevNet LL - Getting Hands On with Ansible</t>
@@ -1358,9 +1361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>162360</xdr:colOff>
+      <xdr:colOff>162000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1374,7 +1377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6111000" cy="3404880"/>
+          <a:ext cx="6120720" cy="3404520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1395,9 +1398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>192960</xdr:colOff>
+      <xdr:colOff>192600</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>128160</xdr:rowOff>
+      <xdr:rowOff>127800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1411,7 +1414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9115920" cy="4766040"/>
+          <a:ext cx="9130680" cy="4765680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1432,9 +1435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>600480</xdr:colOff>
+      <xdr:colOff>600120</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>177480</xdr:rowOff>
+      <xdr:rowOff>177120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1448,7 +1451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7258320" cy="4214880"/>
+          <a:ext cx="7269480" cy="4214520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1469,9 +1472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>608040</xdr:colOff>
+      <xdr:colOff>607680</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1485,7 +1488,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6510960" cy="3888720"/>
+          <a:ext cx="6520680" cy="3888360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1506,9 +1509,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>646200</xdr:colOff>
+      <xdr:colOff>645840</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1522,7 +1525,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6530040" cy="4026600"/>
+          <a:ext cx="6539760" cy="4026240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1543,9 +1546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>17640</xdr:colOff>
+      <xdr:colOff>17280</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1559,7 +1562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="5966280" cy="3961080"/>
+          <a:ext cx="5976000" cy="3960720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1580,9 +1583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>633960</xdr:colOff>
+      <xdr:colOff>633600</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>207720</xdr:rowOff>
+      <xdr:rowOff>207360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1596,7 +1599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13274640" cy="7164720"/>
+          <a:ext cx="13295880" cy="7164360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1617,9 +1620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>557640</xdr:colOff>
+      <xdr:colOff>557280</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>169560</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1633,7 +1636,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19146960" cy="10499400"/>
+          <a:ext cx="19178640" cy="10499040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1659,9 +1662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>201600</xdr:colOff>
+      <xdr:colOff>201240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
+      <xdr:rowOff>118800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1675,7 +1678,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15073200" cy="7919640"/>
+          <a:ext cx="15098040" cy="7919280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1696,9 +1699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>516240</xdr:colOff>
+      <xdr:colOff>515880</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>37440</xdr:rowOff>
+      <xdr:rowOff>37080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1712,7 +1715,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15387840" cy="8259120"/>
+          <a:ext cx="15412680" cy="8258760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1738,7 +1741,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.11328125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1984,7 +1987,7 @@
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.11328125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2307,7 +2310,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.11328125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2380,11 +2383,11 @@
   </sheetPr>
   <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A86" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E99" activeCellId="0" sqref="E99"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F102" activeCellId="0" sqref="F102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.11328125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -3916,7 +3919,7 @@
       </c>
       <c r="F98" s="20"/>
     </row>
-    <row r="99" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="5" t="s">
         <v>247</v>
       </c>
@@ -3929,8 +3932,11 @@
       <c r="E99" s="9" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F99" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="0" t="s">
         <v>250</v>
       </c>
@@ -3943,8 +3949,11 @@
       <c r="E100" s="9" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F100" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="0" t="s">
         <v>250</v>
       </c>
@@ -3956,6 +3965,9 @@
       </c>
       <c r="E101" s="9" t="s">
         <v>254</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3971,6 +3983,9 @@
       <c r="E102" s="9" t="s">
         <v>254</v>
       </c>
+      <c r="F102" s="0" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="103" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
@@ -3980,7 +3995,7 @@
         <v>0.5</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>254</v>
@@ -3988,13 +4003,13 @@
     </row>
     <row r="104" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>3.5</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>252</v>
@@ -4012,97 +4027,97 @@
         <v>8</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E107" s="9" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="E108" s="9" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="E109" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E110" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="E110" s="9" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>40</v>
@@ -4110,114 +4125,114 @@
     </row>
     <row r="114" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E116" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4235,16 +4250,16 @@
         <v>9</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F124" s="12" t="s">
         <v>75</v>
@@ -4252,16 +4267,16 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>75</v>
@@ -4269,7 +4284,7 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2</v>
@@ -4278,7 +4293,7 @@
         <v>218</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>75</v>
@@ -4286,13 +4301,13 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>240</v>
@@ -4303,13 +4318,13 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>249</v>
@@ -4330,64 +4345,64 @@
         <v>10</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F131" s="13"/>
     </row>
     <row r="132" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>0.25</v>
@@ -4402,16 +4417,16 @@
     </row>
     <row r="136" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4426,52 +4441,52 @@
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="21" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C140" s="21"/>
       <c r="D140" s="21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E140" s="22"/>
       <c r="F140" s="23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="21" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C141" s="21"/>
       <c r="D141" s="21"/>
       <c r="E141" s="22"/>
       <c r="F141" s="23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="21" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C142" s="21"/>
       <c r="D142" s="24" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E142" s="22"/>
       <c r="F142" s="23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C143" s="21"/>
       <c r="D143" s="24" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E143" s="22"/>
       <c r="F143" s="23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4483,37 +4498,37 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="24" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C145" s="21"/>
       <c r="D145" s="22" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E145" s="0"/>
       <c r="F145" s="23" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D147" s="24" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D148" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="F148" s="0" t="s">
         <v>331</v>
-      </c>
-      <c r="D148" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="F148" s="0" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4654,7 +4669,7 @@
       <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4678,7 +4693,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="333">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -793,9 +793,6 @@
   </si>
   <si>
     <t xml:space="preserve">DevNet LL - Introduction to Ansible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ong</t>
   </si>
   <si>
     <t xml:space="preserve">DevNet LL - Getting Hands On with Ansible</t>
@@ -1361,9 +1358,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>162000</xdr:colOff>
+      <xdr:colOff>161280</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1377,7 +1374,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6120720" cy="3404520"/>
+          <a:ext cx="6140160" cy="3403800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1398,9 +1395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>192600</xdr:colOff>
+      <xdr:colOff>191880</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>127800</xdr:rowOff>
+      <xdr:rowOff>127080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1414,7 +1411,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9130680" cy="4765680"/>
+          <a:ext cx="9160560" cy="4764960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1435,9 +1432,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>600120</xdr:colOff>
+      <xdr:colOff>599400</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>177120</xdr:rowOff>
+      <xdr:rowOff>176400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1451,7 +1448,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7269480" cy="4214520"/>
+          <a:ext cx="7291440" cy="4213800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1472,9 +1469,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>607680</xdr:colOff>
+      <xdr:colOff>606960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1488,7 +1485,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6520680" cy="3888360"/>
+          <a:ext cx="6540120" cy="3887640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1509,9 +1506,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>645840</xdr:colOff>
+      <xdr:colOff>645120</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1525,7 +1522,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6539760" cy="4026240"/>
+          <a:ext cx="6559200" cy="4025520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1546,9 +1543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>17280</xdr:colOff>
+      <xdr:colOff>16560</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>165960</xdr:rowOff>
+      <xdr:rowOff>165240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1562,7 +1559,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="5976000" cy="3960720"/>
+          <a:ext cx="5995440" cy="3960000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1583,9 +1580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>633600</xdr:colOff>
+      <xdr:colOff>632880</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>207360</xdr:rowOff>
+      <xdr:rowOff>206640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1599,7 +1596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13295880" cy="7164360"/>
+          <a:ext cx="13338360" cy="7163640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1620,9 +1617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>557280</xdr:colOff>
+      <xdr:colOff>556560</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1636,7 +1633,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19178640" cy="10499040"/>
+          <a:ext cx="19241280" cy="10498320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1662,9 +1659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>201240</xdr:colOff>
+      <xdr:colOff>200520</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>118800</xdr:rowOff>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1678,7 +1675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15098040" cy="7919280"/>
+          <a:ext cx="15148080" cy="7918560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1699,9 +1696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>515880</xdr:colOff>
+      <xdr:colOff>515160</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>37080</xdr:rowOff>
+      <xdr:rowOff>36360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1715,7 +1712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15412680" cy="8258760"/>
+          <a:ext cx="15462720" cy="8258040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1741,7 +1738,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1987,7 +1984,7 @@
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2310,7 +2307,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2383,11 +2380,11 @@
   </sheetPr>
   <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A83" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F102" activeCellId="0" sqref="F102"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F105" activeCellId="0" sqref="F105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.13671875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -3970,7 +3967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="0" t="s">
         <v>250</v>
       </c>
@@ -3983,8 +3980,8 @@
       <c r="E102" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F102" s="0" t="s">
-        <v>256</v>
+      <c r="F102" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3995,25 +3992,27 @@
         <v>0.5</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E103" s="9" t="s">
         <v>254</v>
       </c>
+      <c r="F103" s="15"/>
     </row>
     <row r="104" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>3.5</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E104" s="9" t="s">
         <v>252</v>
       </c>
+      <c r="F104" s="15"/>
     </row>
     <row r="105" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="17" t="n">
@@ -4027,97 +4026,97 @@
         <v>8</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D107" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C107" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="E107" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="E107" s="9" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D108" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="E108" s="9" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D109" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E109" s="9" t="s">
         <v>267</v>
-      </c>
-      <c r="E109" s="9" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E110" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E111" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E112" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C113" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>40</v>
@@ -4125,114 +4124,114 @@
     </row>
     <row r="114" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D114" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C114" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D114" s="2" t="s">
+      <c r="E114" s="9" t="s">
         <v>275</v>
-      </c>
-      <c r="E114" s="9" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D115" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E115" s="9" t="s">
         <v>278</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E116" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D119" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C119" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D119" s="2" t="s">
+      <c r="E119" s="9" t="s">
         <v>285</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D120" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C120" s="0" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="D120" s="2" t="s">
+      <c r="E120" s="9" t="s">
         <v>288</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4250,16 +4249,16 @@
         <v>9</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D124" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="E124" s="9" t="s">
         <v>292</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="F124" s="12" t="s">
         <v>75</v>
@@ -4267,16 +4266,16 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D125" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="E125" s="9" t="s">
         <v>295</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>296</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>75</v>
@@ -4284,7 +4283,7 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2</v>
@@ -4293,7 +4292,7 @@
         <v>218</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>75</v>
@@ -4301,13 +4300,13 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>240</v>
@@ -4318,13 +4317,13 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>249</v>
@@ -4345,64 +4344,64 @@
         <v>10</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="E131" s="9" t="s">
         <v>304</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>305</v>
       </c>
       <c r="F131" s="13"/>
     </row>
     <row r="132" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D132" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="E132" s="9" t="s">
         <v>307</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="5" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D133" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E133" s="9" t="s">
         <v>310</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D134" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E134" s="9" t="s">
         <v>313</v>
-      </c>
-      <c r="E134" s="9" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>0.25</v>
@@ -4417,16 +4416,16 @@
     </row>
     <row r="136" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D136" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E136" s="9" t="s">
         <v>317</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4441,52 +4440,52 @@
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C140" s="21"/>
       <c r="D140" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E140" s="22"/>
       <c r="F140" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C141" s="21"/>
       <c r="D141" s="21"/>
       <c r="E141" s="22"/>
       <c r="F141" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C142" s="21"/>
       <c r="D142" s="24" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E142" s="22"/>
       <c r="F142" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C143" s="21"/>
       <c r="D143" s="24" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E143" s="22"/>
       <c r="F143" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4498,37 +4497,37 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="24" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C145" s="21"/>
       <c r="D145" s="22" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E145" s="0"/>
       <c r="F145" s="23" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="0" t="s">
+        <v>328</v>
+      </c>
+      <c r="D147" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="D147" s="24" t="s">
+      <c r="F147" s="0" t="s">
         <v>330</v>
-      </c>
-      <c r="F147" s="0" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="D148" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="D148" s="24" t="s">
-        <v>333</v>
-      </c>
       <c r="F148" s="0" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4669,7 +4668,7 @@
       <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4693,7 +4692,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="333">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1358,9 +1358,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>161280</xdr:colOff>
+      <xdr:colOff>160560</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1374,7 +1374,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6140160" cy="3403800"/>
+          <a:ext cx="6159960" cy="3403080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1395,9 +1395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>191880</xdr:colOff>
+      <xdr:colOff>191160</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>127080</xdr:rowOff>
+      <xdr:rowOff>126360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1411,7 +1411,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9160560" cy="4764960"/>
+          <a:ext cx="9190080" cy="4764240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1432,9 +1432,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>599400</xdr:colOff>
+      <xdr:colOff>598680</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>176400</xdr:rowOff>
+      <xdr:rowOff>175680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1448,7 +1448,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7291440" cy="4213800"/>
+          <a:ext cx="7313760" cy="4213080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1469,9 +1469,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>606960</xdr:colOff>
+      <xdr:colOff>606240</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1485,7 +1485,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6540120" cy="3887640"/>
+          <a:ext cx="6559920" cy="3886920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1506,9 +1506,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>645120</xdr:colOff>
+      <xdr:colOff>644400</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1522,7 +1522,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6559200" cy="4025520"/>
+          <a:ext cx="6579000" cy="4024800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1543,9 +1543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>15840</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>165240</xdr:rowOff>
+      <xdr:rowOff>164520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1559,7 +1559,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="5995440" cy="3960000"/>
+          <a:ext cx="6015240" cy="3959280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1580,9 +1580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>632880</xdr:colOff>
+      <xdr:colOff>632160</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>206640</xdr:rowOff>
+      <xdr:rowOff>205920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1596,7 +1596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13338360" cy="7163640"/>
+          <a:ext cx="13380840" cy="7162920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1617,9 +1617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>556560</xdr:colOff>
+      <xdr:colOff>555840</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1633,7 +1633,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19241280" cy="10498320"/>
+          <a:ext cx="19303920" cy="10497600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1659,9 +1659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>200520</xdr:colOff>
+      <xdr:colOff>199800</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1675,7 +1675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15148080" cy="7918560"/>
+          <a:ext cx="15198480" cy="7917840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1696,9 +1696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>515160</xdr:colOff>
+      <xdr:colOff>514440</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>36360</xdr:rowOff>
+      <xdr:rowOff>35640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1712,7 +1712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15462720" cy="8258040"/>
+          <a:ext cx="15513120" cy="8257320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1738,7 +1738,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1984,7 +1984,7 @@
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2307,7 +2307,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2380,11 +2380,11 @@
   </sheetPr>
   <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A109" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F105" activeCellId="0" sqref="F105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F104" activeCellId="0" sqref="F104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.18359375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -3914,7 +3914,9 @@
       <c r="E98" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F98" s="20"/>
+      <c r="F98" s="20" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="5" t="s">
@@ -3984,7 +3986,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="0" t="s">
         <v>250</v>
       </c>
@@ -3997,7 +3999,9 @@
       <c r="E103" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="F103" s="15"/>
+      <c r="F103" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="104" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="5" t="s">
@@ -4012,7 +4016,9 @@
       <c r="E104" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="F104" s="15"/>
+      <c r="F104" s="15" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C105" s="17" t="n">
@@ -4668,7 +4674,7 @@
       <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8828125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4692,7 +4698,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8828125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -1358,9 +1358,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>160560</xdr:colOff>
+      <xdr:colOff>160200</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1374,7 +1374,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6159960" cy="3403080"/>
+          <a:ext cx="6169680" cy="3402720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1395,9 +1395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>191160</xdr:colOff>
+      <xdr:colOff>190800</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>126360</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1411,7 +1411,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9190080" cy="4764240"/>
+          <a:ext cx="9205200" cy="4763880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1432,9 +1432,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>598680</xdr:colOff>
+      <xdr:colOff>598320</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>175680</xdr:rowOff>
+      <xdr:rowOff>175320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1448,7 +1448,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7313760" cy="4213080"/>
+          <a:ext cx="7324920" cy="4212720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1469,9 +1469,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>606240</xdr:colOff>
+      <xdr:colOff>605880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1485,7 +1485,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6559920" cy="3886920"/>
+          <a:ext cx="6569640" cy="3886560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1506,9 +1506,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>644400</xdr:colOff>
+      <xdr:colOff>644040</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1522,7 +1522,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6579000" cy="4024800"/>
+          <a:ext cx="6588720" cy="4024440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1543,9 +1543,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>15840</xdr:colOff>
+      <xdr:colOff>15480</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>164160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1559,7 +1559,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6015240" cy="3959280"/>
+          <a:ext cx="6024960" cy="3958920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1580,9 +1580,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>632160</xdr:colOff>
+      <xdr:colOff>631800</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>205920</xdr:rowOff>
+      <xdr:rowOff>205560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1596,7 +1596,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13380840" cy="7162920"/>
+          <a:ext cx="13402080" cy="7162560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1617,9 +1617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>555840</xdr:colOff>
+      <xdr:colOff>555480</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>167760</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1633,7 +1633,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19303920" cy="10497600"/>
+          <a:ext cx="19335600" cy="10497240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1659,9 +1659,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>199800</xdr:colOff>
+      <xdr:colOff>199440</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>117360</xdr:rowOff>
+      <xdr:rowOff>117000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1675,7 +1675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15198480" cy="7917840"/>
+          <a:ext cx="15223320" cy="7917480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1696,9 +1696,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>514440</xdr:colOff>
+      <xdr:colOff>514080</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>35640</xdr:rowOff>
+      <xdr:rowOff>35280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1712,7 +1712,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15513120" cy="8257320"/>
+          <a:ext cx="15537960" cy="8256960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1738,7 +1738,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1984,7 +1984,7 @@
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2307,7 +2307,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2381,10 +2381,10 @@
   <dimension ref="A1:F148"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F104" activeCellId="0" sqref="F104"/>
+      <selection pane="topLeft" activeCell="F98" activeCellId="0" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.2265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -3915,7 +3915,7 @@
         <v>240</v>
       </c>
       <c r="F98" s="20" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4674,7 +4674,7 @@
       <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8828125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4698,7 +4698,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8828125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="333">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1098,7 +1098,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1127,12 +1127,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -1173,7 +1167,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1254,10 +1248,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1329,7 +1319,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1358,9 +1348,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>160200</xdr:colOff>
+      <xdr:colOff>159120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>28800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1374,7 +1364,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6169680" cy="3402720"/>
+          <a:ext cx="6199200" cy="3401640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1395,9 +1385,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>190800</xdr:colOff>
+      <xdr:colOff>189720</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>124920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1411,7 +1401,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9205200" cy="4763880"/>
+          <a:ext cx="9249840" cy="4762800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1432,9 +1422,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>598320</xdr:colOff>
+      <xdr:colOff>597240</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1448,7 +1438,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7324920" cy="4212720"/>
+          <a:ext cx="7358040" cy="4211640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1469,9 +1459,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>605880</xdr:colOff>
+      <xdr:colOff>604800</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>114840</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1485,7 +1475,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6569640" cy="3886560"/>
+          <a:ext cx="6599160" cy="3885480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1506,9 +1496,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>644040</xdr:colOff>
+      <xdr:colOff>642960</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1522,7 +1512,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6588720" cy="4024440"/>
+          <a:ext cx="6618240" cy="4023360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1543,9 +1533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>15480</xdr:colOff>
+      <xdr:colOff>14400</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1559,7 +1549,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6024960" cy="3958920"/>
+          <a:ext cx="6054480" cy="3957840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1580,9 +1570,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>631800</xdr:colOff>
+      <xdr:colOff>630720</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>205560</xdr:rowOff>
+      <xdr:rowOff>204480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1596,7 +1586,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13402080" cy="7162560"/>
+          <a:ext cx="13465800" cy="7161480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1617,9 +1607,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>555480</xdr:colOff>
+      <xdr:colOff>554400</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>166320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1633,7 +1623,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19335600" cy="10497240"/>
+          <a:ext cx="19429560" cy="10496160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1659,9 +1649,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>199440</xdr:colOff>
+      <xdr:colOff>198360</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>117000</xdr:rowOff>
+      <xdr:rowOff>115920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1675,7 +1665,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15223320" cy="7917480"/>
+          <a:ext cx="15298560" cy="7916400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1696,9 +1686,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>514080</xdr:colOff>
+      <xdr:colOff>513000</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>35280</xdr:rowOff>
+      <xdr:rowOff>34200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1712,7 +1702,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15537960" cy="8256960"/>
+          <a:ext cx="15613200" cy="8255880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1738,7 +1728,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.31640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1984,12 +1974,12 @@
       <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.31640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="45.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="49.24"/>
   </cols>
   <sheetData>
@@ -2307,7 +2297,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.31640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2380,11 +2370,11 @@
   </sheetPr>
   <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F98" activeCellId="0" sqref="F98"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F104" activeCellId="0" sqref="F104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.31640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -3901,7 +3891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="5" t="s">
         <v>245</v>
       </c>
@@ -3914,8 +3904,8 @@
       <c r="E98" s="9" t="s">
         <v>240</v>
       </c>
-      <c r="F98" s="20" t="n">
-        <v>7</v>
+      <c r="F98" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4017,7 +4007,7 @@
         <v>252</v>
       </c>
       <c r="F104" s="15" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4445,72 +4435,72 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="21" t="s">
+      <c r="B140" s="20" t="s">
         <v>318</v>
       </c>
-      <c r="C140" s="21"/>
-      <c r="D140" s="21" t="s">
+      <c r="C140" s="20"/>
+      <c r="D140" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="E140" s="22"/>
-      <c r="F140" s="23" t="s">
+      <c r="E140" s="21"/>
+      <c r="F140" s="22" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="21" t="s">
+      <c r="B141" s="20" t="s">
         <v>321</v>
       </c>
-      <c r="C141" s="21"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="23" t="s">
+      <c r="C141" s="20"/>
+      <c r="D141" s="20"/>
+      <c r="E141" s="21"/>
+      <c r="F141" s="22" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="21" t="s">
+      <c r="B142" s="20" t="s">
         <v>322</v>
       </c>
-      <c r="C142" s="21"/>
-      <c r="D142" s="24" t="s">
+      <c r="C142" s="20"/>
+      <c r="D142" s="23" t="s">
         <v>323</v>
       </c>
-      <c r="E142" s="22"/>
-      <c r="F142" s="23" t="s">
+      <c r="E142" s="21"/>
+      <c r="F142" s="22" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="21" t="s">
+      <c r="B143" s="20" t="s">
         <v>324</v>
       </c>
-      <c r="C143" s="21"/>
-      <c r="D143" s="24" t="s">
+      <c r="C143" s="20"/>
+      <c r="D143" s="23" t="s">
         <v>325</v>
       </c>
-      <c r="E143" s="22"/>
-      <c r="F143" s="23" t="s">
+      <c r="E143" s="21"/>
+      <c r="F143" s="22" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="22"/>
-      <c r="F144" s="21"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
+      <c r="D144" s="23"/>
+      <c r="E144" s="21"/>
+      <c r="F144" s="20"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="24" t="s">
+      <c r="B145" s="23" t="s">
         <v>326</v>
       </c>
-      <c r="C145" s="21"/>
-      <c r="D145" s="22" t="s">
+      <c r="C145" s="20"/>
+      <c r="D145" s="21" t="s">
         <v>327</v>
       </c>
       <c r="E145" s="0"/>
-      <c r="F145" s="23" t="s">
+      <c r="F145" s="22" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4518,7 +4508,7 @@
       <c r="B147" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="D147" s="24" t="s">
+      <c r="D147" s="23" t="s">
         <v>329</v>
       </c>
       <c r="F147" s="0" t="s">
@@ -4529,7 +4519,7 @@
       <c r="B148" s="0" t="s">
         <v>331</v>
       </c>
-      <c r="D148" s="24" t="s">
+      <c r="D148" s="23" t="s">
         <v>332</v>
       </c>
       <c r="F148" s="0" t="s">
@@ -4674,7 +4664,7 @@
       <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4698,7 +4688,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -2370,8 +2370,8 @@
   </sheetPr>
   <dimension ref="A1:F148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F104" activeCellId="0" sqref="F104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F105" activeCellId="0" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.31640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4007,7 +4007,7 @@
         <v>252</v>
       </c>
       <c r="F104" s="15" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="334">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -829,6 +829,9 @@
   </si>
   <si>
     <t xml:space="preserve">5.3.b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plural</t>
   </si>
   <si>
     <t xml:space="preserve">Introduction to Puppet - Module 4 (Manifests)</t>
@@ -1348,9 +1351,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>159120</xdr:colOff>
+      <xdr:colOff>158760</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>28800</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1364,7 +1367,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6199200" cy="3401640"/>
+          <a:ext cx="6208920" cy="3401280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1385,9 +1388,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>189720</xdr:colOff>
+      <xdr:colOff>189360</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>124920</xdr:rowOff>
+      <xdr:rowOff>124560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1401,7 +1404,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9249840" cy="4762800"/>
+          <a:ext cx="9264600" cy="4762440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1422,9 +1425,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>597240</xdr:colOff>
+      <xdr:colOff>596880</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>174240</xdr:rowOff>
+      <xdr:rowOff>173880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1438,7 +1441,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7358040" cy="4211640"/>
+          <a:ext cx="7369200" cy="4211280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1459,9 +1462,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>604800</xdr:colOff>
+      <xdr:colOff>604440</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1475,7 +1478,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6599160" cy="3885480"/>
+          <a:ext cx="6608880" cy="3885120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1496,9 +1499,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>642960</xdr:colOff>
+      <xdr:colOff>642600</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1512,7 +1515,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6618240" cy="4023360"/>
+          <a:ext cx="6627960" cy="4023000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1533,9 +1536,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>14400</xdr:colOff>
+      <xdr:colOff>14040</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1549,7 +1552,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6054480" cy="3957840"/>
+          <a:ext cx="6064200" cy="3957480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1570,9 +1573,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>630720</xdr:colOff>
+      <xdr:colOff>630360</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>204480</xdr:rowOff>
+      <xdr:rowOff>204120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1586,7 +1589,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13465800" cy="7161480"/>
+          <a:ext cx="13487040" cy="7161120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1607,9 +1610,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>554400</xdr:colOff>
+      <xdr:colOff>554040</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>166320</xdr:rowOff>
+      <xdr:rowOff>165960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1623,7 +1626,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19429560" cy="10496160"/>
+          <a:ext cx="19460880" cy="10495800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1649,9 +1652,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>198360</xdr:colOff>
+      <xdr:colOff>198000</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>115920</xdr:rowOff>
+      <xdr:rowOff>115560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1665,7 +1668,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15298560" cy="7916400"/>
+          <a:ext cx="15323400" cy="7916040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1686,9 +1689,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>513000</xdr:colOff>
+      <xdr:colOff>512640</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>34200</xdr:rowOff>
+      <xdr:rowOff>33840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1702,7 +1705,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15613200" cy="8255880"/>
+          <a:ext cx="15638040" cy="8255520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1725,10 +1728,10 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="F109 A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.31640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1971,10 +1974,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="F109 G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.31640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2294,10 +2297,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F109 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.31640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2368,18 +2371,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F148"/>
+  <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F105" activeCellId="0" sqref="F105"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F109" activeCellId="0" sqref="F109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.31640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="48.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="27.1"/>
   </cols>
   <sheetData>
@@ -3993,7 +3996,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="5" t="s">
         <v>257</v>
       </c>
@@ -4006,8 +4009,8 @@
       <c r="E104" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="F104" s="15" t="n">
-        <v>9</v>
+      <c r="F104" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4017,7 +4020,7 @@
       </c>
       <c r="D105" s="3"/>
     </row>
-    <row r="107" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="8" t="n">
         <v>8</v>
       </c>
@@ -4033,8 +4036,11 @@
       <c r="E107" s="9" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F107" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="0" t="s">
         <v>262</v>
       </c>
@@ -4047,8 +4053,11 @@
       <c r="E108" s="9" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F108" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="0" t="s">
         <v>265</v>
       </c>
@@ -4060,6 +4069,12 @@
       </c>
       <c r="E109" s="9" t="s">
         <v>267</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G109" s="0" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4070,7 +4085,7 @@
         <v>1</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E110" s="9" t="s">
         <v>267</v>
@@ -4084,13 +4099,13 @@
         <v>0.75</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E111" s="9" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="0" t="s">
         <v>265</v>
       </c>
@@ -4098,7 +4113,7 @@
         <v>0.5</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E112" s="9" t="s">
         <v>267</v>
@@ -4106,13 +4121,13 @@
     </row>
     <row r="113" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E113" s="9" t="s">
         <v>40</v>
@@ -4120,114 +4135,114 @@
     </row>
     <row r="114" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E114" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E115" s="9" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>0.3</v>
       </c>
       <c r="D116" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E116" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>0.4</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="E117" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E118" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="E119" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>0.5</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>0.75</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4245,16 +4260,16 @@
         <v>9</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D124" s="0" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E124" s="9" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F124" s="12" t="s">
         <v>75</v>
@@ -4262,16 +4277,16 @@
     </row>
     <row r="125" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="0" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D125" s="0" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E125" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F125" s="12" t="s">
         <v>75</v>
@@ -4279,7 +4294,7 @@
     </row>
     <row r="126" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="0" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>2</v>
@@ -4288,7 +4303,7 @@
         <v>218</v>
       </c>
       <c r="E126" s="9" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F126" s="12" t="s">
         <v>75</v>
@@ -4296,13 +4311,13 @@
     </row>
     <row r="127" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="0" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D127" s="0" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E127" s="9" t="s">
         <v>240</v>
@@ -4313,13 +4328,13 @@
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="0" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D128" s="0" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E128" s="9" t="s">
         <v>249</v>
@@ -4340,64 +4355,64 @@
         <v>10</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E131" s="9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F131" s="13"/>
     </row>
     <row r="132" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E132" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E133" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E134" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>0.25</v>
@@ -4412,16 +4427,16 @@
     </row>
     <row r="136" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>0.1</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E136" s="9" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4436,52 +4451,52 @@
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="20" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C140" s="20"/>
       <c r="D140" s="20" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E140" s="21"/>
       <c r="F140" s="22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="20" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C141" s="20"/>
       <c r="D141" s="20"/>
       <c r="E141" s="21"/>
       <c r="F141" s="22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="20" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C142" s="20"/>
       <c r="D142" s="23" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E142" s="21"/>
       <c r="F142" s="22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="20" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C143" s="20"/>
       <c r="D143" s="23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E143" s="21"/>
       <c r="F143" s="22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4493,37 +4508,37 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="23" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C145" s="20"/>
       <c r="D145" s="21" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E145" s="0"/>
       <c r="F145" s="22" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="0" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D147" s="23" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F147" s="0" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="0" t="s">
+        <v>332</v>
+      </c>
+      <c r="D148" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="F148" s="0" t="s">
         <v>331</v>
-      </c>
-      <c r="D148" s="23" t="s">
-        <v>332</v>
-      </c>
-      <c r="F148" s="0" t="s">
-        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4660,11 +4675,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A167" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="F109 A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4684,11 +4699,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="F109 Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.94140625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="334">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1728,7 +1728,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="F109 A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1974,7 +1974,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="1" sqref="F109 G8"/>
+      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2297,7 +2297,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F109 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2373,8 +2373,8 @@
   </sheetPr>
   <dimension ref="A1:G148"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A97" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F109" activeCellId="0" sqref="F109"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C111" activeCellId="0" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4077,7 +4077,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="0" t="s">
         <v>265</v>
       </c>
@@ -4090,8 +4090,11 @@
       <c r="E110" s="9" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F110" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="0" t="s">
         <v>265</v>
       </c>
@@ -4103,6 +4106,9 @@
       </c>
       <c r="E111" s="9" t="s">
         <v>267</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4676,7 +4682,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="F109 A163"/>
+      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4700,7 +4706,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="F109 Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="336">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1020,13 +1020,19 @@
     <t xml:space="preserve">https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/</t>
   </si>
   <si>
-    <t xml:space="preserve">?</t>
+    <t xml:space="preserve">no</t>
   </si>
   <si>
     <t xml:space="preserve">Fullstack networker Devcor Questions</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NX-OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/CiscoDevNet/nxos-code</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1176,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1249,6 +1255,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1351,9 +1361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>158760</xdr:colOff>
+      <xdr:colOff>158400</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1367,7 +1377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6208920" cy="3401280"/>
+          <a:ext cx="6218640" cy="3400920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1388,9 +1398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>189360</xdr:colOff>
+      <xdr:colOff>189000</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>124560</xdr:rowOff>
+      <xdr:rowOff>124200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1404,7 +1414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9264600" cy="4762440"/>
+          <a:ext cx="9279360" cy="4762080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1425,9 +1435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>596880</xdr:colOff>
+      <xdr:colOff>596520</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>173880</xdr:rowOff>
+      <xdr:rowOff>173520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1441,7 +1451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7369200" cy="4211280"/>
+          <a:ext cx="7380000" cy="4210920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1462,9 +1472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>604440</xdr:colOff>
+      <xdr:colOff>604080</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1478,7 +1488,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6608880" cy="3885120"/>
+          <a:ext cx="6618600" cy="3884760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1499,9 +1509,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>642600</xdr:colOff>
+      <xdr:colOff>642240</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1515,7 +1525,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6627960" cy="4023000"/>
+          <a:ext cx="6637680" cy="4022640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1536,9 +1546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>14040</xdr:colOff>
+      <xdr:colOff>13680</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1552,7 +1562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6064200" cy="3957480"/>
+          <a:ext cx="6073920" cy="3957120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1573,9 +1583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>630360</xdr:colOff>
+      <xdr:colOff>630000</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>204120</xdr:rowOff>
+      <xdr:rowOff>203760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1589,7 +1599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13487040" cy="7161120"/>
+          <a:ext cx="13508280" cy="7160760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1610,9 +1620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>554040</xdr:colOff>
+      <xdr:colOff>553680</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>165960</xdr:rowOff>
+      <xdr:rowOff>165600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1626,7 +1636,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19460880" cy="10495800"/>
+          <a:ext cx="19492200" cy="10495440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1652,9 +1662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>198000</xdr:colOff>
+      <xdr:colOff>197640</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>115560</xdr:rowOff>
+      <xdr:rowOff>115200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1668,7 +1678,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15323400" cy="7916040"/>
+          <a:ext cx="15348600" cy="7915680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1689,9 +1699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>512640</xdr:colOff>
+      <xdr:colOff>512280</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>33840</xdr:rowOff>
+      <xdr:rowOff>33480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1705,7 +1715,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15638040" cy="8255520"/>
+          <a:ext cx="15663240" cy="8255160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1731,7 +1741,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1974,10 +1984,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G8" activeCellId="0" sqref="G8"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2196,7 +2206,7 @@
       </c>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
         <v>55</v>
       </c>
@@ -2209,9 +2219,11 @@
       <c r="E15" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="15"/>
-    </row>
-    <row r="16" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="5" t="s">
         <v>58</v>
       </c>
@@ -2224,7 +2236,9 @@
       <c r="E16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
@@ -2300,7 +2314,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2371,13 +2385,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G148"/>
+  <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A91" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C111" activeCellId="0" sqref="C111"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F115" activeCellId="0" sqref="F115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.33203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -2966,13 +2980,13 @@
       <c r="B38" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="0" t="n">
+      <c r="C38" s="15" t="n">
         <v>2</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="20" t="s">
         <v>146</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="16" t="s">
         <v>145</v>
       </c>
       <c r="F38" s="13"/>
@@ -4124,6 +4138,9 @@
       <c r="E112" s="9" t="s">
         <v>267</v>
       </c>
+      <c r="F112" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
@@ -4138,6 +4155,7 @@
       <c r="E113" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="F113" s="15"/>
     </row>
     <row r="114" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="5" t="s">
@@ -4152,8 +4170,9 @@
       <c r="E114" s="9" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F114" s="15"/>
+    </row>
+    <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
         <v>277</v>
       </c>
@@ -4166,8 +4185,11 @@
       <c r="E115" s="9" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F115" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="0" t="s">
         <v>277</v>
       </c>
@@ -4180,8 +4202,11 @@
       <c r="E116" s="9" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F116" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="0" t="s">
         <v>277</v>
       </c>
@@ -4193,6 +4218,9 @@
       </c>
       <c r="E117" s="9" t="s">
         <v>276</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4208,6 +4236,7 @@
       <c r="E118" s="9" t="s">
         <v>276</v>
       </c>
+      <c r="F118" s="15"/>
     </row>
     <row r="119" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="5" t="s">
@@ -4222,6 +4251,7 @@
       <c r="E119" s="9" t="s">
         <v>286</v>
       </c>
+      <c r="F119" s="15"/>
     </row>
     <row r="120" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
@@ -4236,6 +4266,7 @@
       <c r="E120" s="9" t="s">
         <v>289</v>
       </c>
+      <c r="F120" s="15"/>
     </row>
     <row r="121" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="5" t="s">
@@ -4250,6 +4281,7 @@
       <c r="E121" s="9" t="s">
         <v>286</v>
       </c>
+      <c r="F121" s="15"/>
     </row>
     <row r="122" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="17" t="n">
@@ -4456,72 +4488,72 @@
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="20" t="s">
+      <c r="B140" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="C140" s="20"/>
-      <c r="D140" s="20" t="s">
+      <c r="C140" s="21"/>
+      <c r="D140" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="E140" s="21"/>
-      <c r="F140" s="22" t="s">
+      <c r="E140" s="22"/>
+      <c r="F140" s="23" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="20" t="s">
+      <c r="B141" s="21" t="s">
         <v>322</v>
       </c>
-      <c r="C141" s="20"/>
-      <c r="D141" s="20"/>
-      <c r="E141" s="21"/>
-      <c r="F141" s="22" t="s">
+      <c r="C141" s="21"/>
+      <c r="D141" s="21"/>
+      <c r="E141" s="22"/>
+      <c r="F141" s="23" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="20" t="s">
+      <c r="B142" s="21" t="s">
         <v>323</v>
       </c>
-      <c r="C142" s="20"/>
-      <c r="D142" s="23" t="s">
+      <c r="C142" s="21"/>
+      <c r="D142" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="E142" s="21"/>
-      <c r="F142" s="22" t="s">
+      <c r="E142" s="22"/>
+      <c r="F142" s="23" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="20" t="s">
+      <c r="B143" s="21" t="s">
         <v>325</v>
       </c>
-      <c r="C143" s="20"/>
-      <c r="D143" s="23" t="s">
+      <c r="C143" s="21"/>
+      <c r="D143" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="E143" s="21"/>
-      <c r="F143" s="22" t="s">
+      <c r="E143" s="22"/>
+      <c r="F143" s="23" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="20"/>
-      <c r="C144" s="20"/>
-      <c r="D144" s="23"/>
-      <c r="E144" s="21"/>
-      <c r="F144" s="20"/>
+      <c r="B144" s="21"/>
+      <c r="C144" s="21"/>
+      <c r="D144" s="24"/>
+      <c r="E144" s="22"/>
+      <c r="F144" s="21"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="23" t="s">
+      <c r="B145" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="C145" s="20"/>
-      <c r="D145" s="21" t="s">
+      <c r="C145" s="21"/>
+      <c r="D145" s="22" t="s">
         <v>328</v>
       </c>
       <c r="E145" s="0"/>
-      <c r="F145" s="22" t="s">
+      <c r="F145" s="23" t="s">
         <v>321</v>
       </c>
     </row>
@@ -4529,7 +4561,7 @@
       <c r="B147" s="0" t="s">
         <v>329</v>
       </c>
-      <c r="D147" s="23" t="s">
+      <c r="D147" s="24" t="s">
         <v>330</v>
       </c>
       <c r="F147" s="0" t="s">
@@ -4540,13 +4572,22 @@
       <c r="B148" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="D148" s="23" t="s">
+      <c r="D148" s="24" t="s">
         <v>333</v>
       </c>
       <c r="F148" s="0" t="s">
         <v>331</v>
       </c>
     </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="0" t="s">
+        <v>334</v>
+      </c>
+      <c r="D150" s="24" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" location="/preassessment" display="Mastering Cisco DevNet SW Design/Net Auto"/>
@@ -4663,6 +4704,7 @@
     <hyperlink ref="D143" r:id="rId112" display="https://github.com/movinalot/intersight-python"/>
     <hyperlink ref="D147" r:id="rId113" display="https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/"/>
     <hyperlink ref="D148" r:id="rId114" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
+    <hyperlink ref="D150" r:id="rId115" display="https://github.com/CiscoDevNet/nxos-code"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4685,7 +4727,7 @@
       <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.97265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4709,7 +4751,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.95703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.97265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="336">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1361,9 +1361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>158400</xdr:colOff>
+      <xdr:colOff>157680</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1377,7 +1377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6218640" cy="3400920"/>
+          <a:ext cx="6243480" cy="3400200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1398,9 +1398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>189000</xdr:colOff>
+      <xdr:colOff>188280</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>124200</xdr:rowOff>
+      <xdr:rowOff>123480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1414,7 +1414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9279360" cy="4762080"/>
+          <a:ext cx="9316800" cy="4761360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1435,9 +1435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>596520</xdr:colOff>
+      <xdr:colOff>595800</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>173520</xdr:rowOff>
+      <xdr:rowOff>172800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1451,7 +1451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7380000" cy="4210920"/>
+          <a:ext cx="7408080" cy="4210200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1472,9 +1472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>604080</xdr:colOff>
+      <xdr:colOff>603360</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1488,7 +1488,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6618600" cy="3884760"/>
+          <a:ext cx="6643440" cy="3884040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1509,9 +1509,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>642240</xdr:colOff>
+      <xdr:colOff>641520</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1525,7 +1525,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6637680" cy="4022640"/>
+          <a:ext cx="6662520" cy="4021920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1546,9 +1546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>13680</xdr:colOff>
+      <xdr:colOff>12960</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>161640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1562,7 +1562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6073920" cy="3957120"/>
+          <a:ext cx="6098760" cy="3956400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1583,9 +1583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>630000</xdr:colOff>
+      <xdr:colOff>629280</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>203760</xdr:rowOff>
+      <xdr:rowOff>203040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1599,7 +1599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13508280" cy="7160760"/>
+          <a:ext cx="13561560" cy="7160040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1620,9 +1620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>553680</xdr:colOff>
+      <xdr:colOff>552960</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>165600</xdr:rowOff>
+      <xdr:rowOff>164880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1636,7 +1636,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19492200" cy="10495440"/>
+          <a:ext cx="19571040" cy="10494720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1662,9 +1662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>197640</xdr:colOff>
+      <xdr:colOff>196920</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>115200</xdr:rowOff>
+      <xdr:rowOff>114480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1678,7 +1678,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15348600" cy="7915680"/>
+          <a:ext cx="15411240" cy="7914960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1699,9 +1699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>512280</xdr:colOff>
+      <xdr:colOff>511560</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>33480</xdr:rowOff>
+      <xdr:rowOff>32760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1715,7 +1715,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15663240" cy="8255160"/>
+          <a:ext cx="15725880" cy="8254440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1738,10 +1738,10 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="F121 A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1984,10 +1984,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17"/>
+      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="F121 E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2311,10 +2311,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F121 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2387,11 +2387,11 @@
   </sheetPr>
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F115" activeCellId="0" sqref="F115"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F121" activeCellId="0" sqref="F121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.35546875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -4157,7 +4157,7 @@
       </c>
       <c r="F113" s="15"/>
     </row>
-    <row r="114" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="5" t="s">
         <v>274</v>
       </c>
@@ -4170,7 +4170,9 @@
       <c r="E114" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="F114" s="15"/>
+      <c r="F114" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="0" t="s">
@@ -4223,7 +4225,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="0" t="s">
         <v>282</v>
       </c>
@@ -4236,9 +4238,11 @@
       <c r="E118" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="F118" s="15"/>
-    </row>
-    <row r="119" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F118" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="5" t="s">
         <v>284</v>
       </c>
@@ -4251,9 +4255,11 @@
       <c r="E119" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="F119" s="15"/>
-    </row>
-    <row r="120" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F119" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="0" t="s">
         <v>287</v>
       </c>
@@ -4266,9 +4272,11 @@
       <c r="E120" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="F120" s="15"/>
-    </row>
-    <row r="121" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F120" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="5" t="s">
         <v>287</v>
       </c>
@@ -4281,7 +4289,9 @@
       <c r="E121" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="F121" s="15"/>
+      <c r="F121" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C122" s="17" t="n">
@@ -4724,10 +4734,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
+      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="F121 A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.97265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4748,10 +4758,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="F121 Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.97265625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="336">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1361,9 +1361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>157680</xdr:colOff>
+      <xdr:colOff>157320</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1377,7 +1377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6243480" cy="3400200"/>
+          <a:ext cx="6253200" cy="3399840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1398,9 +1398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
+      <xdr:colOff>187920</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>123120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1414,7 +1414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9316800" cy="4761360"/>
+          <a:ext cx="9331920" cy="4761000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1435,9 +1435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>595800</xdr:colOff>
+      <xdr:colOff>595440</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>172800</xdr:rowOff>
+      <xdr:rowOff>172440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1451,7 +1451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7408080" cy="4210200"/>
+          <a:ext cx="7419240" cy="4209840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1472,9 +1472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>603360</xdr:colOff>
+      <xdr:colOff>603000</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1488,7 +1488,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6643440" cy="3884040"/>
+          <a:ext cx="6653160" cy="3883680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1509,9 +1509,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>641520</xdr:colOff>
+      <xdr:colOff>641160</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>24120</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1525,7 +1525,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6662520" cy="4021920"/>
+          <a:ext cx="6672240" cy="4021560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1546,9 +1546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>12960</xdr:colOff>
+      <xdr:colOff>12600</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1562,7 +1562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6098760" cy="3956400"/>
+          <a:ext cx="6108480" cy="3956040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1583,9 +1583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>629280</xdr:colOff>
+      <xdr:colOff>628920</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>203040</xdr:rowOff>
+      <xdr:rowOff>202680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1599,7 +1599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13561560" cy="7160040"/>
+          <a:ext cx="13582800" cy="7159680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1620,9 +1620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>552960</xdr:colOff>
+      <xdr:colOff>552600</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>164880</xdr:rowOff>
+      <xdr:rowOff>164520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1636,7 +1636,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19571040" cy="10494720"/>
+          <a:ext cx="19602360" cy="10494360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1662,9 +1662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>196920</xdr:colOff>
+      <xdr:colOff>196560</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>114480</xdr:rowOff>
+      <xdr:rowOff>114120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1678,7 +1678,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15411240" cy="7914960"/>
+          <a:ext cx="15436440" cy="7914600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1699,9 +1699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>511560</xdr:colOff>
+      <xdr:colOff>511200</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>32760</xdr:rowOff>
+      <xdr:rowOff>32400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1715,7 +1715,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15725880" cy="8254440"/>
+          <a:ext cx="15751080" cy="8254080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1737,11 +1737,11 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="F121 A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.421875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1983,11 +1983,11 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="1" sqref="F121 E17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.421875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2240,7 +2240,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="5" t="s">
         <v>61</v>
       </c>
@@ -2253,7 +2253,9 @@
       <c r="E17" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="5" t="s">
@@ -2310,11 +2312,11 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F121 A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.421875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2387,11 +2389,11 @@
   </sheetPr>
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A100" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F121" activeCellId="0" sqref="F121"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D117" activeCellId="0" sqref="D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.421875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -4733,11 +4735,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="F121 A163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0234375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4757,11 +4759,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="F121 Z19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0078125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0234375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="336">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -132,9 +132,6 @@
     <t xml:space="preserve">Introduction to the Bash Shell - Modules 2, 3, 4</t>
   </si>
   <si>
-    <t xml:space="preserve">mod4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Python skills</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t xml:space="preserve">Misc topics (Broad overview of many new technologies)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">optional</t>
   </si>
   <si>
     <t xml:space="preserve">DEVASC Course 1 of 3</t>
@@ -1229,12 +1229,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1361,9 +1361,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>157320</xdr:colOff>
+      <xdr:colOff>156960</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1377,7 +1377,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6253200" cy="3399840"/>
+          <a:ext cx="6262920" cy="3399480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1398,9 +1398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
+      <xdr:colOff>187560</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1414,7 +1414,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9331920" cy="4761000"/>
+          <a:ext cx="9346680" cy="4760640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1435,9 +1435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>595440</xdr:colOff>
+      <xdr:colOff>595080</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>172440</xdr:rowOff>
+      <xdr:rowOff>172080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1451,7 +1451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7419240" cy="4209840"/>
+          <a:ext cx="7430040" cy="4209480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1472,9 +1472,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>603000</xdr:colOff>
+      <xdr:colOff>602640</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1488,7 +1488,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6653160" cy="3883680"/>
+          <a:ext cx="6662880" cy="3883320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1509,9 +1509,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>641160</xdr:colOff>
+      <xdr:colOff>640800</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1525,7 +1525,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6672240" cy="4021560"/>
+          <a:ext cx="6681960" cy="4021200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1546,9 +1546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>12600</xdr:colOff>
+      <xdr:colOff>12240</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1562,7 +1562,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6108480" cy="3956040"/>
+          <a:ext cx="6118200" cy="3955680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1583,9 +1583,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>628920</xdr:colOff>
+      <xdr:colOff>628560</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>202680</xdr:rowOff>
+      <xdr:rowOff>202320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1599,7 +1599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13582800" cy="7159680"/>
+          <a:ext cx="13604040" cy="7159320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1620,9 +1620,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>552600</xdr:colOff>
+      <xdr:colOff>552240</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>164520</xdr:rowOff>
+      <xdr:rowOff>164160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1636,7 +1636,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19602360" cy="10494360"/>
+          <a:ext cx="19633680" cy="10494000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1662,9 +1662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>196560</xdr:colOff>
+      <xdr:colOff>196200</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:rowOff>113760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1678,7 +1678,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15436440" cy="7914600"/>
+          <a:ext cx="15461280" cy="7914240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1699,9 +1699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>511200</xdr:colOff>
+      <xdr:colOff>510840</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>32400</xdr:rowOff>
+      <xdr:rowOff>32040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1715,7 +1715,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15751080" cy="8254080"/>
+          <a:ext cx="15775920" cy="8253720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1741,7 +1741,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.421875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1983,11 +1983,11 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.421875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2053,7 +2053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
         <v>33</v>
       </c>
@@ -2066,37 +2066,39 @@
       <c r="E4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="0" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>36</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0.25</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="13"/>
+      <c r="F5" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>2.5</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>40</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>28</v>
@@ -2106,39 +2108,39 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="F7" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="14" t="s">
         <v>42</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="13" t="s">
-        <v>43</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E8" s="16"/>
-      <c r="F8" s="13"/>
+      <c r="F8" s="14"/>
     </row>
     <row r="9" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>45</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>28</v>
@@ -2146,16 +2148,16 @@
     </row>
     <row r="10" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>28</v>
@@ -2163,16 +2165,16 @@
     </row>
     <row r="11" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>1.5</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>51</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>28</v>
@@ -2193,18 +2195,20 @@
         <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="F14" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="5" t="s">
@@ -2316,7 +2320,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.421875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2389,11 +2393,11 @@
   </sheetPr>
   <dimension ref="A1:G151"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D117" activeCellId="0" sqref="D117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.421875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -2991,7 +2995,7 @@
       <c r="E38" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="F38" s="13"/>
+      <c r="F38" s="14"/>
     </row>
     <row r="39" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="17" t="n">
@@ -4155,7 +4159,7 @@
         <v>273</v>
       </c>
       <c r="E113" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F113" s="15"/>
     </row>
@@ -4416,7 +4420,7 @@
       <c r="E131" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="F131" s="13"/>
+      <c r="F131" s="14"/>
     </row>
     <row r="132" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="5" t="s">
@@ -4473,7 +4477,7 @@
       <c r="E135" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F135" s="13"/>
+      <c r="F135" s="14"/>
     </row>
     <row r="136" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="5" t="s">
@@ -4739,7 +4743,7 @@
       <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0234375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4763,7 +4767,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0234375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -5,15 +5,16 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="QUICK_START" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="SQUARE_ONE" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="10WEEK" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="oauth" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="git" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Cisco supplements" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="oauth" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="git" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="394">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1033,6 +1034,180 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/CiscoDevNet/nxos-code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisco Devnet Blog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blogs.cisco.com/developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/certification/exam-topic-core/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14/8/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0 Software Development and Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting up your Linux (Ubuntu) workstation as a development environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting up your Windows workstation as a development environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setting up your macOS workstation as a development environment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is a Development Environment and why do you need one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A brief introduction to Git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intro to Python Part 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intro to Python Part 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding 202: Parsing JSON using Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to XML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to the Guest Shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chat-Ops with Webex Teams and Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firepower Management Center (FMC) REST API token-based authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring the 'webexteamssdk' Webex Teams Python Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git 100: Basics of the git version control system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git 101: Branching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git 102: Using git with servers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Webex Teams Apps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modern Application Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding the OAuth Flow of a Webex Teams Integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webex Teams Security and Access: Tokens, OAuth, Scopes, and Roles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.0 Using APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is REST? What are APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intro to Coding and APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting started with REST APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hands On: Use Postman to interact with REST APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prime Infrastructure API 101: REST Basics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Invoke Webex REST APIs from the interactive documentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building Python Requests to Read and Create Webex Teams API Items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introductory UCS Director REST API, Custom Tasks and Workflow Creation Part I</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meraki Dashboard API Using Postman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meraki Location Scanning API Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Run a Webex Teams Bot Locally</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.0 Cisco Platforms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring Firepower Management Center (FMC) REST APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Meraki Integrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Cisco DNA Center Northbound APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisco DNA Center API Overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisco DNA Center Northbound API Modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What and Why of Model Driven Programmability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introducing YANG Data Modeling for the Network</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.0 Application Deployment and Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introducing Containers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker 101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microservices overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.0 Infrastructure and Automation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Meraki integrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using the Meraki Dashboard API with postman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meraki location scanning API Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A hands-on introduction to the Cisco Container Platform v3.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advanced Docker features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Building an IOx Application with Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Ansible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Managing Cisco Compute with Ansible</t>
   </si>
 </sst>
 </file>
@@ -1361,9 +1536,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>156960</xdr:colOff>
+      <xdr:colOff>156600</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>26640</xdr:rowOff>
+      <xdr:rowOff>26280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1377,7 +1552,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6262920" cy="3399480"/>
+          <a:ext cx="6272640" cy="3399120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1398,9 +1573,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>187560</xdr:colOff>
+      <xdr:colOff>187200</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>122400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1414,7 +1589,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9346680" cy="4760640"/>
+          <a:ext cx="9361440" cy="4760280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1435,9 +1610,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>595080</xdr:colOff>
+      <xdr:colOff>594720</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>172080</xdr:rowOff>
+      <xdr:rowOff>171720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1451,7 +1626,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7430040" cy="4209480"/>
+          <a:ext cx="7441200" cy="4209120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1472,9 +1647,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>602640</xdr:colOff>
+      <xdr:colOff>602280</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>111240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1488,7 +1663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6662880" cy="3883320"/>
+          <a:ext cx="6672600" cy="3882960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1509,9 +1684,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>640800</xdr:colOff>
+      <xdr:colOff>640440</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>23400</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1525,7 +1700,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6681960" cy="4021200"/>
+          <a:ext cx="6691680" cy="4020840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1546,9 +1721,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>12240</xdr:colOff>
+      <xdr:colOff>11880</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>160920</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1562,7 +1737,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6118200" cy="3955680"/>
+          <a:ext cx="6127920" cy="3955320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1583,9 +1758,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>628560</xdr:colOff>
+      <xdr:colOff>628200</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>202320</xdr:rowOff>
+      <xdr:rowOff>201960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1599,7 +1774,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13604040" cy="7159320"/>
+          <a:ext cx="13625280" cy="7158960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1620,9 +1795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>552240</xdr:colOff>
+      <xdr:colOff>551880</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>164160</xdr:rowOff>
+      <xdr:rowOff>163800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1636,7 +1811,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19633680" cy="10494000"/>
+          <a:ext cx="19665360" cy="10493640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1662,9 +1837,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>196200</xdr:colOff>
+      <xdr:colOff>195840</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>113760</xdr:rowOff>
+      <xdr:rowOff>113400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1678,7 +1853,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15461280" cy="7914240"/>
+          <a:ext cx="15486480" cy="7913880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1699,9 +1874,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>510840</xdr:colOff>
+      <xdr:colOff>510480</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>32040</xdr:rowOff>
+      <xdr:rowOff>31680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1715,7 +1890,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15775920" cy="8253720"/>
+          <a:ext cx="15801120" cy="8253360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1741,7 +1916,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.46875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -1983,11 +2158,11 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.46875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2320,7 +2495,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.46875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2391,13 +2566,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G151"/>
+  <dimension ref="A1:G152"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A111" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D117" activeCellId="0" sqref="D117"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A128" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B152" activeCellId="0" sqref="B152"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4453125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.46875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -4604,6 +4779,14 @@
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="0" t="s">
+        <v>336</v>
+      </c>
+      <c r="D152" s="24" t="s">
+        <v>337</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" location="/preassessment" display="Mastering Cisco DevNet SW Design/Net Auto"/>
@@ -4721,6 +4904,7 @@
     <hyperlink ref="D147" r:id="rId113" display="https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/"/>
     <hyperlink ref="D148" r:id="rId114" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
     <hyperlink ref="D150" r:id="rId115" display="https://github.com/CiscoDevNet/nxos-code"/>
+    <hyperlink ref="D152" r:id="rId116" display="https://blogs.cisco.com/developer"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4737,13 +4921,409 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B63"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.74"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="24" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="24" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="24" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="24" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="24" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="24" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="24" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="24" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="24" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="24" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="24" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="24" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="24" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="24" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="24" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="24" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="24" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="24" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="24" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="24" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="24" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="24" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="24" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="24" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="24" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="24" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="24" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="24" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="24" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="24" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="24" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="24" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="24" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="24" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="24" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="24" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="24" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="https://developer.cisco.com/certification/exam-topic-core/"/>
+    <hyperlink ref="A4" r:id="rId2" display="Setting up your Linux (Ubuntu) workstation as a development environment"/>
+    <hyperlink ref="A5" r:id="rId3" display="Setting up your Windows workstation as a development environment"/>
+    <hyperlink ref="A6" r:id="rId4" display="Setting up your macOS workstation as a development environment"/>
+    <hyperlink ref="A7" r:id="rId5" display="What is a Development Environment and why do you need one?"/>
+    <hyperlink ref="A8" r:id="rId6" display="A brief introduction to Git"/>
+    <hyperlink ref="A9" r:id="rId7" display="Intro to Python Part 1"/>
+    <hyperlink ref="A10" r:id="rId8" display="Intro to Python Part 2"/>
+    <hyperlink ref="A11" r:id="rId9" display="Coding 202: Parsing JSON using Python"/>
+    <hyperlink ref="A12" r:id="rId10" display="Introduction to XML"/>
+    <hyperlink ref="A13" r:id="rId11" display="Introduction to the Guest Shell"/>
+    <hyperlink ref="A14" r:id="rId12" display="Chat-Ops with Webex Teams and Python"/>
+    <hyperlink ref="A15" r:id="rId13" display="Firepower Management Center (FMC) REST API token-based authentication"/>
+    <hyperlink ref="A16" r:id="rId14" display="Exploring the 'webexteamssdk' Webex Teams Python Library"/>
+    <hyperlink ref="A17" r:id="rId15" display="Git 100: Basics of the git version control system"/>
+    <hyperlink ref="A18" r:id="rId16" display="Git 101: Branching"/>
+    <hyperlink ref="A19" r:id="rId17" display="Git 102: Using git with servers"/>
+    <hyperlink ref="A20" r:id="rId18" display="Introduction to Webex Teams Apps"/>
+    <hyperlink ref="A21" r:id="rId19" display="Modern Application Development"/>
+    <hyperlink ref="A22" r:id="rId20" display="Modern Application Development"/>
+    <hyperlink ref="A23" r:id="rId21" display="Understanding the OAuth Flow of a Webex Teams Integration"/>
+    <hyperlink ref="A24" r:id="rId22" display="Webex Teams Security and Access: Tokens, OAuth, Scopes, and Roles"/>
+    <hyperlink ref="A27" r:id="rId23" display="What is REST? What are APIs"/>
+    <hyperlink ref="A28" r:id="rId24" display="Intro to Coding and APIs"/>
+    <hyperlink ref="A29" r:id="rId25" display="Getting started with REST APIs"/>
+    <hyperlink ref="A30" r:id="rId26" display="Hands On: Use Postman to interact with REST APIs"/>
+    <hyperlink ref="A31" r:id="rId27" display="Prime Infrastructure API 101: REST Basics"/>
+    <hyperlink ref="A32" r:id="rId28" display="Invoke Webex REST APIs from the interactive documentation"/>
+    <hyperlink ref="A33" r:id="rId29" display="Building Python Requests to Read and Create Webex Teams API Items"/>
+    <hyperlink ref="A34" r:id="rId30" display="Introduction to XML"/>
+    <hyperlink ref="A35" r:id="rId31" display="Introductory UCS Director REST API, Custom Tasks and Workflow Creation Part I"/>
+    <hyperlink ref="A36" r:id="rId32" display="Meraki Dashboard API Using Postman"/>
+    <hyperlink ref="A37" r:id="rId33" display="Meraki Location Scanning API Python"/>
+    <hyperlink ref="A38" r:id="rId34" display="Run a Webex Teams Bot Locally"/>
+    <hyperlink ref="A41" r:id="rId35" display="Exploring Firepower Management Center (FMC) REST APIs"/>
+    <hyperlink ref="A42" r:id="rId36" display="Introduction to Meraki Integrations"/>
+    <hyperlink ref="A43" r:id="rId37" display="Introduction to Cisco DNA Center Northbound APIs"/>
+    <hyperlink ref="A44" r:id="rId38" display="Cisco DNA Center API Overview"/>
+    <hyperlink ref="A45" r:id="rId39" display="Cisco DNA Center Northbound API Modules"/>
+    <hyperlink ref="A46" r:id="rId40" display="What and Why of Model Driven Programmability"/>
+    <hyperlink ref="A47" r:id="rId41" display="Introducing YANG Data Modeling for the Network"/>
+    <hyperlink ref="A50" r:id="rId42" display="Introducing Containers"/>
+    <hyperlink ref="A51" r:id="rId43" display="Docker 101"/>
+    <hyperlink ref="A52" r:id="rId44" display="Microservices overview"/>
+    <hyperlink ref="A55" r:id="rId45" display="Introduction to Meraki integrations"/>
+    <hyperlink ref="A56" r:id="rId46" display="Using the Meraki Dashboard API with postman"/>
+    <hyperlink ref="A57" r:id="rId47" display="Meraki location scanning API Python"/>
+    <hyperlink ref="A58" r:id="rId48" display="A hands-on introduction to the Cisco Container Platform v3.1"/>
+    <hyperlink ref="A59" r:id="rId49" display="Advanced Docker features"/>
+    <hyperlink ref="A60" r:id="rId50" display="Building an IOx Application with Docker"/>
+    <hyperlink ref="A61" r:id="rId51" display="Introduction to Ansible"/>
+    <hyperlink ref="A62" r:id="rId52" display="Managing Cisco Compute with Ansible"/>
+    <hyperlink ref="A63" r:id="rId53" display="Microservices overview"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4756,7 +5336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4767,7 +5347,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="399">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1042,6 +1042,18 @@
     <t xml:space="preserve">https://blogs.cisco.com/developer</t>
   </si>
   <si>
+    <t xml:space="preserve">Introduction to Containers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://container.training/intro-fullday.yml.html#27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imapex docker training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/imapex-training/mod_adv_docker/blob/master/README.md</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://developer.cisco.com/certification/exam-topic-core/</t>
   </si>
   <si>
@@ -1103,6 +1115,9 @@
   </si>
   <si>
     <t xml:space="preserve">Modern Application Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">json</t>
   </si>
   <si>
     <t xml:space="preserve">Understanding the OAuth Flow of a Webex Teams Integration</t>
@@ -1536,9 +1551,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>156600</xdr:colOff>
+      <xdr:colOff>156240</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>26280</xdr:rowOff>
+      <xdr:rowOff>25920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1552,7 +1567,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6272640" cy="3399120"/>
+          <a:ext cx="6282720" cy="3398760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1573,9 +1588,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>187200</xdr:colOff>
+      <xdr:colOff>186840</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>122400</xdr:rowOff>
+      <xdr:rowOff>122040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1589,7 +1604,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9361440" cy="4760280"/>
+          <a:ext cx="9376560" cy="4759920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1610,9 +1625,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>594720</xdr:colOff>
+      <xdr:colOff>594360</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>171720</xdr:rowOff>
+      <xdr:rowOff>171360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1626,7 +1641,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7441200" cy="4209120"/>
+          <a:ext cx="7452360" cy="4208760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1647,9 +1662,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>602280</xdr:colOff>
+      <xdr:colOff>601920</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>111240</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1663,7 +1678,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6672600" cy="3882960"/>
+          <a:ext cx="6682680" cy="3882600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1684,9 +1699,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>640440</xdr:colOff>
+      <xdr:colOff>640080</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1700,7 +1715,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6691680" cy="4020840"/>
+          <a:ext cx="6701760" cy="4020480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1721,9 +1736,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>11880</xdr:colOff>
+      <xdr:colOff>11520</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1737,7 +1752,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6127920" cy="3955320"/>
+          <a:ext cx="6138000" cy="3954960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1758,9 +1773,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>628200</xdr:colOff>
+      <xdr:colOff>627840</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>201960</xdr:rowOff>
+      <xdr:rowOff>201600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1774,7 +1789,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13625280" cy="7158960"/>
+          <a:ext cx="13646520" cy="7158600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1795,9 +1810,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>551880</xdr:colOff>
+      <xdr:colOff>551520</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>163800</xdr:rowOff>
+      <xdr:rowOff>163440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1811,7 +1826,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19665360" cy="10493640"/>
+          <a:ext cx="19696680" cy="10493280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1837,9 +1852,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>195840</xdr:colOff>
+      <xdr:colOff>195480</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>113400</xdr:rowOff>
+      <xdr:rowOff>113040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1853,7 +1868,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15486480" cy="7913880"/>
+          <a:ext cx="15511680" cy="7913520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1874,9 +1889,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>510480</xdr:colOff>
+      <xdr:colOff>510120</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>31680</xdr:rowOff>
+      <xdr:rowOff>31320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1890,7 +1905,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15801120" cy="8253360"/>
+          <a:ext cx="15826320" cy="8253000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1913,10 +1928,10 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="B51 A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.46875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4921875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -2159,10 +2174,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="B51 D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.46875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4921875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2492,10 +2507,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B51 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.46875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4921875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2566,13 +2581,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G152"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A128" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B152" activeCellId="0" sqref="B152"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B155" activeCellId="1" sqref="B51 B155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.46875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.4921875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -4785,6 +4800,22 @@
       </c>
       <c r="D152" s="24" t="s">
         <v>337</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="D154" s="24" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="0" t="s">
+        <v>340</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -4905,6 +4936,8 @@
     <hyperlink ref="D148" r:id="rId114" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
     <hyperlink ref="D150" r:id="rId115" display="https://github.com/CiscoDevNet/nxos-code"/>
     <hyperlink ref="D152" r:id="rId116" display="https://blogs.cisco.com/developer"/>
+    <hyperlink ref="D154" r:id="rId117" location="27" display="https://container.training/intro-fullday.yml.html#27"/>
+    <hyperlink ref="D155" r:id="rId118" display="https://github.com/imapex-training/mod_adv_docker/blob/master/README.md"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4921,33 +4954,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="24" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="24" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="24" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>28</v>
@@ -4955,7 +4988,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="24" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>28</v>
@@ -4963,7 +4996,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="24" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>28</v>
@@ -4971,7 +5004,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="24" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>28</v>
@@ -4979,12 +5012,12 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="24" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="24" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>28</v>
@@ -4992,7 +5025,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="24" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>28</v>
@@ -5000,7 +5033,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="24" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>28</v>
@@ -5008,242 +5041,257 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="24" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="24" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="24" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="24" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="24" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="24" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="24" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="24" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="24" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="24" t="s">
-        <v>358</v>
+        <v>362</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="24" t="s">
-        <v>358</v>
+        <v>362</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="24" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="24" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="24" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="24" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="24" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="24" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="24" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="24" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="24" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="24" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="24" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="24" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="24" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="24" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="24" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="24" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="24" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="24" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="24" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="24" t="s">
-        <v>377</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="24" t="s">
-        <v>378</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="24" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="24" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="24" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="24" t="s">
-        <v>382</v>
+        <v>387</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="24" t="s">
-        <v>383</v>
+        <v>388</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="24" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="24" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="24" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="24" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="24" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="24" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="24" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="24" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="24" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="24" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="24" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -5320,10 +5368,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
+      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="B51 A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5344,10 +5392,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="B51 Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.0703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="400">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1117,7 +1117,7 @@
     <t xml:space="preserve">Modern Application Development</t>
   </si>
   <si>
-    <t xml:space="preserve">json</t>
+    <t xml:space="preserve">json (wrong title)</t>
   </si>
   <si>
     <t xml:space="preserve">Understanding the OAuth Flow of a Webex Teams Integration</t>
@@ -1196,6 +1196,9 @@
   </si>
   <si>
     <t xml:space="preserve">Microservices overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/learning/lab/containers-intro-kubernetes/step/1</t>
   </si>
   <si>
     <t xml:space="preserve">5.0 Infrastructure and Automation</t>
@@ -1551,9 +1554,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>156240</xdr:colOff>
+      <xdr:colOff>155880</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>25920</xdr:rowOff>
+      <xdr:rowOff>25560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1567,7 +1570,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6282720" cy="3398760"/>
+          <a:ext cx="6297480" cy="3398400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1588,9 +1591,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>186840</xdr:colOff>
+      <xdr:colOff>186480</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>122040</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1604,7 +1607,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9376560" cy="4759920"/>
+          <a:ext cx="9398880" cy="4759560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1625,9 +1628,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
+      <xdr:colOff>594000</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>171360</xdr:rowOff>
+      <xdr:rowOff>171000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1641,7 +1644,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7452360" cy="4208760"/>
+          <a:ext cx="7468920" cy="4208400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1662,9 +1665,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>601920</xdr:colOff>
+      <xdr:colOff>601560</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1678,7 +1681,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6682680" cy="3882600"/>
+          <a:ext cx="6697440" cy="3882240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1699,9 +1702,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>640080</xdr:colOff>
+      <xdr:colOff>639720</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1715,7 +1718,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6701760" cy="4020480"/>
+          <a:ext cx="6716520" cy="4020120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1736,9 +1739,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>11520</xdr:colOff>
+      <xdr:colOff>11160</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1752,7 +1755,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6138000" cy="3954960"/>
+          <a:ext cx="6152760" cy="3954600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1773,9 +1776,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>627840</xdr:colOff>
+      <xdr:colOff>627480</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>201600</xdr:rowOff>
+      <xdr:rowOff>201240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1789,7 +1792,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13646520" cy="7158600"/>
+          <a:ext cx="13678560" cy="7158240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1810,9 +1813,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>551520</xdr:colOff>
+      <xdr:colOff>551160</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>163440</xdr:rowOff>
+      <xdr:rowOff>163080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1826,7 +1829,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19696680" cy="10493280"/>
+          <a:ext cx="19743840" cy="10492920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1852,9 +1855,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>195480</xdr:colOff>
+      <xdr:colOff>195120</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>112680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1868,7 +1871,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15511680" cy="7913520"/>
+          <a:ext cx="15549120" cy="7913160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1889,9 +1892,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>510120</xdr:colOff>
+      <xdr:colOff>509760</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>31320</xdr:rowOff>
+      <xdr:rowOff>30960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1905,7 +1908,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15826320" cy="8253000"/>
+          <a:ext cx="15863760" cy="8252640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1928,10 +1931,10 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="B51 A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4921875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.51171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -2174,10 +2177,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="B51 D22"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4921875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.51171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2507,10 +2510,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B51 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4921875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.51171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2584,10 +2587,10 @@
   <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B155" activeCellId="1" sqref="B51 B155"/>
+      <selection pane="topLeft" activeCell="B155" activeCellId="0" sqref="B155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.4921875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.51171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -4954,13 +4957,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B51" activeCellId="0" sqref="B51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.74"/>
   </cols>
@@ -5243,11 +5246,15 @@
       <c r="A52" s="24" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="24" t="s">
+      <c r="B52" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="24" t="s">
         <v>390</v>
       </c>
+      <c r="B53" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="24" t="s">
@@ -5278,6 +5285,7 @@
       <c r="A60" s="24" t="s">
         <v>396</v>
       </c>
+      <c r="B60" s="15"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="24" t="s">
@@ -5291,7 +5299,15 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="24" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="24" t="s">
         <v>389</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -5340,15 +5356,16 @@
     <hyperlink ref="A50" r:id="rId42" display="Introducing Containers"/>
     <hyperlink ref="A51" r:id="rId43" display="Docker 101"/>
     <hyperlink ref="A52" r:id="rId44" display="Microservices overview"/>
-    <hyperlink ref="A55" r:id="rId45" display="Introduction to Meraki integrations"/>
-    <hyperlink ref="A56" r:id="rId46" display="Using the Meraki Dashboard API with postman"/>
-    <hyperlink ref="A57" r:id="rId47" display="Meraki location scanning API Python"/>
-    <hyperlink ref="A58" r:id="rId48" display="A hands-on introduction to the Cisco Container Platform v3.1"/>
-    <hyperlink ref="A59" r:id="rId49" display="Advanced Docker features"/>
-    <hyperlink ref="A60" r:id="rId50" display="Building an IOx Application with Docker"/>
-    <hyperlink ref="A61" r:id="rId51" display="Introduction to Ansible"/>
-    <hyperlink ref="A62" r:id="rId52" display="Managing Cisco Compute with Ansible"/>
-    <hyperlink ref="A63" r:id="rId53" display="Microservices overview"/>
+    <hyperlink ref="A53" r:id="rId45" display="https://developer.cisco.com/learning/lab/containers-intro-kubernetes/step/1"/>
+    <hyperlink ref="A56" r:id="rId46" display="Introduction to Meraki integrations"/>
+    <hyperlink ref="A57" r:id="rId47" display="Using the Meraki Dashboard API with postman"/>
+    <hyperlink ref="A58" r:id="rId48" display="Meraki location scanning API Python"/>
+    <hyperlink ref="A59" r:id="rId49" display="A hands-on introduction to the Cisco Container Platform v3.1"/>
+    <hyperlink ref="A60" r:id="rId50" display="Advanced Docker features"/>
+    <hyperlink ref="A61" r:id="rId51" display="Building an IOx Application with Docker"/>
+    <hyperlink ref="A62" r:id="rId52" display="Introduction to Ansible"/>
+    <hyperlink ref="A63" r:id="rId53" display="Managing Cisco Compute with Ansible"/>
+    <hyperlink ref="A64" r:id="rId54" display="Microservices overview"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5368,10 +5385,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="B51 A163"/>
+      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5392,10 +5409,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="B51 Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.0703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="402">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1217,6 +1217,12 @@
   </si>
   <si>
     <t xml:space="preserve">Advanced Docker features</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 networking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/learning/lab/docker-201/step/3</t>
   </si>
   <si>
     <t xml:space="preserve">Building an IOx Application with Docker</t>
@@ -1554,9 +1560,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>155880</xdr:colOff>
+      <xdr:colOff>155520</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>25560</xdr:rowOff>
+      <xdr:rowOff>25200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1570,7 +1576,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6297480" cy="3398400"/>
+          <a:ext cx="6312240" cy="3398040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1591,9 +1597,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>186480</xdr:colOff>
+      <xdr:colOff>186120</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>121680</xdr:rowOff>
+      <xdr:rowOff>121320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1607,7 +1613,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9398880" cy="4759560"/>
+          <a:ext cx="9421560" cy="4759200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1628,9 +1634,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>594000</xdr:colOff>
+      <xdr:colOff>593640</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>171000</xdr:rowOff>
+      <xdr:rowOff>170640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1644,7 +1650,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7468920" cy="4208400"/>
+          <a:ext cx="7485840" cy="4208040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1665,9 +1671,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>601560</xdr:colOff>
+      <xdr:colOff>601200</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>110520</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1681,7 +1687,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6697440" cy="3882240"/>
+          <a:ext cx="6712200" cy="3881880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1702,9 +1708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>639720</xdr:colOff>
+      <xdr:colOff>639360</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1718,7 +1724,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6716520" cy="4020120"/>
+          <a:ext cx="6731280" cy="4019760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1739,9 +1745,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>11160</xdr:colOff>
+      <xdr:colOff>10800</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1755,7 +1761,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6152760" cy="3954600"/>
+          <a:ext cx="6167520" cy="3954240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1776,9 +1782,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>627480</xdr:colOff>
+      <xdr:colOff>627120</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>201240</xdr:rowOff>
+      <xdr:rowOff>200880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1792,7 +1798,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13678560" cy="7158240"/>
+          <a:ext cx="13710600" cy="7157880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1813,9 +1819,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>551160</xdr:colOff>
+      <xdr:colOff>550800</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>163080</xdr:rowOff>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1829,7 +1835,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19743840" cy="10492920"/>
+          <a:ext cx="19791000" cy="10492560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1855,9 +1861,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>195120</xdr:colOff>
+      <xdr:colOff>194760</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>112680</xdr:rowOff>
+      <xdr:rowOff>112320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1871,7 +1877,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15549120" cy="7913160"/>
+          <a:ext cx="15586920" cy="7912800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1892,9 +1898,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>509760</xdr:colOff>
+      <xdr:colOff>509400</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>30960</xdr:rowOff>
+      <xdr:rowOff>30600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1908,7 +1914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15863760" cy="8252640"/>
+          <a:ext cx="15901560" cy="8252280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1934,7 +1940,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.51171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -2180,7 +2186,7 @@
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.51171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2513,7 +2519,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.51171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2590,7 +2596,7 @@
       <selection pane="topLeft" activeCell="B155" activeCellId="0" sqref="B155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.51171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -4959,13 +4965,15 @@
   </sheetPr>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A29" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D43" activeCellId="0" sqref="D43"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.17"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5285,21 +5293,26 @@
       <c r="A60" s="24" t="s">
         <v>396</v>
       </c>
-      <c r="B60" s="15"/>
+      <c r="B60" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C60" s="24" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="24" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="24" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="24" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5362,10 +5375,11 @@
     <hyperlink ref="A58" r:id="rId48" display="Meraki location scanning API Python"/>
     <hyperlink ref="A59" r:id="rId49" display="A hands-on introduction to the Cisco Container Platform v3.1"/>
     <hyperlink ref="A60" r:id="rId50" display="Advanced Docker features"/>
-    <hyperlink ref="A61" r:id="rId51" display="Building an IOx Application with Docker"/>
-    <hyperlink ref="A62" r:id="rId52" display="Introduction to Ansible"/>
-    <hyperlink ref="A63" r:id="rId53" display="Managing Cisco Compute with Ansible"/>
-    <hyperlink ref="A64" r:id="rId54" display="Microservices overview"/>
+    <hyperlink ref="C60" r:id="rId51" display="https://developer.cisco.com/learning/lab/docker-201/step/3"/>
+    <hyperlink ref="A61" r:id="rId52" display="Building an IOx Application with Docker"/>
+    <hyperlink ref="A62" r:id="rId53" display="Introduction to Ansible"/>
+    <hyperlink ref="A63" r:id="rId54" display="Managing Cisco Compute with Ansible"/>
+    <hyperlink ref="A64" r:id="rId55" display="Microservices overview"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5388,7 +5402,7 @@
       <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.11328125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5412,7 +5426,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.11328125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="407">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -985,18 +985,33 @@
     <t xml:space="preserve">None</t>
   </si>
   <si>
+    <t xml:space="preserve">Webex Teams API </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.webex.com/docs/api/getting-started</t>
+  </si>
+  <si>
+    <t xml:space="preserve">todo</t>
+  </si>
+  <si>
     <t xml:space="preserve">API Reference Guide for Webex Teams</t>
   </si>
   <si>
     <t xml:space="preserve">https://developer.webex.com/docs/api/v1/people </t>
   </si>
   <si>
-    <t xml:space="preserve">todo</t>
+    <t xml:space="preserve">Webex Teams SDK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/CiscoDevNet/webexteamssdk </t>
   </si>
   <si>
     <t xml:space="preserve">Main Meraki APIs</t>
   </si>
   <si>
+    <t xml:space="preserve">https://developer.cisco.com/meraki/api/</t>
+  </si>
+  <si>
     <t xml:space="preserve">Intersight API</t>
   </si>
   <si>
@@ -1012,7 +1027,7 @@
     <t xml:space="preserve">YANG Tree Diagrams </t>
   </si>
   <si>
-    <t xml:space="preserve">https://tools.ietf.org/html/rfc8340</t>
+    <t xml:space="preserve">https://tools.ietf.org/html/rfc8340 </t>
   </si>
   <si>
     <t xml:space="preserve">Udemy Devcor Questions</t>
@@ -1460,20 +1475,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2590,10 +2605,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A132" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B155" activeCellId="0" sqref="B155"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E139" activeCellId="0" sqref="E139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4701,130 +4716,156 @@
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C138" s="17"/>
     </row>
-    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="21" t="s">
+        <v>319</v>
+      </c>
+      <c r="D139" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="F139" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="21" t="s">
-        <v>319</v>
-      </c>
-      <c r="C140" s="21"/>
-      <c r="D140" s="21" t="s">
-        <v>320</v>
-      </c>
-      <c r="E140" s="22"/>
-      <c r="F140" s="23" t="s">
+      <c r="B140" s="23" t="s">
+        <v>322</v>
+      </c>
+      <c r="C140" s="23"/>
+      <c r="D140" s="23" t="s">
+        <v>323</v>
+      </c>
+      <c r="E140" s="24"/>
+      <c r="F140" s="22" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="21" t="s">
-        <v>322</v>
-      </c>
-      <c r="C141" s="21"/>
-      <c r="D141" s="21"/>
-      <c r="E141" s="22"/>
-      <c r="F141" s="23" t="s">
+      <c r="B141" s="23" t="s">
+        <v>324</v>
+      </c>
+      <c r="C141" s="23"/>
+      <c r="D141" s="23" t="s">
+        <v>325</v>
+      </c>
+      <c r="E141" s="24"/>
+      <c r="F141" s="22"/>
+    </row>
+    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C142" s="23"/>
+      <c r="D142" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="E142" s="24"/>
+      <c r="F142" s="22" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="21" t="s">
-        <v>323</v>
-      </c>
-      <c r="C142" s="21"/>
-      <c r="D142" s="24" t="s">
-        <v>324</v>
-      </c>
-      <c r="E142" s="22"/>
-      <c r="F142" s="23" t="s">
+    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="C143" s="23"/>
+      <c r="D143" s="21" t="s">
+        <v>329</v>
+      </c>
+      <c r="E143" s="24"/>
+      <c r="F143" s="22" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="C143" s="21"/>
-      <c r="D143" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="E143" s="22"/>
-      <c r="F143" s="23" t="s">
+    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="23" t="s">
+        <v>330</v>
+      </c>
+      <c r="C144" s="23"/>
+      <c r="D144" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="E144" s="24"/>
+      <c r="F144" s="22" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="21"/>
-      <c r="C144" s="21"/>
-      <c r="D144" s="24"/>
-      <c r="E144" s="22"/>
-      <c r="F144" s="21"/>
-    </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="C145" s="21"/>
-      <c r="D145" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="E145" s="0"/>
-      <c r="F145" s="23" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="0" t="s">
-        <v>329</v>
-      </c>
-      <c r="D147" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="F147" s="0" t="s">
-        <v>331</v>
+      <c r="B145" s="23"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="23"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="C146" s="23"/>
+      <c r="D146" s="24" t="s">
+        <v>333</v>
+      </c>
+      <c r="E146" s="0"/>
+      <c r="F146" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="0" t="s">
-        <v>332</v>
-      </c>
-      <c r="D148" s="24" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+      <c r="D148" s="21" t="s">
+        <v>335</v>
       </c>
       <c r="F148" s="0" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="0" t="s">
-        <v>334</v>
-      </c>
-      <c r="D150" s="24" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="D152" s="24" t="s">
+    </row>
+    <row r="149" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="0" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="0" t="s">
+      <c r="D149" s="21" t="s">
         <v>338</v>
       </c>
-      <c r="D154" s="24" t="s">
+      <c r="F149" s="0" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="0" t="s">
         <v>339</v>
+      </c>
+      <c r="D151" s="21" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0" t="s">
+        <v>341</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>342</v>
+      </c>
+      <c r="F153" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="0" t="s">
-        <v>340</v>
-      </c>
-      <c r="D155" s="24" t="s">
-        <v>341</v>
+        <v>343</v>
+      </c>
+      <c r="D155" s="21" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D156" s="21" t="s">
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -4938,15 +4979,19 @@
     <hyperlink ref="D134" r:id="rId107" display="Deploying Network CM/Telemetry"/>
     <hyperlink ref="D135" r:id="rId108" location="/preassessment" display="Mastering Cisco DevNet SW Design/Net Auto"/>
     <hyperlink ref="D136" r:id="rId109" display="Blog - My DEVCOR Experience"/>
-    <hyperlink ref="D140" r:id="rId110" display="https://developer.webex.com/docs/api/v1/people "/>
-    <hyperlink ref="D142" r:id="rId111" display="https://intersight.com/apidocs/introduction/overview/"/>
-    <hyperlink ref="D143" r:id="rId112" display="https://github.com/movinalot/intersight-python"/>
-    <hyperlink ref="D147" r:id="rId113" display="https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/"/>
-    <hyperlink ref="D148" r:id="rId114" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
-    <hyperlink ref="D150" r:id="rId115" display="https://github.com/CiscoDevNet/nxos-code"/>
-    <hyperlink ref="D152" r:id="rId116" display="https://blogs.cisco.com/developer"/>
-    <hyperlink ref="D154" r:id="rId117" location="27" display="https://container.training/intro-fullday.yml.html#27"/>
-    <hyperlink ref="D155" r:id="rId118" display="https://github.com/imapex-training/mod_adv_docker/blob/master/README.md"/>
+    <hyperlink ref="D139" r:id="rId110" display="https://developer.webex.com/docs/api/getting-started"/>
+    <hyperlink ref="D140" r:id="rId111" display="https://developer.webex.com/docs/api/v1/people "/>
+    <hyperlink ref="D141" r:id="rId112" display="https://github.com/CiscoDevNet/webexteamssdk"/>
+    <hyperlink ref="D142" r:id="rId113" display="https://developer.cisco.com/meraki/api/"/>
+    <hyperlink ref="D143" r:id="rId114" display="https://intersight.com/apidocs/introduction/overview/"/>
+    <hyperlink ref="D144" r:id="rId115" display="https://github.com/movinalot/intersight-python"/>
+    <hyperlink ref="D146" r:id="rId116" display="https://tools.ietf.org/html/rfc8340"/>
+    <hyperlink ref="D148" r:id="rId117" display="https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/"/>
+    <hyperlink ref="D149" r:id="rId118" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
+    <hyperlink ref="D151" r:id="rId119" display="https://github.com/CiscoDevNet/nxos-code"/>
+    <hyperlink ref="D153" r:id="rId120" display="https://blogs.cisco.com/developer"/>
+    <hyperlink ref="D155" r:id="rId121" location="27" display="https://container.training/intro-fullday.yml.html#27"/>
+    <hyperlink ref="D156" r:id="rId122" display="https://github.com/imapex-training/mod_adv_docker/blob/master/README.md"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -4965,7 +5010,7 @@
   </sheetPr>
   <dimension ref="A1:C64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
     </sheetView>
   </sheetViews>
@@ -4977,347 +5022,347 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="24" t="s">
-        <v>342</v>
+      <c r="A1" s="21" t="s">
+        <v>347</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="24" t="s">
-        <v>344</v>
+      <c r="A3" s="21" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="24" t="s">
-        <v>345</v>
+      <c r="A4" s="21" t="s">
+        <v>350</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
-        <v>346</v>
+      <c r="A5" s="21" t="s">
+        <v>351</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
-        <v>347</v>
+      <c r="A6" s="21" t="s">
+        <v>352</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="24" t="s">
-        <v>348</v>
+      <c r="A7" s="21" t="s">
+        <v>353</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="24" t="s">
-        <v>349</v>
+      <c r="A8" s="21" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="24" t="s">
-        <v>350</v>
+      <c r="A9" s="21" t="s">
+        <v>355</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="24" t="s">
-        <v>351</v>
+      <c r="A10" s="21" t="s">
+        <v>356</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="24" t="s">
-        <v>352</v>
+      <c r="A11" s="21" t="s">
+        <v>357</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="24" t="s">
-        <v>353</v>
+      <c r="A12" s="21" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="24" t="s">
-        <v>354</v>
+      <c r="A13" s="21" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="24" t="s">
-        <v>355</v>
+      <c r="A14" s="21" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="24" t="s">
-        <v>356</v>
+      <c r="A15" s="21" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="24" t="s">
-        <v>357</v>
+      <c r="A16" s="21" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="21" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="21" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="21" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="21" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="21" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="21" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="21" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="21" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="21" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="21" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="21" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="21" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="24" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="24" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="24" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="24" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="24" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="24" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="24" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="24" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="24" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="24" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="24" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="24" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="24" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="24" t="s">
-        <v>353</v>
-      </c>
-    </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="24" t="s">
-        <v>374</v>
+      <c r="A35" s="21" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="24" t="s">
-        <v>375</v>
+      <c r="A36" s="21" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="24" t="s">
-        <v>376</v>
+      <c r="A37" s="21" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="24" t="s">
-        <v>377</v>
+      <c r="A38" s="21" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="24" t="s">
-        <v>378</v>
+      <c r="A40" s="21" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="24" t="s">
-        <v>379</v>
+      <c r="A41" s="21" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="24" t="s">
-        <v>380</v>
+      <c r="A42" s="21" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="24" t="s">
-        <v>381</v>
+      <c r="A43" s="21" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="24" t="s">
-        <v>382</v>
+      <c r="A44" s="21" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="24" t="s">
-        <v>383</v>
+      <c r="A45" s="21" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="24" t="s">
-        <v>384</v>
+      <c r="A46" s="21" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="24" t="s">
-        <v>385</v>
+      <c r="A47" s="21" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="24" t="s">
-        <v>386</v>
+      <c r="A49" s="21" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="24" t="s">
-        <v>387</v>
+      <c r="A50" s="21" t="s">
+        <v>392</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="24" t="s">
-        <v>388</v>
+      <c r="A51" s="21" t="s">
+        <v>393</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="24" t="s">
-        <v>389</v>
+      <c r="A52" s="21" t="s">
+        <v>394</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="24" t="s">
-        <v>390</v>
+      <c r="A53" s="21" t="s">
+        <v>395</v>
       </c>
       <c r="B53" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="24" t="s">
-        <v>391</v>
+      <c r="A55" s="21" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="24" t="s">
-        <v>392</v>
+      <c r="A56" s="21" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="24" t="s">
-        <v>393</v>
+      <c r="A57" s="21" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="24" t="s">
+      <c r="A58" s="21" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="21" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="C60" s="21" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="21" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="21" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="21" t="s">
         <v>394</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="24" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="24" t="s">
-        <v>396</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>397</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="24" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="24" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="24" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="24" t="s">
-        <v>389</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>28</v>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="407">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="420">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1247,17 +1247,57 @@
   </si>
   <si>
     <t xml:space="preserve">Managing Cisco Compute with Ansible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use_Cisco_Webex_Teams_API_to_Enable_ChatOps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrate_Cisco_Meraki_API_to_List_SSIDs_and_Retrieve_Location_Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use_Paginated_REST_API_Endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilize_REST_API_Error_Control_Flow_Techniques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolve_Merge_Conflicts_with_Git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnose_CICD_Pipeline_Failures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Containerize_Application_Using_Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnose_Problems_Using_Application_Logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure_Network_Parameters_Using_Puppet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure_Network_Parameters_Using_Ansible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synchronize_Firepower_Device_Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilize_RESTCONF_for_Network_Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrate_Application_into_Existing_CICD_Environment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D\-MMM\-YY"/>
     <numFmt numFmtId="166" formatCode="@"/>
     <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="HH:MM:SS\ AM/PM"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1390,7 +1430,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1489,6 +1529,10 @@
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2607,8 +2651,8 @@
   </sheetPr>
   <dimension ref="A1:G156"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A127" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E139" activeCellId="0" sqref="E139"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B162" activeCellId="0" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5008,10 +5052,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A42" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B55" activeCellId="0" sqref="B55"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5367,6 +5411,99 @@
       <c r="B64" s="12" t="s">
         <v>28</v>
       </c>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H67" s="25"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="B68" s="15"/>
+      <c r="H68" s="25"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>408</v>
+      </c>
+      <c r="B69" s="15"/>
+      <c r="H69" s="25"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>409</v>
+      </c>
+      <c r="B70" s="15"/>
+      <c r="H70" s="25"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>410</v>
+      </c>
+      <c r="B71" s="15"/>
+      <c r="H71" s="25"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>411</v>
+      </c>
+      <c r="B72" s="15"/>
+      <c r="H72" s="25"/>
+    </row>
+    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>412</v>
+      </c>
+      <c r="B73" s="15"/>
+      <c r="H73" s="25"/>
+    </row>
+    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>413</v>
+      </c>
+      <c r="B74" s="15"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="B75" s="15"/>
+      <c r="H75" s="25"/>
+    </row>
+    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>415</v>
+      </c>
+      <c r="B76" s="15"/>
+      <c r="H76" s="25"/>
+    </row>
+    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>416</v>
+      </c>
+      <c r="B77" s="15"/>
+      <c r="H77" s="25"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>417</v>
+      </c>
+      <c r="B78" s="15"/>
+      <c r="H78" s="25"/>
+    </row>
+    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>418</v>
+      </c>
+      <c r="B79" s="15"/>
+      <c r="H79" s="25"/>
+    </row>
+    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="B80" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="425">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -994,6 +994,9 @@
     <t xml:space="preserve">todo</t>
   </si>
   <si>
+    <t xml:space="preserve">rooms, messages, teams, webhooks, bot_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">API Reference Guide for Webex Teams</t>
   </si>
   <si>
@@ -1012,6 +1015,18 @@
     <t xml:space="preserve">https://developer.cisco.com/meraki/api/</t>
   </si>
   <si>
+    <t xml:space="preserve">https://developer.cisco.com/meraki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meraki Scanning API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/meraki/scanning-api/#!introduction/scanning-api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCS API and SDK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Intersight API</t>
   </si>
   <si>
@@ -1249,43 +1264,43 @@
     <t xml:space="preserve">Managing Cisco Compute with Ansible</t>
   </si>
   <si>
-    <t xml:space="preserve">Use_Cisco_Webex_Teams_API_to_Enable_ChatOps</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrate_Cisco_Meraki_API_to_List_SSIDs_and_Retrieve_Location_Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use_Paginated_REST_API_Endpoint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilize_REST_API_Error_Control_Flow_Techniques</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resolve_Merge_Conflicts_with_Git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnose_CICD_Pipeline_Failures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Containerize_Application_Using_Docker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diagnose_Problems_Using_Application_Logs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configure_Network_Parameters_Using_Puppet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Configure_Network_Parameters_Using_Ansible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Synchronize_Firepower_Device_Configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Utilize_RESTCONF_for_Network_Configuration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrate_Application_into_Existing_CICD_Environment</t>
+    <t xml:space="preserve">Use Cisco Webex Teams API to Enable ChatOps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrate Cisco Meraki API to List SSIDs and Retrieve Location Data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use Paginated REST API Endpoint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilize REST API Error Control Flow Techniques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolve Merge Conflicts with Git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnose CI/CD Pipeline Failures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Containerize Application Using Docker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagnose Problems Using Application Logs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure Network Parameters Using Puppet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configure Network Parameters Using Ansible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Synchronize Firepower Device Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilize RESTCONF for Network Configuration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrate Application into Existing CI/CD Environment</t>
   </si>
 </sst>
 </file>
@@ -1361,7 +1376,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1390,6 +1405,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFBF00"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -1430,7 +1451,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1531,6 +1552,14 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1590,7 +1619,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFBF00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1619,9 +1648,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>155520</xdr:colOff>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>25200</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1635,7 +1664,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6312240" cy="3398040"/>
+          <a:ext cx="6321960" cy="3397680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1656,9 +1685,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>186120</xdr:colOff>
+      <xdr:colOff>185760</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>121320</xdr:rowOff>
+      <xdr:rowOff>120960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1672,7 +1701,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9421560" cy="4759200"/>
+          <a:ext cx="9436320" cy="4758840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1693,9 +1722,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>593640</xdr:colOff>
+      <xdr:colOff>593280</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>170640</xdr:rowOff>
+      <xdr:rowOff>170280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1709,7 +1738,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7485840" cy="4208040"/>
+          <a:ext cx="7497000" cy="4207680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1730,9 +1759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>601200</xdr:colOff>
+      <xdr:colOff>600840</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1746,7 +1775,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6712200" cy="3881880"/>
+          <a:ext cx="6721920" cy="3881520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1767,9 +1796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>639360</xdr:colOff>
+      <xdr:colOff>639000</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1783,7 +1812,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6731280" cy="4019760"/>
+          <a:ext cx="6741000" cy="4019400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1804,9 +1833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>10800</xdr:colOff>
+      <xdr:colOff>10440</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1820,7 +1849,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6167520" cy="3954240"/>
+          <a:ext cx="6177240" cy="3953880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1841,9 +1870,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>627120</xdr:colOff>
+      <xdr:colOff>626760</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>200880</xdr:rowOff>
+      <xdr:rowOff>200520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1857,7 +1886,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13710600" cy="7157880"/>
+          <a:ext cx="13731840" cy="7157520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1878,9 +1907,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>550800</xdr:colOff>
+      <xdr:colOff>550440</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>162720</xdr:rowOff>
+      <xdr:rowOff>162360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1894,7 +1923,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19791000" cy="10492560"/>
+          <a:ext cx="19822680" cy="10492200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1920,9 +1949,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>194760</xdr:colOff>
+      <xdr:colOff>194400</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>112320</xdr:rowOff>
+      <xdr:rowOff>111960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1936,7 +1965,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15586920" cy="7912800"/>
+          <a:ext cx="15612120" cy="7912440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1957,9 +1986,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>509400</xdr:colOff>
+      <xdr:colOff>509040</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>30600</xdr:rowOff>
+      <xdr:rowOff>30240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1973,7 +2002,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15901560" cy="8252280"/>
+          <a:ext cx="15926760" cy="8251920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1995,11 +2024,11 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="B69 A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55859375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -2241,11 +2270,11 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="B69 D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55859375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2574,11 +2603,11 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B69 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55859375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2649,19 +2678,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G156"/>
+  <dimension ref="A1:G161"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A118" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B162" activeCellId="0" sqref="B162"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E144" activeCellId="1" sqref="B69 E144"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55859375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="27.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="37.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4770,14 +4800,17 @@
       <c r="F139" s="22" t="s">
         <v>321</v>
       </c>
+      <c r="G139" s="0" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="23" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C140" s="23"/>
       <c r="D140" s="23" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E140" s="24"/>
       <c r="F140" s="22" t="s">
@@ -4786,35 +4819,29 @@
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="23" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C141" s="23"/>
       <c r="D141" s="23" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="22"/>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="23" t="s">
-        <v>326</v>
-      </c>
+      <c r="B142" s="23"/>
       <c r="C142" s="23"/>
-      <c r="D142" s="23" t="s">
-        <v>327</v>
-      </c>
+      <c r="D142" s="23"/>
       <c r="E142" s="24"/>
-      <c r="F142" s="22" t="s">
-        <v>321</v>
-      </c>
+      <c r="F142" s="25"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="23" t="s">
+        <v>327</v>
+      </c>
+      <c r="C143" s="23"/>
+      <c r="D143" s="23" t="s">
         <v>328</v>
-      </c>
-      <c r="C143" s="23"/>
-      <c r="D143" s="21" t="s">
-        <v>329</v>
       </c>
       <c r="E143" s="24"/>
       <c r="F143" s="22" t="s">
@@ -4822,12 +4849,10 @@
       </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="23" t="s">
-        <v>330</v>
-      </c>
+      <c r="B144" s="23"/>
       <c r="C144" s="23"/>
       <c r="D144" s="21" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E144" s="24"/>
       <c r="F144" s="22" t="s">
@@ -4835,81 +4860,138 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="23"/>
+      <c r="B145" s="23" t="s">
+        <v>330</v>
+      </c>
       <c r="C145" s="23"/>
-      <c r="D145" s="21"/>
+      <c r="D145" s="21" t="s">
+        <v>331</v>
+      </c>
       <c r="E145" s="24"/>
-      <c r="F145" s="23"/>
+      <c r="F145" s="22" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="21" t="s">
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="25"/>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="C146" s="23"/>
-      <c r="D146" s="24" t="s">
+      <c r="C147" s="23"/>
+      <c r="D147" s="23"/>
+      <c r="E147" s="24"/>
+      <c r="F147" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="E146" s="0"/>
-      <c r="F146" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="0" t="s">
+      <c r="C148" s="23"/>
+      <c r="D148" s="21" t="s">
         <v>334</v>
       </c>
-      <c r="D148" s="21" t="s">
+      <c r="E148" s="24"/>
+      <c r="F148" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="23" t="s">
         <v>335</v>
       </c>
-      <c r="F148" s="0" t="s">
+      <c r="C149" s="23"/>
+      <c r="D149" s="21" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="0" t="s">
+      <c r="E149" s="24"/>
+      <c r="F149" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="23"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="23"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="D149" s="21" t="s">
+      <c r="C151" s="23"/>
+      <c r="D151" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="F149" s="0" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="0" t="s">
+      <c r="E151" s="0"/>
+      <c r="F151" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0" t="s">
         <v>339</v>
       </c>
-      <c r="D151" s="21" t="s">
+      <c r="D153" s="21" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="0" t="s">
+      <c r="F153" s="0" t="s">
         <v>341</v>
       </c>
-      <c r="D153" s="21" t="s">
+    </row>
+    <row r="154" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="F153" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="0" t="s">
+      <c r="D154" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="D155" s="21" t="s">
-        <v>344</v>
+      <c r="F154" s="0" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="0" t="s">
+        <v>344</v>
+      </c>
+      <c r="D156" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="D156" s="21" t="s">
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="0" t="s">
         <v>346</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>347</v>
+      </c>
+      <c r="F158" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0" t="s">
+        <v>348</v>
+      </c>
+      <c r="D160" s="21" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D161" s="21" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5025,17 +5107,19 @@
     <hyperlink ref="D136" r:id="rId109" display="Blog - My DEVCOR Experience"/>
     <hyperlink ref="D139" r:id="rId110" display="https://developer.webex.com/docs/api/getting-started"/>
     <hyperlink ref="D140" r:id="rId111" display="https://developer.webex.com/docs/api/v1/people "/>
-    <hyperlink ref="D141" r:id="rId112" display="https://github.com/CiscoDevNet/webexteamssdk"/>
-    <hyperlink ref="D142" r:id="rId113" display="https://developer.cisco.com/meraki/api/"/>
-    <hyperlink ref="D143" r:id="rId114" display="https://intersight.com/apidocs/introduction/overview/"/>
-    <hyperlink ref="D144" r:id="rId115" display="https://github.com/movinalot/intersight-python"/>
-    <hyperlink ref="D146" r:id="rId116" display="https://tools.ietf.org/html/rfc8340"/>
-    <hyperlink ref="D148" r:id="rId117" display="https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/"/>
-    <hyperlink ref="D149" r:id="rId118" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
-    <hyperlink ref="D151" r:id="rId119" display="https://github.com/CiscoDevNet/nxos-code"/>
-    <hyperlink ref="D153" r:id="rId120" display="https://blogs.cisco.com/developer"/>
-    <hyperlink ref="D155" r:id="rId121" location="27" display="https://container.training/intro-fullday.yml.html#27"/>
-    <hyperlink ref="D156" r:id="rId122" display="https://github.com/imapex-training/mod_adv_docker/blob/master/README.md"/>
+    <hyperlink ref="D141" r:id="rId112" display="https://github.com/CiscoDevNet/webexteamssdk "/>
+    <hyperlink ref="D143" r:id="rId113" display="https://developer.cisco.com/meraki/api/"/>
+    <hyperlink ref="D144" r:id="rId114" display="https://developer.cisco.com/meraki"/>
+    <hyperlink ref="D145" r:id="rId115" location="!introduction/scanning-api" display="https://developer.cisco.com/meraki/scanning-api/#!introduction/scanning-api"/>
+    <hyperlink ref="D148" r:id="rId116" display="https://intersight.com/apidocs/introduction/overview/"/>
+    <hyperlink ref="D149" r:id="rId117" display="https://github.com/movinalot/intersight-python"/>
+    <hyperlink ref="D151" r:id="rId118" display="https://tools.ietf.org/html/rfc8340 "/>
+    <hyperlink ref="D153" r:id="rId119" display="https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/"/>
+    <hyperlink ref="D154" r:id="rId120" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
+    <hyperlink ref="D156" r:id="rId121" display="https://github.com/CiscoDevNet/nxos-code"/>
+    <hyperlink ref="D158" r:id="rId122" display="https://blogs.cisco.com/developer"/>
+    <hyperlink ref="D160" r:id="rId123" location="27" display="https://container.training/intro-fullday.yml.html#27"/>
+    <hyperlink ref="D161" r:id="rId124" display="https://github.com/imapex-training/mod_adv_docker/blob/master/README.md"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5054,11 +5138,11 @@
   </sheetPr>
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A54" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.06"/>
@@ -5067,20 +5151,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>28</v>
@@ -5088,7 +5172,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>28</v>
@@ -5096,7 +5180,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>28</v>
@@ -5104,7 +5188,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>28</v>
@@ -5112,12 +5196,12 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>28</v>
@@ -5125,7 +5209,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>28</v>
@@ -5133,7 +5217,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>28</v>
@@ -5141,52 +5225,55 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>360</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
-        <v>362</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="B16" s="15"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>366</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="B20" s="15"/>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>28</v>
@@ -5194,138 +5281,144 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
-        <v>375</v>
+        <v>380</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>376</v>
+        <v>381</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
-        <v>377</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="B32" s="15"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>378</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="B33" s="15"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="s">
-        <v>380</v>
-      </c>
+        <v>385</v>
+      </c>
+      <c r="B36" s="26"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>381</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="B37" s="26"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>382</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="B38" s="15"/>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>385</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="B42" s="26"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>28</v>
@@ -5333,7 +5426,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>28</v>
@@ -5341,7 +5434,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>28</v>
@@ -5349,159 +5442,166 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B53" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="s">
-        <v>397</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B56" s="26"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
-        <v>398</v>
-      </c>
+        <v>403</v>
+      </c>
+      <c r="B57" s="26"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
-        <v>399</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="B58" s="26"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H67" s="25"/>
+      <c r="H67" s="27"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>407</v>
-      </c>
-      <c r="B68" s="15"/>
-      <c r="H68" s="25"/>
+        <v>412</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" s="27"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>408</v>
-      </c>
-      <c r="B69" s="15"/>
-      <c r="H69" s="25"/>
+        <v>413</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H69" s="27"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="B70" s="15"/>
-      <c r="H70" s="25"/>
+      <c r="H70" s="27"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B71" s="15"/>
-      <c r="H71" s="25"/>
+      <c r="H71" s="27"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="B72" s="15"/>
-      <c r="H72" s="25"/>
+      <c r="H72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B73" s="15"/>
-      <c r="H73" s="25"/>
+      <c r="H73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B74" s="15"/>
-      <c r="H74" s="25"/>
+      <c r="H74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B75" s="15"/>
-      <c r="H75" s="25"/>
+      <c r="H75" s="27"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="B76" s="15"/>
-      <c r="H76" s="25"/>
+      <c r="H76" s="27"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="B77" s="15"/>
-      <c r="H77" s="25"/>
+      <c r="H77" s="27"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="B78" s="15"/>
-      <c r="H78" s="25"/>
+      <c r="H78" s="27"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B79" s="15"/>
-      <c r="H79" s="25"/>
+      <c r="H79" s="27"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B80" s="15"/>
     </row>
@@ -5580,11 +5680,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="B69 A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11328125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5604,11 +5704,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="B69 Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.11328125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="431">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1007,6 +1007,24 @@
   </si>
   <si>
     <t xml:space="preserve">https://github.com/CiscoDevNet/webexteamssdk </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webex Integrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.webex.com/docs/integrations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">walkthrough of building an OAuth Webex integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.webex.com/blog/real-world-walkthrough-of-building-an-oauth-webex-integration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Webex Bots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.webex.com/docs/bots</t>
   </si>
   <si>
     <t xml:space="preserve">Main Meraki APIs</t>
@@ -1376,7 +1394,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1405,6 +1423,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8E86AE"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
     <fill>
@@ -1451,7 +1475,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1560,6 +1584,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1623,7 +1655,7 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF8E86AE"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -2025,7 +2057,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="B69 A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55859375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2271,7 +2303,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="B69 D22"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55859375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2604,7 +2636,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B69 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55859375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2678,10 +2710,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G161"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E144" activeCellId="1" sqref="B69 E144"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A128" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B143" activeCellId="0" sqref="B143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55859375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4826,65 +4858,69 @@
         <v>326</v>
       </c>
       <c r="E141" s="24"/>
-      <c r="F141" s="22"/>
+      <c r="F141" s="22" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="23"/>
+      <c r="B142" s="23" t="s">
+        <v>327</v>
+      </c>
       <c r="C142" s="23"/>
-      <c r="D142" s="23"/>
+      <c r="D142" s="21" t="s">
+        <v>328</v>
+      </c>
       <c r="E142" s="24"/>
       <c r="F142" s="25"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="23" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C143" s="23"/>
-      <c r="D143" s="23" t="s">
-        <v>328</v>
+      <c r="D143" s="21" t="s">
+        <v>330</v>
       </c>
       <c r="E143" s="24"/>
-      <c r="F143" s="22" t="s">
-        <v>321</v>
-      </c>
+      <c r="F143" s="25"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="23"/>
+      <c r="B144" s="23" t="s">
+        <v>331</v>
+      </c>
       <c r="C144" s="23"/>
       <c r="D144" s="21" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="E144" s="24"/>
-      <c r="F144" s="22" t="s">
+      <c r="F144" s="25"/>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="23"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="25"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="23" t="s">
+        <v>333</v>
+      </c>
+      <c r="C146" s="23"/>
+      <c r="D146" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="E146" s="24"/>
+      <c r="F146" s="22" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="23" t="s">
-        <v>330</v>
-      </c>
-      <c r="C145" s="23"/>
-      <c r="D145" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="E145" s="24"/>
-      <c r="F145" s="22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="23"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="25"/>
-    </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="23" t="s">
-        <v>332</v>
-      </c>
+      <c r="B147" s="23"/>
       <c r="C147" s="23"/>
-      <c r="D147" s="23"/>
+      <c r="D147" s="21" t="s">
+        <v>335</v>
+      </c>
       <c r="E147" s="24"/>
       <c r="F147" s="22" t="s">
         <v>321</v>
@@ -4892,11 +4928,11 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="23" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C148" s="23"/>
       <c r="D148" s="21" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="22" t="s">
@@ -4904,94 +4940,125 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="23" t="s">
-        <v>335</v>
-      </c>
+      <c r="B149" s="23"/>
       <c r="C149" s="23"/>
-      <c r="D149" s="21" t="s">
-        <v>336</v>
-      </c>
+      <c r="D149" s="23"/>
       <c r="E149" s="24"/>
-      <c r="F149" s="22" t="s">
+      <c r="F149" s="25"/>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="C150" s="23"/>
+      <c r="D150" s="23"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="22" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="23"/>
-      <c r="C150" s="23"/>
-      <c r="D150" s="21"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="23"/>
-    </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="21" t="s">
-        <v>337</v>
+      <c r="B151" s="23" t="s">
+        <v>339</v>
       </c>
       <c r="C151" s="23"/>
-      <c r="D151" s="24" t="s">
-        <v>338</v>
-      </c>
-      <c r="E151" s="0"/>
-      <c r="F151" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="0" t="s">
-        <v>339</v>
-      </c>
-      <c r="D153" s="21" t="s">
+      <c r="D151" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="F153" s="0" t="s">
+      <c r="E151" s="24"/>
+      <c r="F151" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="23" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="154" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="0" t="s">
+      <c r="C152" s="23"/>
+      <c r="D152" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="D154" s="21" t="s">
+      <c r="E152" s="24"/>
+      <c r="F152" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="23"/>
+      <c r="C153" s="23"/>
+      <c r="D153" s="21"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="23"/>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="F154" s="0" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C154" s="23"/>
+      <c r="D154" s="24" t="s">
+        <v>344</v>
+      </c>
+      <c r="E154" s="0"/>
+      <c r="F154" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="0" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D156" s="21" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="D158" s="21" t="s">
+      <c r="F156" s="0" t="s">
         <v>347</v>
       </c>
-      <c r="F158" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="0" t="s">
+    </row>
+    <row r="157" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="D160" s="21" t="s">
+      <c r="D157" s="21" t="s">
         <v>349</v>
       </c>
-    </row>
+      <c r="F157" s="0" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="D159" s="21" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="0" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D161" s="21" t="s">
-        <v>351</v>
+        <v>353</v>
+      </c>
+      <c r="F161" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D163" s="21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="0" t="s">
+        <v>356</v>
+      </c>
+      <c r="D164" s="21" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -5108,18 +5175,21 @@
     <hyperlink ref="D139" r:id="rId110" display="https://developer.webex.com/docs/api/getting-started"/>
     <hyperlink ref="D140" r:id="rId111" display="https://developer.webex.com/docs/api/v1/people "/>
     <hyperlink ref="D141" r:id="rId112" display="https://github.com/CiscoDevNet/webexteamssdk "/>
-    <hyperlink ref="D143" r:id="rId113" display="https://developer.cisco.com/meraki/api/"/>
-    <hyperlink ref="D144" r:id="rId114" display="https://developer.cisco.com/meraki"/>
-    <hyperlink ref="D145" r:id="rId115" location="!introduction/scanning-api" display="https://developer.cisco.com/meraki/scanning-api/#!introduction/scanning-api"/>
-    <hyperlink ref="D148" r:id="rId116" display="https://intersight.com/apidocs/introduction/overview/"/>
-    <hyperlink ref="D149" r:id="rId117" display="https://github.com/movinalot/intersight-python"/>
-    <hyperlink ref="D151" r:id="rId118" display="https://tools.ietf.org/html/rfc8340 "/>
-    <hyperlink ref="D153" r:id="rId119" display="https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/"/>
-    <hyperlink ref="D154" r:id="rId120" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
-    <hyperlink ref="D156" r:id="rId121" display="https://github.com/CiscoDevNet/nxos-code"/>
-    <hyperlink ref="D158" r:id="rId122" display="https://blogs.cisco.com/developer"/>
-    <hyperlink ref="D160" r:id="rId123" location="27" display="https://container.training/intro-fullday.yml.html#27"/>
-    <hyperlink ref="D161" r:id="rId124" display="https://github.com/imapex-training/mod_adv_docker/blob/master/README.md"/>
+    <hyperlink ref="D142" r:id="rId113" display="https://developer.webex.com/docs/integrations"/>
+    <hyperlink ref="D143" r:id="rId114" display="https://developer.webex.com/blog/real-world-walkthrough-of-building-an-oauth-webex-integration"/>
+    <hyperlink ref="D144" r:id="rId115" display="https://developer.webex.com/docs/bots"/>
+    <hyperlink ref="D146" r:id="rId116" display="https://developer.cisco.com/meraki/api/"/>
+    <hyperlink ref="D147" r:id="rId117" display="https://developer.cisco.com/meraki"/>
+    <hyperlink ref="D148" r:id="rId118" location="!introduction/scanning-api" display="https://developer.cisco.com/meraki/scanning-api/#!introduction/scanning-api"/>
+    <hyperlink ref="D151" r:id="rId119" display="https://intersight.com/apidocs/introduction/overview/"/>
+    <hyperlink ref="D152" r:id="rId120" display="https://github.com/movinalot/intersight-python"/>
+    <hyperlink ref="D154" r:id="rId121" display="https://tools.ietf.org/html/rfc8340 "/>
+    <hyperlink ref="D156" r:id="rId122" display="https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/"/>
+    <hyperlink ref="D157" r:id="rId123" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
+    <hyperlink ref="D159" r:id="rId124" display="https://github.com/CiscoDevNet/nxos-code"/>
+    <hyperlink ref="D161" r:id="rId125" display="https://blogs.cisco.com/developer"/>
+    <hyperlink ref="D163" r:id="rId126" location="27" display="https://container.training/intro-fullday.yml.html#27"/>
+    <hyperlink ref="D164" r:id="rId127" display="https://github.com/imapex-training/mod_adv_docker/blob/master/README.md"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5138,8 +5208,8 @@
   </sheetPr>
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B69" activeCellId="0" sqref="B69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5151,20 +5221,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>28</v>
@@ -5172,7 +5242,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>28</v>
@@ -5180,7 +5250,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>28</v>
@@ -5188,7 +5258,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>28</v>
@@ -5196,12 +5266,13 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>359</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>28</v>
@@ -5209,7 +5280,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>28</v>
@@ -5217,63 +5288,75 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
-        <v>363</v>
+      <c r="A12" s="27" t="s">
+        <v>369</v>
+      </c>
+      <c r="B12" s="15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="B14" s="15"/>
+        <v>371</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="B16" s="15"/>
+        <v>373</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>368</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="B17" s="26"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>369</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="B18" s="26"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>370</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="B19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>371</v>
-      </c>
-      <c r="B20" s="15"/>
+        <v>377</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>28</v>
@@ -5281,144 +5364,150 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
-        <v>382</v>
-      </c>
-      <c r="B32" s="15"/>
+        <v>388</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="B33" s="15"/>
+        <v>389</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="B36" s="26"/>
+        <v>391</v>
+      </c>
+      <c r="B36" s="28"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>386</v>
-      </c>
-      <c r="B37" s="26"/>
+        <v>392</v>
+      </c>
+      <c r="B37" s="28"/>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>387</v>
-      </c>
-      <c r="B38" s="15"/>
+        <v>393</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>390</v>
-      </c>
-      <c r="B42" s="26"/>
+        <v>396</v>
+      </c>
+      <c r="B42" s="28"/>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>28</v>
@@ -5426,7 +5515,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>28</v>
@@ -5434,7 +5523,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>28</v>
@@ -5442,166 +5531,166 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B53" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="s">
-        <v>402</v>
-      </c>
-      <c r="B56" s="26"/>
+        <v>408</v>
+      </c>
+      <c r="B56" s="28"/>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
-        <v>403</v>
-      </c>
-      <c r="B57" s="26"/>
+        <v>409</v>
+      </c>
+      <c r="B57" s="28"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
-        <v>404</v>
-      </c>
-      <c r="B58" s="26"/>
+        <v>410</v>
+      </c>
+      <c r="B58" s="28"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H67" s="27"/>
+      <c r="H67" s="29"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H68" s="27"/>
+      <c r="H68" s="29"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H69" s="27"/>
+      <c r="H69" s="29"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B70" s="15"/>
-      <c r="H70" s="27"/>
+      <c r="H70" s="29"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B71" s="15"/>
-      <c r="H71" s="27"/>
+      <c r="H71" s="29"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>416</v>
-      </c>
-      <c r="B72" s="15"/>
-      <c r="H72" s="27"/>
+        <v>422</v>
+      </c>
+      <c r="B72" s="26"/>
+      <c r="H72" s="29"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B73" s="15"/>
-      <c r="H73" s="27"/>
+      <c r="H73" s="29"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B74" s="15"/>
-      <c r="H74" s="27"/>
+      <c r="H74" s="29"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B75" s="15"/>
-      <c r="H75" s="27"/>
+      <c r="H75" s="29"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B76" s="15"/>
-      <c r="H76" s="27"/>
+      <c r="H76" s="29"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B77" s="15"/>
-      <c r="H77" s="27"/>
+      <c r="H77" s="29"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B78" s="15"/>
-      <c r="H78" s="27"/>
+      <c r="H78" s="29"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B79" s="15"/>
-      <c r="H79" s="27"/>
+      <c r="H79" s="29"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B80" s="15"/>
     </row>
@@ -5681,7 +5770,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="B69 A163"/>
+      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5705,7 +5794,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="B69 Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="431">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1015,7 +1015,7 @@
     <t xml:space="preserve">https://developer.webex.com/docs/integrations</t>
   </si>
   <si>
-    <t xml:space="preserve">walkthrough of building an OAuth Webex integration</t>
+    <t xml:space="preserve">Walkthrough of building an OAuth Webex integration</t>
   </si>
   <si>
     <t xml:space="preserve">https://developer.webex.com/blog/real-world-walkthrough-of-building-an-oauth-webex-integration</t>
@@ -1165,7 +1165,7 @@
     <t xml:space="preserve">Modern Application Development</t>
   </si>
   <si>
-    <t xml:space="preserve">json (wrong title)</t>
+    <t xml:space="preserve">json related (wrong title)</t>
   </si>
   <si>
     <t xml:space="preserve">Understanding the OAuth Flow of a Webex Teams Integration</t>
@@ -1394,7 +1394,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1429,12 +1429,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8E86AE"/>
         <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFBF00"/>
-        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
   </fills>
@@ -1475,7 +1469,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1576,20 +1570,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1651,7 +1637,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF92D050"/>
-      <rgbColor rgb="FFFFBF00"/>
+      <rgbColor rgb="FFFFCC00"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -1680,9 +1666,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>155160</xdr:colOff>
+      <xdr:colOff>154800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>24840</xdr:rowOff>
+      <xdr:rowOff>24480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1696,7 +1682,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6321960" cy="3397680"/>
+          <a:ext cx="6332040" cy="3397320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1717,9 +1703,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>185760</xdr:colOff>
+      <xdr:colOff>185400</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>120960</xdr:rowOff>
+      <xdr:rowOff>120600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1733,7 +1719,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9436320" cy="4758840"/>
+          <a:ext cx="9451080" cy="4758480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1754,9 +1740,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>593280</xdr:colOff>
+      <xdr:colOff>592920</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>170280</xdr:rowOff>
+      <xdr:rowOff>169920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1770,7 +1756,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7497000" cy="4207680"/>
+          <a:ext cx="7508160" cy="4207320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1791,9 +1777,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>600840</xdr:colOff>
+      <xdr:colOff>600480</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1807,7 +1793,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6721920" cy="3881520"/>
+          <a:ext cx="6732000" cy="3881160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1828,9 +1814,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>639000</xdr:colOff>
+      <xdr:colOff>638640</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1844,7 +1830,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6741000" cy="4019400"/>
+          <a:ext cx="6751080" cy="4019040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1865,9 +1851,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>10440</xdr:colOff>
+      <xdr:colOff>10080</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1881,7 +1867,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6177240" cy="3953880"/>
+          <a:ext cx="6187320" cy="3953520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1902,9 +1888,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>626760</xdr:colOff>
+      <xdr:colOff>626400</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>200520</xdr:rowOff>
+      <xdr:rowOff>200160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1918,7 +1904,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13731840" cy="7157520"/>
+          <a:ext cx="13753080" cy="7157160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1939,9 +1925,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>550440</xdr:colOff>
+      <xdr:colOff>550080</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>162360</xdr:rowOff>
+      <xdr:rowOff>162000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1955,7 +1941,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19822680" cy="10492200"/>
+          <a:ext cx="19854000" cy="10491840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1981,9 +1967,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>194400</xdr:colOff>
+      <xdr:colOff>194040</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>111960</xdr:rowOff>
+      <xdr:rowOff>111600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1997,7 +1983,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15612120" cy="7912440"/>
+          <a:ext cx="15636960" cy="7912080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2018,9 +2004,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>509040</xdr:colOff>
+      <xdr:colOff>508680</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>30240</xdr:rowOff>
+      <xdr:rowOff>29880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2034,7 +2020,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15926760" cy="8251920"/>
+          <a:ext cx="15951600" cy="8251560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2056,11 +2042,11 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="B56 A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55859375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -2302,11 +2288,11 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="B56 D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55859375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2635,11 +2621,11 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B56 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55859375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2712,11 +2698,11 @@
   </sheetPr>
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A128" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B143" activeCellId="0" sqref="B143"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A128" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B146" activeCellId="1" sqref="B56 B146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55859375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
@@ -4871,7 +4857,7 @@
         <v>328</v>
       </c>
       <c r="E142" s="24"/>
-      <c r="F142" s="25"/>
+      <c r="F142" s="23"/>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="23" t="s">
@@ -4882,7 +4868,7 @@
         <v>330</v>
       </c>
       <c r="E143" s="24"/>
-      <c r="F143" s="25"/>
+      <c r="F143" s="23"/>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="23" t="s">
@@ -4893,14 +4879,14 @@
         <v>332</v>
       </c>
       <c r="E144" s="24"/>
-      <c r="F144" s="25"/>
+      <c r="F144" s="23"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="23"/>
       <c r="C145" s="23"/>
       <c r="D145" s="21"/>
       <c r="E145" s="24"/>
-      <c r="F145" s="25"/>
+      <c r="F145" s="23"/>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="23" t="s">
@@ -4944,7 +4930,7 @@
       <c r="C149" s="23"/>
       <c r="D149" s="23"/>
       <c r="E149" s="24"/>
-      <c r="F149" s="25"/>
+      <c r="F149" s="23"/>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="23" t="s">
@@ -5208,15 +5194,15 @@
   </sheetPr>
   <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A12" activeCellId="0" sqref="A12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5268,7 +5254,7 @@
       <c r="A8" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
@@ -5295,11 +5281,11 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="26" t="s">
         <v>369</v>
       </c>
-      <c r="B12" s="15" t="n">
-        <v>3</v>
+      <c r="B12" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5332,19 +5318,19 @@
       <c r="A17" s="21" t="s">
         <v>374</v>
       </c>
-      <c r="B17" s="26"/>
+      <c r="B17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
         <v>375</v>
       </c>
-      <c r="B18" s="26"/>
+      <c r="B18" s="25"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
         <v>376</v>
       </c>
-      <c r="B19" s="26"/>
+      <c r="B19" s="25"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
@@ -5433,6 +5419,9 @@
       <c r="A34" s="21" t="s">
         <v>369</v>
       </c>
+      <c r="B34" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
@@ -5443,13 +5432,17 @@
       <c r="A36" s="21" t="s">
         <v>391</v>
       </c>
-      <c r="B36" s="28"/>
+      <c r="B36" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B37" s="28"/>
+      <c r="B37" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
@@ -5473,7 +5466,9 @@
       <c r="A42" s="21" t="s">
         <v>396</v>
       </c>
-      <c r="B42" s="28"/>
+      <c r="B42" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
@@ -5544,19 +5539,25 @@
       <c r="A56" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="B56" s="28"/>
+      <c r="B56" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
         <v>409</v>
       </c>
-      <c r="B57" s="28"/>
+      <c r="B57" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
         <v>410</v>
       </c>
-      <c r="B58" s="28"/>
+      <c r="B58" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
@@ -5598,7 +5599,7 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H67" s="29"/>
+      <c r="H67" s="27"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -5607,7 +5608,7 @@
       <c r="B68" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H68" s="29"/>
+      <c r="H68" s="27"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
@@ -5616,77 +5617,77 @@
       <c r="B69" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H69" s="29"/>
+      <c r="H69" s="27"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>420</v>
       </c>
       <c r="B70" s="15"/>
-      <c r="H70" s="29"/>
+      <c r="H70" s="27"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>421</v>
       </c>
       <c r="B71" s="15"/>
-      <c r="H71" s="29"/>
+      <c r="H71" s="27"/>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="B72" s="26"/>
-      <c r="H72" s="29"/>
+      <c r="B72" s="25"/>
+      <c r="H72" s="27"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>423</v>
       </c>
       <c r="B73" s="15"/>
-      <c r="H73" s="29"/>
+      <c r="H73" s="27"/>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>424</v>
       </c>
       <c r="B74" s="15"/>
-      <c r="H74" s="29"/>
+      <c r="H74" s="27"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>425</v>
       </c>
       <c r="B75" s="15"/>
-      <c r="H75" s="29"/>
+      <c r="H75" s="27"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>426</v>
       </c>
       <c r="B76" s="15"/>
-      <c r="H76" s="29"/>
+      <c r="H76" s="27"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>427</v>
       </c>
       <c r="B77" s="15"/>
-      <c r="H77" s="29"/>
+      <c r="H77" s="27"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>428</v>
       </c>
       <c r="B78" s="15"/>
-      <c r="H78" s="29"/>
+      <c r="H78" s="27"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>429</v>
       </c>
       <c r="B79" s="15"/>
-      <c r="H79" s="29"/>
+      <c r="H79" s="27"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
@@ -5769,11 +5770,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="B56 A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5793,11 +5794,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="B56 Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.12890625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="441">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1042,6 +1042,12 @@
     <t xml:space="preserve">https://developer.cisco.com/meraki/scanning-api/#!introduction/scanning-api</t>
   </si>
   <si>
+    <t xml:space="preserve">DNA Center REST API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/docs/dna-center/api/1-3-3-x/</t>
+  </si>
+  <si>
     <t xml:space="preserve">UCS API and SDK</t>
   </si>
   <si>
@@ -1126,6 +1132,9 @@
     <t xml:space="preserve">A brief introduction to Git</t>
   </si>
   <si>
+    <t xml:space="preserve">git</t>
+  </si>
+  <si>
     <t xml:space="preserve">Intro to Python Part 1</t>
   </si>
   <si>
@@ -1171,6 +1180,9 @@
     <t xml:space="preserve">Understanding the OAuth Flow of a Webex Teams Integration</t>
   </si>
   <si>
+    <t xml:space="preserve">oauth</t>
+  </si>
+  <si>
     <t xml:space="preserve">Webex Teams Security and Access: Tokens, OAuth, Scopes, and Roles</t>
   </si>
   <si>
@@ -1280,6 +1292,26 @@
   </si>
   <si>
     <t xml:space="preserve">Managing Cisco Compute with Ansible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Get started with AppDynamics application monitoring
+https://developer.cisco.com/learning/tracks/app-dev/appdynamics-perf-mon/app-dynamics-101/step/1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using Docker with AppDynamics
+https://developer.cisco.com/learning/tracks/app-dev/appdynamics-perf-mon/app-dynamics-docker/step/1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operations On-Premises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operations in public Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continuous Integration, Delivery and Deployment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service mesh with Istio</t>
   </si>
   <si>
     <t xml:space="preserve">Use Cisco Webex Teams API to Enable ChatOps</t>
@@ -1394,7 +1426,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1429,6 +1461,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8E86AE"/>
         <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE16173"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
   </fills>
@@ -1469,7 +1507,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1570,12 +1608,20 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1615,7 +1661,7 @@
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FFE16173"/>
       <rgbColor rgb="FF0066CC"/>
       <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
@@ -2043,7 +2089,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="B56 A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2289,7 +2335,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="B56 D22"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2622,7 +2668,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B56 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2696,10 +2742,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G164"/>
+  <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A128" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B146" activeCellId="1" sqref="B56 B146"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F151" activeCellId="0" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4809,39 +4855,29 @@
       <c r="C138" s="17"/>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="21" t="s">
+      <c r="C139" s="17"/>
+    </row>
+    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="21" t="s">
         <v>319</v>
       </c>
-      <c r="D139" s="21" t="s">
+      <c r="D140" s="21" t="s">
         <v>320</v>
       </c>
-      <c r="F139" s="22" t="s">
-        <v>321</v>
-      </c>
-      <c r="G139" s="0" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="23" t="s">
-        <v>323</v>
-      </c>
-      <c r="C140" s="23"/>
-      <c r="D140" s="23" t="s">
-        <v>324</v>
-      </c>
-      <c r="E140" s="24"/>
       <c r="F140" s="22" t="s">
         <v>321</v>
       </c>
+      <c r="G140" s="0" t="s">
+        <v>322</v>
+      </c>
     </row>
     <row r="141" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="23" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C141" s="23"/>
       <c r="D141" s="23" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E141" s="24"/>
       <c r="F141" s="22" t="s">
@@ -4850,62 +4886,70 @@
     </row>
     <row r="142" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C142" s="23"/>
-      <c r="D142" s="21" t="s">
-        <v>328</v>
+      <c r="D142" s="23" t="s">
+        <v>326</v>
       </c>
       <c r="E142" s="24"/>
-      <c r="F142" s="23"/>
+      <c r="F142" s="22" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="23" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C143" s="23"/>
       <c r="D143" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E143" s="24"/>
-      <c r="F143" s="23"/>
+      <c r="F143" s="22" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="23" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C144" s="23"/>
       <c r="D144" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="E144" s="24"/>
+      <c r="F144" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="23" t="s">
+        <v>331</v>
+      </c>
+      <c r="C145" s="23"/>
+      <c r="D145" s="21" t="s">
         <v>332</v>
       </c>
-      <c r="E144" s="24"/>
-      <c r="F144" s="23"/>
-    </row>
-    <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="23"/>
-      <c r="C145" s="23"/>
-      <c r="D145" s="21"/>
       <c r="E145" s="24"/>
-      <c r="F145" s="23"/>
+      <c r="F145" s="22" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="23" t="s">
+      <c r="B146" s="23"/>
+      <c r="C146" s="23"/>
+      <c r="D146" s="21"/>
+      <c r="E146" s="24"/>
+      <c r="F146" s="23"/>
+    </row>
+    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="23" t="s">
         <v>333</v>
       </c>
-      <c r="C146" s="23"/>
-      <c r="D146" s="23" t="s">
+      <c r="C147" s="23"/>
+      <c r="D147" s="23" t="s">
         <v>334</v>
-      </c>
-      <c r="E146" s="24"/>
-      <c r="F146" s="22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="23"/>
-      <c r="C147" s="23"/>
-      <c r="D147" s="21" t="s">
-        <v>335</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="22" t="s">
@@ -4913,12 +4957,10 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="23" t="s">
-        <v>336</v>
-      </c>
+      <c r="B148" s="23"/>
       <c r="C148" s="23"/>
       <c r="D148" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E148" s="24"/>
       <c r="F148" s="22" t="s">
@@ -4926,30 +4968,32 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="23"/>
+      <c r="B149" s="23" t="s">
+        <v>336</v>
+      </c>
       <c r="C149" s="23"/>
-      <c r="D149" s="23"/>
+      <c r="D149" s="21" t="s">
+        <v>337</v>
+      </c>
       <c r="E149" s="24"/>
-      <c r="F149" s="23"/>
+      <c r="F149" s="22" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="23" t="s">
+      <c r="B150" s="23"/>
+      <c r="C150" s="23"/>
+      <c r="D150" s="21"/>
+      <c r="E150" s="24"/>
+      <c r="F150" s="25"/>
+    </row>
+    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="21" t="s">
         <v>338</v>
-      </c>
-      <c r="C150" s="23"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="23" t="s">
-        <v>339</v>
       </c>
       <c r="C151" s="23"/>
       <c r="D151" s="21" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E151" s="24"/>
       <c r="F151" s="22" t="s">
@@ -4957,94 +5001,125 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="23" t="s">
+      <c r="B152" s="21"/>
+      <c r="C152" s="23"/>
+      <c r="D152" s="23"/>
+      <c r="E152" s="24"/>
+      <c r="F152" s="23"/>
+    </row>
+    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="23" t="s">
+        <v>340</v>
+      </c>
+      <c r="C153" s="23"/>
+      <c r="D153" s="23"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="23" t="s">
         <v>341</v>
       </c>
-      <c r="C152" s="23"/>
-      <c r="D152" s="21" t="s">
+      <c r="C154" s="23"/>
+      <c r="D154" s="21" t="s">
         <v>342</v>
       </c>
-      <c r="E152" s="24"/>
-      <c r="F152" s="22" t="s">
+      <c r="E154" s="24"/>
+      <c r="F154" s="22" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="23"/>
-      <c r="C153" s="23"/>
-      <c r="D153" s="21"/>
-      <c r="E153" s="24"/>
-      <c r="F153" s="23"/>
-    </row>
-    <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="21" t="s">
+    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="23" t="s">
         <v>343</v>
       </c>
-      <c r="C154" s="23"/>
-      <c r="D154" s="24" t="s">
+      <c r="C155" s="23"/>
+      <c r="D155" s="21" t="s">
         <v>344</v>
       </c>
-      <c r="E154" s="0"/>
-      <c r="F154" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="0" t="s">
+      <c r="E155" s="24"/>
+      <c r="F155" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="23"/>
+      <c r="C156" s="23"/>
+      <c r="D156" s="21"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="23"/>
+    </row>
+    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="21" t="s">
         <v>345</v>
       </c>
-      <c r="D156" s="21" t="s">
+      <c r="C157" s="23"/>
+      <c r="D157" s="24" t="s">
         <v>346</v>
       </c>
-      <c r="F156" s="0" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="0" t="s">
-        <v>348</v>
-      </c>
-      <c r="D157" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="F157" s="0" t="s">
-        <v>347</v>
+      <c r="E157" s="0"/>
+      <c r="F157" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="0" t="s">
+        <v>347</v>
+      </c>
+      <c r="D159" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F159" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="D159" s="21" t="s">
+      <c r="D160" s="21" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="0" t="s">
+      <c r="F160" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="D161" s="21" t="s">
+      <c r="D162" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="F161" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="0" t="s">
-        <v>354</v>
-      </c>
-      <c r="D163" s="21" t="s">
-        <v>355</v>
-      </c>
-    </row>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="0" t="s">
+        <v>354</v>
+      </c>
+      <c r="D164" s="21" t="s">
+        <v>355</v>
+      </c>
+      <c r="F164" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="D164" s="21" t="s">
+      <c r="D166" s="21" t="s">
         <v>357</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="0" t="s">
+        <v>358</v>
+      </c>
+      <c r="D167" s="21" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -5158,24 +5233,26 @@
     <hyperlink ref="D134" r:id="rId107" display="Deploying Network CM/Telemetry"/>
     <hyperlink ref="D135" r:id="rId108" location="/preassessment" display="Mastering Cisco DevNet SW Design/Net Auto"/>
     <hyperlink ref="D136" r:id="rId109" display="Blog - My DEVCOR Experience"/>
-    <hyperlink ref="D139" r:id="rId110" display="https://developer.webex.com/docs/api/getting-started"/>
-    <hyperlink ref="D140" r:id="rId111" display="https://developer.webex.com/docs/api/v1/people "/>
-    <hyperlink ref="D141" r:id="rId112" display="https://github.com/CiscoDevNet/webexteamssdk "/>
-    <hyperlink ref="D142" r:id="rId113" display="https://developer.webex.com/docs/integrations"/>
-    <hyperlink ref="D143" r:id="rId114" display="https://developer.webex.com/blog/real-world-walkthrough-of-building-an-oauth-webex-integration"/>
-    <hyperlink ref="D144" r:id="rId115" display="https://developer.webex.com/docs/bots"/>
-    <hyperlink ref="D146" r:id="rId116" display="https://developer.cisco.com/meraki/api/"/>
-    <hyperlink ref="D147" r:id="rId117" display="https://developer.cisco.com/meraki"/>
-    <hyperlink ref="D148" r:id="rId118" location="!introduction/scanning-api" display="https://developer.cisco.com/meraki/scanning-api/#!introduction/scanning-api"/>
-    <hyperlink ref="D151" r:id="rId119" display="https://intersight.com/apidocs/introduction/overview/"/>
-    <hyperlink ref="D152" r:id="rId120" display="https://github.com/movinalot/intersight-python"/>
-    <hyperlink ref="D154" r:id="rId121" display="https://tools.ietf.org/html/rfc8340 "/>
-    <hyperlink ref="D156" r:id="rId122" display="https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/"/>
-    <hyperlink ref="D157" r:id="rId123" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
-    <hyperlink ref="D159" r:id="rId124" display="https://github.com/CiscoDevNet/nxos-code"/>
-    <hyperlink ref="D161" r:id="rId125" display="https://blogs.cisco.com/developer"/>
-    <hyperlink ref="D163" r:id="rId126" location="27" display="https://container.training/intro-fullday.yml.html#27"/>
-    <hyperlink ref="D164" r:id="rId127" display="https://github.com/imapex-training/mod_adv_docker/blob/master/README.md"/>
+    <hyperlink ref="D140" r:id="rId110" display="https://developer.webex.com/docs/api/getting-started"/>
+    <hyperlink ref="D141" r:id="rId111" display="https://developer.webex.com/docs/api/v1/people "/>
+    <hyperlink ref="D142" r:id="rId112" display="https://github.com/CiscoDevNet/webexteamssdk "/>
+    <hyperlink ref="D143" r:id="rId113" display="https://developer.webex.com/docs/integrations"/>
+    <hyperlink ref="D144" r:id="rId114" display="https://developer.webex.com/blog/real-world-walkthrough-of-building-an-oauth-webex-integration"/>
+    <hyperlink ref="D145" r:id="rId115" display="https://developer.webex.com/docs/bots"/>
+    <hyperlink ref="D147" r:id="rId116" display="https://developer.cisco.com/meraki/api/"/>
+    <hyperlink ref="D148" r:id="rId117" display="https://developer.cisco.com/meraki"/>
+    <hyperlink ref="D149" r:id="rId118" location="!introduction/scanning-api" display="https://developer.cisco.com/meraki/scanning-api/#!introduction/scanning-api"/>
+    <hyperlink ref="B151" r:id="rId119" display="DNA Center REST API"/>
+    <hyperlink ref="D151" r:id="rId120" display="https://developer.cisco.com/docs/dna-center/api/1-3-3-x/"/>
+    <hyperlink ref="D154" r:id="rId121" display="https://intersight.com/apidocs/introduction/overview/"/>
+    <hyperlink ref="D155" r:id="rId122" display="https://github.com/movinalot/intersight-python"/>
+    <hyperlink ref="D157" r:id="rId123" display="https://tools.ietf.org/html/rfc8340 "/>
+    <hyperlink ref="D159" r:id="rId124" display="https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/"/>
+    <hyperlink ref="D160" r:id="rId125" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
+    <hyperlink ref="D162" r:id="rId126" display="https://github.com/CiscoDevNet/nxos-code"/>
+    <hyperlink ref="D164" r:id="rId127" display="https://blogs.cisco.com/developer"/>
+    <hyperlink ref="D166" r:id="rId128" location="27" display="https://container.training/intro-fullday.yml.html#27"/>
+    <hyperlink ref="D167" r:id="rId129" display="https://github.com/imapex-training/mod_adv_docker/blob/master/README.md"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5192,13 +5269,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H80"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B56" activeCellId="0" sqref="B56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.06"/>
@@ -5207,20 +5284,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>28</v>
@@ -5228,7 +5305,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>28</v>
@@ -5236,7 +5313,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>28</v>
@@ -5244,7 +5321,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>28</v>
@@ -5252,13 +5329,15 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="B8" s="25"/>
+        <v>367</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>28</v>
@@ -5266,7 +5345,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>28</v>
@@ -5274,15 +5353,15 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="s">
-        <v>369</v>
+      <c r="A12" s="27" t="s">
+        <v>372</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>28</v>
@@ -5290,12 +5369,12 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>28</v>
@@ -5303,12 +5382,12 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>28</v>
@@ -5316,25 +5395,31 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>374</v>
-      </c>
-      <c r="B17" s="25"/>
+        <v>377</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>375</v>
-      </c>
-      <c r="B18" s="25"/>
+        <v>378</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>376</v>
-      </c>
-      <c r="B19" s="25"/>
+        <v>379</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>28</v>
@@ -5342,7 +5427,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>28</v>
@@ -5350,58 +5435,79 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>380</v>
+        <v>383</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>381</v>
+        <v>385</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>383</v>
+        <v>387</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>384</v>
+        <v>388</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>385</v>
+        <v>389</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
-        <v>386</v>
+        <v>390</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>387</v>
+        <v>391</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>28</v>
@@ -5409,7 +5515,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>28</v>
@@ -5417,7 +5523,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>28</v>
@@ -5425,12 +5531,12 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>28</v>
@@ -5438,7 +5544,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>28</v>
@@ -5446,7 +5552,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>28</v>
@@ -5454,17 +5560,17 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>28</v>
@@ -5472,37 +5578,37 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>28</v>
@@ -5510,7 +5616,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>28</v>
@@ -5518,7 +5624,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>28</v>
@@ -5526,18 +5632,18 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B53" s="14"/>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>28</v>
@@ -5545,7 +5651,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>28</v>
@@ -5553,7 +5659,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>28</v>
@@ -5561,139 +5667,190 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H67" s="27"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>418</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" s="27"/>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="21"/>
+      <c r="B65" s="12"/>
+    </row>
+    <row r="67" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="21" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="21" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>419</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H69" s="27"/>
+      <c r="A69" s="21"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>420</v>
-      </c>
-      <c r="B70" s="15"/>
-      <c r="H70" s="27"/>
+      <c r="A70" s="21" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>421</v>
-      </c>
-      <c r="B71" s="15"/>
-      <c r="H71" s="27"/>
+      <c r="A71" s="21" t="s">
+        <v>424</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>422</v>
-      </c>
-      <c r="B72" s="25"/>
-      <c r="H72" s="27"/>
+      <c r="A72" s="21" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>423</v>
-      </c>
-      <c r="B73" s="15"/>
-      <c r="H73" s="27"/>
+      <c r="A73" s="21" t="s">
+        <v>426</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>424</v>
-      </c>
-      <c r="B74" s="15"/>
-      <c r="H74" s="27"/>
+      <c r="A74" s="21" t="s">
+        <v>427</v>
+      </c>
+      <c r="H74" s="29"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>425</v>
-      </c>
-      <c r="B75" s="15"/>
-      <c r="H75" s="27"/>
+      <c r="H75" s="29"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>426</v>
-      </c>
-      <c r="B76" s="15"/>
-      <c r="H76" s="27"/>
+        <v>428</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H76" s="29"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>427</v>
-      </c>
-      <c r="B77" s="15"/>
-      <c r="H77" s="27"/>
+        <v>429</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H77" s="29"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B78" s="15"/>
-      <c r="H78" s="27"/>
+      <c r="H78" s="29"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B79" s="15"/>
-      <c r="H79" s="27"/>
+      <c r="H79" s="29"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="B80" s="15"/>
+        <v>432</v>
+      </c>
+      <c r="B80" s="26" t="s">
+        <v>368</v>
+      </c>
+      <c r="H80" s="29"/>
+    </row>
+    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>433</v>
+      </c>
+      <c r="B81" s="15"/>
+      <c r="H81" s="29"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>434</v>
+      </c>
+      <c r="B82" s="15"/>
+      <c r="H82" s="29"/>
+    </row>
+    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="B83" s="15"/>
+      <c r="H83" s="29"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>436</v>
+      </c>
+      <c r="B84" s="15"/>
+      <c r="H84" s="29"/>
+    </row>
+    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>437</v>
+      </c>
+      <c r="B85" s="15"/>
+      <c r="H85" s="29"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>438</v>
+      </c>
+      <c r="B86" s="15"/>
+      <c r="H86" s="29"/>
+    </row>
+    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>439</v>
+      </c>
+      <c r="B87" s="15"/>
+      <c r="H87" s="29"/>
+    </row>
+    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="B88" s="15"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="23"/>
+    </row>
+    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5752,6 +5909,13 @@
     <hyperlink ref="A62" r:id="rId53" display="Introduction to Ansible"/>
     <hyperlink ref="A63" r:id="rId54" display="Managing Cisco Compute with Ansible"/>
     <hyperlink ref="A64" r:id="rId55" display="Microservices overview"/>
+    <hyperlink ref="A67" r:id="rId56" display="https://developer.cisco.com/learning/tracks/app-dev/appdynamics-perf-mon/app-dynamics-101/step/1"/>
+    <hyperlink ref="A68" r:id="rId57" display="https://developer.cisco.com/learning/tracks/app-dev/appdynamics-perf-mon/app-dynamics-docker/step/1"/>
+    <hyperlink ref="A70" r:id="rId58" display="Modern Application Development"/>
+    <hyperlink ref="A71" r:id="rId59" display="Operations On-Premises"/>
+    <hyperlink ref="A72" r:id="rId60" display="Operations in public Cloud"/>
+    <hyperlink ref="A73" r:id="rId61" display="Continuous Integration, Delivery and Deployment"/>
+    <hyperlink ref="A74" r:id="rId62" display="Service mesh with Istio"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5771,7 +5935,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="B56 A163"/>
+      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5795,7 +5959,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="B56 Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="458">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1108,6 +1108,36 @@
     <t xml:space="preserve">https://github.com/imapex-training/mod_adv_docker/blob/master/README.md</t>
   </si>
   <si>
+    <t xml:space="preserve">Introduction to DevNet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/learning/tracks/devnet-beginner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Programmability for Network Engineers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/learning/tracks/netprog-eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Programmability for Application Developers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/learning/tracks/netprog-appdev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AllDayDevOps Track</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/learning/tracks/addo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumpstart Your NetDevOps Journey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/learning/tracks/netdevops</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://developer.cisco.com/certification/exam-topic-core/</t>
   </si>
   <si>
@@ -1150,12 +1180,18 @@
     <t xml:space="preserve">Introduction to the Guest Shell</t>
   </si>
   <si>
+    <t xml:space="preserve">Guest / container</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chat-Ops with Webex Teams and Python</t>
   </si>
   <si>
     <t xml:space="preserve">Firepower Management Center (FMC) REST API token-based authentication</t>
   </si>
   <si>
+    <t xml:space="preserve">firepower</t>
+  </si>
+  <si>
     <t xml:space="preserve">Exploring the 'webexteamssdk' Webex Teams Python Library</t>
   </si>
   <si>
@@ -1213,6 +1249,9 @@
     <t xml:space="preserve">Introductory UCS Director REST API, Custom Tasks and Workflow Creation Part I</t>
   </si>
   <si>
+    <t xml:space="preserve">ucs</t>
+  </si>
+  <si>
     <t xml:space="preserve">Meraki Dashboard API Using Postman</t>
   </si>
   <si>
@@ -1234,6 +1273,9 @@
     <t xml:space="preserve">Introduction to Cisco DNA Center Northbound APIs</t>
   </si>
   <si>
+    <t xml:space="preserve">DNA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cisco DNA Center API Overview</t>
   </si>
   <si>
@@ -1261,6 +1303,9 @@
     <t xml:space="preserve">https://developer.cisco.com/learning/lab/containers-intro-kubernetes/step/1</t>
   </si>
   <si>
+    <t xml:space="preserve">kubernetes</t>
+  </si>
+  <si>
     <t xml:space="preserve">5.0 Infrastructure and Automation</t>
   </si>
   <si>
@@ -1289,6 +1334,9 @@
   </si>
   <si>
     <t xml:space="preserve">Introduction to Ansible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ansible</t>
   </si>
   <si>
     <t xml:space="preserve">Managing Cisco Compute with Ansible</t>
@@ -1312,6 +1360,9 @@
   </si>
   <si>
     <t xml:space="preserve">Service mesh with Istio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blogs.cisco.com/sp/streaming-telemetry-with-google-protocol-buffers</t>
   </si>
   <si>
     <t xml:space="preserve">Use Cisco Webex Teams API to Enable ChatOps</t>
@@ -1507,7 +1558,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1608,16 +1659,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1712,9 +1759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>154800</xdr:colOff>
+      <xdr:colOff>154080</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>24480</xdr:rowOff>
+      <xdr:rowOff>23760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1728,7 +1775,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6332040" cy="3397320"/>
+          <a:ext cx="6356520" cy="3396600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1749,9 +1796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>185400</xdr:colOff>
+      <xdr:colOff>184680</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>120600</xdr:rowOff>
+      <xdr:rowOff>119880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1765,7 +1812,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9451080" cy="4758480"/>
+          <a:ext cx="9488520" cy="4757760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1786,9 +1833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>592920</xdr:colOff>
+      <xdr:colOff>592200</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>169920</xdr:rowOff>
+      <xdr:rowOff>169200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1802,7 +1849,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7508160" cy="4207320"/>
+          <a:ext cx="7535880" cy="4206600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1823,9 +1870,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>600480</xdr:colOff>
+      <xdr:colOff>599760</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1839,7 +1886,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6732000" cy="3881160"/>
+          <a:ext cx="6756480" cy="3880440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1860,9 +1907,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>638640</xdr:colOff>
+      <xdr:colOff>637920</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>21240</xdr:rowOff>
+      <xdr:rowOff>20520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1876,7 +1923,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6751080" cy="4019040"/>
+          <a:ext cx="6775560" cy="4018320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1897,9 +1944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>10080</xdr:colOff>
+      <xdr:colOff>9360</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>158760</xdr:rowOff>
+      <xdr:rowOff>158040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1913,7 +1960,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6187320" cy="3953520"/>
+          <a:ext cx="6211800" cy="3952800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1934,9 +1981,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>626400</xdr:colOff>
+      <xdr:colOff>625680</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>200160</xdr:rowOff>
+      <xdr:rowOff>199440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1950,7 +1997,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13753080" cy="7157160"/>
+          <a:ext cx="13806360" cy="7156440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1971,9 +2018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>550080</xdr:colOff>
+      <xdr:colOff>549360</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>162000</xdr:rowOff>
+      <xdr:rowOff>161280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1987,7 +2034,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19854000" cy="10491840"/>
+          <a:ext cx="19932480" cy="10491120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2013,9 +2060,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>194040</xdr:colOff>
+      <xdr:colOff>193320</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>111600</xdr:rowOff>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2029,7 +2076,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15636960" cy="7912080"/>
+          <a:ext cx="15699960" cy="7911360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2050,9 +2097,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>508680</xdr:colOff>
+      <xdr:colOff>507960</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>29880</xdr:rowOff>
+      <xdr:rowOff>29160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2066,7 +2113,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="15951600" cy="8251560"/>
+          <a:ext cx="16014600" cy="8250840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2088,11 +2135,11 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="B47 A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -2334,11 +2381,11 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="B47 D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2667,11 +2714,11 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B47 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2742,16 +2789,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F151" activeCellId="0" sqref="F151"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B175" activeCellId="1" sqref="B47 B175"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58203125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="45.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="27.1"/>
@@ -4985,7 +5032,7 @@
       <c r="C150" s="23"/>
       <c r="D150" s="21"/>
       <c r="E150" s="24"/>
-      <c r="F150" s="25"/>
+      <c r="F150" s="23"/>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="21" t="s">
@@ -5120,6 +5167,61 @@
       </c>
       <c r="D167" s="21" t="s">
         <v>359</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D169" s="21" t="s">
+        <v>361</v>
+      </c>
+      <c r="F169" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D170" s="21" t="s">
+        <v>363</v>
+      </c>
+      <c r="F170" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="D171" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="F171" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="25" t="s">
+        <v>366</v>
+      </c>
+      <c r="D172" s="21" t="s">
+        <v>367</v>
+      </c>
+      <c r="F172" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="D173" s="21" t="s">
+        <v>369</v>
+      </c>
+      <c r="F173" s="22" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5253,6 +5355,11 @@
     <hyperlink ref="D164" r:id="rId127" display="https://blogs.cisco.com/developer"/>
     <hyperlink ref="D166" r:id="rId128" location="27" display="https://container.training/intro-fullday.yml.html#27"/>
     <hyperlink ref="D167" r:id="rId129" display="https://github.com/imapex-training/mod_adv_docker/blob/master/README.md"/>
+    <hyperlink ref="D169" r:id="rId130" display="https://developer.cisco.com/learning/tracks/devnet-beginner"/>
+    <hyperlink ref="D170" r:id="rId131" display="https://developer.cisco.com/learning/tracks/netprog-eng"/>
+    <hyperlink ref="D171" r:id="rId132" display="https://developer.cisco.com/learning/tracks/netprog-appdev"/>
+    <hyperlink ref="D172" r:id="rId133" display="https://developer.cisco.com/learning/tracks/addo"/>
+    <hyperlink ref="D173" r:id="rId134" display="https://developer.cisco.com/learning/tracks/netdevops"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5269,13 +5376,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A24" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B35" activeCellId="0" sqref="B35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.75390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.06"/>
@@ -5284,20 +5391,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>28</v>
@@ -5305,7 +5412,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>28</v>
@@ -5313,7 +5420,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>28</v>
@@ -5321,7 +5428,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>28</v>
@@ -5329,15 +5436,15 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>28</v>
@@ -5345,7 +5452,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>28</v>
@@ -5353,15 +5460,15 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
-        <v>372</v>
+      <c r="A12" s="21" t="s">
+        <v>382</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>28</v>
@@ -5369,12 +5476,15 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>373</v>
+        <v>383</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>28</v>
@@ -5382,12 +5492,15 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>375</v>
+        <v>386</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>28</v>
@@ -5395,31 +5508,31 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
+        <v>390</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>378</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>28</v>
@@ -5427,7 +5540,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>28</v>
@@ -5435,39 +5548,39 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>383</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>384</v>
+        <v>395</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>385</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>384</v>
+        <v>397</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>28</v>
@@ -5475,7 +5588,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>28</v>
@@ -5483,7 +5596,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>28</v>
@@ -5491,7 +5604,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>28</v>
@@ -5499,7 +5612,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>28</v>
@@ -5507,7 +5620,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>28</v>
@@ -5515,7 +5628,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>28</v>
@@ -5523,7 +5636,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>28</v>
@@ -5531,12 +5644,15 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>394</v>
+        <v>406</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="s">
-        <v>395</v>
+        <v>408</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>28</v>
@@ -5544,7 +5660,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>396</v>
+        <v>409</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>28</v>
@@ -5552,7 +5668,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>397</v>
+        <v>410</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>28</v>
@@ -5560,17 +5676,20 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>398</v>
+        <v>411</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>399</v>
+        <v>412</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>28</v>
@@ -5578,37 +5697,52 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>401</v>
+        <v>414</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>402</v>
+        <v>416</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
-        <v>403</v>
+        <v>417</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>404</v>
+        <v>418</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>405</v>
+        <v>419</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>28</v>
@@ -5616,7 +5750,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>28</v>
@@ -5624,7 +5758,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>28</v>
@@ -5632,18 +5766,20 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="B53" s="14"/>
+        <v>424</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>28</v>
@@ -5651,7 +5787,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>28</v>
@@ -5659,7 +5795,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>28</v>
@@ -5667,38 +5803,50 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>415</v>
+        <v>430</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>419</v>
+        <v>434</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
-        <v>420</v>
+        <v>435</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="s">
-        <v>421</v>
+        <v>437</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>28</v>
@@ -5710,12 +5858,12 @@
     </row>
     <row r="67" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="21" t="s">
-        <v>422</v>
+        <v>438</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="s">
-        <v>423</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5723,134 +5871,148 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="21" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="21" t="s">
-        <v>424</v>
+        <v>440</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="21" t="s">
-        <v>425</v>
+        <v>441</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="21" t="s">
-        <v>426</v>
+        <v>442</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="21" t="s">
-        <v>427</v>
-      </c>
-      <c r="H74" s="29"/>
+        <v>443</v>
+      </c>
+      <c r="H74" s="28"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H75" s="29"/>
+      <c r="A75" s="21"/>
+      <c r="H75" s="28"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>428</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H76" s="29"/>
+      <c r="A76" s="21" t="s">
+        <v>444</v>
+      </c>
+      <c r="H76" s="28"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>429</v>
-      </c>
-      <c r="B77" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H77" s="29"/>
+      <c r="A77" s="21"/>
+      <c r="H77" s="28"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>430</v>
-      </c>
-      <c r="B78" s="15"/>
-      <c r="H78" s="29"/>
+      <c r="H78" s="28"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>431</v>
-      </c>
-      <c r="B79" s="15"/>
-      <c r="H79" s="29"/>
+        <v>445</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H79" s="28"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>432</v>
-      </c>
-      <c r="B80" s="26" t="s">
-        <v>368</v>
-      </c>
-      <c r="H80" s="29"/>
+        <v>446</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" s="28"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>433</v>
+        <v>447</v>
       </c>
       <c r="B81" s="15"/>
-      <c r="H81" s="29"/>
+      <c r="H81" s="28"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>434</v>
+        <v>448</v>
       </c>
       <c r="B82" s="15"/>
-      <c r="H82" s="29"/>
+      <c r="H82" s="28"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>435</v>
-      </c>
-      <c r="B83" s="15"/>
-      <c r="H83" s="29"/>
+        <v>449</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="H83" s="28"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>436</v>
+        <v>450</v>
       </c>
       <c r="B84" s="15"/>
-      <c r="H84" s="29"/>
+      <c r="H84" s="28"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
       <c r="B85" s="15"/>
-      <c r="H85" s="29"/>
+      <c r="H85" s="28"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>438</v>
+        <v>452</v>
       </c>
       <c r="B86" s="15"/>
-      <c r="H86" s="29"/>
+      <c r="H86" s="28"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>439</v>
+        <v>453</v>
       </c>
       <c r="B87" s="15"/>
-      <c r="H87" s="29"/>
+      <c r="H87" s="28"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="B88" s="15"/>
-    </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="23"/>
-    </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="21"/>
+      <c r="H88" s="28"/>
+    </row>
+    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>455</v>
+      </c>
+      <c r="B89" s="15"/>
+      <c r="H89" s="28"/>
+    </row>
+    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>456</v>
+      </c>
+      <c r="B90" s="15"/>
+      <c r="H90" s="28"/>
+    </row>
+    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>457</v>
+      </c>
+      <c r="B91" s="15"/>
+    </row>
+    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="23"/>
+    </row>
+    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="21"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5909,13 +6071,14 @@
     <hyperlink ref="A62" r:id="rId53" display="Introduction to Ansible"/>
     <hyperlink ref="A63" r:id="rId54" display="Managing Cisco Compute with Ansible"/>
     <hyperlink ref="A64" r:id="rId55" display="Microservices overview"/>
-    <hyperlink ref="A67" r:id="rId56" display="https://developer.cisco.com/learning/tracks/app-dev/appdynamics-perf-mon/app-dynamics-101/step/1"/>
-    <hyperlink ref="A68" r:id="rId57" display="https://developer.cisco.com/learning/tracks/app-dev/appdynamics-perf-mon/app-dynamics-docker/step/1"/>
+    <hyperlink ref="A67" r:id="rId56" display="Get started with AppDynamics application monitoring&#10;https://developer.cisco.com/learning/tracks/app-dev/appdynamics-perf-mon/app-dynamics-101/step/1 "/>
+    <hyperlink ref="A68" r:id="rId57" display="Using Docker with AppDynamics&#10;https://developer.cisco.com/learning/tracks/app-dev/appdynamics-perf-mon/app-dynamics-docker/step/1"/>
     <hyperlink ref="A70" r:id="rId58" display="Modern Application Development"/>
     <hyperlink ref="A71" r:id="rId59" display="Operations On-Premises"/>
     <hyperlink ref="A72" r:id="rId60" display="Operations in public Cloud"/>
     <hyperlink ref="A73" r:id="rId61" display="Continuous Integration, Delivery and Deployment"/>
     <hyperlink ref="A74" r:id="rId62" display="Service mesh with Istio"/>
+    <hyperlink ref="A76" r:id="rId63" display="https://blogs.cisco.com/sp/streaming-telemetry-with-google-protocol-buffers"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -5934,11 +6097,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="B47 A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5958,11 +6121,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="B47 Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="458">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -2136,7 +2136,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="B47 A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2382,7 +2382,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="1" sqref="B47 D22"/>
+      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2715,7 +2715,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B47 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2791,8 +2791,8 @@
   </sheetPr>
   <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A148" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B175" activeCellId="1" sqref="B47 B175"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B173" activeCellId="0" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.6171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5378,8 +5378,8 @@
   </sheetPr>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B47" activeCellId="0" sqref="B47"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.75390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5934,7 +5934,9 @@
       <c r="A81" s="0" t="s">
         <v>447</v>
       </c>
-      <c r="B81" s="15"/>
+      <c r="B81" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="H81" s="28"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6098,7 +6100,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="B47 A163"/>
+      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6122,7 +6124,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="B47 Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="458">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -994,7 +994,7 @@
     <t xml:space="preserve">todo</t>
   </si>
   <si>
-    <t xml:space="preserve">rooms, messages, teams, webhooks, bot_id</t>
+    <t xml:space="preserve">rooms, messages, teams, memberships, webhooks, bot_id</t>
   </si>
   <si>
     <t xml:space="preserve">API Reference Guide for Webex Teams</t>
@@ -1759,9 +1759,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>154080</xdr:colOff>
+      <xdr:colOff>153360</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>23760</xdr:rowOff>
+      <xdr:rowOff>23040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1775,7 +1775,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6356520" cy="3396600"/>
+          <a:ext cx="6381360" cy="3395880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1796,9 +1796,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>184680</xdr:colOff>
+      <xdr:colOff>183960</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>119880</xdr:rowOff>
+      <xdr:rowOff>119160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1812,7 +1812,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9488520" cy="4757760"/>
+          <a:ext cx="9525960" cy="4757040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1833,9 +1833,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>592200</xdr:colOff>
+      <xdr:colOff>591480</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>169200</xdr:rowOff>
+      <xdr:rowOff>168480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1849,7 +1849,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7535880" cy="4206600"/>
+          <a:ext cx="7563600" cy="4205880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1870,9 +1870,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>599760</xdr:colOff>
+      <xdr:colOff>599040</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1886,7 +1886,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6756480" cy="3880440"/>
+          <a:ext cx="6781320" cy="3879720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1907,9 +1907,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>637920</xdr:colOff>
+      <xdr:colOff>637200</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:rowOff>19800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1923,7 +1923,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6775560" cy="4018320"/>
+          <a:ext cx="6800400" cy="4017600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1944,9 +1944,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>9360</xdr:colOff>
+      <xdr:colOff>8640</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>158040</xdr:rowOff>
+      <xdr:rowOff>157320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1960,7 +1960,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6211800" cy="3952800"/>
+          <a:ext cx="6236640" cy="3952080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1981,9 +1981,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>625680</xdr:colOff>
+      <xdr:colOff>624960</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>199440</xdr:rowOff>
+      <xdr:rowOff>198720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1997,7 +1997,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13806360" cy="7156440"/>
+          <a:ext cx="13859280" cy="7155720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2018,9 +2018,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>549360</xdr:colOff>
+      <xdr:colOff>548640</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>161280</xdr:rowOff>
+      <xdr:rowOff>160560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2034,7 +2034,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="19932480" cy="10491120"/>
+          <a:ext cx="20011320" cy="10490400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2060,9 +2060,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>193320</xdr:colOff>
+      <xdr:colOff>192600</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>110880</xdr:rowOff>
+      <xdr:rowOff>110160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2076,7 +2076,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15699960" cy="7911360"/>
+          <a:ext cx="15762600" cy="7910640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2097,9 +2097,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>507960</xdr:colOff>
+      <xdr:colOff>507240</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>29160</xdr:rowOff>
+      <xdr:rowOff>28440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2113,7 +2113,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="16014600" cy="8250840"/>
+          <a:ext cx="16077240" cy="8250120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2139,7 +2139,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -2385,7 +2385,7 @@
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2718,7 +2718,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2791,11 +2791,11 @@
   </sheetPr>
   <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A154" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B173" activeCellId="0" sqref="B173"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G142" activeCellId="0" sqref="G142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6171875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.16"/>
@@ -5378,11 +5378,11 @@
   </sheetPr>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.79296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.06"/>
@@ -5854,7 +5854,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="21"/>
-      <c r="B65" s="12"/>
+      <c r="B65" s="4"/>
     </row>
     <row r="67" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="21" t="s">
@@ -5943,7 +5943,9 @@
       <c r="A82" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="B82" s="15"/>
+      <c r="B82" s="12" t="s">
+        <v>28</v>
+      </c>
       <c r="H82" s="28"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6103,7 +6105,7 @@
       <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6127,7 +6129,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.18359375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="461">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1136,6 +1136,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://developer.cisco.com/learning/tracks/netdevops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBM HA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ibm.com/garage/method/practices/manage/hadr-on-premises-app/overview</t>
   </si>
   <si>
     <t xml:space="preserve">https://developer.cisco.com/certification/exam-topic-core/</t>
@@ -1351,6 +1357,9 @@
   </si>
   <si>
     <t xml:space="preserve">Operations On-Premises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">web/spark</t>
   </si>
   <si>
     <t xml:space="preserve">Operations in public Cloud</t>
@@ -1759,9 +1768,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>153360</xdr:colOff>
+      <xdr:colOff>153000</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>23040</xdr:rowOff>
+      <xdr:rowOff>22680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1775,7 +1784,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6381360" cy="3395880"/>
+          <a:ext cx="6391080" cy="3395520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1796,9 +1805,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>183960</xdr:colOff>
+      <xdr:colOff>183600</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>119160</xdr:rowOff>
+      <xdr:rowOff>118800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1812,7 +1821,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9525960" cy="4757040"/>
+          <a:ext cx="9540720" cy="4756680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1833,9 +1842,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>591480</xdr:colOff>
+      <xdr:colOff>591120</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>168480</xdr:rowOff>
+      <xdr:rowOff>168120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1849,7 +1858,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7563600" cy="4205880"/>
+          <a:ext cx="7574760" cy="4205520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1870,9 +1879,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>599040</xdr:colOff>
+      <xdr:colOff>598680</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>108000</xdr:rowOff>
+      <xdr:rowOff>107640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1886,7 +1895,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6781320" cy="3879720"/>
+          <a:ext cx="6791040" cy="3879360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1907,9 +1916,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>637200</xdr:colOff>
+      <xdr:colOff>636840</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>19800</xdr:rowOff>
+      <xdr:rowOff>19440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1923,7 +1932,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6800400" cy="4017600"/>
+          <a:ext cx="6810120" cy="4017240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1944,9 +1953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>8640</xdr:colOff>
+      <xdr:colOff>8280</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>157320</xdr:rowOff>
+      <xdr:rowOff>156960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1960,7 +1969,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6236640" cy="3952080"/>
+          <a:ext cx="6246360" cy="3951720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1981,9 +1990,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>624960</xdr:colOff>
+      <xdr:colOff>624600</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>198720</xdr:rowOff>
+      <xdr:rowOff>198360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1997,7 +2006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13859280" cy="7155720"/>
+          <a:ext cx="13880520" cy="7155360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2018,9 +2027,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:colOff>548280</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2034,7 +2043,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="20011320" cy="10490400"/>
+          <a:ext cx="20042640" cy="10490040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2060,9 +2069,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>192600</xdr:colOff>
+      <xdr:colOff>192240</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>110160</xdr:rowOff>
+      <xdr:rowOff>109800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2076,7 +2085,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15762600" cy="7910640"/>
+          <a:ext cx="15787800" cy="7910280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2097,9 +2106,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>507240</xdr:colOff>
+      <xdr:colOff>506880</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>28440</xdr:rowOff>
+      <xdr:rowOff>28080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2113,7 +2122,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="16077240" cy="8250120"/>
+          <a:ext cx="16102440" cy="8249760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2139,7 +2148,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -2385,7 +2394,7 @@
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2718,7 +2727,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2789,13 +2798,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G142" activeCellId="0" sqref="G142"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B120" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E174" activeCellId="0" sqref="E174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6640625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.16"/>
@@ -5221,6 +5230,17 @@
         <v>369</v>
       </c>
       <c r="F173" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="0" t="s">
+        <v>370</v>
+      </c>
+      <c r="D175" s="21" t="s">
+        <v>371</v>
+      </c>
+      <c r="F175" s="22" t="s">
         <v>321</v>
       </c>
     </row>
@@ -5360,6 +5380,7 @@
     <hyperlink ref="D171" r:id="rId132" display="https://developer.cisco.com/learning/tracks/netprog-appdev"/>
     <hyperlink ref="D172" r:id="rId133" display="https://developer.cisco.com/learning/tracks/addo"/>
     <hyperlink ref="D173" r:id="rId134" display="https://developer.cisco.com/learning/tracks/netdevops"/>
+    <hyperlink ref="D175" r:id="rId135" display="https://www.ibm.com/garage/method/practices/manage/hadr-on-premises-app/overview"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5378,11 +5399,11 @@
   </sheetPr>
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A91" activeCellId="0" sqref="A91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.79296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.06"/>
@@ -5391,20 +5412,20 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>28</v>
@@ -5412,7 +5433,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>28</v>
@@ -5420,7 +5441,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>28</v>
@@ -5428,7 +5449,7 @@
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>28</v>
@@ -5436,15 +5457,15 @@
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>28</v>
@@ -5452,7 +5473,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>28</v>
@@ -5460,7 +5481,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>28</v>
@@ -5468,7 +5489,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>28</v>
@@ -5476,15 +5497,15 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>28</v>
@@ -5492,15 +5513,15 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>28</v>
@@ -5508,31 +5529,31 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B18" s="26" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>28</v>
@@ -5540,7 +5561,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>28</v>
@@ -5548,39 +5569,39 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>28</v>
@@ -5588,7 +5609,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>28</v>
@@ -5596,7 +5617,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>28</v>
@@ -5604,7 +5625,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>28</v>
@@ -5612,7 +5633,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>28</v>
@@ -5620,7 +5641,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>28</v>
@@ -5628,7 +5649,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>28</v>
@@ -5636,7 +5657,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>28</v>
@@ -5644,15 +5665,15 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>28</v>
@@ -5660,7 +5681,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>28</v>
@@ -5668,7 +5689,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>28</v>
@@ -5676,20 +5697,20 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>28</v>
@@ -5697,31 +5718,31 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
+        <v>419</v>
+      </c>
+      <c r="B45" s="15" t="s">
         <v>417</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>415</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>28</v>
@@ -5729,7 +5750,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>28</v>
@@ -5737,12 +5758,12 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>28</v>
@@ -5750,7 +5771,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>28</v>
@@ -5758,7 +5779,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>28</v>
@@ -5766,20 +5787,20 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>28</v>
@@ -5787,7 +5808,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>28</v>
@@ -5795,7 +5816,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>28</v>
@@ -5803,50 +5824,50 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C60" s="21" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>28</v>
@@ -5858,12 +5879,12 @@
     </row>
     <row r="67" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="21" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5871,27 +5892,33 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="21" t="s">
-        <v>393</v>
+        <v>395</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="21" t="s">
-        <v>440</v>
+        <v>442</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="21" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="21" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="21" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="H74" s="28"/>
     </row>
@@ -5901,7 +5928,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="21" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="H76" s="28"/>
     </row>
@@ -5914,7 +5941,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>28</v>
@@ -5923,7 +5950,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>28</v>
@@ -5932,7 +5959,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>28</v>
@@ -5941,7 +5968,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>28</v>
@@ -5950,65 +5977,65 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B83" s="26" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="H83" s="28"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B84" s="15"/>
       <c r="H84" s="28"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B85" s="15"/>
       <c r="H85" s="28"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B86" s="15"/>
       <c r="H86" s="28"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B87" s="15"/>
       <c r="H87" s="28"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B88" s="15"/>
       <c r="H88" s="28"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B89" s="15"/>
       <c r="H89" s="28"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B90" s="15"/>
       <c r="H90" s="28"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B91" s="15"/>
     </row>
@@ -6105,7 +6132,7 @@
       <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6129,7 +6156,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="462">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1310,6 +1310,12 @@
   </si>
   <si>
     <t xml:space="preserve">kubernetes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/learning/tracks/addo/cloud-native-development/CiscoContainerPlatform-101/step/1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisco Container Platform Introduction</t>
   </si>
   <si>
     <t xml:space="preserve">5.0 Infrastructure and Automation</t>
@@ -1357,9 +1363,6 @@
   </si>
   <si>
     <t xml:space="preserve">Operations On-Premises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">web/spark</t>
   </si>
   <si>
     <t xml:space="preserve">Operations in public Cloud</t>
@@ -1567,7 +1570,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1672,6 +1675,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1682,6 +1693,10 @@
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1768,9 +1783,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>153000</xdr:colOff>
+      <xdr:colOff>152640</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>22680</xdr:rowOff>
+      <xdr:rowOff>22320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1784,7 +1799,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6391080" cy="3395520"/>
+          <a:ext cx="6400800" cy="3395160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1805,9 +1820,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>183600</xdr:colOff>
+      <xdr:colOff>183240</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>118800</xdr:rowOff>
+      <xdr:rowOff>118440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1821,7 +1836,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9540720" cy="4756680"/>
+          <a:ext cx="9555840" cy="4756320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1842,9 +1857,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>591120</xdr:colOff>
+      <xdr:colOff>590760</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>168120</xdr:rowOff>
+      <xdr:rowOff>167760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1858,7 +1873,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7574760" cy="4205520"/>
+          <a:ext cx="7585920" cy="4205160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1879,9 +1894,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>598680</xdr:colOff>
+      <xdr:colOff>598320</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>107640</xdr:rowOff>
+      <xdr:rowOff>107280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1895,7 +1910,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6791040" cy="3879360"/>
+          <a:ext cx="6800760" cy="3879000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1916,9 +1931,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>636840</xdr:colOff>
+      <xdr:colOff>636480</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>19440</xdr:rowOff>
+      <xdr:rowOff>19080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1932,7 +1947,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6810120" cy="4017240"/>
+          <a:ext cx="6819840" cy="4016880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1953,9 +1968,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>8280</xdr:colOff>
+      <xdr:colOff>7920</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>156960</xdr:rowOff>
+      <xdr:rowOff>156600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1969,7 +1984,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6246360" cy="3951720"/>
+          <a:ext cx="6256080" cy="3951360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1990,9 +2005,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>624600</xdr:colOff>
+      <xdr:colOff>624240</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>198360</xdr:rowOff>
+      <xdr:rowOff>198000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2006,7 +2021,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13880520" cy="7155360"/>
+          <a:ext cx="13901760" cy="7155000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2027,9 +2042,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>548280</xdr:colOff>
+      <xdr:colOff>547920</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2043,7 +2058,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="20042640" cy="10490040"/>
+          <a:ext cx="20073960" cy="10489680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2069,9 +2084,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>192240</xdr:colOff>
+      <xdr:colOff>191880</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>109800</xdr:rowOff>
+      <xdr:rowOff>109440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2085,7 +2100,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15787800" cy="7910280"/>
+          <a:ext cx="15812640" cy="7909920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2106,9 +2121,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>506880</xdr:colOff>
+      <xdr:colOff>506520</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>28080</xdr:rowOff>
+      <xdr:rowOff>27720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2122,7 +2137,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="16102440" cy="8249760"/>
+          <a:ext cx="16127280" cy="8249400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2148,7 +2163,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -2394,7 +2409,7 @@
       <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2727,7 +2742,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2804,7 +2819,7 @@
       <selection pane="topLeft" activeCell="E174" activeCellId="0" sqref="E174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.16"/>
@@ -5397,21 +5412,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A56" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B71" activeCellId="0" sqref="B71"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.8125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="93.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="27" t="s">
         <v>372</v>
       </c>
       <c r="B1" s="0" t="s">
@@ -5419,12 +5434,12 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="27" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="27" t="s">
         <v>375</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -5432,7 +5447,7 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="27" t="s">
         <v>376</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -5440,7 +5455,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="27" t="s">
         <v>377</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -5448,7 +5463,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="27" t="s">
         <v>378</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -5456,15 +5471,15 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="27" t="s">
         <v>379</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="28" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="27" t="s">
         <v>381</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -5472,7 +5487,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="27" t="s">
         <v>382</v>
       </c>
       <c r="B10" s="12" t="s">
@@ -5480,7 +5495,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="27" t="s">
         <v>383</v>
       </c>
       <c r="B11" s="12" t="s">
@@ -5488,7 +5503,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="27" t="s">
         <v>384</v>
       </c>
       <c r="B12" s="12" t="s">
@@ -5496,7 +5511,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="27" t="s">
         <v>385</v>
       </c>
       <c r="B13" s="15" t="s">
@@ -5504,7 +5519,7 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="27" t="s">
         <v>387</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -5512,7 +5527,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="27" t="s">
         <v>388</v>
       </c>
       <c r="B15" s="15" t="s">
@@ -5520,7 +5535,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="27" t="s">
         <v>390</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -5528,31 +5543,31 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="27" t="s">
         <v>391</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="28" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="28" t="s">
         <v>380</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="27" t="s">
         <v>394</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -5560,7 +5575,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="27" t="s">
         <v>395</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -5568,7 +5583,7 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="27" t="s">
         <v>395</v>
       </c>
       <c r="B22" s="12" t="s">
@@ -5579,28 +5594,28 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="s">
+      <c r="A23" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="29" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21" t="s">
+      <c r="A24" s="27" t="s">
         <v>399</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="29" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="27" t="s">
         <v>400</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="27" t="s">
         <v>401</v>
       </c>
       <c r="B27" s="12" t="s">
@@ -5608,7 +5623,7 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="27" t="s">
         <v>402</v>
       </c>
       <c r="B28" s="12" t="s">
@@ -5616,7 +5631,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="27" t="s">
         <v>403</v>
       </c>
       <c r="B29" s="12" t="s">
@@ -5624,7 +5639,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="27" t="s">
         <v>404</v>
       </c>
       <c r="B30" s="12" t="s">
@@ -5632,7 +5647,7 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="27" t="s">
         <v>405</v>
       </c>
       <c r="B31" s="12" t="s">
@@ -5640,7 +5655,7 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="27" t="s">
         <v>406</v>
       </c>
       <c r="B32" s="12" t="s">
@@ -5648,7 +5663,7 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="27" t="s">
         <v>407</v>
       </c>
       <c r="B33" s="12" t="s">
@@ -5656,7 +5671,7 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="27" t="s">
         <v>384</v>
       </c>
       <c r="B34" s="12" t="s">
@@ -5664,7 +5679,7 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="27" t="s">
         <v>408</v>
       </c>
       <c r="B35" s="15" t="s">
@@ -5672,7 +5687,7 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="27" t="s">
         <v>410</v>
       </c>
       <c r="B36" s="12" t="s">
@@ -5680,7 +5695,7 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="27" t="s">
         <v>411</v>
       </c>
       <c r="B37" s="12" t="s">
@@ -5688,7 +5703,7 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="27" t="s">
         <v>412</v>
       </c>
       <c r="B38" s="12" t="s">
@@ -5696,12 +5711,12 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="27" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="27" t="s">
         <v>414</v>
       </c>
       <c r="B41" s="15" t="s">
@@ -5709,7 +5724,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="27" t="s">
         <v>415</v>
       </c>
       <c r="B42" s="12" t="s">
@@ -5717,7 +5732,7 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="27" t="s">
         <v>416</v>
       </c>
       <c r="B43" s="15" t="s">
@@ -5725,7 +5740,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="27" t="s">
         <v>418</v>
       </c>
       <c r="B44" s="15" t="s">
@@ -5733,7 +5748,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="27" t="s">
         <v>419</v>
       </c>
       <c r="B45" s="15" t="s">
@@ -5741,7 +5756,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="21" t="s">
+      <c r="A46" s="27" t="s">
         <v>420</v>
       </c>
       <c r="B46" s="12" t="s">
@@ -5749,7 +5764,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="21" t="s">
+      <c r="A47" s="27" t="s">
         <v>421</v>
       </c>
       <c r="B47" s="12" t="s">
@@ -5757,12 +5772,12 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="21" t="s">
+      <c r="A49" s="27" t="s">
         <v>422</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="21" t="s">
+      <c r="A50" s="27" t="s">
         <v>423</v>
       </c>
       <c r="B50" s="12" t="s">
@@ -5770,7 +5785,7 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="21" t="s">
+      <c r="A51" s="27" t="s">
         <v>424</v>
       </c>
       <c r="B51" s="12" t="s">
@@ -5778,7 +5793,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="21" t="s">
+      <c r="A52" s="27" t="s">
         <v>425</v>
       </c>
       <c r="B52" s="12" t="s">
@@ -5786,264 +5801,290 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="21" t="s">
+      <c r="A53" s="27" t="s">
         <v>426</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="21" t="s">
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="27" t="s">
         <v>428</v>
       </c>
+      <c r="B54" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="21" t="s">
-        <v>429</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>28</v>
+      <c r="A56" s="27" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="21" t="s">
-        <v>430</v>
+      <c r="A57" s="27" t="s">
+        <v>431</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="21" t="s">
-        <v>431</v>
+      <c r="A58" s="27" t="s">
+        <v>432</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="21" t="s">
-        <v>432</v>
-      </c>
-      <c r="B59" s="15" t="s">
+      <c r="A59" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="27" t="s">
+        <v>434</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="21" t="s">
-        <v>433</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>434</v>
-      </c>
-      <c r="C60" s="21" t="s">
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="27" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="21" t="s">
+      <c r="B61" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="C61" s="21" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="27" t="s">
+        <v>438</v>
+      </c>
+      <c r="B62" s="15" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>438</v>
-      </c>
-    </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="21" t="s">
+      <c r="A63" s="27" t="s">
         <v>439</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="21" t="s">
+      <c r="A64" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="27" t="s">
         <v>425</v>
       </c>
-      <c r="B64" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="21"/>
-      <c r="B65" s="4"/>
-    </row>
-    <row r="67" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="21" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="25.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="21" t="s">
-        <v>441</v>
-      </c>
+      <c r="B65" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="27"/>
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="B67" s="15"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="B68" s="15"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="21"/>
+      <c r="A69" s="27"/>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="21" t="s">
+      <c r="A70" s="27"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="B70" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="21" t="s">
-        <v>442</v>
-      </c>
-      <c r="B71" s="15" t="s">
-        <v>443</v>
+      <c r="B71" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="21" t="s">
+      <c r="A72" s="27" t="s">
         <v>444</v>
       </c>
+      <c r="B72" s="12" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="21" t="s">
+      <c r="A73" s="27" t="s">
         <v>445</v>
       </c>
+      <c r="B73" s="12" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="21" t="s">
+      <c r="A74" s="27" t="s">
         <v>446</v>
       </c>
-      <c r="H74" s="28"/>
+      <c r="B74" s="12" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="21"/>
-      <c r="H75" s="28"/>
+      <c r="A75" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H75" s="30"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="21" t="s">
-        <v>447</v>
-      </c>
-      <c r="H76" s="28"/>
+      <c r="A76" s="27"/>
+      <c r="H76" s="30"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="21"/>
-      <c r="H77" s="28"/>
+      <c r="A77" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="B77" s="15"/>
+      <c r="H77" s="30"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H78" s="28"/>
+      <c r="A78" s="27"/>
+      <c r="H78" s="30"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>448</v>
-      </c>
-      <c r="B79" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="H79" s="28"/>
+      <c r="H79" s="30"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
+      <c r="A80" s="26" t="s">
         <v>449</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H80" s="28"/>
+      <c r="H80" s="30"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
+      <c r="A81" s="26" t="s">
         <v>450</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H81" s="28"/>
+      <c r="H81" s="30"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
+      <c r="A82" s="26" t="s">
         <v>451</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H82" s="28"/>
+      <c r="H82" s="30"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
+      <c r="A83" s="26" t="s">
         <v>452</v>
       </c>
-      <c r="B83" s="26" t="s">
+      <c r="B83" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H83" s="30"/>
+    </row>
+    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="B84" s="28" t="s">
         <v>380</v>
       </c>
-      <c r="H83" s="28"/>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>453</v>
-      </c>
-      <c r="B84" s="15"/>
-      <c r="H84" s="28"/>
+      <c r="H84" s="30"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
+      <c r="A85" s="26" t="s">
         <v>454</v>
       </c>
       <c r="B85" s="15"/>
-      <c r="H85" s="28"/>
+      <c r="H85" s="30"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
+      <c r="A86" s="26" t="s">
         <v>455</v>
       </c>
       <c r="B86" s="15"/>
-      <c r="H86" s="28"/>
+      <c r="H86" s="30"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
+      <c r="A87" s="26" t="s">
         <v>456</v>
       </c>
       <c r="B87" s="15"/>
-      <c r="H87" s="28"/>
+      <c r="H87" s="30"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
+      <c r="A88" s="26" t="s">
         <v>457</v>
       </c>
       <c r="B88" s="15"/>
-      <c r="H88" s="28"/>
+      <c r="H88" s="30"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
+      <c r="A89" s="26" t="s">
         <v>458</v>
       </c>
       <c r="B89" s="15"/>
-      <c r="H89" s="28"/>
+      <c r="H89" s="30"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
+      <c r="A90" s="26" t="s">
         <v>459</v>
       </c>
       <c r="B90" s="15"/>
-      <c r="H90" s="28"/>
+      <c r="H90" s="30"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
+      <c r="A91" s="26" t="s">
         <v>460</v>
       </c>
       <c r="B91" s="15"/>
-    </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="23"/>
-    </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="21"/>
+      <c r="H91" s="30"/>
+    </row>
+    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="26" t="s">
+        <v>461</v>
+      </c>
+      <c r="B92" s="15"/>
+    </row>
+    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="31"/>
+    </row>
+    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6092,24 +6133,25 @@
     <hyperlink ref="A51" r:id="rId43" display="Docker 101"/>
     <hyperlink ref="A52" r:id="rId44" display="Microservices overview"/>
     <hyperlink ref="A53" r:id="rId45" display="https://developer.cisco.com/learning/lab/containers-intro-kubernetes/step/1"/>
-    <hyperlink ref="A56" r:id="rId46" display="Introduction to Meraki integrations"/>
-    <hyperlink ref="A57" r:id="rId47" display="Using the Meraki Dashboard API with postman"/>
-    <hyperlink ref="A58" r:id="rId48" display="Meraki location scanning API Python"/>
-    <hyperlink ref="A59" r:id="rId49" display="A hands-on introduction to the Cisco Container Platform v3.1"/>
-    <hyperlink ref="A60" r:id="rId50" display="Advanced Docker features"/>
-    <hyperlink ref="C60" r:id="rId51" display="https://developer.cisco.com/learning/lab/docker-201/step/3"/>
-    <hyperlink ref="A61" r:id="rId52" display="Building an IOx Application with Docker"/>
-    <hyperlink ref="A62" r:id="rId53" display="Introduction to Ansible"/>
-    <hyperlink ref="A63" r:id="rId54" display="Managing Cisco Compute with Ansible"/>
-    <hyperlink ref="A64" r:id="rId55" display="Microservices overview"/>
-    <hyperlink ref="A67" r:id="rId56" display="Get started with AppDynamics application monitoring&#10;https://developer.cisco.com/learning/tracks/app-dev/appdynamics-perf-mon/app-dynamics-101/step/1 "/>
-    <hyperlink ref="A68" r:id="rId57" display="Using Docker with AppDynamics&#10;https://developer.cisco.com/learning/tracks/app-dev/appdynamics-perf-mon/app-dynamics-docker/step/1"/>
-    <hyperlink ref="A70" r:id="rId58" display="Modern Application Development"/>
-    <hyperlink ref="A71" r:id="rId59" display="Operations On-Premises"/>
-    <hyperlink ref="A72" r:id="rId60" display="Operations in public Cloud"/>
-    <hyperlink ref="A73" r:id="rId61" display="Continuous Integration, Delivery and Deployment"/>
-    <hyperlink ref="A74" r:id="rId62" display="Service mesh with Istio"/>
-    <hyperlink ref="A76" r:id="rId63" display="https://blogs.cisco.com/sp/streaming-telemetry-with-google-protocol-buffers"/>
+    <hyperlink ref="A54" r:id="rId46" display="https://developer.cisco.com/learning/tracks/addo/cloud-native-development/CiscoContainerPlatform-101/step/1"/>
+    <hyperlink ref="A57" r:id="rId47" display="Introduction to Meraki integrations"/>
+    <hyperlink ref="A58" r:id="rId48" display="Using the Meraki Dashboard API with postman"/>
+    <hyperlink ref="A59" r:id="rId49" display="Meraki location scanning API Python"/>
+    <hyperlink ref="A60" r:id="rId50" display="A hands-on introduction to the Cisco Container Platform v3.1"/>
+    <hyperlink ref="A61" r:id="rId51" display="Advanced Docker features"/>
+    <hyperlink ref="C61" r:id="rId52" display="https://developer.cisco.com/learning/lab/docker-201/step/3"/>
+    <hyperlink ref="A62" r:id="rId53" display="Building an IOx Application with Docker"/>
+    <hyperlink ref="A63" r:id="rId54" display="Introduction to Ansible"/>
+    <hyperlink ref="A64" r:id="rId55" display="Managing Cisco Compute with Ansible"/>
+    <hyperlink ref="A65" r:id="rId56" display="Microservices overview"/>
+    <hyperlink ref="A67" r:id="rId57" display="Get started with AppDynamics application monitoring&#10;https://developer.cisco.com/learning/tracks/app-dev/appdynamics-perf-mon/app-dynamics-101/step/1 "/>
+    <hyperlink ref="A68" r:id="rId58" display="Using Docker with AppDynamics&#10;https://developer.cisco.com/learning/tracks/app-dev/appdynamics-perf-mon/app-dynamics-docker/step/1"/>
+    <hyperlink ref="A71" r:id="rId59" display="Modern Application Development"/>
+    <hyperlink ref="A72" r:id="rId60" display="Operations On-Premises"/>
+    <hyperlink ref="A73" r:id="rId61" display="Operations in public Cloud"/>
+    <hyperlink ref="A74" r:id="rId62" display="Continuous Integration, Delivery and Deployment"/>
+    <hyperlink ref="A75" r:id="rId63" display="Service mesh with Istio"/>
+    <hyperlink ref="A77" r:id="rId64" display="https://blogs.cisco.com/sp/streaming-telemetry-with-google-protocol-buffers"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -6132,7 +6174,7 @@
       <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6156,7 +6198,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.234375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="463">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1015,135 +1015,141 @@
     <t xml:space="preserve">https://developer.webex.com/docs/integrations</t>
   </si>
   <si>
+    <t xml:space="preserve">Webex Bots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.webex.com/docs/bots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main Meraki APIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/meraki/api/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/meraki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meraki Scanning API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/meraki/scanning-api/#!introduction/scanning-api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DNA Center REST API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/docs/dna-center/api/1-3-3-x/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UCS API and SDK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersight API</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://intersight.com/apidocs/introduction/overview/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intersight API python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/movinalot/intersight-python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YANG Tree Diagrams </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tools.ietf.org/html/rfc8340 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NX-OS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/CiscoDevNet/nxos-code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cisco Devnet Blog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://blogs.cisco.com/developer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Containers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://container.training/intro-fullday.yml.html#27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imapex docker training</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/imapex-training/mod_adv_docker/blob/master/README.md</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to DevNet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/learning/tracks/devnet-beginner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Programmability for Network Engineers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/learning/tracks/netprog-eng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network Programmability for Application Developers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/learning/tracks/netprog-appdev</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AllDayDevOps Track</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/learning/tracks/addo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jumpstart Your NetDevOps Journey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developer.cisco.com/learning/tracks/netdevops</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBM HA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ibm.com/garage/method/practices/manage/hadr-on-premises-app/overview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beyond ‘Punk Rock Git’ in Eleven Steps</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zwischenzugs.com/2018/05/14/beyond-punk-rock-git-in-eleven-steps/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An Introduction to OAuth 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.digitalocean.com/community/tutorials/an-introduction-to-oauth-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">oauth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OAuth 2.0 Authorization Framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://auth0.com/docs/protocols/oauth2</t>
+  </si>
+  <si>
     <t xml:space="preserve">Walkthrough of building an OAuth Webex integration</t>
   </si>
   <si>
     <t xml:space="preserve">https://developer.webex.com/blog/real-world-walkthrough-of-building-an-oauth-webex-integration</t>
   </si>
   <si>
-    <t xml:space="preserve">Webex Bots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.webex.com/docs/bots</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main Meraki APIs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.cisco.com/meraki/api/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.cisco.com/meraki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meraki Scanning API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.cisco.com/meraki/scanning-api/#!introduction/scanning-api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DNA Center REST API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.cisco.com/docs/dna-center/api/1-3-3-x/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UCS API and SDK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersight API</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://intersight.com/apidocs/introduction/overview/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intersight API python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/movinalot/intersight-python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">YANG Tree Diagrams </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tools.ietf.org/html/rfc8340 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udemy Devcor Questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">no</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fullstack networker Devcor Questions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NX-OS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/CiscoDevNet/nxos-code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cisco Devnet Blog</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://blogs.cisco.com/developer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction to Containers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://container.training/intro-fullday.yml.html#27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Imapex docker training</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://github.com/imapex-training/mod_adv_docker/blob/master/README.md</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction to DevNet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.cisco.com/learning/tracks/devnet-beginner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network Programmability for Network Engineers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.cisco.com/learning/tracks/netprog-eng</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Network Programmability for Application Developers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.cisco.com/learning/tracks/netprog-appdev</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AllDayDevOps Track</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.cisco.com/learning/tracks/addo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jumpstart Your NetDevOps Journey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://developer.cisco.com/learning/tracks/netdevops</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBM HA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ibm.com/garage/method/practices/manage/hadr-on-premises-app/overview</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://developer.cisco.com/certification/exam-topic-core/</t>
   </si>
   <si>
@@ -1220,9 +1226,6 @@
   </si>
   <si>
     <t xml:space="preserve">Understanding the OAuth Flow of a Webex Teams Integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">oauth</t>
   </si>
   <si>
     <t xml:space="preserve">Webex Teams Security and Access: Tokens, OAuth, Scopes, and Roles</t>
@@ -1522,14 +1525,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF8E86AE"/>
-        <bgColor rgb="FF808080"/>
+        <fgColor rgb="FFE16173"/>
+        <bgColor rgb="FFFF6600"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE16173"/>
-        <bgColor rgb="FFFF6600"/>
+        <fgColor rgb="FF8E86AE"/>
+        <bgColor rgb="FF808080"/>
       </patternFill>
     </fill>
   </fills>
@@ -1675,16 +1678,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1783,9 +1786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>152640</xdr:colOff>
+      <xdr:colOff>152280</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>22320</xdr:rowOff>
+      <xdr:rowOff>21960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1799,7 +1802,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6400800" cy="3395160"/>
+          <a:ext cx="6415920" cy="3394800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1820,9 +1823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>183240</xdr:colOff>
+      <xdr:colOff>182880</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>118440</xdr:rowOff>
+      <xdr:rowOff>118080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1836,7 +1839,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9555840" cy="4756320"/>
+          <a:ext cx="9578160" cy="4755960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1857,9 +1860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>590760</xdr:colOff>
+      <xdr:colOff>590400</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>167760</xdr:rowOff>
+      <xdr:rowOff>167400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1873,7 +1876,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7585920" cy="4205160"/>
+          <a:ext cx="7602480" cy="4204800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1894,9 +1897,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>598320</xdr:colOff>
+      <xdr:colOff>597960</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>107280</xdr:rowOff>
+      <xdr:rowOff>106920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1910,7 +1913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6800760" cy="3879000"/>
+          <a:ext cx="6815880" cy="3878640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1931,9 +1934,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>636480</xdr:colOff>
+      <xdr:colOff>636120</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>19080</xdr:rowOff>
+      <xdr:rowOff>18720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1947,7 +1950,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6819840" cy="4016880"/>
+          <a:ext cx="6834960" cy="4016520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1968,9 +1971,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>7920</xdr:colOff>
+      <xdr:colOff>7560</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1984,7 +1987,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6256080" cy="3951360"/>
+          <a:ext cx="6271200" cy="3951000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2005,9 +2008,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>624240</xdr:colOff>
+      <xdr:colOff>623880</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>198000</xdr:rowOff>
+      <xdr:rowOff>197640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2021,7 +2024,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13901760" cy="7155000"/>
+          <a:ext cx="13933800" cy="7154640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2042,9 +2045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>547920</xdr:colOff>
+      <xdr:colOff>547560</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>159840</xdr:rowOff>
+      <xdr:rowOff>159480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2058,7 +2061,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="20073960" cy="10489680"/>
+          <a:ext cx="20121120" cy="10489320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2084,9 +2087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>191880</xdr:colOff>
+      <xdr:colOff>191520</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>109440</xdr:rowOff>
+      <xdr:rowOff>109080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2100,7 +2103,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15812640" cy="7909920"/>
+          <a:ext cx="15850440" cy="7909560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2121,9 +2124,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>506520</xdr:colOff>
+      <xdr:colOff>506160</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>27720</xdr:rowOff>
+      <xdr:rowOff>27360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2137,7 +2140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="16127280" cy="8249400"/>
+          <a:ext cx="16165080" cy="8249040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2163,7 +2166,7 @@
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -2406,10 +2409,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2742,7 +2745,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2813,13 +2816,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B120" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E174" activeCellId="0" sqref="E174"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B130" activeCellId="0" sqref="B130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.16"/>
@@ -4995,32 +4998,30 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="23" t="s">
+      <c r="B145" s="23"/>
+      <c r="C145" s="23"/>
+      <c r="D145" s="21"/>
+      <c r="E145" s="24"/>
+      <c r="F145" s="23"/>
+    </row>
+    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="23" t="s">
         <v>331</v>
       </c>
-      <c r="C145" s="23"/>
-      <c r="D145" s="21" t="s">
+      <c r="C146" s="23"/>
+      <c r="D146" s="23" t="s">
         <v>332</v>
       </c>
-      <c r="E145" s="24"/>
-      <c r="F145" s="22" t="s">
+      <c r="E146" s="24"/>
+      <c r="F146" s="22" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="23"/>
-      <c r="C146" s="23"/>
-      <c r="D146" s="21"/>
-      <c r="E146" s="24"/>
-      <c r="F146" s="23"/>
-    </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="23" t="s">
+      <c r="B147" s="23"/>
+      <c r="C147" s="23"/>
+      <c r="D147" s="21" t="s">
         <v>333</v>
-      </c>
-      <c r="C147" s="23"/>
-      <c r="D147" s="23" t="s">
-        <v>334</v>
       </c>
       <c r="E147" s="24"/>
       <c r="F147" s="22" t="s">
@@ -5028,7 +5029,9 @@
       </c>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="23"/>
+      <c r="B148" s="23" t="s">
+        <v>334</v>
+      </c>
       <c r="C148" s="23"/>
       <c r="D148" s="21" t="s">
         <v>335</v>
@@ -5039,51 +5042,51 @@
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="23" t="s">
+      <c r="B149" s="23"/>
+      <c r="C149" s="23"/>
+      <c r="D149" s="21"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="23"/>
+    </row>
+    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="C149" s="23"/>
-      <c r="D149" s="21" t="s">
+      <c r="C150" s="23"/>
+      <c r="D150" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="E149" s="24"/>
-      <c r="F149" s="22" t="s">
+      <c r="E150" s="24"/>
+      <c r="F150" s="22" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="23"/>
-      <c r="C150" s="23"/>
-      <c r="D150" s="21"/>
-      <c r="E150" s="24"/>
-      <c r="F150" s="23"/>
-    </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="21" t="s">
+      <c r="B151" s="21"/>
+      <c r="C151" s="23"/>
+      <c r="D151" s="23"/>
+      <c r="E151" s="24"/>
+      <c r="F151" s="23"/>
+    </row>
+    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="23" t="s">
         <v>338</v>
       </c>
-      <c r="C151" s="23"/>
-      <c r="D151" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E151" s="24"/>
-      <c r="F151" s="22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="21"/>
       <c r="C152" s="23"/>
       <c r="D152" s="23"/>
       <c r="E152" s="24"/>
-      <c r="F152" s="23"/>
+      <c r="F152" s="22" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="23" t="s">
+        <v>339</v>
+      </c>
+      <c r="C153" s="23"/>
+      <c r="D153" s="21" t="s">
         <v>340</v>
       </c>
-      <c r="C153" s="23"/>
-      <c r="D153" s="23"/>
       <c r="E153" s="24"/>
       <c r="F153" s="22" t="s">
         <v>321</v>
@@ -5103,146 +5106,136 @@
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="23" t="s">
+      <c r="B155" s="23"/>
+      <c r="C155" s="23"/>
+      <c r="D155" s="21"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="23"/>
+    </row>
+    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="21" t="s">
         <v>343</v>
       </c>
-      <c r="C155" s="23"/>
-      <c r="D155" s="21" t="s">
+      <c r="C156" s="23"/>
+      <c r="D156" s="24" t="s">
         <v>344</v>
       </c>
-      <c r="E155" s="24"/>
-      <c r="F155" s="22" t="s">
+      <c r="E156" s="0"/>
+      <c r="F156" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="0" t="s">
+        <v>345</v>
+      </c>
+      <c r="D158" s="21" t="s">
+        <v>346</v>
+      </c>
+      <c r="F158" s="22" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="23"/>
-      <c r="C156" s="23"/>
-      <c r="D156" s="21"/>
-      <c r="E156" s="24"/>
-      <c r="F156" s="23"/>
-    </row>
-    <row r="157" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="21" t="s">
-        <v>345</v>
-      </c>
-      <c r="C157" s="23"/>
-      <c r="D157" s="24" t="s">
-        <v>346</v>
-      </c>
-      <c r="E157" s="0"/>
-      <c r="F157" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="0" t="s">
-        <v>347</v>
-      </c>
-      <c r="D159" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="F159" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
+    <row r="159" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="0" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D160" s="21" t="s">
-        <v>351</v>
-      </c>
-      <c r="F160" s="12" t="s">
-        <v>349</v>
+        <v>348</v>
+      </c>
+      <c r="F160" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="0" t="s">
+        <v>349</v>
+      </c>
+      <c r="D162" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="0" t="s">
+        <v>351</v>
+      </c>
+      <c r="D163" s="21" t="s">
         <v>352</v>
       </c>
-      <c r="D162" s="21" t="s">
+    </row>
+    <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="25" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="0" t="s">
+      <c r="D165" s="21" t="s">
         <v>354</v>
       </c>
-      <c r="D164" s="21" t="s">
+      <c r="F165" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="25" t="s">
         <v>355</v>
       </c>
-      <c r="F164" s="0" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="0" t="s">
+      <c r="D166" s="21" t="s">
         <v>356</v>
       </c>
-      <c r="D166" s="21" t="s">
+      <c r="F166" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="25" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="0" t="s">
+      <c r="D167" s="21" t="s">
         <v>358</v>
       </c>
-      <c r="D167" s="21" t="s">
+      <c r="F167" s="22" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="25" t="s">
         <v>359</v>
       </c>
+      <c r="D168" s="21" t="s">
+        <v>360</v>
+      </c>
+      <c r="F168" s="22" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="25" t="s">
-        <v>360</v>
+      <c r="B169" s="10" t="s">
+        <v>361</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F169" s="22" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="25" t="s">
-        <v>362</v>
-      </c>
-      <c r="D170" s="21" t="s">
+    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="0" t="s">
         <v>363</v>
       </c>
-      <c r="F170" s="22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="25" t="s">
+      <c r="D171" s="21" t="s">
         <v>364</v>
-      </c>
-      <c r="D171" s="21" t="s">
-        <v>365</v>
       </c>
       <c r="F171" s="22" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="25" t="s">
+    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="D173" s="21" t="s">
         <v>366</v>
-      </c>
-      <c r="D172" s="21" t="s">
-        <v>367</v>
-      </c>
-      <c r="F172" s="22" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="D173" s="21" t="s">
-        <v>369</v>
       </c>
       <c r="F173" s="22" t="s">
         <v>321</v>
@@ -5250,15 +5243,43 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="0" t="s">
+        <v>367</v>
+      </c>
+      <c r="D175" s="0" t="s">
+        <v>368</v>
+      </c>
+      <c r="F175" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="D175" s="21" t="s">
+      <c r="D176" s="0" t="s">
         <v>371</v>
       </c>
-      <c r="F175" s="22" t="s">
-        <v>321</v>
-      </c>
-    </row>
+      <c r="F176" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="23" t="s">
+        <v>372</v>
+      </c>
+      <c r="C177" s="23"/>
+      <c r="D177" s="21" t="s">
+        <v>373</v>
+      </c>
+      <c r="E177" s="24"/>
+      <c r="F177" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" location="/preassessment" display="Mastering Cisco DevNet SW Design/Net Auto"/>
@@ -5374,28 +5395,29 @@
     <hyperlink ref="D141" r:id="rId111" display="https://developer.webex.com/docs/api/v1/people "/>
     <hyperlink ref="D142" r:id="rId112" display="https://github.com/CiscoDevNet/webexteamssdk "/>
     <hyperlink ref="D143" r:id="rId113" display="https://developer.webex.com/docs/integrations"/>
-    <hyperlink ref="D144" r:id="rId114" display="https://developer.webex.com/blog/real-world-walkthrough-of-building-an-oauth-webex-integration"/>
-    <hyperlink ref="D145" r:id="rId115" display="https://developer.webex.com/docs/bots"/>
-    <hyperlink ref="D147" r:id="rId116" display="https://developer.cisco.com/meraki/api/"/>
-    <hyperlink ref="D148" r:id="rId117" display="https://developer.cisco.com/meraki"/>
-    <hyperlink ref="D149" r:id="rId118" location="!introduction/scanning-api" display="https://developer.cisco.com/meraki/scanning-api/#!introduction/scanning-api"/>
-    <hyperlink ref="B151" r:id="rId119" display="DNA Center REST API"/>
-    <hyperlink ref="D151" r:id="rId120" display="https://developer.cisco.com/docs/dna-center/api/1-3-3-x/"/>
-    <hyperlink ref="D154" r:id="rId121" display="https://intersight.com/apidocs/introduction/overview/"/>
-    <hyperlink ref="D155" r:id="rId122" display="https://github.com/movinalot/intersight-python"/>
-    <hyperlink ref="D157" r:id="rId123" display="https://tools.ietf.org/html/rfc8340 "/>
-    <hyperlink ref="D159" r:id="rId124" display="https://www.udemy.com/course/devcor-cisco-devnet-specialist-professional-practice-test/"/>
-    <hyperlink ref="D160" r:id="rId125" display="https://www.fullstacknetworker.com/courses/developing-applications-using-cisco-core-platforms-and-apis-devcor-350-901-v1-0-practice-exam/"/>
-    <hyperlink ref="D162" r:id="rId126" display="https://github.com/CiscoDevNet/nxos-code"/>
-    <hyperlink ref="D164" r:id="rId127" display="https://blogs.cisco.com/developer"/>
-    <hyperlink ref="D166" r:id="rId128" location="27" display="https://container.training/intro-fullday.yml.html#27"/>
-    <hyperlink ref="D167" r:id="rId129" display="https://github.com/imapex-training/mod_adv_docker/blob/master/README.md"/>
-    <hyperlink ref="D169" r:id="rId130" display="https://developer.cisco.com/learning/tracks/devnet-beginner"/>
-    <hyperlink ref="D170" r:id="rId131" display="https://developer.cisco.com/learning/tracks/netprog-eng"/>
-    <hyperlink ref="D171" r:id="rId132" display="https://developer.cisco.com/learning/tracks/netprog-appdev"/>
-    <hyperlink ref="D172" r:id="rId133" display="https://developer.cisco.com/learning/tracks/addo"/>
-    <hyperlink ref="D173" r:id="rId134" display="https://developer.cisco.com/learning/tracks/netdevops"/>
-    <hyperlink ref="D175" r:id="rId135" display="https://www.ibm.com/garage/method/practices/manage/hadr-on-premises-app/overview"/>
+    <hyperlink ref="D144" r:id="rId114" display="https://developer.webex.com/docs/bots"/>
+    <hyperlink ref="D146" r:id="rId115" display="https://developer.cisco.com/meraki/api/"/>
+    <hyperlink ref="D147" r:id="rId116" display="https://developer.cisco.com/meraki"/>
+    <hyperlink ref="D148" r:id="rId117" location="!introduction/scanning-api" display="https://developer.cisco.com/meraki/scanning-api/#!introduction/scanning-api"/>
+    <hyperlink ref="B150" r:id="rId118" display="DNA Center REST API"/>
+    <hyperlink ref="D150" r:id="rId119" display="https://developer.cisco.com/docs/dna-center/api/1-3-3-x/"/>
+    <hyperlink ref="D153" r:id="rId120" display="https://intersight.com/apidocs/introduction/overview/"/>
+    <hyperlink ref="D154" r:id="rId121" display="https://github.com/movinalot/intersight-python"/>
+    <hyperlink ref="D156" r:id="rId122" display="https://tools.ietf.org/html/rfc8340 "/>
+    <hyperlink ref="D158" r:id="rId123" display="https://github.com/CiscoDevNet/nxos-code"/>
+    <hyperlink ref="D160" r:id="rId124" display="https://blogs.cisco.com/developer"/>
+    <hyperlink ref="D162" r:id="rId125" location="27" display="https://container.training/intro-fullday.yml.html#27"/>
+    <hyperlink ref="D163" r:id="rId126" display="https://github.com/imapex-training/mod_adv_docker/blob/master/README.md"/>
+    <hyperlink ref="D165" r:id="rId127" display="https://developer.cisco.com/learning/tracks/devnet-beginner"/>
+    <hyperlink ref="D166" r:id="rId128" display="https://developer.cisco.com/learning/tracks/netprog-eng"/>
+    <hyperlink ref="D167" r:id="rId129" display="https://developer.cisco.com/learning/tracks/netprog-appdev"/>
+    <hyperlink ref="D168" r:id="rId130" display="https://developer.cisco.com/learning/tracks/addo"/>
+    <hyperlink ref="D169" r:id="rId131" display="https://developer.cisco.com/learning/tracks/netdevops"/>
+    <hyperlink ref="D171" r:id="rId132" display="https://www.ibm.com/garage/method/practices/manage/hadr-on-premises-app/overview"/>
+    <hyperlink ref="D173" r:id="rId133" display="https://zwischenzugs.com/2018/05/14/beyond-punk-rock-git-in-eleven-steps/"/>
+    <hyperlink ref="D175" r:id="rId134" display="https://www.digitalocean.com/community/tutorials/an-introduction-to-oauth-2"/>
+    <hyperlink ref="D176" r:id="rId135" display="https://auth0.com/docs/protocols/oauth2"/>
+    <hyperlink ref="D177" r:id="rId136" display="https://developer.webex.com/blog/real-world-walkthrough-of-building-an-oauth-webex-integration"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -5414,548 +5436,548 @@
   </sheetPr>
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A41" activeCellId="0" sqref="A41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="26" width="93.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="93.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="36.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
-        <v>372</v>
+      <c r="A1" s="28" t="s">
+        <v>374</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="27" t="s">
-        <v>374</v>
+      <c r="A3" s="28" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="27" t="s">
-        <v>375</v>
+      <c r="A4" s="28" t="s">
+        <v>377</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="27" t="s">
-        <v>376</v>
+      <c r="A5" s="28" t="s">
+        <v>378</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="27" t="s">
-        <v>377</v>
+      <c r="A6" s="28" t="s">
+        <v>379</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="27" t="s">
-        <v>378</v>
+      <c r="A7" s="28" t="s">
+        <v>380</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="27" t="s">
-        <v>379</v>
-      </c>
-      <c r="B8" s="28" t="s">
-        <v>380</v>
+      <c r="A8" s="28" t="s">
+        <v>381</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="27" t="s">
-        <v>381</v>
+      <c r="A9" s="28" t="s">
+        <v>383</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="28" t="s">
+        <v>385</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="28" t="s">
+        <v>387</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="28" t="s">
+        <v>392</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="28" t="s">
+        <v>393</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="B13" s="15" t="s">
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="28" t="s">
+        <v>395</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28" t="s">
+        <v>397</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="B24" s="26" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="28" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="28" t="s">
+        <v>402</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="28" t="s">
+        <v>406</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="28" t="s">
+        <v>407</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="28" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="27" t="s">
+      <c r="B34" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="28" t="s">
+        <v>409</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="28" t="s">
+        <v>411</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="28" t="s">
+        <v>412</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="28" t="s">
+        <v>413</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="28" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="28" t="s">
+        <v>415</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="28" t="s">
+        <v>417</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="28" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="28" t="s">
+        <v>424</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="28" t="s">
+        <v>425</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="28" t="s">
+        <v>427</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="28" t="s">
+        <v>429</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="C54" s="21" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="28" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="B60" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B15" s="15" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="27" t="s">
-        <v>390</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27" t="s">
-        <v>392</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="27" t="s">
-        <v>394</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="27" t="s">
+    </row>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="28" t="s">
+        <v>436</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="28" t="s">
+        <v>440</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="28" t="s">
+        <v>442</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="28"/>
+      <c r="B66" s="4"/>
+    </row>
+    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="B67" s="15"/>
+    </row>
+    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="B68" s="15"/>
+    </row>
+    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="28"/>
+    </row>
+    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="28"/>
+    </row>
+    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="28" t="s">
         <v>397</v>
       </c>
-      <c r="B23" s="29" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="27" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="27" t="s">
-        <v>406</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="27" t="s">
-        <v>384</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="27" t="s">
-        <v>408</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="27" t="s">
-        <v>410</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="s">
-        <v>412</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="27" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="27" t="s">
-        <v>414</v>
-      </c>
-      <c r="B41" s="15" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="27" t="s">
-        <v>415</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="27" t="s">
-        <v>416</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="27" t="s">
-        <v>418</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="27" t="s">
-        <v>420</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="27" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="27" t="s">
-        <v>424</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="27" t="s">
-        <v>426</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="27" t="s">
-        <v>428</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="27" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="B60" s="15" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="27" t="s">
-        <v>435</v>
-      </c>
-      <c r="B61" s="15" t="s">
-        <v>436</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="B62" s="15" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="27" t="s">
-        <v>441</v>
-      </c>
-      <c r="B64" s="15" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="27"/>
-      <c r="B66" s="4"/>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="27" t="s">
-        <v>442</v>
-      </c>
-      <c r="B67" s="15"/>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="27" t="s">
-        <v>443</v>
-      </c>
-      <c r="B68" s="15"/>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="27"/>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="27"/>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="27" t="s">
-        <v>395</v>
-      </c>
       <c r="B71" s="12" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="27" t="s">
-        <v>444</v>
+      <c r="A72" s="28" t="s">
+        <v>445</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="27" t="s">
-        <v>445</v>
+      <c r="A73" s="28" t="s">
+        <v>446</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="27" t="s">
-        <v>446</v>
+      <c r="A74" s="28" t="s">
+        <v>447</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="27" t="s">
-        <v>447</v>
+      <c r="A75" s="28" t="s">
+        <v>448</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>194</v>
@@ -5963,26 +5985,26 @@
       <c r="H75" s="30"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="27"/>
+      <c r="A76" s="28"/>
       <c r="H76" s="30"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="27" t="s">
-        <v>448</v>
+      <c r="A77" s="28" t="s">
+        <v>449</v>
       </c>
       <c r="B77" s="15"/>
       <c r="H77" s="30"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="27"/>
+      <c r="A78" s="28"/>
       <c r="H78" s="30"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="H79" s="30"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="26" t="s">
-        <v>449</v>
+      <c r="A80" s="27" t="s">
+        <v>450</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>28</v>
@@ -5990,8 +6012,8 @@
       <c r="H80" s="30"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="26" t="s">
-        <v>450</v>
+      <c r="A81" s="27" t="s">
+        <v>451</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>28</v>
@@ -5999,8 +6021,8 @@
       <c r="H81" s="30"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="26" t="s">
-        <v>451</v>
+      <c r="A82" s="27" t="s">
+        <v>452</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>28</v>
@@ -6008,8 +6030,8 @@
       <c r="H82" s="30"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="26" t="s">
-        <v>452</v>
+      <c r="A83" s="27" t="s">
+        <v>453</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>28</v>
@@ -6017,66 +6039,66 @@
       <c r="H83" s="30"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="26" t="s">
-        <v>453</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>380</v>
+      <c r="A84" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="B84" s="29" t="s">
+        <v>382</v>
       </c>
       <c r="H84" s="30"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="26" t="s">
-        <v>454</v>
+      <c r="A85" s="27" t="s">
+        <v>455</v>
       </c>
       <c r="B85" s="15"/>
       <c r="H85" s="30"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="26" t="s">
-        <v>455</v>
+      <c r="A86" s="27" t="s">
+        <v>456</v>
       </c>
       <c r="B86" s="15"/>
       <c r="H86" s="30"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="26" t="s">
-        <v>456</v>
+      <c r="A87" s="27" t="s">
+        <v>457</v>
       </c>
       <c r="B87" s="15"/>
       <c r="H87" s="30"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="26" t="s">
-        <v>457</v>
+      <c r="A88" s="27" t="s">
+        <v>458</v>
       </c>
       <c r="B88" s="15"/>
       <c r="H88" s="30"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="26" t="s">
-        <v>458</v>
+      <c r="A89" s="27" t="s">
+        <v>459</v>
       </c>
       <c r="B89" s="15"/>
       <c r="H89" s="30"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="26" t="s">
-        <v>459</v>
+      <c r="A90" s="27" t="s">
+        <v>460</v>
       </c>
       <c r="B90" s="15"/>
       <c r="H90" s="30"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="26" t="s">
-        <v>460</v>
+      <c r="A91" s="27" t="s">
+        <v>461</v>
       </c>
       <c r="B91" s="15"/>
       <c r="H91" s="30"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="26" t="s">
-        <v>461</v>
+      <c r="A92" s="27" t="s">
+        <v>462</v>
       </c>
       <c r="B92" s="15"/>
     </row>
@@ -6084,7 +6106,7 @@
       <c r="A96" s="31"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="27"/>
+      <c r="A102" s="28"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6133,7 +6155,7 @@
     <hyperlink ref="A51" r:id="rId43" display="Docker 101"/>
     <hyperlink ref="A52" r:id="rId44" display="Microservices overview"/>
     <hyperlink ref="A53" r:id="rId45" display="https://developer.cisco.com/learning/lab/containers-intro-kubernetes/step/1"/>
-    <hyperlink ref="A54" r:id="rId46" display="https://developer.cisco.com/learning/tracks/addo/cloud-native-development/CiscoContainerPlatform-101/step/1"/>
+    <hyperlink ref="A54" r:id="rId46" display="https://developer.cisco.com/learning/tracks/addo/cloud-native-development/CiscoContainerPlatform-101/step/1 "/>
     <hyperlink ref="A57" r:id="rId47" display="Introduction to Meraki integrations"/>
     <hyperlink ref="A58" r:id="rId48" display="Using the Meraki Dashboard API with postman"/>
     <hyperlink ref="A59" r:id="rId49" display="Meraki location scanning API Python"/>
@@ -6170,11 +6192,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6198,7 +6220,7 @@
       <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.25" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="463">
   <si>
     <t xml:space="preserve">Important notes</t>
   </si>
@@ -1786,9 +1786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>152280</xdr:colOff>
+      <xdr:colOff>151920</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>21960</xdr:rowOff>
+      <xdr:rowOff>21600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1802,7 +1802,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6415920" cy="3394800"/>
+          <a:ext cx="6425640" cy="3394440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1823,9 +1823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
+      <xdr:colOff>182520</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>118080</xdr:rowOff>
+      <xdr:rowOff>117720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1839,7 +1839,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9578160" cy="4755960"/>
+          <a:ext cx="9592920" cy="4755600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1860,9 +1860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>590400</xdr:colOff>
+      <xdr:colOff>590040</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>167400</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1876,7 +1876,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7602480" cy="4204800"/>
+          <a:ext cx="7613640" cy="4204440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1897,9 +1897,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>597960</xdr:colOff>
+      <xdr:colOff>597600</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>106920</xdr:rowOff>
+      <xdr:rowOff>106560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1913,7 +1913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6815880" cy="3878640"/>
+          <a:ext cx="6825600" cy="3878280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1934,9 +1934,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>636120</xdr:colOff>
+      <xdr:colOff>635760</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>18720</xdr:rowOff>
+      <xdr:rowOff>18360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1950,7 +1950,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6834960" cy="4016520"/>
+          <a:ext cx="6844680" cy="4016160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1971,9 +1971,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>7560</xdr:colOff>
+      <xdr:colOff>7200</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
+      <xdr:rowOff>155880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1987,7 +1987,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6271200" cy="3951000"/>
+          <a:ext cx="6280920" cy="3950640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2008,9 +2008,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>623880</xdr:colOff>
+      <xdr:colOff>623520</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>197640</xdr:rowOff>
+      <xdr:rowOff>197280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2024,7 +2024,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13933800" cy="7154640"/>
+          <a:ext cx="13955040" cy="7154280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2045,9 +2045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>547560</xdr:colOff>
+      <xdr:colOff>547200</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>159480</xdr:rowOff>
+      <xdr:rowOff>159120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2061,7 +2061,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="20121120" cy="10489320"/>
+          <a:ext cx="20152800" cy="10488960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2087,9 +2087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>191520</xdr:colOff>
+      <xdr:colOff>191160</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>109080</xdr:rowOff>
+      <xdr:rowOff>108720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2103,7 +2103,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15850440" cy="7909560"/>
+          <a:ext cx="15875640" cy="7909200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2124,9 +2124,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>506160</xdr:colOff>
+      <xdr:colOff>505800</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>27360</xdr:rowOff>
+      <xdr:rowOff>27000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2140,7 +2140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="16165080" cy="8249040"/>
+          <a:ext cx="16190280" cy="8248680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2163,10 +2163,10 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="F113 A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.75390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -2409,10 +2409,10 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="F113 D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.75390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2742,10 +2742,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F113 A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.75390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2819,10 +2819,10 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B130" activeCellId="0" sqref="B130"/>
+      <selection pane="topLeft" activeCell="F113" activeCellId="0" sqref="F113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.73046875" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.75390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.16"/>
@@ -4574,7 +4574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="16.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="0" t="s">
         <v>272</v>
       </c>
@@ -4587,7 +4587,9 @@
       <c r="E113" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F113" s="15"/>
+      <c r="F113" s="12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="5" t="s">
@@ -5437,10 +5439,10 @@
   <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="0" sqref="A24"/>
+      <selection pane="topLeft" activeCell="A24" activeCellId="1" sqref="F113 A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="93.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.06"/>
@@ -6193,10 +6195,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
+      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="F113 A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6217,10 +6219,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
+      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="F113 Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2734375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -1174,46 +1174,46 @@
     <t xml:space="preserve">A brief introduction to Git</t>
   </si>
   <si>
+    <t xml:space="preserve">Intro to Python Part 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intro to Python Part 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding 202: Parsing JSON using Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to XML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to the Guest Shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest / container</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chat-Ops with Webex Teams and Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Firepower Management Center (FMC) REST API token-based authentication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">firepower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exploring the 'webexteamssdk' Webex Teams Python Library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git 100: Basics of the git version control system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git 101: Branching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Git 102: Using git with servers</t>
+  </si>
+  <si>
     <t xml:space="preserve">git</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intro to Python Part 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Intro to Python Part 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding 202: Parsing JSON using Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction to XML</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Introduction to the Guest Shell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest / container</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chat-Ops with Webex Teams and Python</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firepower Management Center (FMC) REST API token-based authentication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">firepower</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exploring the 'webexteamssdk' Webex Teams Python Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Git 100: Basics of the git version control system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Git 101: Branching</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Git 102: Using git with servers</t>
   </si>
   <si>
     <t xml:space="preserve">Introduction to Webex Teams Apps</t>
@@ -1786,9 +1786,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>151920</xdr:colOff>
+      <xdr:colOff>151560</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>21600</xdr:rowOff>
+      <xdr:rowOff>21240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1802,7 +1802,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="6425640" cy="3394440"/>
+          <a:ext cx="6440400" cy="3394080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1823,9 +1823,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>182520</xdr:colOff>
+      <xdr:colOff>182160</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>117720</xdr:rowOff>
+      <xdr:rowOff>117360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1839,7 +1839,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="3583800"/>
-          <a:ext cx="9592920" cy="4755600"/>
+          <a:ext cx="9615600" cy="4755240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1860,9 +1860,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>590040</xdr:colOff>
+      <xdr:colOff>589680</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>167040</xdr:rowOff>
+      <xdr:rowOff>166680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1876,7 +1876,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="34200" y="12827880"/>
-          <a:ext cx="7613640" cy="4204440"/>
+          <a:ext cx="7630560" cy="4204080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1897,9 +1897,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>597600</xdr:colOff>
+      <xdr:colOff>597240</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>106560</xdr:rowOff>
+      <xdr:rowOff>106200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1913,7 +1913,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="45720" y="8455680"/>
-          <a:ext cx="6825600" cy="3878280"/>
+          <a:ext cx="6840360" cy="3877920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1934,9 +1934,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>635760</xdr:colOff>
+      <xdr:colOff>635400</xdr:colOff>
       <xdr:row>103</xdr:row>
-      <xdr:rowOff>18360</xdr:rowOff>
+      <xdr:rowOff>18000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1950,7 +1950,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="64800" y="17716320"/>
-          <a:ext cx="6844680" cy="4016160"/>
+          <a:ext cx="6859440" cy="4015800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1971,9 +1971,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>7200</xdr:colOff>
+      <xdr:colOff>6840</xdr:colOff>
       <xdr:row>124</xdr:row>
-      <xdr:rowOff>155880</xdr:rowOff>
+      <xdr:rowOff>155520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1987,7 +1987,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="22346640"/>
-          <a:ext cx="6280920" cy="3950640"/>
+          <a:ext cx="6295680" cy="3950280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2008,9 +2008,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>623520</xdr:colOff>
+      <xdr:colOff>623160</xdr:colOff>
       <xdr:row>160</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>196920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2024,7 +2024,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="26773920"/>
-          <a:ext cx="13955040" cy="7154280"/>
+          <a:ext cx="13987080" cy="7153920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2045,9 +2045,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>547200</xdr:colOff>
+      <xdr:colOff>546840</xdr:colOff>
       <xdr:row>211</xdr:row>
-      <xdr:rowOff>159120</xdr:rowOff>
+      <xdr:rowOff>158760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2061,7 +2061,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="34152840"/>
-          <a:ext cx="20152800" cy="10488960"/>
+          <a:ext cx="20199960" cy="10488600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2087,9 +2087,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>191160</xdr:colOff>
+      <xdr:colOff>190800</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>108720</xdr:rowOff>
+      <xdr:rowOff>108360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2103,7 +2103,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="210600"/>
-          <a:ext cx="15875640" cy="7909200"/>
+          <a:ext cx="15913080" cy="7908840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2124,9 +2124,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>505800</xdr:colOff>
+      <xdr:colOff>505440</xdr:colOff>
       <xdr:row>80</xdr:row>
-      <xdr:rowOff>27000</xdr:rowOff>
+      <xdr:rowOff>26640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2140,7 +2140,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="8643600"/>
-          <a:ext cx="16190280" cy="8248680"/>
+          <a:ext cx="16227720" cy="8248320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2162,11 +2162,11 @@
   </sheetPr>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="F113 A19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.75390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.65"/>
@@ -2408,11 +2408,11 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="F113 D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.75390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="6.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="34.19"/>
@@ -2741,11 +2741,11 @@
   </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="F113 A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.75390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="51.34"/>
@@ -2818,11 +2818,11 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F113" activeCellId="0" sqref="F113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.75390625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="47.16"/>
@@ -5438,11 +5438,11 @@
   </sheetPr>
   <dimension ref="A1:H102"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A64" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A24" activeCellId="1" sqref="F113 A24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B19" activeCellId="0" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.8671875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="93.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.06"/>
@@ -5498,13 +5498,13 @@
       <c r="A8" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="B8" s="29" t="s">
-        <v>382</v>
+      <c r="B8" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="28" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>28</v>
@@ -5512,7 +5512,7 @@
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="28" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>28</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="28" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>28</v>
@@ -5528,7 +5528,7 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>28</v>
@@ -5536,15 +5536,15 @@
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="28" t="s">
+        <v>386</v>
+      </c>
+      <c r="B13" s="15" t="s">
         <v>387</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="28" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>28</v>
@@ -5552,15 +5552,15 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>390</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="28" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>28</v>
@@ -5568,26 +5568,26 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="28" t="s">
-        <v>393</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>382</v>
+        <v>392</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="28" t="s">
-        <v>394</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>382</v>
+        <v>393</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="28" t="s">
+        <v>394</v>
+      </c>
+      <c r="B19" s="29" t="s">
         <v>395</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5696,7 +5696,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="28" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B34" s="12" t="s">
         <v>28</v>
@@ -5744,7 +5744,7 @@
         <v>415</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5877,7 +5877,7 @@
         <v>435</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5896,7 +5896,7 @@
         <v>439</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6045,7 +6045,7 @@
         <v>454</v>
       </c>
       <c r="B84" s="29" t="s">
-        <v>382</v>
+        <v>395</v>
       </c>
       <c r="H84" s="30"/>
     </row>
@@ -6194,11 +6194,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="F113 A163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.30859375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -6218,11 +6218,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="F113 Z19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.2890625" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.30859375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/devcor_studyplan.xlsx
+++ b/devcor_studyplan.xlsx
@@ -1213,9 +1213,6 @@
     <t xml:space="preserve">Git 102: Using git with servers</t>
   </si>
   <si>
-    <t xml:space="preserve">git</t>
-  </si>
-  <si>
     <t xml:space="preserve">Introduction to Webex Teams Apps</t>
   </si>
   <si>
@@ -1393,6 +1390,9 @@
   </si>
   <si>
     <t xml:space="preserve">Resolve Merge Conflicts with Git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">git</t>
   </si>
   <si>
     <t xml:space="preserve">Diagnose CI/CD Pipeline Failures</t>
@@ -1690,11 +1690,11 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2163,7 +2163,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="B19 A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2409,7 +2409,7 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+      <selection pane="topLeft" activeCell="D23" activeCellId="1" sqref="B19 D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2742,7 +2742,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="B19 A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2819,7 +2819,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F113" activeCellId="0" sqref="F113"/>
+      <selection pane="topLeft" activeCell="F113" activeCellId="1" sqref="B19 F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.77734375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5586,13 +5586,13 @@
       <c r="A19" s="28" t="s">
         <v>394</v>
       </c>
-      <c r="B19" s="29" t="s">
-        <v>395</v>
+      <c r="B19" s="12" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="28" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>28</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>28</v>
@@ -5608,18 +5608,18 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="28" t="s">
+        <v>396</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="0" t="s">
         <v>397</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>369</v>
@@ -5627,7 +5627,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="28" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>369</v>
@@ -5635,12 +5635,12 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="28" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="28" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>28</v>
@@ -5648,7 +5648,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="28" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>28</v>
@@ -5656,7 +5656,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="28" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>28</v>
@@ -5664,7 +5664,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="28" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B30" s="12" t="s">
         <v>28</v>
@@ -5672,7 +5672,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="28" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>28</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="28" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>28</v>
@@ -5688,7 +5688,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B33" s="12" t="s">
         <v>28</v>
@@ -5704,15 +5704,15 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="28" t="s">
+        <v>408</v>
+      </c>
+      <c r="B35" s="15" t="s">
         <v>409</v>
-      </c>
-      <c r="B35" s="15" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="28" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>28</v>
@@ -5720,7 +5720,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="28" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B37" s="12" t="s">
         <v>28</v>
@@ -5728,7 +5728,7 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="28" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>28</v>
@@ -5736,12 +5736,12 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="28" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="28" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B41" s="15" t="s">
         <v>390</v>
@@ -5749,7 +5749,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="28" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>28</v>
@@ -5757,31 +5757,31 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="28" t="s">
+        <v>416</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>417</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="28" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="28" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>28</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="28" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>28</v>
@@ -5797,12 +5797,12 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="28" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="28" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>28</v>
@@ -5810,7 +5810,7 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>28</v>
@@ -5818,7 +5818,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>28</v>
@@ -5826,31 +5826,31 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="28" t="s">
+        <v>426</v>
+      </c>
+      <c r="B53" s="14" t="s">
         <v>427</v>
-      </c>
-      <c r="B53" s="14" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="28" t="s">
+        <v>428</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>427</v>
+      </c>
+      <c r="C54" s="21" t="s">
         <v>429</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="C54" s="21" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="28" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="28" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>28</v>
@@ -5858,7 +5858,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="28" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>28</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>28</v>
@@ -5874,7 +5874,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="28" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B60" s="15" t="s">
         <v>387</v>
@@ -5882,18 +5882,18 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="28" t="s">
+        <v>435</v>
+      </c>
+      <c r="B61" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="C61" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="C61" s="21" t="s">
-        <v>438</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="28" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B62" s="15" t="s">
         <v>387</v>
@@ -5901,23 +5901,23 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="28" t="s">
+        <v>439</v>
+      </c>
+      <c r="B63" s="15" t="s">
         <v>440</v>
-      </c>
-      <c r="B63" s="15" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="28" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="28" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>28</v>
@@ -5929,13 +5929,13 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="28" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B67" s="15"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="28" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B68" s="15"/>
     </row>
@@ -5947,7 +5947,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>28</v>
@@ -5955,7 +5955,7 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="28" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>194</v>
@@ -5963,7 +5963,7 @@
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="28" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>194</v>
@@ -5971,7 +5971,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="28" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>194</v>
@@ -5979,124 +5979,124 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="28" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="H75" s="30"/>
+      <c r="H75" s="29"/>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="28"/>
-      <c r="H76" s="30"/>
+      <c r="H76" s="29"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="28" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B77" s="15"/>
-      <c r="H77" s="30"/>
+      <c r="H77" s="29"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="28"/>
-      <c r="H78" s="30"/>
+      <c r="H78" s="29"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H79" s="30"/>
+      <c r="H79" s="29"/>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="27" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H80" s="30"/>
+      <c r="H80" s="29"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="27" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H81" s="30"/>
+      <c r="H81" s="29"/>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="27" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H82" s="30"/>
+      <c r="H82" s="29"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="27" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B83" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H83" s="30"/>
+      <c r="H83" s="29"/>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="27" t="s">
+        <v>453</v>
+      </c>
+      <c r="B84" s="30" t="s">
         <v>454</v>
       </c>
-      <c r="B84" s="29" t="s">
-        <v>395</v>
-      </c>
-      <c r="H84" s="30"/>
+      <c r="H84" s="29"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="27" t="s">
         <v>455</v>
       </c>
       <c r="B85" s="15"/>
-      <c r="H85" s="30"/>
+      <c r="H85" s="29"/>
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="27" t="s">
         <v>456</v>
       </c>
       <c r="B86" s="15"/>
-      <c r="H86" s="30"/>
+      <c r="H86" s="29"/>
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="27" t="s">
         <v>457</v>
       </c>
       <c r="B87" s="15"/>
-      <c r="H87" s="30"/>
+      <c r="H87" s="29"/>
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="27" t="s">
         <v>458</v>
       </c>
       <c r="B88" s="15"/>
-      <c r="H88" s="30"/>
+      <c r="H88" s="29"/>
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="27" t="s">
         <v>459</v>
       </c>
       <c r="B89" s="15"/>
-      <c r="H89" s="30"/>
+      <c r="H89" s="29"/>
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="27" t="s">
         <v>460</v>
       </c>
       <c r="B90" s="15"/>
-      <c r="H90" s="30"/>
+      <c r="H90" s="29"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="27" t="s">
         <v>461</v>
       </c>
       <c r="B91" s="15"/>
-      <c r="H91" s="30"/>
+      <c r="H91" s="29"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="27" t="s">
@@ -6195,7 +6195,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A163" activeCellId="0" sqref="A163"/>
+      <selection pane="topLeft" activeCell="A163" activeCellId="1" sqref="B19 A163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.30859375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6218,8 +6218,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Z19" activeCellId="0" sqref="Z19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Z19" activeCellId="1" sqref="B19 Z19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.30859375" defaultRowHeight="16.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
